--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D461F04-DF67-4163-A029-0A24E3DFF1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09328EC-56DD-4342-A619-F0BBBC4AF40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
+    <workbookView xWindow="5130" yWindow="345" windowWidth="20505" windowHeight="13845" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -265,7 +265,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CAB345-9A71-4A10-9FCC-8B1DB985BF5A}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,11 +778,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C351E4BD-0CCB-4B4B-8440-0A8537A331C4}">
   <dimension ref="A1:FN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1026,7 @@
       <c r="S5" s="2">
         <v>15697</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="2">
         <f>SUM(J5:M5)</f>
         <v>16054.632867839999</v>
       </c>
@@ -1101,7 +1100,7 @@
       <c r="S6" s="2">
         <v>1442</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="2">
         <f>SUM(J6:M6)</f>
         <v>1743.2350924799998</v>
       </c>
@@ -1175,7 +1174,7 @@
       <c r="S7" s="2">
         <v>1768</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="2">
         <f>SUM(J7:M7)</f>
         <v>1811.5184947199998</v>
       </c>
@@ -1435,7 +1434,7 @@
       <c r="S10" s="2">
         <v>2001</v>
       </c>
-      <c r="T10" s="10">
+      <c r="T10" s="2">
         <f>SUM(J10:M10)</f>
         <v>2514.4358707199999</v>
       </c>
@@ -1509,7 +1508,7 @@
       <c r="S11" s="2">
         <v>2979</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="2">
         <f>SUM(J11:M11)</f>
         <v>3104.8864665599999</v>
       </c>
@@ -1583,7 +1582,7 @@
       <c r="S12" s="2">
         <v>2147</v>
       </c>
-      <c r="T12" s="10">
+      <c r="T12" s="2">
         <f>SUM(J12:M12)</f>
         <v>2385.9024076799997</v>
       </c>
@@ -1657,7 +1656,7 @@
       <c r="S13" s="2">
         <v>438</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T13" s="2">
         <f>SUM(J13:M13)</f>
         <v>200.83353600000001</v>
       </c>
@@ -1917,7 +1916,7 @@
       <c r="S16" s="2">
         <v>4</v>
       </c>
-      <c r="T16" s="10">
+      <c r="T16" s="2">
         <f>SUM(J16:M16)</f>
         <v>155.56737514757924</v>
       </c>
@@ -2084,7 +2083,7 @@
       <c r="S18" s="2">
         <v>1182</v>
       </c>
-      <c r="T18" s="10">
+      <c r="T18" s="2">
         <f>SUM(J18:M18)</f>
         <v>1304.0546753601916</v>
       </c>
@@ -2862,35 +2861,35 @@
         <v>7</v>
       </c>
       <c r="B21" s="5">
-        <f>B19/B20</f>
+        <f t="shared" ref="B21:I21" si="61">B19/B20</f>
         <v>0.70105820105820105</v>
       </c>
       <c r="C21" s="5">
-        <f>C19/C20</f>
+        <f t="shared" si="61"/>
         <v>0.92369838420107719</v>
       </c>
       <c r="D21" s="5">
-        <f>D19/D20</f>
+        <f t="shared" si="61"/>
         <v>0.92896174863387981</v>
       </c>
       <c r="E21" s="5">
-        <f>E19/E20</f>
+        <f t="shared" si="61"/>
         <v>1.2933579335793357</v>
       </c>
       <c r="F21" s="5">
-        <f>F19/F20</f>
+        <f t="shared" si="61"/>
         <v>0.82835820895522383</v>
       </c>
       <c r="G21" s="5">
-        <f>G19/G20</f>
+        <f t="shared" si="61"/>
         <v>1.0773638968481376</v>
       </c>
       <c r="H21" s="5">
-        <f>H19/H20</f>
+        <f t="shared" si="61"/>
         <v>0.986328125</v>
       </c>
       <c r="I21" s="5">
-        <f>I19/I20</f>
+        <f t="shared" si="61"/>
         <v>1.1055226824457594</v>
       </c>
       <c r="J21" s="5">
@@ -2901,11 +2900,11 @@
         <v>1.1453952863160322</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" ref="L21:M21" si="61">L19/L20</f>
+        <f t="shared" ref="L21:M21" si="62">L19/L20</f>
         <v>1.193334397699475</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.3130564390619213</v>
       </c>
       <c r="Q21" s="5">
@@ -2921,23 +2920,23 @@
         <v>3.991337824831569</v>
       </c>
       <c r="T21" s="5">
-        <f t="shared" ref="T21:X21" si="62">T19/T20</f>
+        <f t="shared" ref="T21:X21" si="63">T19/T20</f>
         <v>4.7631662640288228</v>
       </c>
       <c r="U21" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>5.4175153588605003</v>
       </c>
       <c r="V21" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>6.1781559235224126</v>
       </c>
       <c r="W21" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>7.0331171857878196</v>
       </c>
       <c r="X21" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>7.993336638498568</v>
       </c>
     </row>
@@ -2954,35 +2953,35 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7">
-        <f>F4/B4-1</f>
+        <f t="shared" ref="F23:M23" si="64">F4/B4-1</f>
         <v>9.3607954545454453E-2</v>
       </c>
       <c r="G23" s="7">
-        <f>G4/C4-1</f>
+        <f t="shared" si="64"/>
         <v>8.2063949499108002E-2</v>
       </c>
       <c r="H23" s="7">
-        <f>H4/D4-1</f>
+        <f t="shared" si="64"/>
         <v>5.7832299811269916E-2</v>
       </c>
       <c r="I23" s="7">
-        <f>I4/E4-1</f>
+        <f t="shared" si="64"/>
         <v>4.2362322452030865E-2</v>
       </c>
       <c r="J23" s="7">
-        <f>J4/F4-1</f>
+        <f t="shared" si="64"/>
         <v>4.3169242758799742E-2</v>
       </c>
       <c r="K23" s="7">
-        <f>K4/G4-1</f>
+        <f t="shared" si="64"/>
         <v>3.8933062777425365E-2</v>
       </c>
       <c r="L23" s="7">
-        <f>L4/H4-1</f>
+        <f t="shared" si="64"/>
         <v>6.4843499936281468E-2</v>
       </c>
       <c r="M23" s="7">
-        <f>M4/I4-1</f>
+        <f t="shared" si="64"/>
         <v>7.8686720000000099E-2</v>
       </c>
       <c r="N23" s="7"/>
@@ -2991,11 +2990,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="7" t="e">
-        <f t="shared" ref="P23:Q23" si="63">P4/O4-1</f>
+        <f t="shared" ref="P23:Q23" si="65">P4/O4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="7" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R23" s="7">
@@ -3007,23 +3006,23 @@
         <v>6.8052803063383793E-2</v>
       </c>
       <c r="T23" s="7">
-        <f t="shared" ref="T23:X23" si="64">T4/S4-1</f>
+        <f t="shared" ref="T23:X23" si="66">T4/S4-1</f>
         <v>5.6812505692990012E-2</v>
       </c>
       <c r="U23" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="V23" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="W23" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="X23" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -3032,47 +3031,47 @@
         <v>27</v>
       </c>
       <c r="C24" s="6">
-        <f>C4/B4-1</f>
+        <f t="shared" ref="C24:M24" si="67">C4/B4-1</f>
         <v>3.5085227272727337E-2</v>
       </c>
       <c r="D24" s="6">
-        <f>D4/C4-1</f>
+        <f t="shared" si="67"/>
         <v>1.7977219706326375E-2</v>
       </c>
       <c r="E24" s="6">
-        <f>E4/D4-1</f>
+        <f t="shared" si="67"/>
         <v>8.1962793205715867E-2</v>
       </c>
       <c r="F24" s="6">
-        <f>F4/E4-1</f>
+        <f t="shared" si="67"/>
         <v>-4.0742586593570884E-2</v>
       </c>
       <c r="G24" s="6">
-        <f>G4/F4-1</f>
+        <f t="shared" si="67"/>
         <v>2.4158981685933334E-2</v>
       </c>
       <c r="H24" s="6">
-        <f>H4/G4-1</f>
+        <f t="shared" si="67"/>
         <v>-4.8192771084337727E-3</v>
       </c>
       <c r="I24" s="6">
-        <f>I4/H4-1</f>
+        <f t="shared" si="67"/>
         <v>6.6139926086402401E-2</v>
       </c>
       <c r="J24" s="6">
-        <f>J4/I4-1</f>
+        <f t="shared" si="67"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="K24" s="6">
-        <f>K4/J4-1</f>
+        <f t="shared" si="67"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="L24" s="6">
-        <f>L4/K4-1</f>
+        <f t="shared" si="67"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="M24" s="6">
-        <f>M4/L4-1</f>
+        <f t="shared" si="67"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="Z24" s="2" t="s">
@@ -3091,31 +3090,31 @@
         <v>0.25977653631284914</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" ref="C25:M25" si="65">C18/C17</f>
+        <f t="shared" ref="C25:I25" si="68">C18/C17</f>
         <v>0.21028396009209516</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0.17808219178082191</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0.2180702732849972</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0.26550868486352358</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0.1937097927090779</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0.2295957284515637</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0.20496453900709219</v>
       </c>
       <c r="J25" s="6">
@@ -3131,27 +3130,27 @@
         <v>0.21</v>
       </c>
       <c r="O25" s="6" t="e">
-        <f>O18/O17</f>
+        <f t="shared" ref="O25:T25" si="69">O18/O17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P25" s="6" t="e">
-        <f>P18/P17</f>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="6">
-        <f>Q18/Q17</f>
+        <f t="shared" si="69"/>
         <v>0.28134284016636957</v>
       </c>
       <c r="R25" s="6">
-        <f>R18/R17</f>
+        <f t="shared" si="69"/>
         <v>0.21530216226205878</v>
       </c>
       <c r="S25" s="6">
-        <f>S18/S17</f>
+        <f t="shared" si="69"/>
         <v>0.22180521673860012</v>
       </c>
       <c r="T25" s="6">
-        <f>T18/T17</f>
+        <f t="shared" si="69"/>
         <v>0.21940522497405385</v>
       </c>
       <c r="U25" s="6">
@@ -3186,51 +3185,51 @@
         <v>28</v>
       </c>
       <c r="B27" s="7">
-        <f t="shared" ref="B27:M27" si="66">B9/B4</f>
+        <f t="shared" ref="B27:M27" si="70">B9/B4</f>
         <v>0.40156249999999999</v>
       </c>
       <c r="C27" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.39193083573487031</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.39026691830682125</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.39957637677547969</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.39057020392258734</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.40228281547241596</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.41123996431757359</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.41644752569925891</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.41644752569925886</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.41644752569925891</v>
       </c>
       <c r="L27" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.41644752569925897</v>
       </c>
       <c r="M27" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.41644752569925886</v>
       </c>
       <c r="O27" s="7" t="e">
@@ -3246,31 +3245,31 @@
         <v>0.42346827531070574</v>
       </c>
       <c r="R27" s="7">
-        <f t="shared" ref="R27:X27" si="67">R9/R4</f>
+        <f t="shared" ref="R27:X27" si="71">R9/R4</f>
         <v>0.39585502670383932</v>
       </c>
       <c r="S27" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0.40538415573796271</v>
       </c>
       <c r="T27" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0.41644752569925902</v>
       </c>
       <c r="U27" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0.41644752569925897</v>
       </c>
       <c r="V27" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0.41644752569925902</v>
       </c>
       <c r="W27" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0.41644752569925886</v>
       </c>
       <c r="X27" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0.41644752569925891</v>
       </c>
       <c r="Z27" s="2" t="s">
@@ -3286,51 +3285,51 @@
         <v>29</v>
       </c>
       <c r="B28" s="6">
-        <f t="shared" ref="B28:I28" si="68">B15/B4</f>
+        <f t="shared" ref="B28:I28" si="72">B15/B4</f>
         <v>0.14190340909090909</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0.15548236585700562</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0.15745483957940146</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0.21530027410914529</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0.15170801402779582</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0.16804058338617628</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0.17726519689053141</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0.17224480038250059</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" ref="J28:K28" si="69">J15/J4</f>
+        <f t="shared" ref="J28:K28" si="73">J15/J4</f>
         <v>0.17224480038250053</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0.17224480038250062</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" ref="L28:M28" si="70">L15/L4</f>
+        <f t="shared" ref="L28:M28" si="74">L15/L4</f>
         <v>0.1722448003825007</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0.17224480038250056</v>
       </c>
       <c r="O28" s="6" t="e">
@@ -3346,31 +3345,31 @@
         <v>0.13943600552365723</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" ref="R28:X28" si="71">R15/R4</f>
+        <f t="shared" ref="R28:X28" si="75">R15/R4</f>
         <v>0.16888918746431092</v>
       </c>
       <c r="S28" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>0.16746862911595434</v>
       </c>
       <c r="T28" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>0.17224480038250073</v>
       </c>
       <c r="U28" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>0.17224480038250073</v>
       </c>
       <c r="V28" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>0.17224480038250076</v>
       </c>
       <c r="W28" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>0.17224480038250062</v>
       </c>
       <c r="X28" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>0.17224480038250067</v>
       </c>
       <c r="Z28" s="2" t="s">
@@ -3416,15 +3415,15 @@
         <v>7875</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" ref="V30:X31" si="72">U30*1.05</f>
+        <f t="shared" ref="V30:X31" si="76">U30*1.05</f>
         <v>8268.75</v>
       </c>
       <c r="W30" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>8682.1875</v>
       </c>
       <c r="X30" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>9116.296875</v>
       </c>
       <c r="AB30" s="5"/>
@@ -3450,15 +3449,15 @@
         <v>1050</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>1102.5</v>
       </c>
       <c r="W31" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>1157.625</v>
       </c>
       <c r="X31" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>1215.5062500000001</v>
       </c>
       <c r="Z31" s="9"/>
@@ -3477,11 +3476,11 @@
         <v>9141</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" ref="R32:S32" si="73">R30+R31</f>
+        <f t="shared" ref="R32:S32" si="77">R30+R31</f>
         <v>4091</v>
       </c>
       <c r="S32" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>5861</v>
       </c>
       <c r="T32" s="3">
@@ -3492,587 +3491,587 @@
         <v>5572.4066626956364</v>
       </c>
       <c r="V32" s="3">
-        <f t="shared" ref="V32:X32" si="74">V33*V19</f>
+        <f t="shared" ref="V32:X32" si="78">V33*V19</f>
         <v>6100.6027953567409</v>
       </c>
       <c r="W32" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>6667.0386275484443</v>
       </c>
       <c r="X32" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>7274.1868811706308</v>
       </c>
       <c r="Y32" s="3">
-        <f t="shared" ref="Y32:BD32" si="75">X32*(1+$AA$25)</f>
+        <f t="shared" ref="Y32:BD32" si="79">X32*(1+$AA$25)</f>
         <v>7346.9287499823376</v>
       </c>
       <c r="Z32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>7420.3980374821613</v>
       </c>
       <c r="AA32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>7494.6020178569834</v>
       </c>
       <c r="AB32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>7569.548038035553</v>
       </c>
       <c r="AC32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>7645.2435184159085</v>
       </c>
       <c r="AD32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>7721.6959536000677</v>
       </c>
       <c r="AE32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>7798.9129131360687</v>
       </c>
       <c r="AF32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>7876.9020422674294</v>
       </c>
       <c r="AG32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>7955.671062690104</v>
       </c>
       <c r="AH32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>8035.2277733170049</v>
       </c>
       <c r="AI32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>8115.5800510501749</v>
       </c>
       <c r="AJ32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>8196.7358515606775</v>
       </c>
       <c r="AK32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>8278.7032100762844</v>
       </c>
       <c r="AL32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>8361.4902421770475</v>
       </c>
       <c r="AM32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>8445.1051445988178</v>
       </c>
       <c r="AN32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>8529.5561960448067</v>
       </c>
       <c r="AO32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>8614.8517580052558</v>
       </c>
       <c r="AP32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>8701.0002755853093</v>
       </c>
       <c r="AQ32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>8788.0102783411621</v>
       </c>
       <c r="AR32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>8875.8903811245746</v>
       </c>
       <c r="AS32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>8964.6492849358201</v>
       </c>
       <c r="AT32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>9054.2957777851789</v>
       </c>
       <c r="AU32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>9144.8387355630312</v>
       </c>
       <c r="AV32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>9236.2871229186621</v>
       </c>
       <c r="AW32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>9328.6499941478487</v>
       </c>
       <c r="AX32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>9421.9364940893265</v>
       </c>
       <c r="AY32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>9516.1558590302193</v>
       </c>
       <c r="AZ32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>9611.3174176205212</v>
       </c>
       <c r="BA32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>9707.4305917967267</v>
       </c>
       <c r="BB32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>9804.5048977146944</v>
       </c>
       <c r="BC32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>9902.5499466918409</v>
       </c>
       <c r="BD32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>10001.575446158758</v>
       </c>
       <c r="BE32" s="3">
-        <f t="shared" ref="BE32:CJ32" si="76">BD32*(1+$AA$25)</f>
+        <f t="shared" ref="BE32:CJ32" si="80">BD32*(1+$AA$25)</f>
         <v>10101.591200620345</v>
       </c>
       <c r="BF32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>10202.607112626549</v>
       </c>
       <c r="BG32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>10304.633183752814</v>
       </c>
       <c r="BH32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>10407.679515590342</v>
       </c>
       <c r="BI32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>10511.756310746245</v>
       </c>
       <c r="BJ32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>10616.873873853707</v>
       </c>
       <c r="BK32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>10723.042612592244</v>
       </c>
       <c r="BL32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>10830.273038718167</v>
       </c>
       <c r="BM32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>10938.57576910535</v>
       </c>
       <c r="BN32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>11047.961526796404</v>
       </c>
       <c r="BO32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>11158.441142064368</v>
       </c>
       <c r="BP32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>11270.025553485011</v>
       </c>
       <c r="BQ32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>11382.725809019861</v>
       </c>
       <c r="BR32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>11496.553067110061</v>
       </c>
       <c r="BS32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>11611.518597781162</v>
       </c>
       <c r="BT32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>11727.633783758973</v>
       </c>
       <c r="BU32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>11844.910121596562</v>
       </c>
       <c r="BV32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>11963.359222812527</v>
       </c>
       <c r="BW32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>12082.992815040652</v>
       </c>
       <c r="BX32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>12203.822743191058</v>
       </c>
       <c r="BY32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>12325.860970622969</v>
       </c>
       <c r="BZ32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>12449.119580329199</v>
       </c>
       <c r="CA32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>12573.610776132491</v>
       </c>
       <c r="CB32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>12699.346883893817</v>
       </c>
       <c r="CC32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>12826.340352732755</v>
       </c>
       <c r="CD32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>12954.603756260083</v>
       </c>
       <c r="CE32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>13084.149793822684</v>
       </c>
       <c r="CF32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>13214.991291760911</v>
       </c>
       <c r="CG32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>13347.141204678521</v>
       </c>
       <c r="CH32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>13480.612616725306</v>
       </c>
       <c r="CI32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>13615.41874289256</v>
       </c>
       <c r="CJ32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>13751.572930321485</v>
       </c>
       <c r="CK32" s="3">
-        <f t="shared" ref="CK32:DP32" si="77">CJ32*(1+$AA$25)</f>
+        <f t="shared" ref="CK32:DP32" si="81">CJ32*(1+$AA$25)</f>
         <v>13889.0886596247</v>
       </c>
       <c r="CL32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>14027.979546220948</v>
       </c>
       <c r="CM32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>14168.259341683157</v>
       </c>
       <c r="CN32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>14309.941935099989</v>
       </c>
       <c r="CO32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>14453.041354450988</v>
       </c>
       <c r="CP32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>14597.571767995498</v>
       </c>
       <c r="CQ32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>14743.547485675454</v>
       </c>
       <c r="CR32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>14890.982960532208</v>
       </c>
       <c r="CS32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>15039.89279013753</v>
       </c>
       <c r="CT32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>15190.291718038905</v>
       </c>
       <c r="CU32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>15342.194635219294</v>
       </c>
       <c r="CV32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>15495.616581571487</v>
       </c>
       <c r="CW32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>15650.572747387201</v>
       </c>
       <c r="CX32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>15807.078474861073</v>
       </c>
       <c r="CY32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>15965.149259609683</v>
       </c>
       <c r="CZ32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>16124.80075220578</v>
       </c>
       <c r="DA32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>16286.048759727837</v>
       </c>
       <c r="DB32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>16448.909247325115</v>
       </c>
       <c r="DC32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>16613.398339798365</v>
       </c>
       <c r="DD32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>16779.532323196348</v>
       </c>
       <c r="DE32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>16947.327646428312</v>
       </c>
       <c r="DF32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>17116.800922892595</v>
       </c>
       <c r="DG32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>17287.968932121519</v>
       </c>
       <c r="DH32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>17460.848621442736</v>
       </c>
       <c r="DI32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>17635.457107657163</v>
       </c>
       <c r="DJ32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>17811.811678733735</v>
       </c>
       <c r="DK32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>17989.929795521071</v>
       </c>
       <c r="DL32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>18169.829093476281</v>
       </c>
       <c r="DM32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>18351.527384411045</v>
       </c>
       <c r="DN32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>18535.042658255155</v>
       </c>
       <c r="DO32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>18720.393084837706</v>
       </c>
       <c r="DP32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>18907.597015686082</v>
       </c>
       <c r="DQ32" s="3">
-        <f t="shared" ref="DQ32:EV32" si="78">DP32*(1+$AA$25)</f>
+        <f t="shared" ref="DQ32:EV32" si="82">DP32*(1+$AA$25)</f>
         <v>19096.672985842943</v>
       </c>
       <c r="DR32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>19287.639715701371</v>
       </c>
       <c r="DS32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>19480.516112858386</v>
       </c>
       <c r="DT32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>19675.32127398697</v>
       </c>
       <c r="DU32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>19872.07448672684</v>
       </c>
       <c r="DV32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>20070.795231594107</v>
       </c>
       <c r="DW32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>20271.503183910048</v>
       </c>
       <c r="DX32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>20474.218215749148</v>
       </c>
       <c r="DY32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>20678.960397906638</v>
       </c>
       <c r="DZ32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>20885.750001885703</v>
       </c>
       <c r="EA32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>21094.60750190456</v>
       </c>
       <c r="EB32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>21305.553576923605</v>
       </c>
       <c r="EC32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>21518.60911269284</v>
       </c>
       <c r="ED32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>21733.795203819769</v>
       </c>
       <c r="EE32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>21951.133155857966</v>
       </c>
       <c r="EF32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>22170.644487416546</v>
       </c>
       <c r="EG32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>22392.350932290712</v>
       </c>
       <c r="EH32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>22616.274441613619</v>
       </c>
       <c r="EI32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>22842.437186029754</v>
       </c>
       <c r="EJ32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>23070.861557890054</v>
       </c>
       <c r="EK32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>23301.570173468954</v>
       </c>
       <c r="EL32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>23534.585875203644</v>
       </c>
       <c r="EM32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>23769.93173395568</v>
       </c>
       <c r="EN32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>24007.631051295237</v>
       </c>
       <c r="EO32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>24247.707361808189</v>
       </c>
       <c r="EP32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>24490.184435426272</v>
       </c>
       <c r="EQ32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>24735.086279780535</v>
       </c>
       <c r="ER32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>24982.437142578339</v>
       </c>
       <c r="ES32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>25232.261514004123</v>
       </c>
       <c r="ET32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>25484.584129144165</v>
       </c>
       <c r="EU32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>25739.429970435605</v>
       </c>
       <c r="EV32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>25996.824270139961</v>
       </c>
       <c r="EW32" s="3">
-        <f t="shared" ref="EW32:FK32" si="79">EV32*(1+$AA$25)</f>
+        <f t="shared" ref="EW32:FK32" si="83">EV32*(1+$AA$25)</f>
         <v>26256.792512841363</v>
       </c>
       <c r="EX32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>26519.360437969775</v>
       </c>
       <c r="EY32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>26784.554042349475</v>
       </c>
       <c r="EZ32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>27052.39958277297</v>
       </c>
       <c r="FA32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>27322.923578600701</v>
       </c>
       <c r="FB32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>27596.152814386707</v>
       </c>
       <c r="FC32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>27872.114342530575</v>
       </c>
       <c r="FD32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>28150.835485955882</v>
       </c>
       <c r="FE32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>28432.34384081544</v>
       </c>
       <c r="FF32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>28716.667279223595</v>
       </c>
       <c r="FG32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>29003.83395201583</v>
       </c>
       <c r="FH32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>29293.872291535987</v>
       </c>
       <c r="FI32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>29586.811014451348</v>
       </c>
       <c r="FJ32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>29882.679124595863</v>
       </c>
       <c r="FK32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>30181.505915841823</v>
       </c>
     </row>
@@ -4090,7 +4089,7 @@
         <v>1.4133108271039305</v>
       </c>
       <c r="T33" s="6">
-        <f t="shared" ref="T33" si="80">T32/T19</f>
+        <f t="shared" ref="T33:X33" si="84">T32/T19</f>
         <v>1.4010024085521167</v>
       </c>
       <c r="U33" s="6">
@@ -4120,15 +4119,15 @@
         <v>1992.1399999999996</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" ref="K34:M34" si="81">J34+K19</f>
+        <f t="shared" ref="K34:M34" si="85">J34+K19</f>
         <v>3130.4583469999998</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>4304.5599961719508</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>5583.5352073073882</v>
       </c>
       <c r="S34" s="2">
@@ -4175,11 +4174,11 @@
         <v>2419</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" ref="R36:S36" si="82">R19</f>
+        <f t="shared" ref="R36:S36" si="86">R19</f>
         <v>4246</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>4147</v>
       </c>
       <c r="W36" s="3"/>
@@ -4256,11 +4255,11 @@
         <v>0.15787130916464709</v>
       </c>
       <c r="R42" s="6">
-        <f t="shared" ref="R42:S42" si="83">R41/R40*-1-1</f>
+        <f t="shared" ref="R42:S42" si="87">R41/R40*-1-1</f>
         <v>0.10532302092811641</v>
       </c>
       <c r="S42" s="6">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>2.8730588729062534E-2</v>
       </c>
     </row>

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09328EC-56DD-4342-A619-F0BBBC4AF40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21C743D-930E-47F7-9516-99C40EE5134E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="345" windowWidth="20505" windowHeight="13845" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
+    <workbookView xWindow="915" yWindow="1710" windowWidth="19695" windowHeight="13635" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -722,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
       </c>
       <c r="E4" s="2">
         <f>E3*E2</f>
-        <v>65289.971999999994</v>
+        <v>72214.665999999997</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
       </c>
       <c r="E7" s="2">
         <f>E4+E6-E5</f>
-        <v>64345.971999999994</v>
+        <v>71270.665999999997</v>
       </c>
     </row>
   </sheetData>
@@ -779,10 +779,10 @@
   <dimension ref="A1:FN45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
+      <selection pane="bottomRight" activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="AA29" s="6">
         <f>AA28/Sheet1!E2-1</f>
-        <v>0.49885847608919898</v>
+        <v>0.3551323208477688</v>
       </c>
       <c r="AB29" s="6"/>
     </row>
@@ -4089,7 +4089,7 @@
         <v>1.4133108271039305</v>
       </c>
       <c r="T33" s="6">
-        <f t="shared" ref="T33:X33" si="84">T32/T19</f>
+        <f t="shared" ref="T33" si="84">T32/T19</f>
         <v>1.4010024085521167</v>
       </c>
       <c r="U33" s="6">

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21C743D-930E-47F7-9516-99C40EE5134E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8D35DD-BDB0-40D9-8E33-92BA3480CE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="1710" windowWidth="19695" windowHeight="13635" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
+    <workbookView xWindow="4980" yWindow="930" windowWidth="23670" windowHeight="14145" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,12 +226,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,17 +259,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,63 +716,66 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="10"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+      <c r="E2" s="1">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>989.24199999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <f>E3*E2</f>
-        <v>72214.665999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+        <v>71522.196599999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f>6561+4262</f>
         <v>10823</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f>9879</f>
         <v>9879</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f>E4+E6-E5</f>
-        <v>71270.665999999997</v>
+        <v>70578.196599999996</v>
       </c>
     </row>
   </sheetData>
@@ -782,124 +791,124 @@
       <pane xSplit="1" ySplit="1" topLeftCell="O8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U33" sqref="U33"/>
+      <selection pane="bottomRight" activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" customWidth="1"/>
-    <col min="2" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
-    <col min="10" max="27" width="9.140625" style="2"/>
-    <col min="28" max="28" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="27" width="9.140625" style="1"/>
+    <col min="28" max="28" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="2">
         <v>2020</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="2">
         <f>O1+1</f>
         <v>2021</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="2">
         <f t="shared" ref="Q1:X1" si="0">P1+1</f>
         <v>2022</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="V1" s="4">
+      <c r="V1" s="2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1" s="2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="X1" s="4">
+      <c r="X1" s="2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-    </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -973,804 +982,804 @@
         <v>40845.224456168842</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>3283</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>3541</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>3603</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>3958</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>3917</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>3942</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>3841</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>3997</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <f>I5*(1+J24)</f>
         <v>3837.12</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <f t="shared" ref="K5:M5" si="2">J5*(1+K24)</f>
         <v>3913.8624</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <f t="shared" si="2"/>
         <v>3992.1396479999999</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <f t="shared" si="2"/>
         <v>4311.5108198400003</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>12173</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>14385</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>15697</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <f>SUM(J5:M5)</f>
         <v>16054.632867839999</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <f t="shared" ref="U5:X5" si="3">T5*(1+U23)</f>
         <v>16857.364511232001</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <f t="shared" si="3"/>
         <v>17700.232736793601</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="1">
         <f t="shared" si="3"/>
         <v>18585.244373633283</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="1">
         <f t="shared" si="3"/>
         <v>19514.506592314949</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>442</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>398</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>446</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>396</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>321</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>335</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>352</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>434</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <f>I6*(1+J24)</f>
         <v>416.64</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <f t="shared" ref="K6:M6" si="4">J6*(1+K24)</f>
         <v>424.97280000000001</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <f t="shared" si="4"/>
         <v>433.47225600000002</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <f t="shared" si="4"/>
         <v>468.15003648000004</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>1572</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>1682</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>1442</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="1">
         <f>SUM(J6:M6)</f>
         <v>1743.2350924799998</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="1">
         <f t="shared" ref="U6:X6" si="5">T6*(1+U23)</f>
         <v>1830.3968471039998</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="1">
         <f t="shared" si="5"/>
         <v>1921.9166894591999</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="1">
         <f t="shared" si="5"/>
         <v>2018.0125239321601</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="1">
         <f t="shared" si="5"/>
         <v>2118.9131501287684</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>488</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>492</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>474</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>454</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>436</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>427</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>451</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <f>I7*(1+J24)</f>
         <v>432.96</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <f t="shared" ref="K7:M7" si="6">J7*(1+K24)</f>
         <v>441.61919999999998</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <f t="shared" si="6"/>
         <v>450.45158399999997</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <f t="shared" si="6"/>
         <v>486.48771072</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>2120</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>1919</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>1768</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <f>SUM(J7:M7)</f>
         <v>1811.5184947199998</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <f t="shared" ref="U7:X7" si="7">T7*(1+U23)</f>
         <v>1902.094419456</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="1">
         <f t="shared" si="7"/>
         <v>1997.1991404288001</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="1">
         <f t="shared" si="7"/>
         <v>2097.0590974502402</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="1">
         <f t="shared" si="7"/>
         <v>2201.9120523227525</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <f>SUM(B5:B7)</f>
         <v>4213</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <f>SUM(C5:C7)</f>
         <v>4431</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f>SUM(D5:D7)</f>
         <v>4523</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f t="shared" ref="E8:K8" si="8">SUM(E5:E7)</f>
         <v>4819</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f t="shared" si="8"/>
         <v>4692</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f t="shared" si="8"/>
         <v>4713</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <f t="shared" si="8"/>
         <v>4620</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <f t="shared" si="8"/>
         <v>4882</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <f t="shared" si="8"/>
         <v>4686.72</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <f t="shared" si="8"/>
         <v>4780.4543999999996</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <f t="shared" ref="L8" si="9">SUM(L5:L7)</f>
         <v>4876.0634879999998</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <f t="shared" ref="M8:P8" si="10">SUM(M5:M7)</f>
         <v>5266.1485670400007</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <f>SUM(Q5:Q7)</f>
         <v>15865</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <f>SUM(R5:R7)</f>
         <v>17986</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <f>SUM(S5:S7)</f>
         <v>18907</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="1">
         <f>SUM(T5:T7)</f>
         <v>19609.386455039999</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="1">
         <f t="shared" ref="U8:X8" si="11">SUM(U5:U7)</f>
         <v>20589.855777792</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="1">
         <f t="shared" si="11"/>
         <v>21619.348566681598</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="1">
         <f t="shared" si="11"/>
         <v>22700.315995015684</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="1">
         <f t="shared" si="11"/>
         <v>23835.331794766469</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <f>B4-B8</f>
         <v>2827</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <f>C4-C8</f>
         <v>2856</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f>D4-D8</f>
         <v>2895</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f t="shared" ref="E9:K9" si="12">E4-E8</f>
         <v>3207</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <f t="shared" si="12"/>
         <v>3007</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <f t="shared" si="12"/>
         <v>3172</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <f t="shared" si="12"/>
         <v>3227</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <f t="shared" si="12"/>
         <v>3484</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <f t="shared" si="12"/>
         <v>3344.6399999999994</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <f t="shared" si="12"/>
         <v>3411.5328</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <f t="shared" ref="L9" si="13">L4-L8</f>
         <v>3479.7634560000006</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <f t="shared" ref="M9:P9" si="14">M4-M8</f>
         <v>3758.1445324799997</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="1">
         <f>Q4-Q8</f>
         <v>11653</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="1">
         <f t="shared" ref="R9:X9" si="15">R4-R8</f>
         <v>11785</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="1">
         <f t="shared" si="15"/>
         <v>12890</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="1">
         <f t="shared" si="15"/>
         <v>13994.080788480005</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="1">
         <f t="shared" si="15"/>
         <v>14693.784827904004</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V9" s="1">
         <f t="shared" si="15"/>
         <v>15428.474069299205</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="1">
         <f t="shared" si="15"/>
         <v>16199.897772764161</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="1">
         <f t="shared" si="15"/>
         <v>17009.892661402373</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>436</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>465</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>442</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>466</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>421</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>446</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>508</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>626</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <f>I10*(1+J24)</f>
         <v>600.95999999999992</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <f t="shared" ref="K10:M10" si="16">J10*(1+K24)</f>
         <v>612.97919999999988</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <f t="shared" si="16"/>
         <v>625.2387839999999</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <f t="shared" si="16"/>
         <v>675.25788671999999</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1">
         <v>2257</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <v>1809</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <v>2001</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="1">
         <f>SUM(J10:M10)</f>
         <v>2514.4358707199999</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="1">
         <f t="shared" ref="U10:X10" si="17">T10*(1+U23)</f>
         <v>2640.1576642559999</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10" s="1">
         <f t="shared" si="17"/>
         <v>2772.1655474688</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="1">
         <f t="shared" si="17"/>
         <v>2910.7738248422402</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="1">
         <f t="shared" si="17"/>
         <v>3056.3125160843524</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>721</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>743</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>739</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>770</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>742</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>718</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>746</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>773</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <f>I11*(1+J24)</f>
         <v>742.07999999999993</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <f t="shared" ref="K11:M11" si="18">J11*(1+K24)</f>
         <v>756.9215999999999</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <f t="shared" si="18"/>
         <v>772.06003199999986</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <f t="shared" si="18"/>
         <v>833.82483455999989</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="1">
         <v>3253</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="1">
         <v>2973</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="1">
         <v>2979</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="1">
         <f>SUM(J11:M11)</f>
         <v>3104.8864665599999</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="1">
         <f t="shared" ref="U11:X11" si="19">T11*(1+U23)</f>
         <v>3260.130789888</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11" s="1">
         <f t="shared" si="19"/>
         <v>3423.1373293823999</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11" s="1">
         <f t="shared" si="19"/>
         <v>3594.2941958515203</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="1">
         <f t="shared" si="19"/>
         <v>3774.0089056440966</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>507</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>491</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>507</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>554</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>464</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>570</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>519</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>594</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <f>I12*(1+J24)</f>
         <v>570.24</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <f t="shared" ref="K12:M12" si="20">J12*(1+K24)</f>
         <v>581.64480000000003</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <f t="shared" si="20"/>
         <v>593.27769599999999</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <f t="shared" si="20"/>
         <v>640.73991167999998</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="1">
         <v>2099</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="1">
         <v>2059</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="1">
         <v>2147</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="1">
         <f>SUM(J12:M12)</f>
         <v>2385.9024076799997</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="1">
         <f t="shared" ref="U12:X12" si="21">T12*(1+U23)</f>
         <v>2505.1975280639999</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V12" s="1">
         <f t="shared" si="21"/>
         <v>2630.4574044671999</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="1">
         <f t="shared" si="21"/>
         <v>2761.9802746905602</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12" s="1">
         <f t="shared" si="21"/>
         <v>2900.0792884250882</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>164</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>24</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>39</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>-311</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>212</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>113</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>63</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>50</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <f>I13*(1+J24)</f>
         <v>48</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <f t="shared" ref="K13:M13" si="22">J13*(1+K24)</f>
         <v>48.96</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <f t="shared" si="22"/>
         <v>49.9392</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <f t="shared" si="22"/>
         <v>53.934336000000002</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="1">
         <v>207</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="1">
         <v>-84</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="1">
         <v>438</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="1">
         <f>SUM(J13:M13)</f>
         <v>200.83353600000001</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="1">
         <f t="shared" ref="U13:X13" si="23">T13*(1+U23)</f>
         <v>210.87521280000001</v>
       </c>
-      <c r="V13" s="2">
+      <c r="V13" s="1">
         <f t="shared" si="23"/>
         <v>221.41897344000003</v>
       </c>
-      <c r="W13" s="2">
+      <c r="W13" s="1">
         <f t="shared" si="23"/>
         <v>232.48992211200004</v>
       </c>
-      <c r="X13" s="2">
+      <c r="X13" s="1">
         <f t="shared" si="23"/>
         <v>244.11441821760005</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <f>SUM(B10:B13)</f>
         <v>1828</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <f t="shared" ref="C14:K14" si="24">SUM(C10:C13)</f>
         <v>1723</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <f t="shared" si="24"/>
         <v>1727</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <f t="shared" si="24"/>
         <v>1479</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <f t="shared" si="24"/>
         <v>1839</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <f t="shared" si="24"/>
         <v>1847</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <f t="shared" si="24"/>
         <v>1836</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <f t="shared" si="24"/>
         <v>2043</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <f t="shared" si="24"/>
         <v>1961.28</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <f t="shared" si="24"/>
         <v>2000.5056</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <f t="shared" ref="L14" si="25">SUM(L10:L13)</f>
         <v>2040.5157119999997</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <f t="shared" ref="M14:P14" si="26">SUM(M10:M13)</f>
         <v>2203.75696896</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="1">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="1">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="1">
         <f>SUM(Q10:Q13)</f>
         <v>7816</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="1">
         <f t="shared" ref="R14:X14" si="27">SUM(R10:R13)</f>
         <v>6757</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="1">
         <f t="shared" si="27"/>
         <v>7565</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="1">
         <f t="shared" si="27"/>
         <v>8206.05828096</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="1">
         <f t="shared" si="27"/>
         <v>8616.3611950079994</v>
       </c>
-      <c r="V14" s="2">
+      <c r="V14" s="1">
         <f t="shared" si="27"/>
         <v>9047.1792547583991</v>
       </c>
-      <c r="W14" s="2">
+      <c r="W14" s="1">
         <f t="shared" si="27"/>
         <v>9499.5382174963197</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14" s="1">
         <f t="shared" si="27"/>
         <v>9974.5151283711366</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -1863,248 +1872,248 @@
         <v>7035.3775330312365</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>75</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>170</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>73</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>65</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>41</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>74</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>-80</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>-31</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <f>I34*$AA$24/4</f>
         <v>14.16</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <f t="shared" ref="K16:M16" si="33">J34*$AA$24/4</f>
         <v>29.882099999999994</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="1">
         <f t="shared" si="33"/>
         <v>46.956875204999996</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="1">
         <f t="shared" si="33"/>
         <v>64.568399942579262</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="1">
         <v>-471</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="1">
         <v>383</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="1">
         <v>4</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="1">
         <f>SUM(J16:M16)</f>
         <v>155.56737514757924</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="1">
         <f>T34*$AA$24</f>
         <v>335.0121124384433</v>
       </c>
-      <c r="V16" s="2">
+      <c r="V16" s="1">
         <f>U34*$AA$24</f>
         <v>638.96156676729606</v>
       </c>
-      <c r="W16" s="2">
+      <c r="W16" s="1">
         <f>V34*$AA$24</f>
         <v>971.72171924130009</v>
       </c>
-      <c r="X16" s="2">
+      <c r="X16" s="1">
         <f>W34*$AA$24</f>
         <v>1335.3783716530334</v>
       </c>
     </row>
-    <row r="17" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:170" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <f>B15+B16</f>
         <v>1074</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <f t="shared" ref="C17:K17" si="34">C15+C16</f>
         <v>1303</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <f t="shared" si="34"/>
         <v>1241</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <f t="shared" si="34"/>
         <v>1793</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <f t="shared" si="34"/>
         <v>1209</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <f t="shared" si="34"/>
         <v>1399</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <f t="shared" si="34"/>
         <v>1311</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <f t="shared" si="34"/>
         <v>1410</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <f t="shared" si="34"/>
         <v>1397.5199999999995</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <f t="shared" si="34"/>
         <v>1440.9093</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1">
         <f t="shared" ref="L17" si="35">L15+L16</f>
         <v>1486.2046192050009</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="1">
         <f t="shared" ref="M17:P17" si="36">M15+M16</f>
         <v>1618.9559634625789</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="1">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="1">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="1">
         <f>Q15+Q16</f>
         <v>3366</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="1">
         <f t="shared" ref="R17:S17" si="37">R15+R16</f>
         <v>5411</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="1">
         <f t="shared" si="37"/>
         <v>5329</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17" s="1">
         <f t="shared" ref="T17" si="38">T15+T16</f>
         <v>5943.5898826675839</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17" s="1">
         <f t="shared" ref="U17" si="39">U15+U16</f>
         <v>6412.4357453344483</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V17" s="1">
         <f t="shared" ref="V17" si="40">V15+V16</f>
         <v>7020.2563813081024</v>
       </c>
-      <c r="W17" s="2">
+      <c r="W17" s="1">
         <f t="shared" ref="W17" si="41">W15+W16</f>
         <v>7672.0812745091416</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X17" s="1">
         <f t="shared" ref="X17" si="42">X15+X16</f>
         <v>8370.7559046842689</v>
       </c>
     </row>
-    <row r="18" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:170" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>279</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>274</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>221</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>391</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>321</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>271</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>301</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>289</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <f>J17*J25</f>
         <v>349.37999999999988</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <f>K17*K25</f>
         <v>302.59095300000001</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="1">
         <f t="shared" ref="L18:M18" si="43">L17*L25</f>
         <v>312.10297003305016</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="1">
         <f t="shared" si="43"/>
         <v>339.98075232714154</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="1">
         <v>947</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="1">
         <v>1165</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="1">
         <v>1182</v>
       </c>
-      <c r="T18" s="2">
+      <c r="T18" s="1">
         <f>SUM(J18:M18)</f>
         <v>1304.0546753601916</v>
       </c>
-      <c r="U18" s="2">
+      <c r="U18" s="1">
         <f t="shared" ref="U18:X18" si="44">U25*U17</f>
         <v>1346.6115065202341</v>
       </c>
-      <c r="V18" s="2">
+      <c r="V18" s="1">
         <f t="shared" si="44"/>
         <v>1474.2538400747014</v>
       </c>
-      <c r="W18" s="2">
+      <c r="W18" s="1">
         <f t="shared" si="44"/>
         <v>1611.1370676469196</v>
       </c>
-      <c r="X18" s="2">
+      <c r="X18" s="1">
         <f t="shared" si="44"/>
         <v>1757.8587399836963</v>
       </c>
     </row>
-    <row r="19" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:170" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -2781,83 +2790,83 @@
         <v>28269.12338781618</v>
       </c>
     </row>
-    <row r="20" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:170" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>1134</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>1114</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>1098</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>1084</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>1072</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>1047</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>1024</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>1014</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <f t="shared" ref="J20:M20" si="59">I20*0.99</f>
         <v>1003.86</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <f t="shared" si="59"/>
         <v>993.82140000000004</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="1">
         <f t="shared" si="59"/>
         <v>983.88318600000002</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="1">
         <f t="shared" si="59"/>
         <v>974.04435414</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="Q20" s="2">
+      <c r="N20" s="4"/>
+      <c r="Q20" s="1">
         <v>1158</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="1">
         <v>1107</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="1">
         <v>1039</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="1">
         <f>M20</f>
         <v>974.04435414</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="1">
         <f>T20*0.96</f>
         <v>935.08257997440001</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V20" s="1">
         <f t="shared" ref="V20:X20" si="60">U20*0.96</f>
         <v>897.679276775424</v>
       </c>
-      <c r="W20" s="2">
+      <c r="W20" s="1">
         <f t="shared" si="60"/>
         <v>861.77210570440695</v>
       </c>
-      <c r="X20" s="2">
+      <c r="X20" s="1">
         <f t="shared" si="60"/>
         <v>827.30122147623069</v>
       </c>
     </row>
-    <row r="21" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:170" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="5">
@@ -2940,11 +2949,11 @@
         <v>7.993336638498568</v>
       </c>
     </row>
-    <row r="22" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="F22" s="6"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:170" x14ac:dyDescent="0.2">
+      <c r="F22" s="4"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:170" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
@@ -3026,161 +3035,161 @@
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:170" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <f t="shared" ref="C24:M24" si="67">C4/B4-1</f>
         <v>3.5085227272727337E-2</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <f t="shared" si="67"/>
         <v>1.7977219706326375E-2</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="4">
         <f t="shared" si="67"/>
         <v>8.1962793205715867E-2</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="4">
         <f t="shared" si="67"/>
         <v>-4.0742586593570884E-2</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="4">
         <f t="shared" si="67"/>
         <v>2.4158981685933334E-2</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="4">
         <f t="shared" si="67"/>
         <v>-4.8192771084337727E-3</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="4">
         <f t="shared" si="67"/>
         <v>6.6139926086402401E-2</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="4">
         <f t="shared" si="67"/>
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="4">
         <f t="shared" si="67"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="4">
         <f t="shared" si="67"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="4">
         <f t="shared" si="67"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="Z24" s="2" t="s">
+      <c r="Z24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA24" s="6">
+      <c r="AA24" s="4">
         <v>0.06</v>
       </c>
     </row>
-    <row r="25" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:170" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <f>B18/B17</f>
         <v>0.25977653631284914</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="4">
         <f t="shared" ref="C25:I25" si="68">C18/C17</f>
         <v>0.21028396009209516</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <f t="shared" si="68"/>
         <v>0.17808219178082191</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="4">
         <f t="shared" si="68"/>
         <v>0.2180702732849972</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="4">
         <f t="shared" si="68"/>
         <v>0.26550868486352358</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="4">
         <f t="shared" si="68"/>
         <v>0.1937097927090779</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="4">
         <f t="shared" si="68"/>
         <v>0.2295957284515637</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="4">
         <f t="shared" si="68"/>
         <v>0.20496453900709219</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="4">
         <v>0.25</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="4">
         <v>0.21</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="4">
         <v>0.21</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="4">
         <v>0.21</v>
       </c>
-      <c r="O25" s="6" t="e">
+      <c r="O25" s="4" t="e">
         <f t="shared" ref="O25:T25" si="69">O18/O17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P25" s="6" t="e">
+      <c r="P25" s="4" t="e">
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="4">
         <f t="shared" si="69"/>
         <v>0.28134284016636957</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="4">
         <f t="shared" si="69"/>
         <v>0.21530216226205878</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="4">
         <f t="shared" si="69"/>
         <v>0.22180521673860012</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="4">
         <f t="shared" si="69"/>
         <v>0.21940522497405385</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="4">
         <v>0.21</v>
       </c>
-      <c r="V25" s="6">
+      <c r="V25" s="4">
         <v>0.21</v>
       </c>
-      <c r="W25" s="6">
+      <c r="W25" s="4">
         <v>0.21</v>
       </c>
-      <c r="X25" s="6">
+      <c r="X25" s="4">
         <v>0.21</v>
       </c>
-      <c r="Z25" s="2" t="s">
+      <c r="Z25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AA25" s="6">
+      <c r="AA25" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="Z26" s="2" t="s">
+    <row r="26" spans="1:170" x14ac:dyDescent="0.2">
+      <c r="Z26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA26" s="8">
+      <c r="AA26" s="6">
         <v>0.08</v>
       </c>
     </row>
-    <row r="27" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:170" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -3272,7 +3281,7 @@
         <f t="shared" si="71"/>
         <v>0.41644752569925891</v>
       </c>
-      <c r="Z27" s="2" t="s">
+      <c r="Z27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA27" s="3">
@@ -3280,190 +3289,190 @@
         <v>97860.427935826461</v>
       </c>
     </row>
-    <row r="28" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:170" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="4">
         <f t="shared" ref="B28:I28" si="72">B15/B4</f>
         <v>0.14190340909090909</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="4">
         <f t="shared" si="72"/>
         <v>0.15548236585700562</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <f t="shared" si="72"/>
         <v>0.15745483957940146</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="4">
         <f t="shared" si="72"/>
         <v>0.21530027410914529</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="4">
         <f t="shared" si="72"/>
         <v>0.15170801402779582</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="4">
         <f t="shared" si="72"/>
         <v>0.16804058338617628</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="4">
         <f t="shared" si="72"/>
         <v>0.17726519689053141</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="4">
         <f t="shared" si="72"/>
         <v>0.17224480038250059</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="4">
         <f t="shared" ref="J28:K28" si="73">J15/J4</f>
         <v>0.17224480038250053</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="4">
         <f t="shared" si="73"/>
         <v>0.17224480038250062</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="4">
         <f t="shared" ref="L28:M28" si="74">L15/L4</f>
         <v>0.1722448003825007</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="4">
         <f t="shared" si="74"/>
         <v>0.17224480038250056</v>
       </c>
-      <c r="O28" s="6" t="e">
+      <c r="O28" s="4" t="e">
         <f>O15/O4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P28" s="6" t="e">
+      <c r="P28" s="4" t="e">
         <f>P15/P4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="Q28" s="4">
         <f>Q15/Q4</f>
         <v>0.13943600552365723</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R28" s="4">
         <f t="shared" ref="R28:X28" si="75">R15/R4</f>
         <v>0.16888918746431092</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28" s="4">
         <f t="shared" si="75"/>
         <v>0.16746862911595434</v>
       </c>
-      <c r="T28" s="6">
+      <c r="T28" s="4">
         <f t="shared" si="75"/>
         <v>0.17224480038250073</v>
       </c>
-      <c r="U28" s="6">
+      <c r="U28" s="4">
         <f t="shared" si="75"/>
         <v>0.17224480038250073</v>
       </c>
-      <c r="V28" s="6">
+      <c r="V28" s="4">
         <f t="shared" si="75"/>
         <v>0.17224480038250076</v>
       </c>
-      <c r="W28" s="6">
+      <c r="W28" s="4">
         <f t="shared" si="75"/>
         <v>0.17224480038250062</v>
       </c>
-      <c r="X28" s="6">
+      <c r="X28" s="4">
         <f t="shared" si="75"/>
         <v>0.17224480038250067</v>
       </c>
-      <c r="Z28" s="2" t="s">
+      <c r="Z28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AA28" s="1">
         <f>AA27/Sheet1!E3</f>
         <v>98.924659421887128</v>
       </c>
     </row>
-    <row r="29" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="C29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="Z29" s="2" t="s">
+    <row r="29" spans="1:170" x14ac:dyDescent="0.2">
+      <c r="C29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="Z29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA29" s="6">
+      <c r="AA29" s="4">
         <f>AA28/Sheet1!E2-1</f>
-        <v>0.3551323208477688</v>
-      </c>
-      <c r="AB29" s="6"/>
-    </row>
-    <row r="30" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+        <v>0.36825255078682062</v>
+      </c>
+      <c r="AB29" s="4"/>
+    </row>
+    <row r="30" spans="1:170" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="1">
         <v>5813</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="1">
         <v>4843</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="1">
         <v>7450</v>
       </c>
-      <c r="T30" s="2">
+      <c r="T30" s="1">
         <f>T32+T31</f>
         <v>7500</v>
       </c>
-      <c r="U30" s="2">
+      <c r="U30" s="1">
         <f>T30*1.05</f>
         <v>7875</v>
       </c>
-      <c r="V30" s="2">
+      <c r="V30" s="1">
         <f t="shared" ref="V30:X31" si="76">U30*1.05</f>
         <v>8268.75</v>
       </c>
-      <c r="W30" s="2">
+      <c r="W30" s="1">
         <f t="shared" si="76"/>
         <v>8682.1875</v>
       </c>
-      <c r="X30" s="2">
+      <c r="X30" s="1">
         <f t="shared" si="76"/>
         <v>9116.296875</v>
       </c>
       <c r="AB30" s="5"/>
     </row>
-    <row r="31" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:170" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="1">
         <v>3328</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="1">
         <v>-752</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="1">
         <v>-1589</v>
       </c>
-      <c r="T31" s="2">
+      <c r="T31" s="1">
         <v>1000</v>
       </c>
-      <c r="U31" s="2">
+      <c r="U31" s="1">
         <f>T31*1.05</f>
         <v>1050</v>
       </c>
-      <c r="V31" s="2">
+      <c r="V31" s="1">
         <f t="shared" si="76"/>
         <v>1102.5</v>
       </c>
-      <c r="W31" s="2">
+      <c r="W31" s="1">
         <f t="shared" si="76"/>
         <v>1157.625</v>
       </c>
-      <c r="X31" s="2">
+      <c r="X31" s="1">
         <f t="shared" si="76"/>
         <v>1215.5062500000001</v>
       </c>
-      <c r="Z31" s="9"/>
+      <c r="Z31" s="8"/>
       <c r="AB31" s="5"/>
     </row>
-    <row r="32" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:170" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -4075,109 +4084,109 @@
         <v>30181.505915841823</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q33" s="6">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q33" s="4">
         <f>Q32/Q19</f>
         <v>3.7788342290202563</v>
       </c>
-      <c r="R33" s="6">
+      <c r="R33" s="4">
         <f>R32/R19</f>
         <v>0.96349505416862935</v>
       </c>
-      <c r="S33" s="6">
+      <c r="S33" s="4">
         <f>S32/S19</f>
         <v>1.4133108271039305</v>
       </c>
-      <c r="T33" s="6">
+      <c r="T33" s="4">
         <f t="shared" ref="T33" si="84">T32/T19</f>
         <v>1.4010024085521167</v>
       </c>
-      <c r="U33" s="6">
+      <c r="U33" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V33" s="6">
+      <c r="V33" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W33" s="6">
+      <c r="W33" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="X33" s="6">
+      <c r="X33" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Z33" s="9"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="Z33" s="8"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <f>I38-I45</f>
         <v>944</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="1">
         <f>I34+J19</f>
         <v>1992.1399999999996</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <f t="shared" ref="K34:M34" si="85">J34+K19</f>
         <v>3130.4583469999998</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="1">
         <f t="shared" si="85"/>
         <v>4304.5599961719508</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="1">
         <f t="shared" si="85"/>
         <v>5583.5352073073882</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="1">
         <f>S38-S45</f>
         <v>944</v>
       </c>
-      <c r="T34" s="2">
+      <c r="T34" s="1">
         <f>M34</f>
         <v>5583.5352073073882</v>
       </c>
-      <c r="U34" s="2">
+      <c r="U34" s="1">
         <f>T34+U19</f>
         <v>10649.359446121602</v>
       </c>
-      <c r="V34" s="2">
+      <c r="V34" s="1">
         <f>U34+V19</f>
         <v>16195.361987355001</v>
       </c>
-      <c r="W34" s="2">
+      <c r="W34" s="1">
         <f>V34+W19</f>
         <v>22256.306194217224</v>
       </c>
-      <c r="X34" s="2">
+      <c r="X34" s="1">
         <f>W34+X19</f>
         <v>28869.203358917795</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+    </row>
+    <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q36" s="1">
         <f>Q19</f>
         <v>2419</v>
       </c>
-      <c r="R36" s="2">
+      <c r="R36" s="1">
         <f t="shared" ref="R36:S36" si="86">R19</f>
         <v>4246</v>
       </c>
-      <c r="S36" s="2">
+      <c r="S36" s="1">
         <f t="shared" si="86"/>
         <v>4147</v>
       </c>
@@ -4186,91 +4195,91 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="Q37" s="1">
         <v>2419</v>
       </c>
-      <c r="R37" s="2">
+      <c r="R37" s="1">
         <v>4246</v>
       </c>
-      <c r="S37" s="2">
+      <c r="S37" s="1">
         <v>4147</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="1">
         <f>6561+4262</f>
         <v>10823</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S38" s="1">
         <f>6561+4262</f>
         <v>10823</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="Q40" s="1">
         <v>-20219</v>
       </c>
-      <c r="R40" s="2">
+      <c r="R40" s="1">
         <v>-21980</v>
       </c>
-      <c r="S40" s="2">
+      <c r="S40" s="1">
         <v>-26209</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q41" s="1">
         <v>23411</v>
       </c>
-      <c r="R41" s="2">
+      <c r="R41" s="1">
         <v>24295</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S41" s="1">
         <v>26962</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="Q42" s="4">
         <f>Q41/Q40*-1-1</f>
         <v>0.15787130916464709</v>
       </c>
-      <c r="R42" s="6">
+      <c r="R42" s="4">
         <f t="shared" ref="R42:S42" si="87">R41/R40*-1-1</f>
         <v>0.10532302092811641</v>
       </c>
-      <c r="S42" s="6">
+      <c r="S42" s="4">
         <f t="shared" si="87"/>
         <v>2.8730588729062534E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+    </row>
+    <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
       <c r="W44" s="3"/>
@@ -4278,15 +4287,15 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="1">
         <f>9879</f>
         <v>9879</v>
       </c>
-      <c r="S45" s="2">
+      <c r="S45" s="1">
         <f>9879</f>
         <v>9879</v>
       </c>

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8D35DD-BDB0-40D9-8E33-92BA3480CE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF24CD16-CA3C-4C91-AC9D-5FC80A71EFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="930" windowWidth="23670" windowHeight="14145" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>PYPL</t>
   </si>
@@ -217,13 +217,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -259,16 +265,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -710,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CAB345-9A71-4A10-9FCC-8B1DB985BF5A}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -721,37 +728,41 @@
     <col min="1" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>72.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>989.24199999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1">
         <f>E3*E2</f>
-        <v>71522.196599999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70236.182000000001</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
@@ -759,8 +770,11 @@
         <f>6561+4262</f>
         <v>10823</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
@@ -768,14 +782,17 @@
         <f>9879</f>
         <v>9879</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1">
         <f>E4+E6-E5</f>
-        <v>70578.196599999996</v>
+        <v>69292.182000000001</v>
       </c>
     </row>
   </sheetData>
@@ -787,11 +804,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C351E4BD-0CCB-4B4B-8440-0A8537A331C4}">
   <dimension ref="A1:FN45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="T13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z32" sqref="Z32"/>
+      <selection pane="bottomRight" activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1902,19 +1919,19 @@
       </c>
       <c r="J16" s="1">
         <f>I34*$AA$24/4</f>
-        <v>14.16</v>
+        <v>9.44</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" ref="K16:M16" si="33">J34*$AA$24/4</f>
-        <v>29.882099999999994</v>
+        <v>19.885999999999996</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="33"/>
-        <v>46.956875204999996</v>
+        <v>31.190214279999999</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="33"/>
-        <v>64.568399942579262</v>
+        <v>42.806674150412007</v>
       </c>
       <c r="Q16" s="1">
         <v>-471</v>
@@ -1927,23 +1944,23 @@
       </c>
       <c r="T16" s="1">
         <f>SUM(J16:M16)</f>
-        <v>155.56737514757924</v>
+        <v>103.32288843041201</v>
       </c>
       <c r="U16" s="1">
         <f>T34*$AA$24</f>
-        <v>335.0121124384433</v>
+        <v>221.69803451203305</v>
       </c>
       <c r="V16" s="1">
         <f>U34*$AA$24</f>
-        <v>638.96156676729606</v>
+        <v>420.75027920212705</v>
       </c>
       <c r="W16" s="1">
         <f>V34*$AA$24</f>
-        <v>971.72171924130009</v>
+        <v>635.69490416440374</v>
       </c>
       <c r="X16" s="1">
         <f>W34*$AA$24</f>
-        <v>1335.3783716530334</v>
+        <v>867.51422508246264</v>
       </c>
     </row>
     <row r="17" spans="1:170" x14ac:dyDescent="0.2">
@@ -1984,19 +2001,19 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" si="34"/>
-        <v>1397.5199999999995</v>
+        <v>1392.7999999999995</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="34"/>
-        <v>1440.9093</v>
+        <v>1430.9132</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ref="L17" si="35">L15+L16</f>
-        <v>1486.2046192050009</v>
+        <v>1470.4379582800009</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" ref="M17:P17" si="36">M15+M16</f>
-        <v>1618.9559634625789</v>
+        <v>1597.1942376704117</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="36"/>
@@ -2020,23 +2037,23 @@
       </c>
       <c r="T17" s="1">
         <f t="shared" ref="T17" si="38">T15+T16</f>
-        <v>5943.5898826675839</v>
+        <v>5891.3453959504168</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" ref="U17" si="39">U15+U16</f>
-        <v>6412.4357453344483</v>
+        <v>6299.1216674080379</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" ref="V17" si="40">V15+V16</f>
-        <v>7020.2563813081024</v>
+        <v>6802.0450937429332</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" ref="W17" si="41">W15+W16</f>
-        <v>7672.0812745091416</v>
+        <v>7336.0544594322455</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" ref="X17" si="42">X15+X16</f>
-        <v>8370.7559046842689</v>
+        <v>7902.8917581136993</v>
       </c>
     </row>
     <row r="18" spans="1:170" x14ac:dyDescent="0.2">
@@ -2069,19 +2086,19 @@
       </c>
       <c r="J18" s="1">
         <f>J17*J25</f>
-        <v>349.37999999999988</v>
+        <v>348.19999999999987</v>
       </c>
       <c r="K18" s="1">
         <f>K17*K25</f>
-        <v>302.59095300000001</v>
+        <v>300.49177199999997</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ref="L18:M18" si="43">L17*L25</f>
-        <v>312.10297003305016</v>
+        <v>308.79197123880016</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="43"/>
-        <v>339.98075232714154</v>
+        <v>335.41078991078643</v>
       </c>
       <c r="Q18" s="1">
         <v>947</v>
@@ -2094,23 +2111,23 @@
       </c>
       <c r="T18" s="1">
         <f>SUM(J18:M18)</f>
-        <v>1304.0546753601916</v>
+        <v>1292.8945331495866</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" ref="U18:X18" si="44">U25*U17</f>
-        <v>1346.6115065202341</v>
+        <v>1322.815550155688</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="44"/>
-        <v>1474.2538400747014</v>
+        <v>1428.4294696860159</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="44"/>
-        <v>1611.1370676469196</v>
+        <v>1540.5714364807716</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" si="44"/>
-        <v>1757.8587399836963</v>
+        <v>1659.6072692038767</v>
       </c>
     </row>
     <row r="19" spans="1:170" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2151,19 +2168,19 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" si="45"/>
-        <v>1048.1399999999996</v>
+        <v>1044.5999999999997</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="45"/>
-        <v>1138.3183469999999</v>
+        <v>1130.4214280000001</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" ref="L19" si="46">L17-L18</f>
-        <v>1174.1016491719506</v>
+        <v>1161.6459870412007</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" ref="M19:P19" si="47">M17-M18</f>
-        <v>1278.9752111354373</v>
+        <v>1261.7834477596252</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="47"/>
@@ -2187,607 +2204,607 @@
       </c>
       <c r="T19" s="3">
         <f t="shared" ref="T19" si="49">T17-T18</f>
-        <v>4639.5352073073918</v>
+        <v>4598.4508628008298</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" ref="U19" si="50">U17-U18</f>
-        <v>5065.8242388142144</v>
+        <v>4976.3061172523503</v>
       </c>
       <c r="V19" s="3">
         <f t="shared" ref="V19" si="51">V17-V18</f>
-        <v>5546.0025412334007</v>
+        <v>5373.6156240569171</v>
       </c>
       <c r="W19" s="3">
         <f t="shared" ref="W19" si="52">W17-W18</f>
-        <v>6060.944206862222</v>
+        <v>5795.4830229514737</v>
       </c>
       <c r="X19" s="3">
         <f t="shared" ref="X19" si="53">X17-X18</f>
-        <v>6612.8971647005728</v>
+        <v>6243.2844889098224</v>
       </c>
       <c r="Y19" s="3">
         <f t="shared" ref="Y19:BD19" si="54">X19*(1+$AA$25)</f>
-        <v>6679.0261363475784</v>
+        <v>6305.7173337989207</v>
       </c>
       <c r="Z19" s="3">
         <f t="shared" si="54"/>
-        <v>6745.8163977110544</v>
+        <v>6368.77450713691</v>
       </c>
       <c r="AA19" s="3">
         <f t="shared" si="54"/>
-        <v>6813.2745616881648</v>
+        <v>6432.4622522082791</v>
       </c>
       <c r="AB19" s="3">
         <f t="shared" si="54"/>
-        <v>6881.4073073050467</v>
+        <v>6496.7868747303619</v>
       </c>
       <c r="AC19" s="3">
         <f t="shared" si="54"/>
-        <v>6950.2213803780969</v>
+        <v>6561.7547434776652</v>
       </c>
       <c r="AD19" s="3">
         <f t="shared" si="54"/>
-        <v>7019.7235941818781</v>
+        <v>6627.3722909124417</v>
       </c>
       <c r="AE19" s="3">
         <f t="shared" si="54"/>
-        <v>7089.9208301236968</v>
+        <v>6693.6460138215662</v>
       </c>
       <c r="AF19" s="3">
         <f t="shared" si="54"/>
-        <v>7160.820038424934</v>
+        <v>6760.582473959782</v>
       </c>
       <c r="AG19" s="3">
         <f t="shared" si="54"/>
-        <v>7232.4282388091833</v>
+        <v>6828.1882986993796</v>
       </c>
       <c r="AH19" s="3">
         <f t="shared" si="54"/>
-        <v>7304.7525211972752</v>
+        <v>6896.4701816863735</v>
       </c>
       <c r="AI19" s="3">
         <f t="shared" si="54"/>
-        <v>7377.8000464092484</v>
+        <v>6965.434883503237</v>
       </c>
       <c r="AJ19" s="3">
         <f t="shared" si="54"/>
-        <v>7451.578046873341</v>
+        <v>7035.0892323382695</v>
       </c>
       <c r="AK19" s="3">
         <f t="shared" si="54"/>
-        <v>7526.0938273420743</v>
+        <v>7105.4401246616526</v>
       </c>
       <c r="AL19" s="3">
         <f t="shared" si="54"/>
-        <v>7601.3547656154951</v>
+        <v>7176.4945259082688</v>
       </c>
       <c r="AM19" s="3">
         <f t="shared" si="54"/>
-        <v>7677.3683132716505</v>
+        <v>7248.2594711673519</v>
       </c>
       <c r="AN19" s="3">
         <f t="shared" si="54"/>
-        <v>7754.1419964043671</v>
+        <v>7320.7420658790252</v>
       </c>
       <c r="AO19" s="3">
         <f t="shared" si="54"/>
-        <v>7831.6834163684107</v>
+        <v>7393.9494865378156</v>
       </c>
       <c r="AP19" s="3">
         <f t="shared" si="54"/>
-        <v>7910.0002505320945</v>
+        <v>7467.8889814031936</v>
       </c>
       <c r="AQ19" s="3">
         <f t="shared" si="54"/>
-        <v>7989.1002530374153</v>
+        <v>7542.5678712172257</v>
       </c>
       <c r="AR19" s="3">
         <f t="shared" si="54"/>
-        <v>8068.9912555677893</v>
+        <v>7617.9935499293979</v>
       </c>
       <c r="AS19" s="3">
         <f t="shared" si="54"/>
-        <v>8149.6811681234676</v>
+        <v>7694.1734854286915</v>
       </c>
       <c r="AT19" s="3">
         <f t="shared" si="54"/>
-        <v>8231.1779798047028</v>
+        <v>7771.115220282978</v>
       </c>
       <c r="AU19" s="3">
         <f t="shared" si="54"/>
-        <v>8313.4897596027495</v>
+        <v>7848.826372485808</v>
       </c>
       <c r="AV19" s="3">
         <f t="shared" si="54"/>
-        <v>8396.6246571987776</v>
+        <v>7927.3146362106663</v>
       </c>
       <c r="AW19" s="3">
         <f t="shared" si="54"/>
-        <v>8480.5909037707661</v>
+        <v>8006.587782572773</v>
       </c>
       <c r="AX19" s="3">
         <f t="shared" si="54"/>
-        <v>8565.3968128084744</v>
+        <v>8086.6536603985005</v>
       </c>
       <c r="AY19" s="3">
         <f t="shared" si="54"/>
-        <v>8651.050780936559</v>
+        <v>8167.5201970024855</v>
       </c>
       <c r="AZ19" s="3">
         <f t="shared" si="54"/>
-        <v>8737.5612887459247</v>
+        <v>8249.1953989725098</v>
       </c>
       <c r="BA19" s="3">
         <f t="shared" si="54"/>
-        <v>8824.936901633384</v>
+        <v>8331.6873529622353</v>
       </c>
       <c r="BB19" s="3">
         <f t="shared" si="54"/>
-        <v>8913.1862706497177</v>
+        <v>8415.0042264918575</v>
       </c>
       <c r="BC19" s="3">
         <f t="shared" si="54"/>
-        <v>9002.3181333562152</v>
+        <v>8499.1542687567762</v>
       </c>
       <c r="BD19" s="3">
         <f t="shared" si="54"/>
-        <v>9092.3413146897783</v>
+        <v>8584.1458114443449</v>
       </c>
       <c r="BE19" s="3">
         <f t="shared" ref="BE19:CJ19" si="55">BD19*(1+$AA$25)</f>
-        <v>9183.2647278366767</v>
+        <v>8669.9872695587892</v>
       </c>
       <c r="BF19" s="3">
         <f t="shared" si="55"/>
-        <v>9275.0973751150432</v>
+        <v>8756.6871422543772</v>
       </c>
       <c r="BG19" s="3">
         <f t="shared" si="55"/>
-        <v>9367.8483488661932</v>
+        <v>8844.2540136769203</v>
       </c>
       <c r="BH19" s="3">
         <f t="shared" si="55"/>
-        <v>9461.5268323548553</v>
+        <v>8932.6965538136901</v>
       </c>
       <c r="BI19" s="3">
         <f t="shared" si="55"/>
-        <v>9556.1421006784039</v>
+        <v>9022.0235193518274</v>
       </c>
       <c r="BJ19" s="3">
         <f t="shared" si="55"/>
-        <v>9651.7035216851873</v>
+        <v>9112.2437545453449</v>
       </c>
       <c r="BK19" s="3">
         <f t="shared" si="55"/>
-        <v>9748.2205569020389</v>
+        <v>9203.366192090798</v>
       </c>
       <c r="BL19" s="3">
         <f t="shared" si="55"/>
-        <v>9845.702762471059</v>
+        <v>9295.3998540117063</v>
       </c>
       <c r="BM19" s="3">
         <f t="shared" si="55"/>
-        <v>9944.1597900957695</v>
+        <v>9388.3538525518234</v>
       </c>
       <c r="BN19" s="3">
         <f t="shared" si="55"/>
-        <v>10043.601387996727</v>
+        <v>9482.2373910773422</v>
       </c>
       <c r="BO19" s="3">
         <f t="shared" si="55"/>
-        <v>10144.037401876694</v>
+        <v>9577.0597649881165</v>
       </c>
       <c r="BP19" s="3">
         <f t="shared" si="55"/>
-        <v>10245.477775895461</v>
+        <v>9672.8303626379984</v>
       </c>
       <c r="BQ19" s="3">
         <f t="shared" si="55"/>
-        <v>10347.932553654415</v>
+        <v>9769.5586662643782</v>
       </c>
       <c r="BR19" s="3">
         <f t="shared" si="55"/>
-        <v>10451.411879190959</v>
+        <v>9867.2542529270213</v>
       </c>
       <c r="BS19" s="3">
         <f t="shared" si="55"/>
-        <v>10555.925997982868</v>
+        <v>9965.9267954562911</v>
       </c>
       <c r="BT19" s="3">
         <f t="shared" si="55"/>
-        <v>10661.485257962697</v>
+        <v>10065.586063410854</v>
       </c>
       <c r="BU19" s="3">
         <f t="shared" si="55"/>
-        <v>10768.100110542324</v>
+        <v>10166.241924044962</v>
       </c>
       <c r="BV19" s="3">
         <f t="shared" si="55"/>
-        <v>10875.781111647748</v>
+        <v>10267.904343285411</v>
       </c>
       <c r="BW19" s="3">
         <f t="shared" si="55"/>
-        <v>10984.538922764226</v>
+        <v>10370.583386718265</v>
       </c>
       <c r="BX19" s="3">
         <f t="shared" si="55"/>
-        <v>11094.384311991869</v>
+        <v>10474.289220585448</v>
       </c>
       <c r="BY19" s="3">
         <f t="shared" si="55"/>
-        <v>11205.328155111789</v>
+        <v>10579.032112791303</v>
       </c>
       <c r="BZ19" s="3">
         <f t="shared" si="55"/>
-        <v>11317.381436662907</v>
+        <v>10684.822433919217</v>
       </c>
       <c r="CA19" s="3">
         <f t="shared" si="55"/>
-        <v>11430.555251029537</v>
+        <v>10791.670658258408</v>
       </c>
       <c r="CB19" s="3">
         <f t="shared" si="55"/>
-        <v>11544.860803539832</v>
+        <v>10899.587364840992</v>
       </c>
       <c r="CC19" s="3">
         <f t="shared" si="55"/>
-        <v>11660.30941157523</v>
+        <v>11008.583238489402</v>
       </c>
       <c r="CD19" s="3">
         <f t="shared" si="55"/>
-        <v>11776.912505690983</v>
+        <v>11118.669070874295</v>
       </c>
       <c r="CE19" s="3">
         <f t="shared" si="55"/>
-        <v>11894.681630747893</v>
+        <v>11229.855761583038</v>
       </c>
       <c r="CF19" s="3">
         <f t="shared" si="55"/>
-        <v>12013.628447055373</v>
+        <v>11342.154319198868</v>
       </c>
       <c r="CG19" s="3">
         <f t="shared" si="55"/>
-        <v>12133.764731525927</v>
+        <v>11455.575862390857</v>
       </c>
       <c r="CH19" s="3">
         <f t="shared" si="55"/>
-        <v>12255.102378841188</v>
+        <v>11570.131621014765</v>
       </c>
       <c r="CI19" s="3">
         <f t="shared" si="55"/>
-        <v>12377.653402629599</v>
+        <v>11685.832937224914</v>
       </c>
       <c r="CJ19" s="3">
         <f t="shared" si="55"/>
-        <v>12501.429936655895</v>
+        <v>11802.691266597163</v>
       </c>
       <c r="CK19" s="3">
         <f t="shared" ref="CK19:DP19" si="56">CJ19*(1+$AA$25)</f>
-        <v>12626.444236022455</v>
+        <v>11920.718179263135</v>
       </c>
       <c r="CL19" s="3">
         <f t="shared" si="56"/>
-        <v>12752.70867838268</v>
+        <v>12039.925361055766</v>
       </c>
       <c r="CM19" s="3">
         <f t="shared" si="56"/>
-        <v>12880.235765166506</v>
+        <v>12160.324614666324</v>
       </c>
       <c r="CN19" s="3">
         <f t="shared" si="56"/>
-        <v>13009.03812281817</v>
+        <v>12281.927860812988</v>
       </c>
       <c r="CO19" s="3">
         <f t="shared" si="56"/>
-        <v>13139.128504046352</v>
+        <v>12404.747139421119</v>
       </c>
       <c r="CP19" s="3">
         <f t="shared" si="56"/>
-        <v>13270.519789086815</v>
+        <v>12528.79461081533</v>
       </c>
       <c r="CQ19" s="3">
         <f t="shared" si="56"/>
-        <v>13403.224986977682</v>
+        <v>12654.082556923484</v>
       </c>
       <c r="CR19" s="3">
         <f t="shared" si="56"/>
-        <v>13537.257236847459</v>
+        <v>12780.623382492719</v>
       </c>
       <c r="CS19" s="3">
         <f t="shared" si="56"/>
-        <v>13672.629809215934</v>
+        <v>12908.429616317646</v>
       </c>
       <c r="CT19" s="3">
         <f t="shared" si="56"/>
-        <v>13809.356107308093</v>
+        <v>13037.513912480823</v>
       </c>
       <c r="CU19" s="3">
         <f t="shared" si="56"/>
-        <v>13947.449668381174</v>
+        <v>13167.889051605631</v>
       </c>
       <c r="CV19" s="3">
         <f t="shared" si="56"/>
-        <v>14086.924165064986</v>
+        <v>13299.567942121686</v>
       </c>
       <c r="CW19" s="3">
         <f t="shared" si="56"/>
-        <v>14227.793406715635</v>
+        <v>13432.563621542904</v>
       </c>
       <c r="CX19" s="3">
         <f t="shared" si="56"/>
-        <v>14370.071340782792</v>
+        <v>13566.889257758334</v>
       </c>
       <c r="CY19" s="3">
         <f t="shared" si="56"/>
-        <v>14513.77205419062</v>
+        <v>13702.558150335917</v>
       </c>
       <c r="CZ19" s="3">
         <f t="shared" si="56"/>
-        <v>14658.909774732527</v>
+        <v>13839.583731839277</v>
       </c>
       <c r="DA19" s="3">
         <f t="shared" si="56"/>
-        <v>14805.498872479851</v>
+        <v>13977.979569157669</v>
       </c>
       <c r="DB19" s="3">
         <f t="shared" si="56"/>
-        <v>14953.553861204649</v>
+        <v>14117.759364849246</v>
       </c>
       <c r="DC19" s="3">
         <f t="shared" si="56"/>
-        <v>15103.089399816696</v>
+        <v>14258.936958497738</v>
       </c>
       <c r="DD19" s="3">
         <f t="shared" si="56"/>
-        <v>15254.120293814864</v>
+        <v>14401.526328082715</v>
       </c>
       <c r="DE19" s="3">
         <f t="shared" si="56"/>
-        <v>15406.661496753013</v>
+        <v>14545.541591363542</v>
       </c>
       <c r="DF19" s="3">
         <f t="shared" si="56"/>
-        <v>15560.728111720544</v>
+        <v>14690.997007277178</v>
       </c>
       <c r="DG19" s="3">
         <f t="shared" si="56"/>
-        <v>15716.335392837749</v>
+        <v>14837.906977349949</v>
       </c>
       <c r="DH19" s="3">
         <f t="shared" si="56"/>
-        <v>15873.498746766127</v>
+        <v>14986.286047123449</v>
       </c>
       <c r="DI19" s="3">
         <f t="shared" si="56"/>
-        <v>16032.233734233789</v>
+        <v>15136.148907594683</v>
       </c>
       <c r="DJ19" s="3">
         <f t="shared" si="56"/>
-        <v>16192.556071576128</v>
+        <v>15287.51039667063</v>
       </c>
       <c r="DK19" s="3">
         <f t="shared" si="56"/>
-        <v>16354.481632291889</v>
+        <v>15440.385500637336</v>
       </c>
       <c r="DL19" s="3">
         <f t="shared" si="56"/>
-        <v>16518.026448614808</v>
+        <v>15594.78935564371</v>
       </c>
       <c r="DM19" s="3">
         <f t="shared" si="56"/>
-        <v>16683.206713100957</v>
+        <v>15750.737249200147</v>
       </c>
       <c r="DN19" s="3">
         <f t="shared" si="56"/>
-        <v>16850.038780231967</v>
+        <v>15908.244621692149</v>
       </c>
       <c r="DO19" s="3">
         <f t="shared" si="56"/>
-        <v>17018.539168034287</v>
+        <v>16067.327067909071</v>
       </c>
       <c r="DP19" s="3">
         <f t="shared" si="56"/>
-        <v>17188.724559714632</v>
+        <v>16228.000338588163</v>
       </c>
       <c r="DQ19" s="3">
         <f t="shared" ref="DQ19:EV19" si="57">DP19*(1+$AA$25)</f>
-        <v>17360.611805311779</v>
+        <v>16390.280341974045</v>
       </c>
       <c r="DR19" s="3">
         <f t="shared" si="57"/>
-        <v>17534.217923364897</v>
+        <v>16554.183145393785</v>
       </c>
       <c r="DS19" s="3">
         <f t="shared" si="57"/>
-        <v>17709.560102598545</v>
+        <v>16719.724976847723</v>
       </c>
       <c r="DT19" s="3">
         <f t="shared" si="57"/>
-        <v>17886.655703624532</v>
+        <v>16886.9222266162</v>
       </c>
       <c r="DU19" s="3">
         <f t="shared" si="57"/>
-        <v>18065.522260660779</v>
+        <v>17055.791448882363</v>
       </c>
       <c r="DV19" s="3">
         <f t="shared" si="57"/>
-        <v>18246.177483267387</v>
+        <v>17226.349363371188</v>
       </c>
       <c r="DW19" s="3">
         <f t="shared" si="57"/>
-        <v>18428.639258100062</v>
+        <v>17398.6128570049</v>
       </c>
       <c r="DX19" s="3">
         <f t="shared" si="57"/>
-        <v>18612.925650681063</v>
+        <v>17572.59898557495</v>
       </c>
       <c r="DY19" s="3">
         <f t="shared" si="57"/>
-        <v>18799.054907187874</v>
+        <v>17748.3249754307</v>
       </c>
       <c r="DZ19" s="3">
         <f t="shared" si="57"/>
-        <v>18987.045456259752</v>
+        <v>17925.808225185006</v>
       </c>
       <c r="EA19" s="3">
         <f t="shared" si="57"/>
-        <v>19176.91591082235</v>
+        <v>18105.066307436857</v>
       </c>
       <c r="EB19" s="3">
         <f t="shared" si="57"/>
-        <v>19368.685069930572</v>
+        <v>18286.116970511226</v>
       </c>
       <c r="EC19" s="3">
         <f t="shared" si="57"/>
-        <v>19562.371920629877</v>
+        <v>18468.978140216339</v>
       </c>
       <c r="ED19" s="3">
         <f t="shared" si="57"/>
-        <v>19757.995639836176</v>
+        <v>18653.667921618504</v>
       </c>
       <c r="EE19" s="3">
         <f t="shared" si="57"/>
-        <v>19955.575596234539</v>
+        <v>18840.204600834688</v>
       </c>
       <c r="EF19" s="3">
         <f t="shared" si="57"/>
-        <v>20155.131352196884</v>
+        <v>19028.606646843036</v>
       </c>
       <c r="EG19" s="3">
         <f t="shared" si="57"/>
-        <v>20356.682665718854</v>
+        <v>19218.892713311467</v>
       </c>
       <c r="EH19" s="3">
         <f t="shared" si="57"/>
-        <v>20560.249492376042</v>
+        <v>19411.081640444583</v>
       </c>
       <c r="EI19" s="3">
         <f t="shared" si="57"/>
-        <v>20765.851987299804</v>
+        <v>19605.192456849029</v>
       </c>
       <c r="EJ19" s="3">
         <f t="shared" si="57"/>
-        <v>20973.510507172803</v>
+        <v>19801.24438141752</v>
       </c>
       <c r="EK19" s="3">
         <f t="shared" si="57"/>
-        <v>21183.245612244533</v>
+        <v>19999.256825231696</v>
       </c>
       <c r="EL19" s="3">
         <f t="shared" si="57"/>
-        <v>21395.07806836698</v>
+        <v>20199.249393484013</v>
       </c>
       <c r="EM19" s="3">
         <f t="shared" si="57"/>
-        <v>21609.02884905065</v>
+        <v>20401.241887418855</v>
       </c>
       <c r="EN19" s="3">
         <f t="shared" si="57"/>
-        <v>21825.119137541158</v>
+        <v>20605.254306293045</v>
       </c>
       <c r="EO19" s="3">
         <f t="shared" si="57"/>
-        <v>22043.370328916571</v>
+        <v>20811.306849355977</v>
       </c>
       <c r="EP19" s="3">
         <f t="shared" si="57"/>
-        <v>22263.804032205739</v>
+        <v>21019.419917849536</v>
       </c>
       <c r="EQ19" s="3">
         <f t="shared" si="57"/>
-        <v>22486.442072527796</v>
+        <v>21229.614117028032</v>
       </c>
       <c r="ER19" s="3">
         <f t="shared" si="57"/>
-        <v>22711.306493253072</v>
+        <v>21441.910258198313</v>
       </c>
       <c r="ES19" s="3">
         <f t="shared" si="57"/>
-        <v>22938.419558185604</v>
+        <v>21656.329360780295</v>
       </c>
       <c r="ET19" s="3">
         <f t="shared" si="57"/>
-        <v>23167.803753767461</v>
+        <v>21872.892654388099</v>
       </c>
       <c r="EU19" s="3">
         <f t="shared" si="57"/>
-        <v>23399.481791305137</v>
+        <v>22091.62158093198</v>
       </c>
       <c r="EV19" s="3">
         <f t="shared" si="57"/>
-        <v>23633.476609218189</v>
+        <v>22312.537796741301</v>
       </c>
       <c r="EW19" s="3">
         <f t="shared" ref="EW19:FN19" si="58">EV19*(1+$AA$25)</f>
-        <v>23869.811375310372</v>
+        <v>22535.663174708712</v>
       </c>
       <c r="EX19" s="3">
         <f t="shared" si="58"/>
-        <v>24108.509489063475</v>
+        <v>22761.019806455799</v>
       </c>
       <c r="EY19" s="3">
         <f t="shared" si="58"/>
-        <v>24349.594583954109</v>
+        <v>22988.630004520357</v>
       </c>
       <c r="EZ19" s="3">
         <f t="shared" si="58"/>
-        <v>24593.090529793652</v>
+        <v>23218.516304565561</v>
       </c>
       <c r="FA19" s="3">
         <f t="shared" si="58"/>
-        <v>24839.021435091589</v>
+        <v>23450.701467611216</v>
       </c>
       <c r="FB19" s="3">
         <f t="shared" si="58"/>
-        <v>25087.411649442503</v>
+        <v>23685.208482287329</v>
       </c>
       <c r="FC19" s="3">
         <f t="shared" si="58"/>
-        <v>25338.285765936929</v>
+        <v>23922.060567110202</v>
       </c>
       <c r="FD19" s="3">
         <f t="shared" si="58"/>
-        <v>25591.668623596299</v>
+        <v>24161.281172781306</v>
       </c>
       <c r="FE19" s="3">
         <f t="shared" si="58"/>
-        <v>25847.585309832262</v>
+        <v>24402.893984509119</v>
       </c>
       <c r="FF19" s="3">
         <f t="shared" si="58"/>
-        <v>26106.061162930586</v>
+        <v>24646.92292435421</v>
       </c>
       <c r="FG19" s="3">
         <f t="shared" si="58"/>
-        <v>26367.121774559891</v>
+        <v>24893.392153597753</v>
       </c>
       <c r="FH19" s="3">
         <f t="shared" si="58"/>
-        <v>26630.792992305491</v>
+        <v>25142.326075133729</v>
       </c>
       <c r="FI19" s="3">
         <f t="shared" si="58"/>
-        <v>26897.100922228547</v>
+        <v>25393.749335885066</v>
       </c>
       <c r="FJ19" s="3">
         <f t="shared" si="58"/>
-        <v>27166.071931450831</v>
+        <v>25647.686829243918</v>
       </c>
       <c r="FK19" s="3">
         <f t="shared" si="58"/>
-        <v>27437.732650765342</v>
+        <v>25904.163697536358</v>
       </c>
       <c r="FL19" s="3">
         <f t="shared" si="58"/>
-        <v>27712.109977272994</v>
+        <v>26163.20533451172</v>
       </c>
       <c r="FM19" s="3">
         <f t="shared" si="58"/>
-        <v>27989.231077045722</v>
+        <v>26424.837387856838</v>
       </c>
       <c r="FN19" s="3">
         <f t="shared" si="58"/>
-        <v>28269.12338781618</v>
+        <v>26689.085761735409</v>
       </c>
     </row>
     <row r="20" spans="1:170" x14ac:dyDescent="0.2">
@@ -2906,15 +2923,15 @@
       </c>
       <c r="K21" s="5">
         <f>K19/K20</f>
-        <v>1.1453952863160322</v>
+        <v>1.1374492720724267</v>
       </c>
       <c r="L21" s="5">
         <f t="shared" ref="L21:M21" si="62">L19/L20</f>
-        <v>1.193334397699475</v>
+        <v>1.1806747016014161</v>
       </c>
       <c r="M21" s="5">
         <f t="shared" si="62"/>
-        <v>1.3130564390619213</v>
+        <v>1.2954065617203592</v>
       </c>
       <c r="Q21" s="5">
         <f>Q19/Q20</f>
@@ -2930,23 +2947,23 @@
       </c>
       <c r="T21" s="5">
         <f t="shared" ref="T21:X21" si="63">T19/T20</f>
-        <v>4.7631662640288228</v>
+        <v>4.7209871329328514</v>
       </c>
       <c r="U21" s="5">
         <f t="shared" si="63"/>
-        <v>5.4175153588605003</v>
+        <v>5.321782507581938</v>
       </c>
       <c r="V21" s="5">
         <f t="shared" si="63"/>
-        <v>6.1781559235224126</v>
+        <v>5.9861197234714112</v>
       </c>
       <c r="W21" s="5">
         <f t="shared" si="63"/>
-        <v>7.0331171857878196</v>
+        <v>6.7250761362417082</v>
       </c>
       <c r="X21" s="5">
         <f t="shared" si="63"/>
-        <v>7.993336638498568</v>
+        <v>7.546567473657718</v>
       </c>
     </row>
     <row r="22" spans="1:170" x14ac:dyDescent="0.2">
@@ -3086,8 +3103,8 @@
       <c r="Z24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA24" s="4">
-        <v>0.06</v>
+      <c r="AA24" s="6">
+        <v>0.04</v>
       </c>
     </row>
     <row r="25" spans="1:170" x14ac:dyDescent="0.2">
@@ -3160,7 +3177,7 @@
       </c>
       <c r="T25" s="4">
         <f t="shared" si="69"/>
-        <v>0.21940522497405385</v>
+        <v>0.21945658355700792</v>
       </c>
       <c r="U25" s="4">
         <v>0.21</v>
@@ -3177,7 +3194,7 @@
       <c r="Z25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AA25" s="4">
+      <c r="AA25" s="6">
         <v>0.01</v>
       </c>
     </row>
@@ -3286,7 +3303,7 @@
       </c>
       <c r="AA27" s="3">
         <f>NPV(AA26,T32:XFD32)+Sheet1!E5-Sheet1!E6</f>
-        <v>97860.427935826461</v>
+        <v>93141.916207696486</v>
       </c>
     </row>
     <row r="28" spans="1:170" x14ac:dyDescent="0.2">
@@ -3384,9 +3401,9 @@
       <c r="Z28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AA28" s="5">
         <f>AA27/Sheet1!E3</f>
-        <v>98.924659421887128</v>
+        <v>94.154833910910057</v>
       </c>
     </row>
     <row r="29" spans="1:170" x14ac:dyDescent="0.2">
@@ -3398,7 +3415,7 @@
       </c>
       <c r="AA29" s="4">
         <f>AA28/Sheet1!E2-1</f>
-        <v>0.36825255078682062</v>
+        <v>0.32612442128042329</v>
       </c>
       <c r="AB29" s="4"/>
     </row>
@@ -3497,591 +3514,591 @@
       </c>
       <c r="U32" s="3">
         <f>U33*U19</f>
-        <v>5572.4066626956364</v>
+        <v>5473.9367289775855</v>
       </c>
       <c r="V32" s="3">
         <f t="shared" ref="V32:X32" si="78">V33*V19</f>
-        <v>6100.6027953567409</v>
+        <v>5910.9771864626091</v>
       </c>
       <c r="W32" s="3">
         <f t="shared" si="78"/>
-        <v>6667.0386275484443</v>
+        <v>6375.0313252466212</v>
       </c>
       <c r="X32" s="3">
         <f t="shared" si="78"/>
-        <v>7274.1868811706308</v>
+        <v>6867.6129378008054</v>
       </c>
       <c r="Y32" s="3">
         <f t="shared" ref="Y32:BD32" si="79">X32*(1+$AA$25)</f>
-        <v>7346.9287499823376</v>
+        <v>6936.2890671788136</v>
       </c>
       <c r="Z32" s="3">
         <f t="shared" si="79"/>
-        <v>7420.3980374821613</v>
+        <v>7005.6519578506022</v>
       </c>
       <c r="AA32" s="3">
         <f t="shared" si="79"/>
-        <v>7494.6020178569834</v>
+        <v>7075.7084774291079</v>
       </c>
       <c r="AB32" s="3">
         <f t="shared" si="79"/>
-        <v>7569.548038035553</v>
+        <v>7146.4655622033988</v>
       </c>
       <c r="AC32" s="3">
         <f t="shared" si="79"/>
-        <v>7645.2435184159085</v>
+        <v>7217.9302178254329</v>
       </c>
       <c r="AD32" s="3">
         <f t="shared" si="79"/>
-        <v>7721.6959536000677</v>
+        <v>7290.1095200036871</v>
       </c>
       <c r="AE32" s="3">
         <f t="shared" si="79"/>
-        <v>7798.9129131360687</v>
+        <v>7363.0106152037242</v>
       </c>
       <c r="AF32" s="3">
         <f t="shared" si="79"/>
-        <v>7876.9020422674294</v>
+        <v>7436.6407213557613</v>
       </c>
       <c r="AG32" s="3">
         <f t="shared" si="79"/>
-        <v>7955.671062690104</v>
+        <v>7511.0071285693193</v>
       </c>
       <c r="AH32" s="3">
         <f t="shared" si="79"/>
-        <v>8035.2277733170049</v>
+        <v>7586.1171998550126</v>
       </c>
       <c r="AI32" s="3">
         <f t="shared" si="79"/>
-        <v>8115.5800510501749</v>
+        <v>7661.9783718535627</v>
       </c>
       <c r="AJ32" s="3">
         <f t="shared" si="79"/>
-        <v>8196.7358515606775</v>
+        <v>7738.5981555720982</v>
       </c>
       <c r="AK32" s="3">
         <f t="shared" si="79"/>
-        <v>8278.7032100762844</v>
+        <v>7815.9841371278189</v>
       </c>
       <c r="AL32" s="3">
         <f t="shared" si="79"/>
-        <v>8361.4902421770475</v>
+        <v>7894.1439784990971</v>
       </c>
       <c r="AM32" s="3">
         <f t="shared" si="79"/>
-        <v>8445.1051445988178</v>
+        <v>7973.0854182840885</v>
       </c>
       <c r="AN32" s="3">
         <f t="shared" si="79"/>
-        <v>8529.5561960448067</v>
+        <v>8052.8162724669291</v>
       </c>
       <c r="AO32" s="3">
         <f t="shared" si="79"/>
-        <v>8614.8517580052558</v>
+        <v>8133.3444351915987</v>
       </c>
       <c r="AP32" s="3">
         <f t="shared" si="79"/>
-        <v>8701.0002755853093</v>
+        <v>8214.6778795435148</v>
       </c>
       <c r="AQ32" s="3">
         <f t="shared" si="79"/>
-        <v>8788.0102783411621</v>
+        <v>8296.82465833895</v>
       </c>
       <c r="AR32" s="3">
         <f t="shared" si="79"/>
-        <v>8875.8903811245746</v>
+        <v>8379.7929049223403</v>
       </c>
       <c r="AS32" s="3">
         <f t="shared" si="79"/>
-        <v>8964.6492849358201</v>
+        <v>8463.5908339715643</v>
       </c>
       <c r="AT32" s="3">
         <f t="shared" si="79"/>
-        <v>9054.2957777851789</v>
+        <v>8548.2267423112808</v>
       </c>
       <c r="AU32" s="3">
         <f t="shared" si="79"/>
-        <v>9144.8387355630312</v>
+        <v>8633.7090097343935</v>
       </c>
       <c r="AV32" s="3">
         <f t="shared" si="79"/>
-        <v>9236.2871229186621</v>
+        <v>8720.0460998317376</v>
       </c>
       <c r="AW32" s="3">
         <f t="shared" si="79"/>
-        <v>9328.6499941478487</v>
+        <v>8807.2465608300554</v>
       </c>
       <c r="AX32" s="3">
         <f t="shared" si="79"/>
-        <v>9421.9364940893265</v>
+        <v>8895.3190264383556</v>
       </c>
       <c r="AY32" s="3">
         <f t="shared" si="79"/>
-        <v>9516.1558590302193</v>
+        <v>8984.2722167027387</v>
       </c>
       <c r="AZ32" s="3">
         <f t="shared" si="79"/>
-        <v>9611.3174176205212</v>
+        <v>9074.1149388697668</v>
       </c>
       <c r="BA32" s="3">
         <f t="shared" si="79"/>
-        <v>9707.4305917967267</v>
+        <v>9164.8560882584643</v>
       </c>
       <c r="BB32" s="3">
         <f t="shared" si="79"/>
-        <v>9804.5048977146944</v>
+        <v>9256.5046491410485</v>
       </c>
       <c r="BC32" s="3">
         <f t="shared" si="79"/>
-        <v>9902.5499466918409</v>
+        <v>9349.0696956324591</v>
       </c>
       <c r="BD32" s="3">
         <f t="shared" si="79"/>
-        <v>10001.575446158758</v>
+        <v>9442.5603925887845</v>
       </c>
       <c r="BE32" s="3">
         <f t="shared" ref="BE32:CJ32" si="80">BD32*(1+$AA$25)</f>
-        <v>10101.591200620345</v>
+        <v>9536.9859965146716</v>
       </c>
       <c r="BF32" s="3">
         <f t="shared" si="80"/>
-        <v>10202.607112626549</v>
+        <v>9632.3558564798186</v>
       </c>
       <c r="BG32" s="3">
         <f t="shared" si="80"/>
-        <v>10304.633183752814</v>
+        <v>9728.6794150446167</v>
       </c>
       <c r="BH32" s="3">
         <f t="shared" si="80"/>
-        <v>10407.679515590342</v>
+        <v>9825.9662091950631</v>
       </c>
       <c r="BI32" s="3">
         <f t="shared" si="80"/>
-        <v>10511.756310746245</v>
+        <v>9924.2258712870134</v>
       </c>
       <c r="BJ32" s="3">
         <f t="shared" si="80"/>
-        <v>10616.873873853707</v>
+        <v>10023.468129999883</v>
       </c>
       <c r="BK32" s="3">
         <f t="shared" si="80"/>
-        <v>10723.042612592244</v>
+        <v>10123.702811299881</v>
       </c>
       <c r="BL32" s="3">
         <f t="shared" si="80"/>
-        <v>10830.273038718167</v>
+        <v>10224.93983941288</v>
       </c>
       <c r="BM32" s="3">
         <f t="shared" si="80"/>
-        <v>10938.57576910535</v>
+        <v>10327.18923780701</v>
       </c>
       <c r="BN32" s="3">
         <f t="shared" si="80"/>
-        <v>11047.961526796404</v>
+        <v>10430.46113018508</v>
       </c>
       <c r="BO32" s="3">
         <f t="shared" si="80"/>
-        <v>11158.441142064368</v>
+        <v>10534.765741486932</v>
       </c>
       <c r="BP32" s="3">
         <f t="shared" si="80"/>
-        <v>11270.025553485011</v>
+        <v>10640.113398901802</v>
       </c>
       <c r="BQ32" s="3">
         <f t="shared" si="80"/>
-        <v>11382.725809019861</v>
+        <v>10746.51453289082</v>
       </c>
       <c r="BR32" s="3">
         <f t="shared" si="80"/>
-        <v>11496.553067110061</v>
+        <v>10853.979678219728</v>
       </c>
       <c r="BS32" s="3">
         <f t="shared" si="80"/>
-        <v>11611.518597781162</v>
+        <v>10962.519475001925</v>
       </c>
       <c r="BT32" s="3">
         <f t="shared" si="80"/>
-        <v>11727.633783758973</v>
+        <v>11072.144669751944</v>
       </c>
       <c r="BU32" s="3">
         <f t="shared" si="80"/>
-        <v>11844.910121596562</v>
+        <v>11182.866116449464</v>
       </c>
       <c r="BV32" s="3">
         <f t="shared" si="80"/>
-        <v>11963.359222812527</v>
+        <v>11294.694777613959</v>
       </c>
       <c r="BW32" s="3">
         <f t="shared" si="80"/>
-        <v>12082.992815040652</v>
+        <v>11407.641725390098</v>
       </c>
       <c r="BX32" s="3">
         <f t="shared" si="80"/>
-        <v>12203.822743191058</v>
+        <v>11521.718142643998</v>
       </c>
       <c r="BY32" s="3">
         <f t="shared" si="80"/>
-        <v>12325.860970622969</v>
+        <v>11636.935324070439</v>
       </c>
       <c r="BZ32" s="3">
         <f t="shared" si="80"/>
-        <v>12449.119580329199</v>
+        <v>11753.304677311144</v>
       </c>
       <c r="CA32" s="3">
         <f t="shared" si="80"/>
-        <v>12573.610776132491</v>
+        <v>11870.837724084255</v>
       </c>
       <c r="CB32" s="3">
         <f t="shared" si="80"/>
-        <v>12699.346883893817</v>
+        <v>11989.546101325097</v>
       </c>
       <c r="CC32" s="3">
         <f t="shared" si="80"/>
-        <v>12826.340352732755</v>
+        <v>12109.441562338348</v>
       </c>
       <c r="CD32" s="3">
         <f t="shared" si="80"/>
-        <v>12954.603756260083</v>
+        <v>12230.535977961732</v>
       </c>
       <c r="CE32" s="3">
         <f t="shared" si="80"/>
-        <v>13084.149793822684</v>
+        <v>12352.841337741349</v>
       </c>
       <c r="CF32" s="3">
         <f t="shared" si="80"/>
-        <v>13214.991291760911</v>
+        <v>12476.369751118762</v>
       </c>
       <c r="CG32" s="3">
         <f t="shared" si="80"/>
-        <v>13347.141204678521</v>
+        <v>12601.133448629949</v>
       </c>
       <c r="CH32" s="3">
         <f t="shared" si="80"/>
-        <v>13480.612616725306</v>
+        <v>12727.14478311625</v>
       </c>
       <c r="CI32" s="3">
         <f t="shared" si="80"/>
-        <v>13615.41874289256</v>
+        <v>12854.416230947412</v>
       </c>
       <c r="CJ32" s="3">
         <f t="shared" si="80"/>
-        <v>13751.572930321485</v>
+        <v>12982.960393256886</v>
       </c>
       <c r="CK32" s="3">
         <f t="shared" ref="CK32:DP32" si="81">CJ32*(1+$AA$25)</f>
-        <v>13889.0886596247</v>
+        <v>13112.789997189455</v>
       </c>
       <c r="CL32" s="3">
         <f t="shared" si="81"/>
-        <v>14027.979546220948</v>
+        <v>13243.917897161349</v>
       </c>
       <c r="CM32" s="3">
         <f t="shared" si="81"/>
-        <v>14168.259341683157</v>
+        <v>13376.357076132963</v>
       </c>
       <c r="CN32" s="3">
         <f t="shared" si="81"/>
-        <v>14309.941935099989</v>
+        <v>13510.120646894293</v>
       </c>
       <c r="CO32" s="3">
         <f t="shared" si="81"/>
-        <v>14453.041354450988</v>
+        <v>13645.221853363237</v>
       </c>
       <c r="CP32" s="3">
         <f t="shared" si="81"/>
-        <v>14597.571767995498</v>
+        <v>13781.674071896869</v>
       </c>
       <c r="CQ32" s="3">
         <f t="shared" si="81"/>
-        <v>14743.547485675454</v>
+        <v>13919.490812615837</v>
       </c>
       <c r="CR32" s="3">
         <f t="shared" si="81"/>
-        <v>14890.982960532208</v>
+        <v>14058.685720741996</v>
       </c>
       <c r="CS32" s="3">
         <f t="shared" si="81"/>
-        <v>15039.89279013753</v>
+        <v>14199.272577949416</v>
       </c>
       <c r="CT32" s="3">
         <f t="shared" si="81"/>
-        <v>15190.291718038905</v>
+        <v>14341.265303728909</v>
       </c>
       <c r="CU32" s="3">
         <f t="shared" si="81"/>
-        <v>15342.194635219294</v>
+        <v>14484.677956766198</v>
       </c>
       <c r="CV32" s="3">
         <f t="shared" si="81"/>
-        <v>15495.616581571487</v>
+        <v>14629.52473633386</v>
       </c>
       <c r="CW32" s="3">
         <f t="shared" si="81"/>
-        <v>15650.572747387201</v>
+        <v>14775.8199836972</v>
       </c>
       <c r="CX32" s="3">
         <f t="shared" si="81"/>
-        <v>15807.078474861073</v>
+        <v>14923.578183534171</v>
       </c>
       <c r="CY32" s="3">
         <f t="shared" si="81"/>
-        <v>15965.149259609683</v>
+        <v>15072.813965369513</v>
       </c>
       <c r="CZ32" s="3">
         <f t="shared" si="81"/>
-        <v>16124.80075220578</v>
+        <v>15223.542105023207</v>
       </c>
       <c r="DA32" s="3">
         <f t="shared" si="81"/>
-        <v>16286.048759727837</v>
+        <v>15375.77752607344</v>
       </c>
       <c r="DB32" s="3">
         <f t="shared" si="81"/>
-        <v>16448.909247325115</v>
+        <v>15529.535301334174</v>
       </c>
       <c r="DC32" s="3">
         <f t="shared" si="81"/>
-        <v>16613.398339798365</v>
+        <v>15684.830654347516</v>
       </c>
       <c r="DD32" s="3">
         <f t="shared" si="81"/>
-        <v>16779.532323196348</v>
+        <v>15841.678960890991</v>
       </c>
       <c r="DE32" s="3">
         <f t="shared" si="81"/>
-        <v>16947.327646428312</v>
+        <v>16000.095750499901</v>
       </c>
       <c r="DF32" s="3">
         <f t="shared" si="81"/>
-        <v>17116.800922892595</v>
+        <v>16160.096708004899</v>
       </c>
       <c r="DG32" s="3">
         <f t="shared" si="81"/>
-        <v>17287.968932121519</v>
+        <v>16321.697675084948</v>
       </c>
       <c r="DH32" s="3">
         <f t="shared" si="81"/>
-        <v>17460.848621442736</v>
+        <v>16484.914651835799</v>
       </c>
       <c r="DI32" s="3">
         <f t="shared" si="81"/>
-        <v>17635.457107657163</v>
+        <v>16649.763798354157</v>
       </c>
       <c r="DJ32" s="3">
         <f t="shared" si="81"/>
-        <v>17811.811678733735</v>
+        <v>16816.2614363377</v>
       </c>
       <c r="DK32" s="3">
         <f t="shared" si="81"/>
-        <v>17989.929795521071</v>
+        <v>16984.424050701076</v>
       </c>
       <c r="DL32" s="3">
         <f t="shared" si="81"/>
-        <v>18169.829093476281</v>
+        <v>17154.268291208089</v>
       </c>
       <c r="DM32" s="3">
         <f t="shared" si="81"/>
-        <v>18351.527384411045</v>
+        <v>17325.81097412017</v>
       </c>
       <c r="DN32" s="3">
         <f t="shared" si="81"/>
-        <v>18535.042658255155</v>
+        <v>17499.06908386137</v>
       </c>
       <c r="DO32" s="3">
         <f t="shared" si="81"/>
-        <v>18720.393084837706</v>
+        <v>17674.059774699985</v>
       </c>
       <c r="DP32" s="3">
         <f t="shared" si="81"/>
-        <v>18907.597015686082</v>
+        <v>17850.800372446985</v>
       </c>
       <c r="DQ32" s="3">
         <f t="shared" ref="DQ32:EV32" si="82">DP32*(1+$AA$25)</f>
-        <v>19096.672985842943</v>
+        <v>18029.308376171455</v>
       </c>
       <c r="DR32" s="3">
         <f t="shared" si="82"/>
-        <v>19287.639715701371</v>
+        <v>18209.601459933168</v>
       </c>
       <c r="DS32" s="3">
         <f t="shared" si="82"/>
-        <v>19480.516112858386</v>
+        <v>18391.697474532499</v>
       </c>
       <c r="DT32" s="3">
         <f t="shared" si="82"/>
-        <v>19675.32127398697</v>
+        <v>18575.614449277822</v>
       </c>
       <c r="DU32" s="3">
         <f t="shared" si="82"/>
-        <v>19872.07448672684</v>
+        <v>18761.3705937706</v>
       </c>
       <c r="DV32" s="3">
         <f t="shared" si="82"/>
-        <v>20070.795231594107</v>
+        <v>18948.984299708307</v>
       </c>
       <c r="DW32" s="3">
         <f t="shared" si="82"/>
-        <v>20271.503183910048</v>
+        <v>19138.474142705389</v>
       </c>
       <c r="DX32" s="3">
         <f t="shared" si="82"/>
-        <v>20474.218215749148</v>
+        <v>19329.858884132442</v>
       </c>
       <c r="DY32" s="3">
         <f t="shared" si="82"/>
-        <v>20678.960397906638</v>
+        <v>19523.157472973766</v>
       </c>
       <c r="DZ32" s="3">
         <f t="shared" si="82"/>
-        <v>20885.750001885703</v>
+        <v>19718.389047703502</v>
       </c>
       <c r="EA32" s="3">
         <f t="shared" si="82"/>
-        <v>21094.60750190456</v>
+        <v>19915.572938180536</v>
       </c>
       <c r="EB32" s="3">
         <f t="shared" si="82"/>
-        <v>21305.553576923605</v>
+        <v>20114.72866756234</v>
       </c>
       <c r="EC32" s="3">
         <f t="shared" si="82"/>
-        <v>21518.60911269284</v>
+        <v>20315.875954237963</v>
       </c>
       <c r="ED32" s="3">
         <f t="shared" si="82"/>
-        <v>21733.795203819769</v>
+        <v>20519.034713780344</v>
       </c>
       <c r="EE32" s="3">
         <f t="shared" si="82"/>
-        <v>21951.133155857966</v>
+        <v>20724.225060918146</v>
       </c>
       <c r="EF32" s="3">
         <f t="shared" si="82"/>
-        <v>22170.644487416546</v>
+        <v>20931.467311527329</v>
       </c>
       <c r="EG32" s="3">
         <f t="shared" si="82"/>
-        <v>22392.350932290712</v>
+        <v>21140.781984642603</v>
       </c>
       <c r="EH32" s="3">
         <f t="shared" si="82"/>
-        <v>22616.274441613619</v>
+        <v>21352.189804489029</v>
       </c>
       <c r="EI32" s="3">
         <f t="shared" si="82"/>
-        <v>22842.437186029754</v>
+        <v>21565.711702533921</v>
       </c>
       <c r="EJ32" s="3">
         <f t="shared" si="82"/>
-        <v>23070.861557890054</v>
+        <v>21781.368819559262</v>
       </c>
       <c r="EK32" s="3">
         <f t="shared" si="82"/>
-        <v>23301.570173468954</v>
+        <v>21999.182507754856</v>
       </c>
       <c r="EL32" s="3">
         <f t="shared" si="82"/>
-        <v>23534.585875203644</v>
+        <v>22219.174332832405</v>
       </c>
       <c r="EM32" s="3">
         <f t="shared" si="82"/>
-        <v>23769.93173395568</v>
+        <v>22441.366076160728</v>
       </c>
       <c r="EN32" s="3">
         <f t="shared" si="82"/>
-        <v>24007.631051295237</v>
+        <v>22665.779736922337</v>
       </c>
       <c r="EO32" s="3">
         <f t="shared" si="82"/>
-        <v>24247.707361808189</v>
+        <v>22892.437534291559</v>
       </c>
       <c r="EP32" s="3">
         <f t="shared" si="82"/>
-        <v>24490.184435426272</v>
+        <v>23121.361909634474</v>
       </c>
       <c r="EQ32" s="3">
         <f t="shared" si="82"/>
-        <v>24735.086279780535</v>
+        <v>23352.57552873082</v>
       </c>
       <c r="ER32" s="3">
         <f t="shared" si="82"/>
-        <v>24982.437142578339</v>
+        <v>23586.101284018128</v>
       </c>
       <c r="ES32" s="3">
         <f t="shared" si="82"/>
-        <v>25232.261514004123</v>
+        <v>23821.96229685831</v>
       </c>
       <c r="ET32" s="3">
         <f t="shared" si="82"/>
-        <v>25484.584129144165</v>
+        <v>24060.181919826893</v>
       </c>
       <c r="EU32" s="3">
         <f t="shared" si="82"/>
-        <v>25739.429970435605</v>
+        <v>24300.783739025163</v>
       </c>
       <c r="EV32" s="3">
         <f t="shared" si="82"/>
-        <v>25996.824270139961</v>
+        <v>24543.791576415413</v>
       </c>
       <c r="EW32" s="3">
         <f t="shared" ref="EW32:FK32" si="83">EV32*(1+$AA$25)</f>
-        <v>26256.792512841363</v>
+        <v>24789.229492179569</v>
       </c>
       <c r="EX32" s="3">
         <f t="shared" si="83"/>
-        <v>26519.360437969775</v>
+        <v>25037.121787101365</v>
       </c>
       <c r="EY32" s="3">
         <f t="shared" si="83"/>
-        <v>26784.554042349475</v>
+        <v>25287.493004972381</v>
       </c>
       <c r="EZ32" s="3">
         <f t="shared" si="83"/>
-        <v>27052.39958277297</v>
+        <v>25540.367935022106</v>
       </c>
       <c r="FA32" s="3">
         <f t="shared" si="83"/>
-        <v>27322.923578600701</v>
+        <v>25795.771614372326</v>
       </c>
       <c r="FB32" s="3">
         <f t="shared" si="83"/>
-        <v>27596.152814386707</v>
+        <v>26053.729330516049</v>
       </c>
       <c r="FC32" s="3">
         <f t="shared" si="83"/>
-        <v>27872.114342530575</v>
+        <v>26314.266623821211</v>
       </c>
       <c r="FD32" s="3">
         <f t="shared" si="83"/>
-        <v>28150.835485955882</v>
+        <v>26577.409290059422</v>
       </c>
       <c r="FE32" s="3">
         <f t="shared" si="83"/>
-        <v>28432.34384081544</v>
+        <v>26843.183382960018</v>
       </c>
       <c r="FF32" s="3">
         <f t="shared" si="83"/>
-        <v>28716.667279223595</v>
+        <v>27111.615216789618</v>
       </c>
       <c r="FG32" s="3">
         <f t="shared" si="83"/>
-        <v>29003.83395201583</v>
+        <v>27382.731368957513</v>
       </c>
       <c r="FH32" s="3">
         <f t="shared" si="83"/>
-        <v>29293.872291535987</v>
+        <v>27656.55868264709</v>
       </c>
       <c r="FI32" s="3">
         <f t="shared" si="83"/>
-        <v>29586.811014451348</v>
+        <v>27933.124269473559</v>
       </c>
       <c r="FJ32" s="3">
         <f t="shared" si="83"/>
-        <v>29882.679124595863</v>
+        <v>28212.455512168293</v>
       </c>
       <c r="FK32" s="3">
         <f t="shared" si="83"/>
-        <v>30181.505915841823</v>
+        <v>28494.580067289975</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
@@ -4099,7 +4116,7 @@
       </c>
       <c r="T33" s="4">
         <f t="shared" ref="T33" si="84">T32/T19</f>
-        <v>1.4010024085521167</v>
+        <v>1.4135195077502627</v>
       </c>
       <c r="U33" s="4">
         <v>1.1000000000000001</v>
@@ -4125,19 +4142,19 @@
       </c>
       <c r="J34" s="1">
         <f>I34+J19</f>
-        <v>1992.1399999999996</v>
+        <v>1988.5999999999997</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" ref="K34:M34" si="85">J34+K19</f>
-        <v>3130.4583469999998</v>
+        <v>3119.021428</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="85"/>
-        <v>4304.5599961719508</v>
+        <v>4280.6674150412009</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="85"/>
-        <v>5583.5352073073882</v>
+        <v>5542.4508628008261</v>
       </c>
       <c r="S34" s="1">
         <f>S38-S45</f>
@@ -4145,23 +4162,23 @@
       </c>
       <c r="T34" s="1">
         <f>M34</f>
-        <v>5583.5352073073882</v>
+        <v>5542.4508628008261</v>
       </c>
       <c r="U34" s="1">
         <f>T34+U19</f>
-        <v>10649.359446121602</v>
+        <v>10518.756980053176</v>
       </c>
       <c r="V34" s="1">
         <f>U34+V19</f>
-        <v>16195.361987355001</v>
+        <v>15892.372604110093</v>
       </c>
       <c r="W34" s="1">
         <f>V34+W19</f>
-        <v>22256.306194217224</v>
+        <v>21687.855627061566</v>
       </c>
       <c r="X34" s="1">
         <f>W34+X19</f>
-        <v>28869.203358917795</v>
+        <v>27931.14011597139</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF24CD16-CA3C-4C91-AC9D-5FC80A71EFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF67522-B80B-4D00-B871-3B380898D8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
+    <workbookView xWindow="2970" yWindow="645" windowWidth="22125" windowHeight="14250" activeTab="1" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
-  <si>
-    <t>PYPL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>Price</t>
   </si>
@@ -159,9 +156,6 @@
     <t>AR</t>
   </si>
   <si>
-    <t>Tax Rate</t>
-  </si>
-  <si>
     <t>NPV</t>
   </si>
   <si>
@@ -208,6 +202,9 @@
   </si>
   <si>
     <t>Q425</t>
+  </si>
+  <si>
+    <t>FCF Margin</t>
   </si>
 </sst>
 </file>
@@ -226,20 +223,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -277,7 +274,7 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,81 +714,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CAB345-9A71-4A10-9FCC-8B1DB985BF5A}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="9"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O2" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D2" s="10" t="s">
+      <c r="P2" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D3" s="10" t="s">
+      <c r="P3" s="1">
+        <v>989.24199999999996</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
-        <v>989.24199999999996</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D4" s="10" t="s">
+      <c r="P4" s="1">
+        <f>P3*P2</f>
+        <v>70236.182000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
-        <f>E3*E2</f>
-        <v>70236.182000000001</v>
-      </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="P5" s="1">
         <f>6561+4262</f>
         <v>10823</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="Q5" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="1">
         <f>9879</f>
         <v>9879</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <f>E4+E6-E5</f>
+      <c r="Q6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="1">
+        <f>P4+P6-P5</f>
         <v>69292.182000000001</v>
       </c>
     </row>
@@ -804,14 +798,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C351E4BD-0CCB-4B4B-8440-0A8537A331C4}">
   <dimension ref="A1:FN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA24" sqref="AA24"/>
+      <selection pane="bottomRight" activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
     <col min="2" max="8" width="9.140625" style="1"/>
@@ -823,40 +817,40 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O1" s="2">
         <v>2020</v>
@@ -900,7 +894,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -925,9 +919,9 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>7040</v>
@@ -983,11 +977,11 @@
         <v>33603.467243520005</v>
       </c>
       <c r="U4" s="3">
-        <f t="shared" ref="U4:X4" si="1">T4*1.05</f>
+        <f>T4*1.05</f>
         <v>35283.640605696004</v>
       </c>
       <c r="V4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="V4:X4" si="1">U4*1.05</f>
         <v>37047.822635980803</v>
       </c>
       <c r="W4" s="3">
@@ -1001,7 +995,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>3283</v>
@@ -1075,7 +1069,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>442</v>
@@ -1149,7 +1143,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1">
         <v>488</v>
@@ -1223,7 +1217,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <f>SUM(B5:B7)</f>
@@ -1316,7 +1310,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <f>B4-B8</f>
@@ -1409,7 +1403,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>436</v>
@@ -1483,7 +1477,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>721</v>
@@ -1557,7 +1551,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1">
         <v>507</v>
@@ -1631,7 +1625,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1">
         <v>164</v>
@@ -1705,7 +1699,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <f>SUM(B10:B13)</f>
@@ -1796,9 +1790,9 @@
         <v>9974.5151283711366</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3">
         <f>B9-B14</f>
@@ -1891,7 +1885,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1">
         <v>75</v>
@@ -1918,20 +1912,20 @@
         <v>-31</v>
       </c>
       <c r="J16" s="1">
-        <f>I34*$AA$24/4</f>
-        <v>9.44</v>
+        <f>I34*$AA$22/4</f>
+        <v>4.72</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" ref="K16:M16" si="33">J34*$AA$24/4</f>
-        <v>19.885999999999996</v>
+        <f>J34*$AA$22/4</f>
+        <v>10.272319999999997</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="33"/>
-        <v>31.190214279999999</v>
+        <f>K34*$AA$22/4</f>
+        <v>15.957518079999998</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="33"/>
-        <v>42.806674150412007</v>
+        <f>L34*$AA$22/4</f>
+        <v>21.778339128320003</v>
       </c>
       <c r="Q16" s="1">
         <v>-471</v>
@@ -1944,83 +1938,83 @@
       </c>
       <c r="T16" s="1">
         <f>SUM(J16:M16)</f>
-        <v>103.32288843041201</v>
+        <v>52.728177208319991</v>
       </c>
       <c r="U16" s="1">
-        <f>T34*$AA$24</f>
-        <v>221.69803451203305</v>
+        <f>T34*$AA$22</f>
+        <v>112.33201095565313</v>
       </c>
       <c r="V16" s="1">
-        <f>U34*$AA$24</f>
-        <v>420.75027920212705</v>
+        <f>U34*$AA$22</f>
+        <v>211.36810125727968</v>
       </c>
       <c r="W16" s="1">
-        <f>V34*$AA$24</f>
-        <v>635.69490416440374</v>
+        <f>V34*$AA$22</f>
+        <v>316.85070791004904</v>
       </c>
       <c r="X16" s="1">
-        <f>W34*$AA$24</f>
-        <v>867.51422508246264</v>
+        <f>W34*$AA$22</f>
+        <v>429.12607212089529</v>
       </c>
     </row>
     <row r="17" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1">
         <f>B15+B16</f>
         <v>1074</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ref="C17:K17" si="34">C15+C16</f>
+        <f t="shared" ref="C17:K17" si="33">C15+C16</f>
         <v>1303</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>1241</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>1793</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>1209</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>1399</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>1311</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>1410</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="34"/>
-        <v>1392.7999999999995</v>
+        <f t="shared" si="33"/>
+        <v>1388.0799999999995</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="34"/>
-        <v>1430.9132</v>
+        <f t="shared" si="33"/>
+        <v>1421.29952</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" ref="L17" si="35">L15+L16</f>
-        <v>1470.4379582800009</v>
+        <f t="shared" ref="L17" si="34">L15+L16</f>
+        <v>1455.2052620800009</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" ref="M17:P17" si="36">M15+M16</f>
-        <v>1597.1942376704117</v>
+        <f t="shared" ref="M17:P17" si="35">M15+M16</f>
+        <v>1576.1659026483198</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Q17" s="1">
@@ -2028,37 +2022,37 @@
         <v>3366</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" ref="R17:S17" si="37">R15+R16</f>
+        <f t="shared" ref="R17:S17" si="36">R15+R16</f>
         <v>5411</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>5329</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" ref="T17" si="38">T15+T16</f>
-        <v>5891.3453959504168</v>
+        <f t="shared" ref="T17" si="37">T15+T16</f>
+        <v>5840.7506847283248</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" ref="U17" si="39">U15+U16</f>
-        <v>6299.1216674080379</v>
+        <f t="shared" ref="U17" si="38">U15+U16</f>
+        <v>6189.7556438516585</v>
       </c>
       <c r="V17" s="1">
-        <f t="shared" ref="V17" si="40">V15+V16</f>
-        <v>6802.0450937429332</v>
+        <f t="shared" ref="V17" si="39">V15+V16</f>
+        <v>6592.662915798086</v>
       </c>
       <c r="W17" s="1">
-        <f t="shared" ref="W17" si="41">W15+W16</f>
-        <v>7336.0544594322455</v>
+        <f t="shared" ref="W17" si="40">W15+W16</f>
+        <v>7017.2102631778907</v>
       </c>
       <c r="X17" s="1">
-        <f t="shared" ref="X17" si="42">X15+X16</f>
-        <v>7902.8917581136993</v>
+        <f t="shared" ref="X17" si="41">X15+X16</f>
+        <v>7464.503605152132</v>
       </c>
     </row>
     <row r="18" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>279</v>
@@ -2085,20 +2079,20 @@
         <v>289</v>
       </c>
       <c r="J18" s="1">
-        <f>J17*J25</f>
-        <v>348.19999999999987</v>
+        <f>J17*0.2</f>
+        <v>277.61599999999993</v>
       </c>
       <c r="K18" s="1">
-        <f>K17*K25</f>
-        <v>300.49177199999997</v>
+        <f t="shared" ref="K18:M18" si="42">K17*0.2</f>
+        <v>284.25990400000001</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" ref="L18:M18" si="43">L17*L25</f>
-        <v>308.79197123880016</v>
+        <f t="shared" si="42"/>
+        <v>291.04105241600018</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="43"/>
-        <v>335.41078991078643</v>
+        <f t="shared" si="42"/>
+        <v>315.23318052966397</v>
       </c>
       <c r="Q18" s="1">
         <v>947</v>
@@ -2110,84 +2104,84 @@
         <v>1182</v>
       </c>
       <c r="T18" s="1">
-        <f>SUM(J18:M18)</f>
-        <v>1292.8945331495866</v>
+        <f>T17*0.2</f>
+        <v>1168.1501369456651</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" ref="U18:X18" si="44">U25*U17</f>
-        <v>1322.815550155688</v>
+        <f t="shared" ref="U18:X18" si="43">U17*0.2</f>
+        <v>1237.9511287703317</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" si="44"/>
-        <v>1428.4294696860159</v>
+        <f t="shared" si="43"/>
+        <v>1318.5325831596174</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" si="44"/>
-        <v>1540.5714364807716</v>
+        <f t="shared" si="43"/>
+        <v>1403.4420526355782</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" si="44"/>
-        <v>1659.6072692038767</v>
-      </c>
-    </row>
-    <row r="19" spans="1:170" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v>1492.9007210304264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3">
         <f>B17-B18</f>
         <v>795</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ref="C19:K19" si="45">C17-C18</f>
+        <f t="shared" ref="C19:K19" si="44">C17-C18</f>
         <v>1029</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1020</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1402</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>888</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1128</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1010</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1121</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="45"/>
-        <v>1044.5999999999997</v>
+        <f t="shared" si="44"/>
+        <v>1110.4639999999995</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="45"/>
-        <v>1130.4214280000001</v>
+        <f t="shared" si="44"/>
+        <v>1137.039616</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" ref="L19" si="46">L17-L18</f>
-        <v>1161.6459870412007</v>
+        <f t="shared" ref="L19" si="45">L17-L18</f>
+        <v>1164.1642096640007</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" ref="M19:P19" si="47">M17-M18</f>
-        <v>1261.7834477596252</v>
+        <f t="shared" ref="M19:P19" si="46">M17-M18</f>
+        <v>1260.9327221186559</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Q19" s="3">
@@ -2195,621 +2189,621 @@
         <v>2419</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" ref="R19:S19" si="48">R17-R18</f>
+        <f t="shared" ref="R19:S19" si="47">R17-R18</f>
         <v>4246</v>
       </c>
       <c r="S19" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>4147</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" ref="T19" si="49">T17-T18</f>
-        <v>4598.4508628008298</v>
+        <f t="shared" ref="T19" si="48">T17-T18</f>
+        <v>4672.6005477826602</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" ref="U19" si="50">U17-U18</f>
-        <v>4976.3061172523503</v>
+        <f t="shared" ref="U19" si="49">U17-U18</f>
+        <v>4951.8045150813268</v>
       </c>
       <c r="V19" s="3">
-        <f t="shared" ref="V19" si="51">V17-V18</f>
-        <v>5373.6156240569171</v>
+        <f t="shared" ref="V19" si="50">V17-V18</f>
+        <v>5274.1303326384686</v>
       </c>
       <c r="W19" s="3">
-        <f t="shared" ref="W19" si="52">W17-W18</f>
-        <v>5795.4830229514737</v>
+        <f t="shared" ref="W19" si="51">W17-W18</f>
+        <v>5613.7682105423128</v>
       </c>
       <c r="X19" s="3">
-        <f t="shared" ref="X19" si="53">X17-X18</f>
-        <v>6243.2844889098224</v>
+        <f t="shared" ref="X19" si="52">X17-X18</f>
+        <v>5971.6028841217058</v>
       </c>
       <c r="Y19" s="3">
-        <f t="shared" ref="Y19:BD19" si="54">X19*(1+$AA$25)</f>
-        <v>6305.7173337989207</v>
+        <f>X19*(1+$AA$23)</f>
+        <v>6031.3189129629227</v>
       </c>
       <c r="Z19" s="3">
-        <f t="shared" si="54"/>
-        <v>6368.77450713691</v>
+        <f>Y19*(1+$AA$23)</f>
+        <v>6091.6321020925516</v>
       </c>
       <c r="AA19" s="3">
-        <f t="shared" si="54"/>
-        <v>6432.4622522082791</v>
+        <f>Z19*(1+$AA$23)</f>
+        <v>6152.5484231134769</v>
       </c>
       <c r="AB19" s="3">
-        <f t="shared" si="54"/>
-        <v>6496.7868747303619</v>
+        <f>AA19*(1+$AA$23)</f>
+        <v>6214.0739073446121</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" si="54"/>
-        <v>6561.7547434776652</v>
+        <f>AB19*(1+$AA$23)</f>
+        <v>6276.2146464180578</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" si="54"/>
-        <v>6627.3722909124417</v>
+        <f>AC19*(1+$AA$23)</f>
+        <v>6338.9767928822384</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" si="54"/>
-        <v>6693.6460138215662</v>
+        <f>AD19*(1+$AA$23)</f>
+        <v>6402.3665608110605</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" si="54"/>
-        <v>6760.582473959782</v>
+        <f>AE19*(1+$AA$23)</f>
+        <v>6466.3902264191711</v>
       </c>
       <c r="AG19" s="3">
-        <f t="shared" si="54"/>
-        <v>6828.1882986993796</v>
+        <f>AF19*(1+$AA$23)</f>
+        <v>6531.0541286833632</v>
       </c>
       <c r="AH19" s="3">
-        <f t="shared" si="54"/>
-        <v>6896.4701816863735</v>
+        <f>AG19*(1+$AA$23)</f>
+        <v>6596.3646699701967</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" si="54"/>
-        <v>6965.434883503237</v>
+        <f>AH19*(1+$AA$23)</f>
+        <v>6662.3283166698984</v>
       </c>
       <c r="AJ19" s="3">
-        <f t="shared" si="54"/>
-        <v>7035.0892323382695</v>
+        <f>AI19*(1+$AA$23)</f>
+        <v>6728.9515998365978</v>
       </c>
       <c r="AK19" s="3">
-        <f t="shared" si="54"/>
-        <v>7105.4401246616526</v>
+        <f>AJ19*(1+$AA$23)</f>
+        <v>6796.2411158349641</v>
       </c>
       <c r="AL19" s="3">
-        <f t="shared" si="54"/>
-        <v>7176.4945259082688</v>
+        <f>AK19*(1+$AA$23)</f>
+        <v>6864.203526993314</v>
       </c>
       <c r="AM19" s="3">
-        <f t="shared" si="54"/>
-        <v>7248.2594711673519</v>
+        <f>AL19*(1+$AA$23)</f>
+        <v>6932.8455622632473</v>
       </c>
       <c r="AN19" s="3">
-        <f t="shared" si="54"/>
-        <v>7320.7420658790252</v>
+        <f>AM19*(1+$AA$23)</f>
+        <v>7002.1740178858799</v>
       </c>
       <c r="AO19" s="3">
-        <f t="shared" si="54"/>
-        <v>7393.9494865378156</v>
+        <f>AN19*(1+$AA$23)</f>
+        <v>7072.1957580647386</v>
       </c>
       <c r="AP19" s="3">
-        <f t="shared" si="54"/>
-        <v>7467.8889814031936</v>
+        <f>AO19*(1+$AA$23)</f>
+        <v>7142.9177156453861</v>
       </c>
       <c r="AQ19" s="3">
-        <f t="shared" si="54"/>
-        <v>7542.5678712172257</v>
+        <f>AP19*(1+$AA$23)</f>
+        <v>7214.3468928018401</v>
       </c>
       <c r="AR19" s="3">
-        <f t="shared" si="54"/>
-        <v>7617.9935499293979</v>
+        <f>AQ19*(1+$AA$23)</f>
+        <v>7286.4903617298587</v>
       </c>
       <c r="AS19" s="3">
-        <f t="shared" si="54"/>
-        <v>7694.1734854286915</v>
+        <f>AR19*(1+$AA$23)</f>
+        <v>7359.355265347157</v>
       </c>
       <c r="AT19" s="3">
-        <f t="shared" si="54"/>
-        <v>7771.115220282978</v>
+        <f>AS19*(1+$AA$23)</f>
+        <v>7432.9488180006283</v>
       </c>
       <c r="AU19" s="3">
-        <f t="shared" si="54"/>
-        <v>7848.826372485808</v>
+        <f>AT19*(1+$AA$23)</f>
+        <v>7507.2783061806349</v>
       </c>
       <c r="AV19" s="3">
-        <f t="shared" si="54"/>
-        <v>7927.3146362106663</v>
+        <f>AU19*(1+$AA$23)</f>
+        <v>7582.351089242441</v>
       </c>
       <c r="AW19" s="3">
-        <f t="shared" si="54"/>
-        <v>8006.587782572773</v>
+        <f>AV19*(1+$AA$23)</f>
+        <v>7658.1746001348656</v>
       </c>
       <c r="AX19" s="3">
-        <f t="shared" si="54"/>
-        <v>8086.6536603985005</v>
+        <f>AW19*(1+$AA$23)</f>
+        <v>7734.7563461362142</v>
       </c>
       <c r="AY19" s="3">
-        <f t="shared" si="54"/>
-        <v>8167.5201970024855</v>
+        <f>AX19*(1+$AA$23)</f>
+        <v>7812.1039095975766</v>
       </c>
       <c r="AZ19" s="3">
-        <f t="shared" si="54"/>
-        <v>8249.1953989725098</v>
+        <f>AY19*(1+$AA$23)</f>
+        <v>7890.2249486935525</v>
       </c>
       <c r="BA19" s="3">
-        <f t="shared" si="54"/>
-        <v>8331.6873529622353</v>
+        <f>AZ19*(1+$AA$23)</f>
+        <v>7969.1271981804884</v>
       </c>
       <c r="BB19" s="3">
-        <f t="shared" si="54"/>
-        <v>8415.0042264918575</v>
+        <f>BA19*(1+$AA$23)</f>
+        <v>8048.8184701622931</v>
       </c>
       <c r="BC19" s="3">
-        <f t="shared" si="54"/>
-        <v>8499.1542687567762</v>
+        <f>BB19*(1+$AA$23)</f>
+        <v>8129.3066548639163</v>
       </c>
       <c r="BD19" s="3">
-        <f t="shared" si="54"/>
-        <v>8584.1458114443449</v>
+        <f>BC19*(1+$AA$23)</f>
+        <v>8210.5997214125564</v>
       </c>
       <c r="BE19" s="3">
-        <f t="shared" ref="BE19:CJ19" si="55">BD19*(1+$AA$25)</f>
-        <v>8669.9872695587892</v>
+        <f>BD19*(1+$AA$23)</f>
+        <v>8292.7057186266829</v>
       </c>
       <c r="BF19" s="3">
-        <f t="shared" si="55"/>
-        <v>8756.6871422543772</v>
+        <f>BE19*(1+$AA$23)</f>
+        <v>8375.6327758129501</v>
       </c>
       <c r="BG19" s="3">
-        <f t="shared" si="55"/>
-        <v>8844.2540136769203</v>
+        <f>BF19*(1+$AA$23)</f>
+        <v>8459.3891035710803</v>
       </c>
       <c r="BH19" s="3">
-        <f t="shared" si="55"/>
-        <v>8932.6965538136901</v>
+        <f>BG19*(1+$AA$23)</f>
+        <v>8543.9829946067912</v>
       </c>
       <c r="BI19" s="3">
-        <f t="shared" si="55"/>
-        <v>9022.0235193518274</v>
+        <f>BH19*(1+$AA$23)</f>
+        <v>8629.4228245528593</v>
       </c>
       <c r="BJ19" s="3">
-        <f t="shared" si="55"/>
-        <v>9112.2437545453449</v>
+        <f>BI19*(1+$AA$23)</f>
+        <v>8715.7170527983872</v>
       </c>
       <c r="BK19" s="3">
-        <f t="shared" si="55"/>
-        <v>9203.366192090798</v>
+        <f>BJ19*(1+$AA$23)</f>
+        <v>8802.8742233263711</v>
       </c>
       <c r="BL19" s="3">
-        <f t="shared" si="55"/>
-        <v>9295.3998540117063</v>
+        <f>BK19*(1+$AA$23)</f>
+        <v>8890.902965559635</v>
       </c>
       <c r="BM19" s="3">
-        <f t="shared" si="55"/>
-        <v>9388.3538525518234</v>
+        <f>BL19*(1+$AA$23)</f>
+        <v>8979.8119952152319</v>
       </c>
       <c r="BN19" s="3">
-        <f t="shared" si="55"/>
-        <v>9482.2373910773422</v>
+        <f>BM19*(1+$AA$23)</f>
+        <v>9069.6101151673847</v>
       </c>
       <c r="BO19" s="3">
-        <f t="shared" si="55"/>
-        <v>9577.0597649881165</v>
+        <f>BN19*(1+$AA$23)</f>
+        <v>9160.3062163190589</v>
       </c>
       <c r="BP19" s="3">
-        <f t="shared" si="55"/>
-        <v>9672.8303626379984</v>
+        <f>BO19*(1+$AA$23)</f>
+        <v>9251.9092784822496</v>
       </c>
       <c r="BQ19" s="3">
-        <f t="shared" si="55"/>
-        <v>9769.5586662643782</v>
+        <f>BP19*(1+$AA$23)</f>
+        <v>9344.4283712670731</v>
       </c>
       <c r="BR19" s="3">
-        <f t="shared" si="55"/>
-        <v>9867.2542529270213</v>
+        <f>BQ19*(1+$AA$23)</f>
+        <v>9437.8726549797448</v>
       </c>
       <c r="BS19" s="3">
-        <f t="shared" si="55"/>
-        <v>9965.9267954562911</v>
+        <f>BR19*(1+$AA$23)</f>
+        <v>9532.2513815295424</v>
       </c>
       <c r="BT19" s="3">
-        <f t="shared" si="55"/>
-        <v>10065.586063410854</v>
+        <f>BS19*(1+$AA$23)</f>
+        <v>9627.5738953448381</v>
       </c>
       <c r="BU19" s="3">
-        <f t="shared" si="55"/>
-        <v>10166.241924044962</v>
+        <f>BT19*(1+$AA$23)</f>
+        <v>9723.8496342982871</v>
       </c>
       <c r="BV19" s="3">
-        <f t="shared" si="55"/>
-        <v>10267.904343285411</v>
+        <f>BU19*(1+$AA$23)</f>
+        <v>9821.0881306412703</v>
       </c>
       <c r="BW19" s="3">
-        <f t="shared" si="55"/>
-        <v>10370.583386718265</v>
+        <f>BV19*(1+$AA$23)</f>
+        <v>9919.2990119476835</v>
       </c>
       <c r="BX19" s="3">
-        <f t="shared" si="55"/>
-        <v>10474.289220585448</v>
+        <f>BW19*(1+$AA$23)</f>
+        <v>10018.49200206716</v>
       </c>
       <c r="BY19" s="3">
-        <f t="shared" si="55"/>
-        <v>10579.032112791303</v>
+        <f>BX19*(1+$AA$23)</f>
+        <v>10118.676922087832</v>
       </c>
       <c r="BZ19" s="3">
-        <f t="shared" si="55"/>
-        <v>10684.822433919217</v>
+        <f>BY19*(1+$AA$23)</f>
+        <v>10219.86369130871</v>
       </c>
       <c r="CA19" s="3">
-        <f t="shared" si="55"/>
-        <v>10791.670658258408</v>
+        <f>BZ19*(1+$AA$23)</f>
+        <v>10322.062328221797</v>
       </c>
       <c r="CB19" s="3">
-        <f t="shared" si="55"/>
-        <v>10899.587364840992</v>
+        <f>CA19*(1+$AA$23)</f>
+        <v>10425.282951504014</v>
       </c>
       <c r="CC19" s="3">
-        <f t="shared" si="55"/>
-        <v>11008.583238489402</v>
+        <f>CB19*(1+$AA$23)</f>
+        <v>10529.535781019054</v>
       </c>
       <c r="CD19" s="3">
-        <f t="shared" si="55"/>
-        <v>11118.669070874295</v>
+        <f>CC19*(1+$AA$23)</f>
+        <v>10634.831138829246</v>
       </c>
       <c r="CE19" s="3">
-        <f t="shared" si="55"/>
-        <v>11229.855761583038</v>
+        <f>CD19*(1+$AA$23)</f>
+        <v>10741.179450217538</v>
       </c>
       <c r="CF19" s="3">
-        <f t="shared" si="55"/>
-        <v>11342.154319198868</v>
+        <f>CE19*(1+$AA$23)</f>
+        <v>10848.591244719713</v>
       </c>
       <c r="CG19" s="3">
-        <f t="shared" si="55"/>
-        <v>11455.575862390857</v>
+        <f>CF19*(1+$AA$23)</f>
+        <v>10957.07715716691</v>
       </c>
       <c r="CH19" s="3">
-        <f t="shared" si="55"/>
-        <v>11570.131621014765</v>
+        <f>CG19*(1+$AA$23)</f>
+        <v>11066.647928738579</v>
       </c>
       <c r="CI19" s="3">
-        <f t="shared" si="55"/>
-        <v>11685.832937224914</v>
+        <f>CH19*(1+$AA$23)</f>
+        <v>11177.314408025964</v>
       </c>
       <c r="CJ19" s="3">
-        <f t="shared" si="55"/>
-        <v>11802.691266597163</v>
+        <f>CI19*(1+$AA$23)</f>
+        <v>11289.087552106224</v>
       </c>
       <c r="CK19" s="3">
-        <f t="shared" ref="CK19:DP19" si="56">CJ19*(1+$AA$25)</f>
-        <v>11920.718179263135</v>
+        <f>CJ19*(1+$AA$23)</f>
+        <v>11401.978427627288</v>
       </c>
       <c r="CL19" s="3">
-        <f t="shared" si="56"/>
-        <v>12039.925361055766</v>
+        <f>CK19*(1+$AA$23)</f>
+        <v>11515.998211903561</v>
       </c>
       <c r="CM19" s="3">
-        <f t="shared" si="56"/>
-        <v>12160.324614666324</v>
+        <f>CL19*(1+$AA$23)</f>
+        <v>11631.158194022597</v>
       </c>
       <c r="CN19" s="3">
-        <f t="shared" si="56"/>
-        <v>12281.927860812988</v>
+        <f>CM19*(1+$AA$23)</f>
+        <v>11747.469775962823</v>
       </c>
       <c r="CO19" s="3">
-        <f t="shared" si="56"/>
-        <v>12404.747139421119</v>
+        <f>CN19*(1+$AA$23)</f>
+        <v>11864.944473722451</v>
       </c>
       <c r="CP19" s="3">
-        <f t="shared" si="56"/>
-        <v>12528.79461081533</v>
+        <f>CO19*(1+$AA$23)</f>
+        <v>11983.593918459675</v>
       </c>
       <c r="CQ19" s="3">
-        <f t="shared" si="56"/>
-        <v>12654.082556923484</v>
+        <f>CP19*(1+$AA$23)</f>
+        <v>12103.429857644272</v>
       </c>
       <c r="CR19" s="3">
-        <f t="shared" si="56"/>
-        <v>12780.623382492719</v>
+        <f>CQ19*(1+$AA$23)</f>
+        <v>12224.464156220716</v>
       </c>
       <c r="CS19" s="3">
-        <f t="shared" si="56"/>
-        <v>12908.429616317646</v>
+        <f>CR19*(1+$AA$23)</f>
+        <v>12346.708797782923</v>
       </c>
       <c r="CT19" s="3">
-        <f t="shared" si="56"/>
-        <v>13037.513912480823</v>
+        <f>CS19*(1+$AA$23)</f>
+        <v>12470.175885760753</v>
       </c>
       <c r="CU19" s="3">
-        <f t="shared" si="56"/>
-        <v>13167.889051605631</v>
+        <f>CT19*(1+$AA$23)</f>
+        <v>12594.87764461836</v>
       </c>
       <c r="CV19" s="3">
-        <f t="shared" si="56"/>
-        <v>13299.567942121686</v>
+        <f>CU19*(1+$AA$23)</f>
+        <v>12720.826421064543</v>
       </c>
       <c r="CW19" s="3">
-        <f t="shared" si="56"/>
-        <v>13432.563621542904</v>
+        <f>CV19*(1+$AA$23)</f>
+        <v>12848.034685275188</v>
       </c>
       <c r="CX19" s="3">
-        <f t="shared" si="56"/>
-        <v>13566.889257758334</v>
+        <f>CW19*(1+$AA$23)</f>
+        <v>12976.51503212794</v>
       </c>
       <c r="CY19" s="3">
-        <f t="shared" si="56"/>
-        <v>13702.558150335917</v>
+        <f>CX19*(1+$AA$23)</f>
+        <v>13106.28018244922</v>
       </c>
       <c r="CZ19" s="3">
-        <f t="shared" si="56"/>
-        <v>13839.583731839277</v>
+        <f>CY19*(1+$AA$23)</f>
+        <v>13237.342984273711</v>
       </c>
       <c r="DA19" s="3">
-        <f t="shared" si="56"/>
-        <v>13977.979569157669</v>
+        <f>CZ19*(1+$AA$23)</f>
+        <v>13369.716414116449</v>
       </c>
       <c r="DB19" s="3">
-        <f t="shared" si="56"/>
-        <v>14117.759364849246</v>
+        <f>DA19*(1+$AA$23)</f>
+        <v>13503.413578257612</v>
       </c>
       <c r="DC19" s="3">
-        <f t="shared" si="56"/>
-        <v>14258.936958497738</v>
+        <f>DB19*(1+$AA$23)</f>
+        <v>13638.447714040189</v>
       </c>
       <c r="DD19" s="3">
-        <f t="shared" si="56"/>
-        <v>14401.526328082715</v>
+        <f>DC19*(1+$AA$23)</f>
+        <v>13774.832191180591</v>
       </c>
       <c r="DE19" s="3">
-        <f t="shared" si="56"/>
-        <v>14545.541591363542</v>
+        <f>DD19*(1+$AA$23)</f>
+        <v>13912.580513092396</v>
       </c>
       <c r="DF19" s="3">
-        <f t="shared" si="56"/>
-        <v>14690.997007277178</v>
+        <f>DE19*(1+$AA$23)</f>
+        <v>14051.70631822332</v>
       </c>
       <c r="DG19" s="3">
-        <f t="shared" si="56"/>
-        <v>14837.906977349949</v>
+        <f>DF19*(1+$AA$23)</f>
+        <v>14192.223381405553</v>
       </c>
       <c r="DH19" s="3">
-        <f t="shared" si="56"/>
-        <v>14986.286047123449</v>
+        <f>DG19*(1+$AA$23)</f>
+        <v>14334.145615219608</v>
       </c>
       <c r="DI19" s="3">
-        <f t="shared" si="56"/>
-        <v>15136.148907594683</v>
+        <f>DH19*(1+$AA$23)</f>
+        <v>14477.487071371805</v>
       </c>
       <c r="DJ19" s="3">
-        <f t="shared" si="56"/>
-        <v>15287.51039667063</v>
+        <f>DI19*(1+$AA$23)</f>
+        <v>14622.261942085523</v>
       </c>
       <c r="DK19" s="3">
-        <f t="shared" si="56"/>
-        <v>15440.385500637336</v>
+        <f>DJ19*(1+$AA$23)</f>
+        <v>14768.484561506379</v>
       </c>
       <c r="DL19" s="3">
-        <f t="shared" si="56"/>
-        <v>15594.78935564371</v>
+        <f>DK19*(1+$AA$23)</f>
+        <v>14916.169407121442</v>
       </c>
       <c r="DM19" s="3">
-        <f t="shared" si="56"/>
-        <v>15750.737249200147</v>
+        <f>DL19*(1+$AA$23)</f>
+        <v>15065.331101192656</v>
       </c>
       <c r="DN19" s="3">
-        <f t="shared" si="56"/>
-        <v>15908.244621692149</v>
+        <f>DM19*(1+$AA$23)</f>
+        <v>15215.984412204583</v>
       </c>
       <c r="DO19" s="3">
-        <f t="shared" si="56"/>
-        <v>16067.327067909071</v>
+        <f>DN19*(1+$AA$23)</f>
+        <v>15368.14425632663</v>
       </c>
       <c r="DP19" s="3">
-        <f t="shared" si="56"/>
-        <v>16228.000338588163</v>
+        <f>DO19*(1+$AA$23)</f>
+        <v>15521.825698889896</v>
       </c>
       <c r="DQ19" s="3">
-        <f t="shared" ref="DQ19:EV19" si="57">DP19*(1+$AA$25)</f>
-        <v>16390.280341974045</v>
+        <f>DP19*(1+$AA$23)</f>
+        <v>15677.043955878795</v>
       </c>
       <c r="DR19" s="3">
-        <f t="shared" si="57"/>
-        <v>16554.183145393785</v>
+        <f>DQ19*(1+$AA$23)</f>
+        <v>15833.814395437583</v>
       </c>
       <c r="DS19" s="3">
-        <f t="shared" si="57"/>
-        <v>16719.724976847723</v>
+        <f>DR19*(1+$AA$23)</f>
+        <v>15992.152539391958</v>
       </c>
       <c r="DT19" s="3">
-        <f t="shared" si="57"/>
-        <v>16886.9222266162</v>
+        <f>DS19*(1+$AA$23)</f>
+        <v>16152.074064785878</v>
       </c>
       <c r="DU19" s="3">
-        <f t="shared" si="57"/>
-        <v>17055.791448882363</v>
+        <f>DT19*(1+$AA$23)</f>
+        <v>16313.594805433737</v>
       </c>
       <c r="DV19" s="3">
-        <f t="shared" si="57"/>
-        <v>17226.349363371188</v>
+        <f>DU19*(1+$AA$23)</f>
+        <v>16476.730753488075</v>
       </c>
       <c r="DW19" s="3">
-        <f t="shared" si="57"/>
-        <v>17398.6128570049</v>
+        <f>DV19*(1+$AA$23)</f>
+        <v>16641.498061022954</v>
       </c>
       <c r="DX19" s="3">
-        <f t="shared" si="57"/>
-        <v>17572.59898557495</v>
+        <f>DW19*(1+$AA$23)</f>
+        <v>16807.913041633183</v>
       </c>
       <c r="DY19" s="3">
-        <f t="shared" si="57"/>
-        <v>17748.3249754307</v>
+        <f>DX19*(1+$AA$23)</f>
+        <v>16975.992172049515</v>
       </c>
       <c r="DZ19" s="3">
-        <f t="shared" si="57"/>
-        <v>17925.808225185006</v>
+        <f>DY19*(1+$AA$23)</f>
+        <v>17145.75209377001</v>
       </c>
       <c r="EA19" s="3">
-        <f t="shared" si="57"/>
-        <v>18105.066307436857</v>
+        <f>DZ19*(1+$AA$23)</f>
+        <v>17317.20961470771</v>
       </c>
       <c r="EB19" s="3">
-        <f t="shared" si="57"/>
-        <v>18286.116970511226</v>
+        <f>EA19*(1+$AA$23)</f>
+        <v>17490.381710854788</v>
       </c>
       <c r="EC19" s="3">
-        <f t="shared" si="57"/>
-        <v>18468.978140216339</v>
+        <f>EB19*(1+$AA$23)</f>
+        <v>17665.285527963337</v>
       </c>
       <c r="ED19" s="3">
-        <f t="shared" si="57"/>
-        <v>18653.667921618504</v>
+        <f>EC19*(1+$AA$23)</f>
+        <v>17841.93838324297</v>
       </c>
       <c r="EE19" s="3">
-        <f t="shared" si="57"/>
-        <v>18840.204600834688</v>
+        <f>ED19*(1+$AA$23)</f>
+        <v>18020.357767075398</v>
       </c>
       <c r="EF19" s="3">
-        <f t="shared" si="57"/>
-        <v>19028.606646843036</v>
+        <f>EE19*(1+$AA$23)</f>
+        <v>18200.561344746151</v>
       </c>
       <c r="EG19" s="3">
-        <f t="shared" si="57"/>
-        <v>19218.892713311467</v>
+        <f>EF19*(1+$AA$23)</f>
+        <v>18382.566958193613</v>
       </c>
       <c r="EH19" s="3">
-        <f t="shared" si="57"/>
-        <v>19411.081640444583</v>
+        <f>EG19*(1+$AA$23)</f>
+        <v>18566.392627775549</v>
       </c>
       <c r="EI19" s="3">
-        <f t="shared" si="57"/>
-        <v>19605.192456849029</v>
+        <f>EH19*(1+$AA$23)</f>
+        <v>18752.056554053306</v>
       </c>
       <c r="EJ19" s="3">
-        <f t="shared" si="57"/>
-        <v>19801.24438141752</v>
+        <f>EI19*(1+$AA$23)</f>
+        <v>18939.57711959384</v>
       </c>
       <c r="EK19" s="3">
-        <f t="shared" si="57"/>
-        <v>19999.256825231696</v>
+        <f>EJ19*(1+$AA$23)</f>
+        <v>19128.972890789777</v>
       </c>
       <c r="EL19" s="3">
-        <f t="shared" si="57"/>
-        <v>20199.249393484013</v>
+        <f>EK19*(1+$AA$23)</f>
+        <v>19320.262619697674</v>
       </c>
       <c r="EM19" s="3">
-        <f t="shared" si="57"/>
-        <v>20401.241887418855</v>
+        <f>EL19*(1+$AA$23)</f>
+        <v>19513.465245894651</v>
       </c>
       <c r="EN19" s="3">
-        <f t="shared" si="57"/>
-        <v>20605.254306293045</v>
+        <f>EM19*(1+$AA$23)</f>
+        <v>19708.599898353597</v>
       </c>
       <c r="EO19" s="3">
-        <f t="shared" si="57"/>
-        <v>20811.306849355977</v>
+        <f>EN19*(1+$AA$23)</f>
+        <v>19905.685897337135</v>
       </c>
       <c r="EP19" s="3">
-        <f t="shared" si="57"/>
-        <v>21019.419917849536</v>
+        <f>EO19*(1+$AA$23)</f>
+        <v>20104.742756310505</v>
       </c>
       <c r="EQ19" s="3">
-        <f t="shared" si="57"/>
-        <v>21229.614117028032</v>
+        <f>EP19*(1+$AA$23)</f>
+        <v>20305.790183873611</v>
       </c>
       <c r="ER19" s="3">
-        <f t="shared" si="57"/>
-        <v>21441.910258198313</v>
+        <f>EQ19*(1+$AA$23)</f>
+        <v>20508.848085712347</v>
       </c>
       <c r="ES19" s="3">
-        <f t="shared" si="57"/>
-        <v>21656.329360780295</v>
+        <f>ER19*(1+$AA$23)</f>
+        <v>20713.936566569471</v>
       </c>
       <c r="ET19" s="3">
-        <f t="shared" si="57"/>
-        <v>21872.892654388099</v>
+        <f>ES19*(1+$AA$23)</f>
+        <v>20921.075932235166</v>
       </c>
       <c r="EU19" s="3">
-        <f t="shared" si="57"/>
-        <v>22091.62158093198</v>
+        <f>ET19*(1+$AA$23)</f>
+        <v>21130.286691557518</v>
       </c>
       <c r="EV19" s="3">
-        <f t="shared" si="57"/>
-        <v>22312.537796741301</v>
+        <f>EU19*(1+$AA$23)</f>
+        <v>21341.589558473093</v>
       </c>
       <c r="EW19" s="3">
-        <f t="shared" ref="EW19:FN19" si="58">EV19*(1+$AA$25)</f>
-        <v>22535.663174708712</v>
+        <f>EV19*(1+$AA$23)</f>
+        <v>21555.005454057824</v>
       </c>
       <c r="EX19" s="3">
-        <f t="shared" si="58"/>
-        <v>22761.019806455799</v>
+        <f>EW19*(1+$AA$23)</f>
+        <v>21770.555508598402</v>
       </c>
       <c r="EY19" s="3">
-        <f t="shared" si="58"/>
-        <v>22988.630004520357</v>
+        <f>EX19*(1+$AA$23)</f>
+        <v>21988.261063684386</v>
       </c>
       <c r="EZ19" s="3">
-        <f t="shared" si="58"/>
-        <v>23218.516304565561</v>
+        <f>EY19*(1+$AA$23)</f>
+        <v>22208.143674321229</v>
       </c>
       <c r="FA19" s="3">
-        <f t="shared" si="58"/>
-        <v>23450.701467611216</v>
+        <f>EZ19*(1+$AA$23)</f>
+        <v>22430.225111064443</v>
       </c>
       <c r="FB19" s="3">
-        <f t="shared" si="58"/>
-        <v>23685.208482287329</v>
+        <f>FA19*(1+$AA$23)</f>
+        <v>22654.527362175086</v>
       </c>
       <c r="FC19" s="3">
-        <f t="shared" si="58"/>
-        <v>23922.060567110202</v>
+        <f>FB19*(1+$AA$23)</f>
+        <v>22881.072635796838</v>
       </c>
       <c r="FD19" s="3">
-        <f t="shared" si="58"/>
-        <v>24161.281172781306</v>
+        <f>FC19*(1+$AA$23)</f>
+        <v>23109.883362154807</v>
       </c>
       <c r="FE19" s="3">
-        <f t="shared" si="58"/>
-        <v>24402.893984509119</v>
+        <f>FD19*(1+$AA$23)</f>
+        <v>23340.982195776356</v>
       </c>
       <c r="FF19" s="3">
-        <f t="shared" si="58"/>
-        <v>24646.92292435421</v>
+        <f>FE19*(1+$AA$23)</f>
+        <v>23574.392017734121</v>
       </c>
       <c r="FG19" s="3">
-        <f t="shared" si="58"/>
-        <v>24893.392153597753</v>
+        <f>FF19*(1+$AA$23)</f>
+        <v>23810.135937911462</v>
       </c>
       <c r="FH19" s="3">
-        <f t="shared" si="58"/>
-        <v>25142.326075133729</v>
+        <f>FG19*(1+$AA$23)</f>
+        <v>24048.237297290576</v>
       </c>
       <c r="FI19" s="3">
-        <f t="shared" si="58"/>
-        <v>25393.749335885066</v>
+        <f>FH19*(1+$AA$23)</f>
+        <v>24288.719670263483</v>
       </c>
       <c r="FJ19" s="3">
-        <f t="shared" si="58"/>
-        <v>25647.686829243918</v>
+        <f>FI19*(1+$AA$23)</f>
+        <v>24531.606866966118</v>
       </c>
       <c r="FK19" s="3">
-        <f t="shared" si="58"/>
-        <v>25904.163697536358</v>
+        <f>FJ19*(1+$AA$23)</f>
+        <v>24776.922935635779</v>
       </c>
       <c r="FL19" s="3">
-        <f t="shared" si="58"/>
-        <v>26163.20533451172</v>
+        <f>FK19*(1+$AA$23)</f>
+        <v>25024.692164992139</v>
       </c>
       <c r="FM19" s="3">
-        <f t="shared" si="58"/>
-        <v>26424.837387856838</v>
+        <f>FL19*(1+$AA$23)</f>
+        <v>25274.939086642062</v>
       </c>
       <c r="FN19" s="3">
-        <f t="shared" si="58"/>
-        <v>26689.085761735409</v>
+        <f>FM19*(1+$AA$23)</f>
+        <v>25527.688477508484</v>
       </c>
     </row>
     <row r="20" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>1134</v>
@@ -2836,19 +2830,19 @@
         <v>1014</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ref="J20:M20" si="59">I20*0.99</f>
+        <f t="shared" ref="J20:M20" si="53">I20*0.99</f>
         <v>1003.86</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>993.82140000000004</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>983.88318600000002</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>974.04435414</v>
       </c>
       <c r="N20" s="4"/>
@@ -2870,52 +2864,52 @@
         <v>935.08257997440001</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" ref="V20:X20" si="60">U20*0.96</f>
+        <f t="shared" ref="V20:X20" si="54">U20*0.96</f>
         <v>897.679276775424</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>861.77210570440695</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>827.30122147623069</v>
       </c>
     </row>
     <row r="21" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="5">
-        <f t="shared" ref="B21:I21" si="61">B19/B20</f>
+        <f t="shared" ref="B21:I21" si="55">B19/B20</f>
         <v>0.70105820105820105</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="55"/>
         <v>0.92369838420107719</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="55"/>
         <v>0.92896174863387981</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="55"/>
         <v>1.2933579335793357</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="55"/>
         <v>0.82835820895522383</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="55"/>
         <v>1.0773638968481376</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="55"/>
         <v>0.986328125</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="55"/>
         <v>1.1055226824457594</v>
       </c>
       <c r="J21" s="5">
@@ -2923,15 +2917,15 @@
       </c>
       <c r="K21" s="5">
         <f>K19/K20</f>
-        <v>1.1374492720724267</v>
+        <v>1.1441086054295067</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" ref="L21:M21" si="62">L19/L20</f>
-        <v>1.1806747016014161</v>
+        <f t="shared" ref="L21:M21" si="56">L19/L20</f>
+        <v>1.1832341747773305</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="62"/>
-        <v>1.2954065617203592</v>
+        <f t="shared" si="56"/>
+        <v>1.2945331665434829</v>
       </c>
       <c r="Q21" s="5">
         <f>Q19/Q20</f>
@@ -2946,68 +2940,74 @@
         <v>3.991337824831569</v>
       </c>
       <c r="T21" s="5">
-        <f t="shared" ref="T21:X21" si="63">T19/T20</f>
-        <v>4.7209871329328514</v>
+        <f t="shared" ref="T21:X21" si="57">T19/T20</f>
+        <v>4.7971127063388987</v>
       </c>
       <c r="U21" s="5">
-        <f t="shared" si="63"/>
-        <v>5.321782507581938</v>
+        <f t="shared" si="57"/>
+        <v>5.2955798997099208</v>
       </c>
       <c r="V21" s="5">
-        <f t="shared" si="63"/>
-        <v>5.9861197234714112</v>
+        <f t="shared" si="57"/>
+        <v>5.8752947395464039</v>
       </c>
       <c r="W21" s="5">
-        <f t="shared" si="63"/>
-        <v>6.7250761362417082</v>
+        <f t="shared" si="57"/>
+        <v>6.514214342031476</v>
       </c>
       <c r="X21" s="5">
-        <f t="shared" si="63"/>
-        <v>7.546567473657718</v>
+        <f t="shared" si="57"/>
+        <v>7.2181724492875983</v>
       </c>
     </row>
     <row r="22" spans="1:170" x14ac:dyDescent="0.2">
       <c r="F22" s="4"/>
       <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:170" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA22" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7">
-        <f t="shared" ref="F23:M23" si="64">F4/B4-1</f>
+        <f t="shared" ref="F23:M23" si="58">F4/B4-1</f>
         <v>9.3607954545454453E-2</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>8.2063949499108002E-2</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>5.7832299811269916E-2</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>4.2362322452030865E-2</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>4.3169242758799742E-2</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>3.8933062777425365E-2</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>6.4843499936281468E-2</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>7.8686720000000099E-2</v>
       </c>
       <c r="N23" s="7"/>
@@ -3016,11 +3016,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="7" t="e">
-        <f t="shared" ref="P23:Q23" si="65">P4/O4-1</f>
+        <f t="shared" ref="P23:Q23" si="59">P4/O4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="7" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R23" s="7">
@@ -3032,396 +3032,358 @@
         <v>6.8052803063383793E-2</v>
       </c>
       <c r="T23" s="7">
-        <f t="shared" ref="T23:X23" si="66">T4/S4-1</f>
+        <f t="shared" ref="T23:X23" si="60">T4/S4-1</f>
         <v>5.6812505692990012E-2</v>
       </c>
       <c r="U23" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="V23" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="W23" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="X23" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="24" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" ref="C24:M24" si="61">C4/B4-1</f>
+        <v>3.5085227272727337E-2</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="61"/>
+        <v>1.7977219706326375E-2</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="61"/>
+        <v>8.1962793205715867E-2</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="61"/>
+        <v>-4.0742586593570884E-2</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="61"/>
+        <v>2.4158981685933334E-2</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="61"/>
+        <v>-4.8192771084337727E-3</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="61"/>
+        <v>6.6139926086402401E-2</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="61"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="61"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="61"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="61"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA24" s="6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:170" x14ac:dyDescent="0.2">
+      <c r="Z25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA25" s="3">
+        <f>NPV(AA24,T32:XFD32)+Sheet1!P5-Sheet1!P6</f>
+        <v>106989.758032314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="4">
-        <f t="shared" ref="C24:M24" si="67">C4/B4-1</f>
-        <v>3.5085227272727337E-2</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="67"/>
-        <v>1.7977219706326375E-2</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" si="67"/>
-        <v>8.1962793205715867E-2</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="67"/>
-        <v>-4.0742586593570884E-2</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="67"/>
-        <v>2.4158981685933334E-2</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" si="67"/>
-        <v>-4.8192771084337727E-3</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="67"/>
-        <v>6.6139926086402401E-2</v>
-      </c>
-      <c r="J24" s="4">
-        <f t="shared" si="67"/>
-        <v>-4.0000000000000036E-2</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" si="67"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="L24" s="4">
-        <f t="shared" si="67"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="M24" s="4">
-        <f t="shared" si="67"/>
-        <v>8.0000000000000071E-2</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA24" s="6">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="25" spans="1:170" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="4">
-        <f>B18/B17</f>
-        <v>0.25977653631284914</v>
-      </c>
-      <c r="C25" s="4">
-        <f t="shared" ref="C25:I25" si="68">C18/C17</f>
-        <v>0.21028396009209516</v>
-      </c>
-      <c r="D25" s="4">
-        <f t="shared" si="68"/>
-        <v>0.17808219178082191</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="68"/>
-        <v>0.2180702732849972</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" si="68"/>
-        <v>0.26550868486352358</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="68"/>
-        <v>0.1937097927090779</v>
-      </c>
-      <c r="H25" s="4">
-        <f t="shared" si="68"/>
-        <v>0.2295957284515637</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" si="68"/>
-        <v>0.20496453900709219</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="L25" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="M25" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="O25" s="4" t="e">
-        <f t="shared" ref="O25:T25" si="69">O18/O17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="4" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="4">
-        <f t="shared" si="69"/>
-        <v>0.28134284016636957</v>
-      </c>
-      <c r="R25" s="4">
-        <f t="shared" si="69"/>
-        <v>0.21530216226205878</v>
-      </c>
-      <c r="S25" s="4">
-        <f t="shared" si="69"/>
-        <v>0.22180521673860012</v>
-      </c>
-      <c r="T25" s="4">
-        <f t="shared" si="69"/>
-        <v>0.21945658355700792</v>
-      </c>
-      <c r="U25" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="V25" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="W25" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="X25" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA25" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="26" spans="1:170" x14ac:dyDescent="0.2">
-      <c r="Z26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA26" s="6">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="27" spans="1:170" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="7">
-        <f t="shared" ref="B27:M27" si="70">B9/B4</f>
+      <c r="B26" s="7">
+        <f>B9/B4</f>
         <v>0.40156249999999999</v>
       </c>
-      <c r="C27" s="7">
-        <f t="shared" si="70"/>
+      <c r="C26" s="7">
+        <f>C9/C4</f>
         <v>0.39193083573487031</v>
       </c>
-      <c r="D27" s="7">
-        <f t="shared" si="70"/>
+      <c r="D26" s="7">
+        <f>D9/D4</f>
         <v>0.39026691830682125</v>
       </c>
-      <c r="E27" s="7">
-        <f t="shared" si="70"/>
+      <c r="E26" s="7">
+        <f>E9/E4</f>
         <v>0.39957637677547969</v>
       </c>
-      <c r="F27" s="7">
-        <f t="shared" si="70"/>
+      <c r="F26" s="7">
+        <f>F9/F4</f>
         <v>0.39057020392258734</v>
       </c>
-      <c r="G27" s="7">
-        <f t="shared" si="70"/>
+      <c r="G26" s="7">
+        <f>G9/G4</f>
         <v>0.40228281547241596</v>
       </c>
-      <c r="H27" s="7">
-        <f t="shared" si="70"/>
+      <c r="H26" s="7">
+        <f>H9/H4</f>
         <v>0.41123996431757359</v>
       </c>
-      <c r="I27" s="7">
-        <f t="shared" si="70"/>
+      <c r="I26" s="7">
+        <f>I9/I4</f>
         <v>0.41644752569925891</v>
       </c>
-      <c r="J27" s="7">
-        <f t="shared" si="70"/>
+      <c r="J26" s="7">
+        <f>J9/J4</f>
         <v>0.41644752569925886</v>
       </c>
-      <c r="K27" s="7">
-        <f t="shared" si="70"/>
+      <c r="K26" s="7">
+        <f>K9/K4</f>
         <v>0.41644752569925891</v>
       </c>
-      <c r="L27" s="7">
-        <f t="shared" si="70"/>
+      <c r="L26" s="7">
+        <f>L9/L4</f>
         <v>0.41644752569925897</v>
       </c>
-      <c r="M27" s="7">
-        <f t="shared" si="70"/>
+      <c r="M26" s="7">
+        <f>M9/M4</f>
         <v>0.41644752569925886</v>
       </c>
-      <c r="O27" s="7" t="e">
+      <c r="O26" s="7" t="e">
         <f>O9/O4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P27" s="7" t="e">
+      <c r="P26" s="7" t="e">
         <f>P9/P4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q26" s="7">
         <f>Q9/Q4</f>
         <v>0.42346827531070574</v>
       </c>
-      <c r="R27" s="7">
-        <f t="shared" ref="R27:X27" si="71">R9/R4</f>
+      <c r="R26" s="7">
+        <f>R9/R4</f>
         <v>0.39585502670383932</v>
       </c>
-      <c r="S27" s="7">
-        <f t="shared" si="71"/>
+      <c r="S26" s="7">
+        <f>S9/S4</f>
         <v>0.40538415573796271</v>
       </c>
-      <c r="T27" s="7">
-        <f t="shared" si="71"/>
+      <c r="T26" s="7">
+        <f>T9/T4</f>
         <v>0.41644752569925902</v>
       </c>
-      <c r="U27" s="7">
-        <f t="shared" si="71"/>
+      <c r="U26" s="7">
+        <f>U9/U4</f>
         <v>0.41644752569925897</v>
       </c>
-      <c r="V27" s="7">
-        <f t="shared" si="71"/>
+      <c r="V26" s="7">
+        <f>V9/V4</f>
         <v>0.41644752569925902</v>
       </c>
-      <c r="W27" s="7">
-        <f t="shared" si="71"/>
+      <c r="W26" s="7">
+        <f>W9/W4</f>
         <v>0.41644752569925886</v>
       </c>
-      <c r="X27" s="7">
-        <f t="shared" si="71"/>
+      <c r="X26" s="7">
+        <f>X9/X4</f>
         <v>0.41644752569925891</v>
       </c>
-      <c r="Z27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA27" s="3">
-        <f>NPV(AA26,T32:XFD32)+Sheet1!E5-Sheet1!E6</f>
-        <v>93141.916207696486</v>
-      </c>
-    </row>
-    <row r="28" spans="1:170" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="4">
-        <f t="shared" ref="B28:I28" si="72">B15/B4</f>
+      <c r="Z26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="5">
+        <f>AA25/Sheet1!P3</f>
+        <v>108.15327092088084</v>
+      </c>
+    </row>
+    <row r="27" spans="1:170" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4">
+        <f>B15/B4</f>
         <v>0.14190340909090909</v>
       </c>
-      <c r="C28" s="4">
-        <f t="shared" si="72"/>
+      <c r="C27" s="4">
+        <f>C15/C4</f>
         <v>0.15548236585700562</v>
       </c>
-      <c r="D28" s="4">
-        <f t="shared" si="72"/>
+      <c r="D27" s="4">
+        <f>D15/D4</f>
         <v>0.15745483957940146</v>
       </c>
-      <c r="E28" s="4">
-        <f t="shared" si="72"/>
+      <c r="E27" s="4">
+        <f>E15/E4</f>
         <v>0.21530027410914529</v>
       </c>
-      <c r="F28" s="4">
-        <f t="shared" si="72"/>
+      <c r="F27" s="4">
+        <f>F15/F4</f>
         <v>0.15170801402779582</v>
       </c>
-      <c r="G28" s="4">
-        <f t="shared" si="72"/>
+      <c r="G27" s="4">
+        <f>G15/G4</f>
         <v>0.16804058338617628</v>
       </c>
-      <c r="H28" s="4">
-        <f t="shared" si="72"/>
+      <c r="H27" s="4">
+        <f>H15/H4</f>
         <v>0.17726519689053141</v>
       </c>
-      <c r="I28" s="4">
-        <f t="shared" si="72"/>
+      <c r="I27" s="4">
+        <f>I15/I4</f>
         <v>0.17224480038250059</v>
       </c>
-      <c r="J28" s="4">
-        <f t="shared" ref="J28:K28" si="73">J15/J4</f>
+      <c r="J27" s="4">
+        <f>J15/J4</f>
         <v>0.17224480038250053</v>
       </c>
-      <c r="K28" s="4">
-        <f t="shared" si="73"/>
+      <c r="K27" s="4">
+        <f>K15/K4</f>
         <v>0.17224480038250062</v>
       </c>
-      <c r="L28" s="4">
-        <f t="shared" ref="L28:M28" si="74">L15/L4</f>
+      <c r="L27" s="4">
+        <f>L15/L4</f>
         <v>0.1722448003825007</v>
       </c>
-      <c r="M28" s="4">
-        <f t="shared" si="74"/>
+      <c r="M27" s="4">
+        <f>M15/M4</f>
         <v>0.17224480038250056</v>
       </c>
-      <c r="O28" s="4" t="e">
+      <c r="O27" s="4" t="e">
         <f>O15/O4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P28" s="4" t="e">
+      <c r="P27" s="4" t="e">
         <f>P15/P4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q27" s="4">
         <f>Q15/Q4</f>
         <v>0.13943600552365723</v>
       </c>
+      <c r="R27" s="4">
+        <f>R15/R4</f>
+        <v>0.16888918746431092</v>
+      </c>
+      <c r="S27" s="4">
+        <f>S15/S4</f>
+        <v>0.16746862911595434</v>
+      </c>
+      <c r="T27" s="4">
+        <f>T15/T4</f>
+        <v>0.17224480038250073</v>
+      </c>
+      <c r="U27" s="4">
+        <f>U15/U4</f>
+        <v>0.17224480038250073</v>
+      </c>
+      <c r="V27" s="4">
+        <f>V15/V4</f>
+        <v>0.17224480038250076</v>
+      </c>
+      <c r="W27" s="4">
+        <f>W15/W4</f>
+        <v>0.17224480038250062</v>
+      </c>
+      <c r="X27" s="4">
+        <f>X15/X4</f>
+        <v>0.17224480038250067</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA27" s="4">
+        <f>AA26/Sheet1!P2-1</f>
+        <v>0.52328550592789913</v>
+      </c>
+    </row>
+    <row r="28" spans="1:170" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4">
+        <f>Q32/Q4</f>
+        <v>0.33218257140780583</v>
+      </c>
       <c r="R28" s="4">
-        <f t="shared" ref="R28:X28" si="75">R15/R4</f>
-        <v>0.16888918746431092</v>
+        <f t="shared" ref="R28:X28" si="62">R32/R4</f>
+        <v>0.13741560579087031</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="75"/>
-        <v>0.16746862911595434</v>
+        <f t="shared" si="62"/>
+        <v>0.18432556530490299</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" si="75"/>
-        <v>0.17224480038250073</v>
+        <f t="shared" si="62"/>
+        <v>0.19343242031827657</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="75"/>
-        <v>0.17224480038250073</v>
+        <f t="shared" si="62"/>
+        <v>0.19343242031827657</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" si="75"/>
-        <v>0.17224480038250076</v>
+        <f t="shared" si="62"/>
+        <v>0.19343242031827657</v>
       </c>
       <c r="W28" s="4">
-        <f t="shared" si="75"/>
-        <v>0.17224480038250062</v>
+        <f t="shared" si="62"/>
+        <v>0.19343242031827657</v>
       </c>
       <c r="X28" s="4">
-        <f t="shared" si="75"/>
-        <v>0.17224480038250067</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="5">
-        <f>AA27/Sheet1!E3</f>
-        <v>94.154833910910057</v>
-      </c>
+        <f t="shared" si="62"/>
+        <v>0.19343242031827654</v>
+      </c>
+      <c r="AA28" s="4"/>
     </row>
     <row r="29" spans="1:170" x14ac:dyDescent="0.2">
       <c r="C29" s="4"/>
       <c r="G29" s="4"/>
+      <c r="S29" s="4"/>
       <c r="T29" s="4"/>
-      <c r="Z29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA29" s="4">
-        <f>AA28/Sheet1!E2-1</f>
-        <v>0.32612442128042329</v>
-      </c>
       <c r="AB29" s="4"/>
     </row>
     <row r="30" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q30" s="1">
         <v>5813</v>
@@ -3441,22 +3403,22 @@
         <v>7875</v>
       </c>
       <c r="V30" s="1">
-        <f t="shared" ref="V30:X31" si="76">U30*1.05</f>
+        <f t="shared" ref="V30:X31" si="63">U30*1.05</f>
         <v>8268.75</v>
       </c>
       <c r="W30" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="63"/>
         <v>8682.1875</v>
       </c>
       <c r="X30" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="63"/>
         <v>9116.296875</v>
       </c>
       <c r="AB30" s="5"/>
     </row>
     <row r="31" spans="1:170" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q31" s="1">
         <v>3328</v>
@@ -3475,23 +3437,22 @@
         <v>1050</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="63"/>
         <v>1102.5</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="63"/>
         <v>1157.625</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="63"/>
         <v>1215.5062500000001</v>
       </c>
-      <c r="Z31" s="8"/>
       <c r="AB31" s="5"/>
     </row>
-    <row r="32" spans="1:170" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3">
         <f>B30-B31</f>
@@ -3502,639 +3463,619 @@
         <v>9141</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" ref="R32:S32" si="77">R30+R31</f>
+        <f t="shared" ref="R32:S32" si="64">R30+R31</f>
         <v>4091</v>
       </c>
       <c r="S32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="64"/>
         <v>5861</v>
       </c>
       <c r="T32" s="3">
         <v>6500</v>
       </c>
       <c r="U32" s="3">
-        <f>U33*U19</f>
-        <v>5473.9367289775855</v>
+        <f>U30-U31</f>
+        <v>6825</v>
       </c>
       <c r="V32" s="3">
-        <f t="shared" ref="V32:X32" si="78">V33*V19</f>
-        <v>5910.9771864626091</v>
+        <f t="shared" ref="V32:X32" si="65">V30-V31</f>
+        <v>7166.25</v>
       </c>
       <c r="W32" s="3">
-        <f t="shared" si="78"/>
-        <v>6375.0313252466212</v>
+        <f t="shared" si="65"/>
+        <v>7524.5625</v>
       </c>
       <c r="X32" s="3">
-        <f t="shared" si="78"/>
-        <v>6867.6129378008054</v>
+        <f t="shared" si="65"/>
+        <v>7900.7906249999996</v>
       </c>
       <c r="Y32" s="3">
-        <f t="shared" ref="Y32:BD32" si="79">X32*(1+$AA$25)</f>
-        <v>6936.2890671788136</v>
+        <f>X32*(1+$AA$23)</f>
+        <v>7979.7985312499995</v>
       </c>
       <c r="Z32" s="3">
-        <f t="shared" si="79"/>
-        <v>7005.6519578506022</v>
+        <f>Y32*(1+$AA$23)</f>
+        <v>8059.5965165624993</v>
       </c>
       <c r="AA32" s="3">
-        <f t="shared" si="79"/>
-        <v>7075.7084774291079</v>
+        <f>Z32*(1+$AA$23)</f>
+        <v>8140.1924817281242</v>
       </c>
       <c r="AB32" s="3">
-        <f t="shared" si="79"/>
-        <v>7146.4655622033988</v>
+        <f>AA32*(1+$AA$23)</f>
+        <v>8221.5944065454059</v>
       </c>
       <c r="AC32" s="3">
-        <f t="shared" si="79"/>
-        <v>7217.9302178254329</v>
+        <f>AB32*(1+$AA$23)</f>
+        <v>8303.81035061086</v>
       </c>
       <c r="AD32" s="3">
-        <f t="shared" si="79"/>
-        <v>7290.1095200036871</v>
+        <f>AC32*(1+$AA$23)</f>
+        <v>8386.8484541169692</v>
       </c>
       <c r="AE32" s="3">
-        <f t="shared" si="79"/>
-        <v>7363.0106152037242</v>
+        <f>AD32*(1+$AA$23)</f>
+        <v>8470.716938658139</v>
       </c>
       <c r="AF32" s="3">
-        <f t="shared" si="79"/>
-        <v>7436.6407213557613</v>
+        <f>AE32*(1+$AA$23)</f>
+        <v>8555.4241080447209</v>
       </c>
       <c r="AG32" s="3">
-        <f t="shared" si="79"/>
-        <v>7511.0071285693193</v>
+        <f>AF32*(1+$AA$23)</f>
+        <v>8640.9783491251674</v>
       </c>
       <c r="AH32" s="3">
-        <f t="shared" si="79"/>
-        <v>7586.1171998550126</v>
+        <f>AG32*(1+$AA$23)</f>
+        <v>8727.3881326164192</v>
       </c>
       <c r="AI32" s="3">
-        <f t="shared" si="79"/>
-        <v>7661.9783718535627</v>
+        <f>AH32*(1+$AA$23)</f>
+        <v>8814.6620139425831</v>
       </c>
       <c r="AJ32" s="3">
-        <f t="shared" si="79"/>
-        <v>7738.5981555720982</v>
+        <f>AI32*(1+$AA$23)</f>
+        <v>8902.8086340820082</v>
       </c>
       <c r="AK32" s="3">
-        <f t="shared" si="79"/>
-        <v>7815.9841371278189</v>
+        <f>AJ32*(1+$AA$23)</f>
+        <v>8991.8367204228289</v>
       </c>
       <c r="AL32" s="3">
-        <f t="shared" si="79"/>
-        <v>7894.1439784990971</v>
+        <f>AK32*(1+$AA$23)</f>
+        <v>9081.7550876270579</v>
       </c>
       <c r="AM32" s="3">
-        <f t="shared" si="79"/>
-        <v>7973.0854182840885</v>
+        <f>AL32*(1+$AA$23)</f>
+        <v>9172.5726385033286</v>
       </c>
       <c r="AN32" s="3">
-        <f t="shared" si="79"/>
-        <v>8052.8162724669291</v>
+        <f>AM32*(1+$AA$23)</f>
+        <v>9264.2983648883619</v>
       </c>
       <c r="AO32" s="3">
-        <f t="shared" si="79"/>
-        <v>8133.3444351915987</v>
+        <f>AN32*(1+$AA$23)</f>
+        <v>9356.9413485372461</v>
       </c>
       <c r="AP32" s="3">
-        <f t="shared" si="79"/>
-        <v>8214.6778795435148</v>
+        <f>AO32*(1+$AA$23)</f>
+        <v>9450.510762022619</v>
       </c>
       <c r="AQ32" s="3">
-        <f t="shared" si="79"/>
-        <v>8296.82465833895</v>
+        <f>AP32*(1+$AA$23)</f>
+        <v>9545.0158696428462</v>
       </c>
       <c r="AR32" s="3">
-        <f t="shared" si="79"/>
-        <v>8379.7929049223403</v>
+        <f>AQ32*(1+$AA$23)</f>
+        <v>9640.466028339275</v>
       </c>
       <c r="AS32" s="3">
-        <f t="shared" si="79"/>
-        <v>8463.5908339715643</v>
+        <f>AR32*(1+$AA$23)</f>
+        <v>9736.8706886226682</v>
       </c>
       <c r="AT32" s="3">
-        <f t="shared" si="79"/>
-        <v>8548.2267423112808</v>
+        <f>AS32*(1+$AA$23)</f>
+        <v>9834.2393955088955</v>
       </c>
       <c r="AU32" s="3">
-        <f t="shared" si="79"/>
-        <v>8633.7090097343935</v>
+        <f>AT32*(1+$AA$23)</f>
+        <v>9932.581789463984</v>
       </c>
       <c r="AV32" s="3">
-        <f t="shared" si="79"/>
-        <v>8720.0460998317376</v>
+        <f>AU32*(1+$AA$23)</f>
+        <v>10031.907607358624</v>
       </c>
       <c r="AW32" s="3">
-        <f t="shared" si="79"/>
-        <v>8807.2465608300554</v>
+        <f>AV32*(1+$AA$23)</f>
+        <v>10132.226683432211</v>
       </c>
       <c r="AX32" s="3">
-        <f t="shared" si="79"/>
-        <v>8895.3190264383556</v>
+        <f>AW32*(1+$AA$23)</f>
+        <v>10233.548950266533</v>
       </c>
       <c r="AY32" s="3">
-        <f t="shared" si="79"/>
-        <v>8984.2722167027387</v>
+        <f>AX32*(1+$AA$23)</f>
+        <v>10335.884439769199</v>
       </c>
       <c r="AZ32" s="3">
-        <f t="shared" si="79"/>
-        <v>9074.1149388697668</v>
+        <f>AY32*(1+$AA$23)</f>
+        <v>10439.243284166891</v>
       </c>
       <c r="BA32" s="3">
-        <f t="shared" si="79"/>
-        <v>9164.8560882584643</v>
+        <f>AZ32*(1+$AA$23)</f>
+        <v>10543.635717008559</v>
       </c>
       <c r="BB32" s="3">
-        <f t="shared" si="79"/>
-        <v>9256.5046491410485</v>
+        <f>BA32*(1+$AA$23)</f>
+        <v>10649.072074178644</v>
       </c>
       <c r="BC32" s="3">
-        <f t="shared" si="79"/>
-        <v>9349.0696956324591</v>
+        <f>BB32*(1+$AA$23)</f>
+        <v>10755.562794920432</v>
       </c>
       <c r="BD32" s="3">
-        <f t="shared" si="79"/>
-        <v>9442.5603925887845</v>
+        <f>BC32*(1+$AA$23)</f>
+        <v>10863.118422869637</v>
       </c>
       <c r="BE32" s="3">
-        <f t="shared" ref="BE32:CJ32" si="80">BD32*(1+$AA$25)</f>
-        <v>9536.9859965146716</v>
+        <f>BD32*(1+$AA$23)</f>
+        <v>10971.749607098332</v>
       </c>
       <c r="BF32" s="3">
-        <f t="shared" si="80"/>
-        <v>9632.3558564798186</v>
+        <f>BE32*(1+$AA$23)</f>
+        <v>11081.467103169316</v>
       </c>
       <c r="BG32" s="3">
-        <f t="shared" si="80"/>
-        <v>9728.6794150446167</v>
+        <f>BF32*(1+$AA$23)</f>
+        <v>11192.28177420101</v>
       </c>
       <c r="BH32" s="3">
-        <f t="shared" si="80"/>
-        <v>9825.9662091950631</v>
+        <f>BG32*(1+$AA$23)</f>
+        <v>11304.20459194302</v>
       </c>
       <c r="BI32" s="3">
-        <f t="shared" si="80"/>
-        <v>9924.2258712870134</v>
+        <f>BH32*(1+$AA$23)</f>
+        <v>11417.24663786245</v>
       </c>
       <c r="BJ32" s="3">
-        <f t="shared" si="80"/>
-        <v>10023.468129999883</v>
+        <f>BI32*(1+$AA$23)</f>
+        <v>11531.419104241075</v>
       </c>
       <c r="BK32" s="3">
-        <f t="shared" si="80"/>
-        <v>10123.702811299881</v>
+        <f>BJ32*(1+$AA$23)</f>
+        <v>11646.733295283486</v>
       </c>
       <c r="BL32" s="3">
-        <f t="shared" si="80"/>
-        <v>10224.93983941288</v>
+        <f>BK32*(1+$AA$23)</f>
+        <v>11763.20062823632</v>
       </c>
       <c r="BM32" s="3">
-        <f t="shared" si="80"/>
-        <v>10327.18923780701</v>
+        <f>BL32*(1+$AA$23)</f>
+        <v>11880.832634518683</v>
       </c>
       <c r="BN32" s="3">
-        <f t="shared" si="80"/>
-        <v>10430.46113018508</v>
+        <f>BM32*(1+$AA$23)</f>
+        <v>11999.64096086387</v>
       </c>
       <c r="BO32" s="3">
-        <f t="shared" si="80"/>
-        <v>10534.765741486932</v>
+        <f>BN32*(1+$AA$23)</f>
+        <v>12119.637370472508</v>
       </c>
       <c r="BP32" s="3">
-        <f t="shared" si="80"/>
-        <v>10640.113398901802</v>
+        <f>BO32*(1+$AA$23)</f>
+        <v>12240.833744177233</v>
       </c>
       <c r="BQ32" s="3">
-        <f t="shared" si="80"/>
-        <v>10746.51453289082</v>
+        <f>BP32*(1+$AA$23)</f>
+        <v>12363.242081619006</v>
       </c>
       <c r="BR32" s="3">
-        <f t="shared" si="80"/>
-        <v>10853.979678219728</v>
+        <f>BQ32*(1+$AA$23)</f>
+        <v>12486.874502435196</v>
       </c>
       <c r="BS32" s="3">
-        <f t="shared" si="80"/>
-        <v>10962.519475001925</v>
+        <f>BR32*(1+$AA$23)</f>
+        <v>12611.743247459548</v>
       </c>
       <c r="BT32" s="3">
-        <f t="shared" si="80"/>
-        <v>11072.144669751944</v>
+        <f>BS32*(1+$AA$23)</f>
+        <v>12737.860679934143</v>
       </c>
       <c r="BU32" s="3">
-        <f t="shared" si="80"/>
-        <v>11182.866116449464</v>
+        <f>BT32*(1+$AA$23)</f>
+        <v>12865.239286733486</v>
       </c>
       <c r="BV32" s="3">
-        <f t="shared" si="80"/>
-        <v>11294.694777613959</v>
+        <f>BU32*(1+$AA$23)</f>
+        <v>12993.89167960082</v>
       </c>
       <c r="BW32" s="3">
-        <f t="shared" si="80"/>
-        <v>11407.641725390098</v>
+        <f>BV32*(1+$AA$23)</f>
+        <v>13123.830596396829</v>
       </c>
       <c r="BX32" s="3">
-        <f t="shared" si="80"/>
-        <v>11521.718142643998</v>
+        <f>BW32*(1+$AA$23)</f>
+        <v>13255.068902360797</v>
       </c>
       <c r="BY32" s="3">
-        <f t="shared" si="80"/>
-        <v>11636.935324070439</v>
+        <f>BX32*(1+$AA$23)</f>
+        <v>13387.619591384406</v>
       </c>
       <c r="BZ32" s="3">
-        <f t="shared" si="80"/>
-        <v>11753.304677311144</v>
+        <f>BY32*(1+$AA$23)</f>
+        <v>13521.49578729825</v>
       </c>
       <c r="CA32" s="3">
-        <f t="shared" si="80"/>
-        <v>11870.837724084255</v>
+        <f>BZ32*(1+$AA$23)</f>
+        <v>13656.710745171233</v>
       </c>
       <c r="CB32" s="3">
-        <f t="shared" si="80"/>
-        <v>11989.546101325097</v>
+        <f>CA32*(1+$AA$23)</f>
+        <v>13793.277852622945</v>
       </c>
       <c r="CC32" s="3">
-        <f t="shared" si="80"/>
-        <v>12109.441562338348</v>
+        <f>CB32*(1+$AA$23)</f>
+        <v>13931.210631149175</v>
       </c>
       <c r="CD32" s="3">
-        <f t="shared" si="80"/>
-        <v>12230.535977961732</v>
+        <f>CC32*(1+$AA$23)</f>
+        <v>14070.522737460667</v>
       </c>
       <c r="CE32" s="3">
-        <f t="shared" si="80"/>
-        <v>12352.841337741349</v>
+        <f>CD32*(1+$AA$23)</f>
+        <v>14211.227964835274</v>
       </c>
       <c r="CF32" s="3">
-        <f t="shared" si="80"/>
-        <v>12476.369751118762</v>
+        <f>CE32*(1+$AA$23)</f>
+        <v>14353.340244483627</v>
       </c>
       <c r="CG32" s="3">
-        <f t="shared" si="80"/>
-        <v>12601.133448629949</v>
+        <f>CF32*(1+$AA$23)</f>
+        <v>14496.873646928463</v>
       </c>
       <c r="CH32" s="3">
-        <f t="shared" si="80"/>
-        <v>12727.14478311625</v>
+        <f>CG32*(1+$AA$23)</f>
+        <v>14641.842383397749</v>
       </c>
       <c r="CI32" s="3">
-        <f t="shared" si="80"/>
-        <v>12854.416230947412</v>
+        <f>CH32*(1+$AA$23)</f>
+        <v>14788.260807231727</v>
       </c>
       <c r="CJ32" s="3">
-        <f t="shared" si="80"/>
-        <v>12982.960393256886</v>
+        <f>CI32*(1+$AA$23)</f>
+        <v>14936.143415304045</v>
       </c>
       <c r="CK32" s="3">
-        <f t="shared" ref="CK32:DP32" si="81">CJ32*(1+$AA$25)</f>
-        <v>13112.789997189455</v>
+        <f>CJ32*(1+$AA$23)</f>
+        <v>15085.504849457086</v>
       </c>
       <c r="CL32" s="3">
-        <f t="shared" si="81"/>
-        <v>13243.917897161349</v>
+        <f>CK32*(1+$AA$23)</f>
+        <v>15236.359897951657</v>
       </c>
       <c r="CM32" s="3">
-        <f t="shared" si="81"/>
-        <v>13376.357076132963</v>
+        <f>CL32*(1+$AA$23)</f>
+        <v>15388.723496931174</v>
       </c>
       <c r="CN32" s="3">
-        <f t="shared" si="81"/>
-        <v>13510.120646894293</v>
+        <f>CM32*(1+$AA$23)</f>
+        <v>15542.610731900486</v>
       </c>
       <c r="CO32" s="3">
-        <f t="shared" si="81"/>
-        <v>13645.221853363237</v>
+        <f>CN32*(1+$AA$23)</f>
+        <v>15698.036839219491</v>
       </c>
       <c r="CP32" s="3">
-        <f t="shared" si="81"/>
-        <v>13781.674071896869</v>
+        <f>CO32*(1+$AA$23)</f>
+        <v>15855.017207611685</v>
       </c>
       <c r="CQ32" s="3">
-        <f t="shared" si="81"/>
-        <v>13919.490812615837</v>
+        <f>CP32*(1+$AA$23)</f>
+        <v>16013.567379687802</v>
       </c>
       <c r="CR32" s="3">
-        <f t="shared" si="81"/>
-        <v>14058.685720741996</v>
+        <f>CQ32*(1+$AA$23)</f>
+        <v>16173.70305348468</v>
       </c>
       <c r="CS32" s="3">
-        <f t="shared" si="81"/>
-        <v>14199.272577949416</v>
+        <f>CR32*(1+$AA$23)</f>
+        <v>16335.440084019527</v>
       </c>
       <c r="CT32" s="3">
-        <f t="shared" si="81"/>
-        <v>14341.265303728909</v>
+        <f>CS32*(1+$AA$23)</f>
+        <v>16498.794484859722</v>
       </c>
       <c r="CU32" s="3">
-        <f t="shared" si="81"/>
-        <v>14484.677956766198</v>
+        <f>CT32*(1+$AA$23)</f>
+        <v>16663.782429708321</v>
       </c>
       <c r="CV32" s="3">
-        <f t="shared" si="81"/>
-        <v>14629.52473633386</v>
+        <f>CU32*(1+$AA$23)</f>
+        <v>16830.420254005403</v>
       </c>
       <c r="CW32" s="3">
-        <f t="shared" si="81"/>
-        <v>14775.8199836972</v>
+        <f>CV32*(1+$AA$23)</f>
+        <v>16998.724456545457</v>
       </c>
       <c r="CX32" s="3">
-        <f t="shared" si="81"/>
-        <v>14923.578183534171</v>
+        <f>CW32*(1+$AA$23)</f>
+        <v>17168.711701110911</v>
       </c>
       <c r="CY32" s="3">
-        <f t="shared" si="81"/>
-        <v>15072.813965369513</v>
+        <f>CX32*(1+$AA$23)</f>
+        <v>17340.398818122019</v>
       </c>
       <c r="CZ32" s="3">
-        <f t="shared" si="81"/>
-        <v>15223.542105023207</v>
+        <f>CY32*(1+$AA$23)</f>
+        <v>17513.80280630324</v>
       </c>
       <c r="DA32" s="3">
-        <f t="shared" si="81"/>
-        <v>15375.77752607344</v>
+        <f>CZ32*(1+$AA$23)</f>
+        <v>17688.940834366273</v>
       </c>
       <c r="DB32" s="3">
-        <f t="shared" si="81"/>
-        <v>15529.535301334174</v>
+        <f>DA32*(1+$AA$23)</f>
+        <v>17865.830242709937</v>
       </c>
       <c r="DC32" s="3">
-        <f t="shared" si="81"/>
-        <v>15684.830654347516</v>
+        <f>DB32*(1+$AA$23)</f>
+        <v>18044.488545137036</v>
       </c>
       <c r="DD32" s="3">
-        <f t="shared" si="81"/>
-        <v>15841.678960890991</v>
+        <f>DC32*(1+$AA$23)</f>
+        <v>18224.933430588408</v>
       </c>
       <c r="DE32" s="3">
-        <f t="shared" si="81"/>
-        <v>16000.095750499901</v>
+        <f>DD32*(1+$AA$23)</f>
+        <v>18407.182764894293</v>
       </c>
       <c r="DF32" s="3">
-        <f t="shared" si="81"/>
-        <v>16160.096708004899</v>
+        <f>DE32*(1+$AA$23)</f>
+        <v>18591.254592543235</v>
       </c>
       <c r="DG32" s="3">
-        <f t="shared" si="81"/>
-        <v>16321.697675084948</v>
+        <f>DF32*(1+$AA$23)</f>
+        <v>18777.167138468667</v>
       </c>
       <c r="DH32" s="3">
-        <f t="shared" si="81"/>
-        <v>16484.914651835799</v>
+        <f>DG32*(1+$AA$23)</f>
+        <v>18964.938809853353</v>
       </c>
       <c r="DI32" s="3">
-        <f t="shared" si="81"/>
-        <v>16649.763798354157</v>
+        <f>DH32*(1+$AA$23)</f>
+        <v>19154.588197951885</v>
       </c>
       <c r="DJ32" s="3">
-        <f t="shared" si="81"/>
-        <v>16816.2614363377</v>
+        <f>DI32*(1+$AA$23)</f>
+        <v>19346.134079931406</v>
       </c>
       <c r="DK32" s="3">
-        <f t="shared" si="81"/>
-        <v>16984.424050701076</v>
+        <f>DJ32*(1+$AA$23)</f>
+        <v>19539.595420730719</v>
       </c>
       <c r="DL32" s="3">
-        <f t="shared" si="81"/>
-        <v>17154.268291208089</v>
+        <f>DK32*(1+$AA$23)</f>
+        <v>19734.991374938025</v>
       </c>
       <c r="DM32" s="3">
-        <f t="shared" si="81"/>
-        <v>17325.81097412017</v>
+        <f>DL32*(1+$AA$23)</f>
+        <v>19932.341288687407</v>
       </c>
       <c r="DN32" s="3">
-        <f t="shared" si="81"/>
-        <v>17499.06908386137</v>
+        <f>DM32*(1+$AA$23)</f>
+        <v>20131.664701574282</v>
       </c>
       <c r="DO32" s="3">
-        <f t="shared" si="81"/>
-        <v>17674.059774699985</v>
+        <f>DN32*(1+$AA$23)</f>
+        <v>20332.981348590023</v>
       </c>
       <c r="DP32" s="3">
-        <f t="shared" si="81"/>
-        <v>17850.800372446985</v>
+        <f>DO32*(1+$AA$23)</f>
+        <v>20536.311162075923</v>
       </c>
       <c r="DQ32" s="3">
-        <f t="shared" ref="DQ32:EV32" si="82">DP32*(1+$AA$25)</f>
-        <v>18029.308376171455</v>
+        <f>DP32*(1+$AA$23)</f>
+        <v>20741.674273696681</v>
       </c>
       <c r="DR32" s="3">
-        <f t="shared" si="82"/>
-        <v>18209.601459933168</v>
+        <f>DQ32*(1+$AA$23)</f>
+        <v>20949.091016433649</v>
       </c>
       <c r="DS32" s="3">
-        <f t="shared" si="82"/>
-        <v>18391.697474532499</v>
+        <f>DR32*(1+$AA$23)</f>
+        <v>21158.581926597984</v>
       </c>
       <c r="DT32" s="3">
-        <f t="shared" si="82"/>
-        <v>18575.614449277822</v>
+        <f>DS32*(1+$AA$23)</f>
+        <v>21370.167745863964</v>
       </c>
       <c r="DU32" s="3">
-        <f t="shared" si="82"/>
-        <v>18761.3705937706</v>
+        <f>DT32*(1+$AA$23)</f>
+        <v>21583.869423322605</v>
       </c>
       <c r="DV32" s="3">
-        <f t="shared" si="82"/>
-        <v>18948.984299708307</v>
+        <f>DU32*(1+$AA$23)</f>
+        <v>21799.708117555831</v>
       </c>
       <c r="DW32" s="3">
-        <f t="shared" si="82"/>
-        <v>19138.474142705389</v>
+        <f>DV32*(1+$AA$23)</f>
+        <v>22017.70519873139</v>
       </c>
       <c r="DX32" s="3">
-        <f t="shared" si="82"/>
-        <v>19329.858884132442</v>
+        <f>DW32*(1+$AA$23)</f>
+        <v>22237.882250718703</v>
       </c>
       <c r="DY32" s="3">
-        <f t="shared" si="82"/>
-        <v>19523.157472973766</v>
+        <f>DX32*(1+$AA$23)</f>
+        <v>22460.261073225891</v>
       </c>
       <c r="DZ32" s="3">
-        <f t="shared" si="82"/>
-        <v>19718.389047703502</v>
+        <f>DY32*(1+$AA$23)</f>
+        <v>22684.863683958149</v>
       </c>
       <c r="EA32" s="3">
-        <f t="shared" si="82"/>
-        <v>19915.572938180536</v>
+        <f>DZ32*(1+$AA$23)</f>
+        <v>22911.712320797731</v>
       </c>
       <c r="EB32" s="3">
-        <f t="shared" si="82"/>
-        <v>20114.72866756234</v>
+        <f>EA32*(1+$AA$23)</f>
+        <v>23140.829444005707</v>
       </c>
       <c r="EC32" s="3">
-        <f t="shared" si="82"/>
-        <v>20315.875954237963</v>
+        <f>EB32*(1+$AA$23)</f>
+        <v>23372.237738445765</v>
       </c>
       <c r="ED32" s="3">
-        <f t="shared" si="82"/>
-        <v>20519.034713780344</v>
+        <f>EC32*(1+$AA$23)</f>
+        <v>23605.960115830221</v>
       </c>
       <c r="EE32" s="3">
-        <f t="shared" si="82"/>
-        <v>20724.225060918146</v>
+        <f>ED32*(1+$AA$23)</f>
+        <v>23842.019716988525</v>
       </c>
       <c r="EF32" s="3">
-        <f t="shared" si="82"/>
-        <v>20931.467311527329</v>
+        <f>EE32*(1+$AA$23)</f>
+        <v>24080.439914158411</v>
       </c>
       <c r="EG32" s="3">
-        <f t="shared" si="82"/>
-        <v>21140.781984642603</v>
+        <f>EF32*(1+$AA$23)</f>
+        <v>24321.244313299994</v>
       </c>
       <c r="EH32" s="3">
-        <f t="shared" si="82"/>
-        <v>21352.189804489029</v>
+        <f>EG32*(1+$AA$23)</f>
+        <v>24564.456756432995</v>
       </c>
       <c r="EI32" s="3">
-        <f t="shared" si="82"/>
-        <v>21565.711702533921</v>
+        <f>EH32*(1+$AA$23)</f>
+        <v>24810.101323997325</v>
       </c>
       <c r="EJ32" s="3">
-        <f t="shared" si="82"/>
-        <v>21781.368819559262</v>
+        <f>EI32*(1+$AA$23)</f>
+        <v>25058.202337237301</v>
       </c>
       <c r="EK32" s="3">
-        <f t="shared" si="82"/>
-        <v>21999.182507754856</v>
+        <f>EJ32*(1+$AA$23)</f>
+        <v>25308.784360609672</v>
       </c>
       <c r="EL32" s="3">
-        <f t="shared" si="82"/>
-        <v>22219.174332832405</v>
+        <f>EK32*(1+$AA$23)</f>
+        <v>25561.872204215768</v>
       </c>
       <c r="EM32" s="3">
-        <f t="shared" si="82"/>
-        <v>22441.366076160728</v>
+        <f>EL32*(1+$AA$23)</f>
+        <v>25817.490926257924</v>
       </c>
       <c r="EN32" s="3">
-        <f t="shared" si="82"/>
-        <v>22665.779736922337</v>
+        <f>EM32*(1+$AA$23)</f>
+        <v>26075.665835520504</v>
       </c>
       <c r="EO32" s="3">
-        <f t="shared" si="82"/>
-        <v>22892.437534291559</v>
+        <f>EN32*(1+$AA$23)</f>
+        <v>26336.422493875711</v>
       </c>
       <c r="EP32" s="3">
-        <f t="shared" si="82"/>
-        <v>23121.361909634474</v>
+        <f>EO32*(1+$AA$23)</f>
+        <v>26599.786718814466</v>
       </c>
       <c r="EQ32" s="3">
-        <f t="shared" si="82"/>
-        <v>23352.57552873082</v>
+        <f>EP32*(1+$AA$23)</f>
+        <v>26865.78458600261</v>
       </c>
       <c r="ER32" s="3">
-        <f t="shared" si="82"/>
-        <v>23586.101284018128</v>
+        <f>EQ32*(1+$AA$23)</f>
+        <v>27134.442431862637</v>
       </c>
       <c r="ES32" s="3">
-        <f t="shared" si="82"/>
-        <v>23821.96229685831</v>
+        <f>ER32*(1+$AA$23)</f>
+        <v>27405.786856181265</v>
       </c>
       <c r="ET32" s="3">
-        <f t="shared" si="82"/>
-        <v>24060.181919826893</v>
+        <f>ES32*(1+$AA$23)</f>
+        <v>27679.844724743078</v>
       </c>
       <c r="EU32" s="3">
-        <f t="shared" si="82"/>
-        <v>24300.783739025163</v>
+        <f>ET32*(1+$AA$23)</f>
+        <v>27956.643171990509</v>
       </c>
       <c r="EV32" s="3">
-        <f t="shared" si="82"/>
-        <v>24543.791576415413</v>
+        <f>EU32*(1+$AA$23)</f>
+        <v>28236.209603710413</v>
       </c>
       <c r="EW32" s="3">
-        <f t="shared" ref="EW32:FK32" si="83">EV32*(1+$AA$25)</f>
-        <v>24789.229492179569</v>
+        <f>EV32*(1+$AA$23)</f>
+        <v>28518.571699747517</v>
       </c>
       <c r="EX32" s="3">
-        <f t="shared" si="83"/>
-        <v>25037.121787101365</v>
+        <f>EW32*(1+$AA$23)</f>
+        <v>28803.757416744993</v>
       </c>
       <c r="EY32" s="3">
-        <f t="shared" si="83"/>
-        <v>25287.493004972381</v>
+        <f>EX32*(1+$AA$23)</f>
+        <v>29091.794990912444</v>
       </c>
       <c r="EZ32" s="3">
-        <f t="shared" si="83"/>
-        <v>25540.367935022106</v>
+        <f>EY32*(1+$AA$23)</f>
+        <v>29382.71294082157</v>
       </c>
       <c r="FA32" s="3">
-        <f t="shared" si="83"/>
-        <v>25795.771614372326</v>
+        <f>EZ32*(1+$AA$23)</f>
+        <v>29676.540070229785</v>
       </c>
       <c r="FB32" s="3">
-        <f t="shared" si="83"/>
-        <v>26053.729330516049</v>
+        <f>FA32*(1+$AA$23)</f>
+        <v>29973.305470932082</v>
       </c>
       <c r="FC32" s="3">
-        <f t="shared" si="83"/>
-        <v>26314.266623821211</v>
+        <f>FB32*(1+$AA$23)</f>
+        <v>30273.038525641405</v>
       </c>
       <c r="FD32" s="3">
-        <f t="shared" si="83"/>
-        <v>26577.409290059422</v>
+        <f>FC32*(1+$AA$23)</f>
+        <v>30575.768910897819</v>
       </c>
       <c r="FE32" s="3">
-        <f t="shared" si="83"/>
-        <v>26843.183382960018</v>
+        <f>FD32*(1+$AA$23)</f>
+        <v>30881.526600006797</v>
       </c>
       <c r="FF32" s="3">
-        <f t="shared" si="83"/>
-        <v>27111.615216789618</v>
+        <f>FE32*(1+$AA$23)</f>
+        <v>31190.341866006864</v>
       </c>
       <c r="FG32" s="3">
-        <f t="shared" si="83"/>
-        <v>27382.731368957513</v>
+        <f>FF32*(1+$AA$23)</f>
+        <v>31502.245284666933</v>
       </c>
       <c r="FH32" s="3">
-        <f t="shared" si="83"/>
-        <v>27656.55868264709</v>
+        <f>FG32*(1+$AA$23)</f>
+        <v>31817.267737513601</v>
       </c>
       <c r="FI32" s="3">
-        <f t="shared" si="83"/>
-        <v>27933.124269473559</v>
+        <f>FH32*(1+$AA$23)</f>
+        <v>32135.440414888737</v>
       </c>
       <c r="FJ32" s="3">
-        <f t="shared" si="83"/>
-        <v>28212.455512168293</v>
+        <f>FI32*(1+$AA$23)</f>
+        <v>32456.794819037626</v>
       </c>
       <c r="FK32" s="3">
-        <f t="shared" si="83"/>
-        <v>28494.580067289975</v>
+        <f>FJ32*(1+$AA$23)</f>
+        <v>32781.362767228005</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Q33" s="4">
-        <f>Q32/Q19</f>
-        <v>3.7788342290202563</v>
-      </c>
-      <c r="R33" s="4">
-        <f>R32/R19</f>
-        <v>0.96349505416862935</v>
-      </c>
-      <c r="S33" s="4">
-        <f>S32/S19</f>
-        <v>1.4133108271039305</v>
-      </c>
-      <c r="T33" s="4">
-        <f t="shared" ref="T33" si="84">T32/T19</f>
-        <v>1.4135195077502627</v>
-      </c>
-      <c r="U33" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V33" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W33" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="X33" s="4">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
       <c r="Z33" s="8"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I34" s="1">
         <f>I38-I45</f>
@@ -4142,19 +4083,19 @@
       </c>
       <c r="J34" s="1">
         <f>I34+J19</f>
-        <v>1988.5999999999997</v>
+        <v>2054.4639999999995</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" ref="K34:M34" si="85">J34+K19</f>
-        <v>3119.021428</v>
+        <f>J34+K19</f>
+        <v>3191.5036159999995</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="85"/>
-        <v>4280.6674150412009</v>
+        <f>K34+L19</f>
+        <v>4355.6678256640007</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="85"/>
-        <v>5542.4508628008261</v>
+        <f>L34+M19</f>
+        <v>5616.6005477826566</v>
       </c>
       <c r="S34" s="1">
         <f>S38-S45</f>
@@ -4162,23 +4103,23 @@
       </c>
       <c r="T34" s="1">
         <f>M34</f>
-        <v>5542.4508628008261</v>
+        <v>5616.6005477826566</v>
       </c>
       <c r="U34" s="1">
         <f>T34+U19</f>
-        <v>10518.756980053176</v>
+        <v>10568.405062863983</v>
       </c>
       <c r="V34" s="1">
         <f>U34+V19</f>
-        <v>15892.372604110093</v>
+        <v>15842.535395502451</v>
       </c>
       <c r="W34" s="1">
         <f>V34+W19</f>
-        <v>21687.855627061566</v>
+        <v>21456.303606044763</v>
       </c>
       <c r="X34" s="1">
         <f>W34+X19</f>
-        <v>27931.14011597139</v>
+        <v>27427.906490166468</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
@@ -4191,20 +4132,20 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
     </row>
-    <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q36" s="1">
         <f>Q19</f>
         <v>2419</v>
       </c>
       <c r="R36" s="1">
-        <f t="shared" ref="R36:S36" si="86">R19</f>
+        <f>R19</f>
         <v>4246</v>
       </c>
       <c r="S36" s="1">
-        <f t="shared" si="86"/>
+        <f>S19</f>
         <v>4147</v>
       </c>
       <c r="W36" s="3"/>
@@ -4214,7 +4155,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q37" s="1">
         <v>2419</v>
@@ -4228,7 +4169,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I38" s="1">
         <f>6561+4262</f>
@@ -4241,12 +4182,12 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q40" s="1">
         <v>-20219</v>
@@ -4260,7 +4201,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q41" s="1">
         <v>23411</v>
@@ -4274,18 +4215,18 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q42" s="4">
         <f>Q41/Q40*-1-1</f>
         <v>0.15787130916464709</v>
       </c>
       <c r="R42" s="4">
-        <f t="shared" ref="R42:S42" si="87">R41/R40*-1-1</f>
+        <f t="shared" ref="R42:S42" si="66">R41/R40*-1-1</f>
         <v>0.10532302092811641</v>
       </c>
       <c r="S42" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="66"/>
         <v>2.8730588729062534E-2</v>
       </c>
     </row>
@@ -4295,9 +4236,9 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
     </row>
-    <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
@@ -4306,7 +4247,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I45" s="1">
         <f>9879</f>

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF67522-B80B-4D00-B871-3B380898D8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAD746D-FDCF-4915-8581-F2C53FA57C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="645" windowWidth="22125" windowHeight="14250" activeTab="1" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
+    <workbookView xWindow="2115" yWindow="1260" windowWidth="21945" windowHeight="13935" activeTab="1" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -717,7 +717,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="5">
-        <v>71</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
       </c>
       <c r="P4" s="1">
         <f>P3*P2</f>
-        <v>70236.182000000001</v>
+        <v>67763.07699999999</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -786,7 +786,7 @@
       </c>
       <c r="P7" s="1">
         <f>P4+P6-P5</f>
-        <v>69292.182000000001</v>
+        <v>66819.07699999999</v>
       </c>
     </row>
   </sheetData>
@@ -799,10 +799,10 @@
   <dimension ref="A1:FN45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC26" sqref="AC26"/>
+      <selection pane="bottomRight" activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -948,20 +948,19 @@
         <v>8366</v>
       </c>
       <c r="J4" s="3">
-        <f>I4*0.96</f>
-        <v>8031.36</v>
+        <v>7791</v>
       </c>
       <c r="K4" s="3">
         <f>J4*1.02</f>
-        <v>8191.9871999999996</v>
+        <v>7946.82</v>
       </c>
       <c r="L4" s="3">
         <f>K4*1.02</f>
-        <v>8355.8269440000004</v>
+        <v>8105.7564000000002</v>
       </c>
       <c r="M4" s="3">
         <f>L4*1.08</f>
-        <v>9024.2930995200004</v>
+        <v>8754.2169120000017</v>
       </c>
       <c r="Q4" s="3">
         <v>27518</v>
@@ -974,23 +973,23 @@
       </c>
       <c r="T4" s="3">
         <f>SUM(J4:M4)</f>
-        <v>33603.467243520005</v>
+        <v>32597.793312000002</v>
       </c>
       <c r="U4" s="3">
         <f>T4*1.05</f>
-        <v>35283.640605696004</v>
+        <v>34227.682977600001</v>
       </c>
       <c r="V4" s="3">
         <f t="shared" ref="V4:X4" si="1">U4*1.05</f>
-        <v>37047.822635980803</v>
+        <v>35939.067126480004</v>
       </c>
       <c r="W4" s="3">
         <f t="shared" si="1"/>
-        <v>38900.213767779846</v>
+        <v>37736.020482804008</v>
       </c>
       <c r="X4" s="3">
         <f t="shared" si="1"/>
-        <v>40845.224456168842</v>
+        <v>39622.821506944209</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1023,19 +1022,19 @@
       </c>
       <c r="J5" s="1">
         <f>I5*(1+J24)</f>
-        <v>3837.12</v>
+        <v>3722.2838871623235</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ref="K5:M5" si="2">J5*(1+K24)</f>
-        <v>3913.8624</v>
+        <v>3796.72956490557</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
-        <v>3992.1396479999999</v>
+        <v>3872.6641562036816</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="2"/>
-        <v>4311.5108198400003</v>
+        <v>4182.4772886999763</v>
       </c>
       <c r="Q5" s="1">
         <v>12173</v>
@@ -1048,23 +1047,23 @@
       </c>
       <c r="T5" s="1">
         <f>SUM(J5:M5)</f>
-        <v>16054.632867839999</v>
+        <v>15574.154896971551</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" ref="U5:X5" si="3">T5*(1+U23)</f>
-        <v>16857.364511232001</v>
+        <v>16352.862641820129</v>
       </c>
       <c r="V5" s="1">
         <f t="shared" si="3"/>
-        <v>17700.232736793601</v>
+        <v>17170.505773911136</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" si="3"/>
-        <v>18585.244373633283</v>
+        <v>18029.031062606693</v>
       </c>
       <c r="X5" s="1">
         <f t="shared" si="3"/>
-        <v>19514.506592314949</v>
+        <v>18930.48261573703</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -1097,19 +1096,19 @@
       </c>
       <c r="J6" s="1">
         <f>I6*(1+J24)</f>
-        <v>416.64</v>
+        <v>404.17092995457807</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ref="K6:M6" si="4">J6*(1+K24)</f>
-        <v>424.97280000000001</v>
+        <v>412.25434855366962</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="4"/>
-        <v>433.47225600000002</v>
+        <v>420.49943552474303</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="4"/>
-        <v>468.15003648000004</v>
+        <v>454.13939036672252</v>
       </c>
       <c r="Q6" s="1">
         <v>1572</v>
@@ -1122,23 +1121,23 @@
       </c>
       <c r="T6" s="1">
         <f>SUM(J6:M6)</f>
-        <v>1743.2350924799998</v>
+        <v>1691.0641043997134</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" ref="U6:X6" si="5">T6*(1+U23)</f>
-        <v>1830.3968471039998</v>
+        <v>1775.6173096196992</v>
       </c>
       <c r="V6" s="1">
         <f t="shared" si="5"/>
-        <v>1921.9166894591999</v>
+        <v>1864.3981751006843</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="5"/>
-        <v>2018.0125239321601</v>
+        <v>1957.6180838557186</v>
       </c>
       <c r="X6" s="1">
         <f t="shared" si="5"/>
-        <v>2118.9131501287684</v>
+        <v>2055.4989880485045</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -1171,19 +1170,19 @@
       </c>
       <c r="J7" s="1">
         <f>I7*(1+J24)</f>
-        <v>432.96</v>
+        <v>420.00251016017211</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ref="K7:M7" si="6">J7*(1+K24)</f>
-        <v>441.61919999999998</v>
+        <v>428.40256036337558</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="6"/>
-        <v>450.45158399999997</v>
+        <v>436.97061157064309</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="6"/>
-        <v>486.48771072</v>
+        <v>471.92826049629457</v>
       </c>
       <c r="Q7" s="1">
         <v>2120</v>
@@ -1196,23 +1195,23 @@
       </c>
       <c r="T7" s="1">
         <f>SUM(J7:M7)</f>
-        <v>1811.5184947199998</v>
+        <v>1757.3039425904853</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" ref="U7:X7" si="7">T7*(1+U23)</f>
-        <v>1902.094419456</v>
+        <v>1845.1691397200098</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" si="7"/>
-        <v>1997.1991404288001</v>
+        <v>1937.4275967060103</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="7"/>
-        <v>2097.0590974502402</v>
+        <v>2034.2989765413108</v>
       </c>
       <c r="X7" s="1">
         <f t="shared" si="7"/>
-        <v>2201.9120523227525</v>
+        <v>2136.0139253683765</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -1253,19 +1252,19 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" si="8"/>
-        <v>4686.72</v>
+        <v>4546.457327277074</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="8"/>
-        <v>4780.4543999999996</v>
+        <v>4637.3864738226148</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ref="L8" si="9">SUM(L5:L7)</f>
-        <v>4876.0634879999998</v>
+        <v>4730.1342032990678</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" ref="M8:P8" si="10">SUM(M5:M7)</f>
-        <v>5266.1485670400007</v>
+        <v>5108.544939562993</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="10"/>
@@ -1289,23 +1288,23 @@
       </c>
       <c r="T8" s="1">
         <f>SUM(T5:T7)</f>
-        <v>19609.386455039999</v>
+        <v>19022.522943961751</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" ref="U8:X8" si="11">SUM(U5:U7)</f>
-        <v>20589.855777792</v>
+        <v>19973.649091159838</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" si="11"/>
-        <v>21619.348566681598</v>
+        <v>20972.331545717829</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="11"/>
-        <v>22700.315995015684</v>
+        <v>22020.948123003724</v>
       </c>
       <c r="X8" s="1">
         <f t="shared" si="11"/>
-        <v>23835.331794766469</v>
+        <v>23121.995529153912</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1346,19 +1345,19 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" si="12"/>
-        <v>3344.6399999999994</v>
+        <v>3244.542672722926</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="12"/>
-        <v>3411.5328</v>
+        <v>3309.4335261773849</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ref="L9" si="13">L4-L8</f>
-        <v>3479.7634560000006</v>
+        <v>3375.6221967009324</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ref="M9:P9" si="14">M4-M8</f>
-        <v>3758.1445324799997</v>
+        <v>3645.6719724370087</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="14"/>
@@ -1382,23 +1381,23 @@
       </c>
       <c r="T9" s="1">
         <f t="shared" si="15"/>
-        <v>13994.080788480005</v>
+        <v>13575.270368038251</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="15"/>
-        <v>14693.784827904004</v>
+        <v>14254.033886440164</v>
       </c>
       <c r="V9" s="1">
         <f t="shared" si="15"/>
-        <v>15428.474069299205</v>
+        <v>14966.735580762175</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="15"/>
-        <v>16199.897772764161</v>
+        <v>15715.072359800284</v>
       </c>
       <c r="X9" s="1">
         <f t="shared" si="15"/>
-        <v>17009.892661402373</v>
+        <v>16500.825977790297</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -1431,19 +1430,19 @@
       </c>
       <c r="J10" s="1">
         <f>I10*(1+J24)</f>
-        <v>600.95999999999992</v>
+        <v>582.97465933540525</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" ref="K10:M10" si="16">J10*(1+K24)</f>
-        <v>612.97919999999988</v>
+        <v>594.63415252211337</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="16"/>
-        <v>625.2387839999999</v>
+        <v>606.52683557255568</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="16"/>
-        <v>675.25788671999999</v>
+        <v>655.0489824183602</v>
       </c>
       <c r="Q10" s="1">
         <v>2257</v>
@@ -1456,23 +1455,23 @@
       </c>
       <c r="T10" s="1">
         <f>SUM(J10:M10)</f>
-        <v>2514.4358707199999</v>
+        <v>2439.1846298484343</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" ref="U10:X10" si="17">T10*(1+U23)</f>
-        <v>2640.1576642559999</v>
+        <v>2561.1438613408559</v>
       </c>
       <c r="V10" s="1">
         <f t="shared" si="17"/>
-        <v>2772.1655474688</v>
+        <v>2689.2010544078989</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="17"/>
-        <v>2910.7738248422402</v>
+        <v>2823.6611071282941</v>
       </c>
       <c r="X10" s="1">
         <f t="shared" si="17"/>
-        <v>3056.3125160843524</v>
+        <v>2964.8441624847092</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -1505,19 +1504,19 @@
       </c>
       <c r="J11" s="1">
         <f>I11*(1+J24)</f>
-        <v>742.07999999999993</v>
+        <v>719.87126464260098</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ref="K11:M11" si="18">J11*(1+K24)</f>
-        <v>756.9215999999999</v>
+        <v>734.26868993545304</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="18"/>
-        <v>772.06003199999986</v>
+        <v>748.9540637341621</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="18"/>
-        <v>833.82483455999989</v>
+        <v>808.87038883289517</v>
       </c>
       <c r="Q11" s="1">
         <v>3253</v>
@@ -1530,23 +1529,23 @@
       </c>
       <c r="T11" s="1">
         <f>SUM(J11:M11)</f>
-        <v>3104.8864665599999</v>
+        <v>3011.9644071451112</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" ref="U11:X11" si="19">T11*(1+U23)</f>
-        <v>3260.130789888</v>
+        <v>3162.5626275023669</v>
       </c>
       <c r="V11" s="1">
         <f t="shared" si="19"/>
-        <v>3423.1373293823999</v>
+        <v>3320.6907588774852</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="19"/>
-        <v>3594.2941958515203</v>
+        <v>3486.7252968213597</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" si="19"/>
-        <v>3774.0089056440966</v>
+        <v>3661.0615616624277</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -1579,19 +1578,19 @@
       </c>
       <c r="J12" s="1">
         <f>I12*(1+J24)</f>
-        <v>570.24</v>
+        <v>553.17403777193397</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ref="K12:M12" si="20">J12*(1+K24)</f>
-        <v>581.64480000000003</v>
+        <v>564.23751852737269</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="20"/>
-        <v>593.27769599999999</v>
+        <v>575.52226889792018</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="20"/>
-        <v>640.73991167999998</v>
+        <v>621.5640504097538</v>
       </c>
       <c r="Q12" s="1">
         <v>2099</v>
@@ -1604,23 +1603,23 @@
       </c>
       <c r="T12" s="1">
         <f>SUM(J12:M12)</f>
-        <v>2385.9024076799997</v>
+        <v>2314.4978756069804</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" ref="U12:X12" si="21">T12*(1+U23)</f>
-        <v>2505.1975280639999</v>
+        <v>2430.2227693873297</v>
       </c>
       <c r="V12" s="1">
         <f t="shared" si="21"/>
-        <v>2630.4574044671999</v>
+        <v>2551.7339078566961</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" si="21"/>
-        <v>2761.9802746905602</v>
+        <v>2679.3206032495309</v>
       </c>
       <c r="X12" s="1">
         <f t="shared" si="21"/>
-        <v>2900.0792884250882</v>
+        <v>2813.2866334120076</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -1653,19 +1652,19 @@
       </c>
       <c r="J13" s="1">
         <f>I13*(1+J24)</f>
-        <v>48</v>
+        <v>46.563471192923735</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ref="K13:M13" si="22">J13*(1+K24)</f>
-        <v>48.96</v>
+        <v>47.494740616782209</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="22"/>
-        <v>49.9392</v>
+        <v>48.444635429117852</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="22"/>
-        <v>53.934336000000002</v>
+        <v>52.320206263447282</v>
       </c>
       <c r="Q13" s="1">
         <v>207</v>
@@ -1678,23 +1677,23 @@
       </c>
       <c r="T13" s="1">
         <f>SUM(J13:M13)</f>
-        <v>200.83353600000001</v>
+        <v>194.82305350227108</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" ref="U13:X13" si="23">T13*(1+U23)</f>
-        <v>210.87521280000001</v>
+        <v>204.56420617738465</v>
       </c>
       <c r="V13" s="1">
         <f t="shared" si="23"/>
-        <v>221.41897344000003</v>
+        <v>214.7924164862539</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="23"/>
-        <v>232.48992211200004</v>
+        <v>225.53203731056661</v>
       </c>
       <c r="X13" s="1">
         <f t="shared" si="23"/>
-        <v>244.11441821760005</v>
+        <v>236.80863917609494</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -1735,19 +1734,19 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" si="24"/>
-        <v>1961.28</v>
+        <v>1902.583432942864</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="24"/>
-        <v>2000.5056</v>
+        <v>1940.6351016017211</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ref="L14" si="25">SUM(L10:L13)</f>
-        <v>2040.5157119999997</v>
+        <v>1979.4478036337557</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ref="M14:P14" si="26">SUM(M10:M13)</f>
-        <v>2203.75696896</v>
+        <v>2137.8036279244566</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="26"/>
@@ -1771,23 +1770,23 @@
       </c>
       <c r="T14" s="1">
         <f t="shared" si="27"/>
-        <v>8206.05828096</v>
+        <v>7960.4699661027971</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="27"/>
-        <v>8616.3611950079994</v>
+        <v>8358.4934644079385</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" si="27"/>
-        <v>9047.1792547583991</v>
+        <v>8776.4181376283341</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="27"/>
-        <v>9499.5382174963197</v>
+        <v>9215.2390445097499</v>
       </c>
       <c r="X14" s="1">
         <f t="shared" si="27"/>
-        <v>9974.5151283711366</v>
+        <v>9676.0009967352398</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1828,19 +1827,19 @@
       </c>
       <c r="J15" s="3">
         <f t="shared" si="28"/>
-        <v>1383.3599999999994</v>
+        <v>1341.959239780062</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="28"/>
-        <v>1411.0272</v>
+        <v>1368.7984245756638</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" ref="L15" si="29">L9-L14</f>
-        <v>1439.2477440000009</v>
+        <v>1396.1743930671767</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" ref="M15:P15" si="30">M9-M14</f>
-        <v>1554.3875635199997</v>
+        <v>1507.8683445125521</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" si="30"/>
@@ -1864,23 +1863,23 @@
       </c>
       <c r="T15" s="3">
         <f t="shared" ref="T15:X15" si="32">T9-T14</f>
-        <v>5788.0225075200051</v>
+        <v>5614.8004019354539</v>
       </c>
       <c r="U15" s="3">
         <f t="shared" si="32"/>
-        <v>6077.4236328960051</v>
+        <v>5895.5404220322253</v>
       </c>
       <c r="V15" s="3">
         <f t="shared" si="32"/>
-        <v>6381.2948145408063</v>
+        <v>6190.3174431338412</v>
       </c>
       <c r="W15" s="3">
         <f t="shared" si="32"/>
-        <v>6700.3595552678416</v>
+        <v>6499.8333152905343</v>
       </c>
       <c r="X15" s="3">
         <f t="shared" si="32"/>
-        <v>7035.3775330312365</v>
+        <v>6824.8249810550569</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -1917,15 +1916,15 @@
       </c>
       <c r="K16" s="1">
         <f>J34*$AA$22/4</f>
-        <v>10.272319999999997</v>
+        <v>10.106716959120249</v>
       </c>
       <c r="L16" s="1">
         <f>K34*$AA$22/4</f>
-        <v>15.957518079999998</v>
+        <v>16.306716959120248</v>
       </c>
       <c r="M16" s="1">
         <f>L34*$AA$22/4</f>
-        <v>21.778339128320003</v>
+        <v>21.956641399225436</v>
       </c>
       <c r="Q16" s="1">
         <v>-471</v>
@@ -1938,23 +1937,23 @@
       </c>
       <c r="T16" s="1">
         <f>SUM(J16:M16)</f>
-        <v>52.728177208319991</v>
+        <v>53.090075317465931</v>
       </c>
       <c r="U16" s="1">
         <f>T34*$AA$22</f>
-        <v>112.33201095565313</v>
+        <v>112.30376537149019</v>
       </c>
       <c r="V16" s="1">
         <f>U34*$AA$22</f>
-        <v>211.36810125727968</v>
+        <v>208.42927236994962</v>
       </c>
       <c r="W16" s="1">
         <f>V34*$AA$22</f>
-        <v>316.85070791004904</v>
+        <v>310.80921981801026</v>
       </c>
       <c r="X16" s="1">
         <f>W34*$AA$22</f>
-        <v>429.12607212089529</v>
+        <v>419.77950037974699</v>
       </c>
     </row>
     <row r="17" spans="1:170" x14ac:dyDescent="0.2">
@@ -1995,19 +1994,19 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" si="33"/>
-        <v>1388.0799999999995</v>
+        <v>1346.6792397800621</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="33"/>
-        <v>1421.29952</v>
+        <v>1378.905141534784</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ref="L17" si="34">L15+L16</f>
-        <v>1455.2052620800009</v>
+        <v>1412.4811100262968</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" ref="M17:P17" si="35">M15+M16</f>
-        <v>1576.1659026483198</v>
+        <v>1529.8249859117775</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="35"/>
@@ -2031,23 +2030,23 @@
       </c>
       <c r="T17" s="1">
         <f t="shared" ref="T17" si="37">T15+T16</f>
-        <v>5840.7506847283248</v>
+        <v>5667.8904772529195</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" ref="U17" si="38">U15+U16</f>
-        <v>6189.7556438516585</v>
+        <v>6007.8441874037153</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" ref="V17" si="39">V15+V16</f>
-        <v>6592.662915798086</v>
+        <v>6398.7467155037912</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" ref="W17" si="40">W15+W16</f>
-        <v>7017.2102631778907</v>
+        <v>6810.6425351085445</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" ref="X17" si="41">X15+X16</f>
-        <v>7464.503605152132</v>
+        <v>7244.6044814348043</v>
       </c>
     </row>
     <row r="18" spans="1:170" x14ac:dyDescent="0.2">
@@ -2080,19 +2079,19 @@
       </c>
       <c r="J18" s="1">
         <f>J17*0.2</f>
-        <v>277.61599999999993</v>
+        <v>269.3358479560124</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" ref="K18:M18" si="42">K17*0.2</f>
-        <v>284.25990400000001</v>
+        <v>275.78102830695678</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="42"/>
-        <v>291.04105241600018</v>
+        <v>282.49622200525937</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="42"/>
-        <v>315.23318052966397</v>
+        <v>305.96499718235549</v>
       </c>
       <c r="Q18" s="1">
         <v>947</v>
@@ -2105,23 +2104,23 @@
       </c>
       <c r="T18" s="1">
         <f>T17*0.2</f>
-        <v>1168.1501369456651</v>
+        <v>1133.578095450584</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" ref="U18:X18" si="43">U17*0.2</f>
-        <v>1237.9511287703317</v>
+        <v>1201.568837480743</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="43"/>
-        <v>1318.5325831596174</v>
+        <v>1279.7493431007583</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="43"/>
-        <v>1403.4420526355782</v>
+        <v>1362.1285070217091</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" si="43"/>
-        <v>1492.9007210304264</v>
+        <v>1448.9208962869609</v>
       </c>
     </row>
     <row r="19" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2133,7 +2132,7 @@
         <v>795</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ref="C19:K19" si="44">C17-C18</f>
+        <f t="shared" ref="C19:J19" si="44">C17-C18</f>
         <v>1029</v>
       </c>
       <c r="D19" s="3">
@@ -2162,19 +2161,18 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" si="44"/>
-        <v>1110.4639999999995</v>
+        <v>1077.3433918240496</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="44"/>
-        <v>1137.039616</v>
+        <v>1240</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" ref="L19" si="45">L17-L18</f>
-        <v>1164.1642096640007</v>
+        <v>1129.9848880210375</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" ref="M19:P19" si="46">M17-M18</f>
-        <v>1260.9327221186559</v>
+        <v>1223.859988729422</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="46"/>
@@ -2198,607 +2196,607 @@
       </c>
       <c r="T19" s="3">
         <f t="shared" ref="T19" si="48">T17-T18</f>
-        <v>4672.6005477826602</v>
+        <v>4534.3123818023359</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" ref="U19" si="49">U17-U18</f>
-        <v>4951.8045150813268</v>
+        <v>4806.2753499229721</v>
       </c>
       <c r="V19" s="3">
         <f t="shared" ref="V19" si="50">V17-V18</f>
-        <v>5274.1303326384686</v>
+        <v>5118.9973724030333</v>
       </c>
       <c r="W19" s="3">
         <f t="shared" ref="W19" si="51">W17-W18</f>
-        <v>5613.7682105423128</v>
+        <v>5448.5140280868354</v>
       </c>
       <c r="X19" s="3">
         <f t="shared" ref="X19" si="52">X17-X18</f>
-        <v>5971.6028841217058</v>
+        <v>5795.6835851478436</v>
       </c>
       <c r="Y19" s="3">
-        <f>X19*(1+$AA$23)</f>
-        <v>6031.3189129629227</v>
+        <f t="shared" ref="Y19:BD19" si="53">X19*(1+$AA$23)</f>
+        <v>5853.6404209993225</v>
       </c>
       <c r="Z19" s="3">
-        <f>Y19*(1+$AA$23)</f>
-        <v>6091.6321020925516</v>
+        <f t="shared" si="53"/>
+        <v>5912.1768252093161</v>
       </c>
       <c r="AA19" s="3">
-        <f>Z19*(1+$AA$23)</f>
-        <v>6152.5484231134769</v>
+        <f t="shared" si="53"/>
+        <v>5971.2985934614089</v>
       </c>
       <c r="AB19" s="3">
-        <f>AA19*(1+$AA$23)</f>
-        <v>6214.0739073446121</v>
+        <f t="shared" si="53"/>
+        <v>6031.0115793960231</v>
       </c>
       <c r="AC19" s="3">
-        <f>AB19*(1+$AA$23)</f>
-        <v>6276.2146464180578</v>
+        <f t="shared" si="53"/>
+        <v>6091.3216951899831</v>
       </c>
       <c r="AD19" s="3">
-        <f>AC19*(1+$AA$23)</f>
-        <v>6338.9767928822384</v>
+        <f t="shared" si="53"/>
+        <v>6152.2349121418829</v>
       </c>
       <c r="AE19" s="3">
-        <f>AD19*(1+$AA$23)</f>
-        <v>6402.3665608110605</v>
+        <f t="shared" si="53"/>
+        <v>6213.7572612633021</v>
       </c>
       <c r="AF19" s="3">
-        <f>AE19*(1+$AA$23)</f>
-        <v>6466.3902264191711</v>
+        <f t="shared" si="53"/>
+        <v>6275.8948338759355</v>
       </c>
       <c r="AG19" s="3">
-        <f>AF19*(1+$AA$23)</f>
-        <v>6531.0541286833632</v>
+        <f t="shared" si="53"/>
+        <v>6338.6537822146947</v>
       </c>
       <c r="AH19" s="3">
-        <f>AG19*(1+$AA$23)</f>
-        <v>6596.3646699701967</v>
+        <f t="shared" si="53"/>
+        <v>6402.0403200368419</v>
       </c>
       <c r="AI19" s="3">
-        <f>AH19*(1+$AA$23)</f>
-        <v>6662.3283166698984</v>
+        <f t="shared" si="53"/>
+        <v>6466.0607232372104</v>
       </c>
       <c r="AJ19" s="3">
-        <f>AI19*(1+$AA$23)</f>
-        <v>6728.9515998365978</v>
+        <f t="shared" si="53"/>
+        <v>6530.7213304695824</v>
       </c>
       <c r="AK19" s="3">
-        <f>AJ19*(1+$AA$23)</f>
-        <v>6796.2411158349641</v>
+        <f t="shared" si="53"/>
+        <v>6596.0285437742787</v>
       </c>
       <c r="AL19" s="3">
-        <f>AK19*(1+$AA$23)</f>
-        <v>6864.203526993314</v>
+        <f t="shared" si="53"/>
+        <v>6661.9888292120213</v>
       </c>
       <c r="AM19" s="3">
-        <f>AL19*(1+$AA$23)</f>
-        <v>6932.8455622632473</v>
+        <f t="shared" si="53"/>
+        <v>6728.6087175041412</v>
       </c>
       <c r="AN19" s="3">
-        <f>AM19*(1+$AA$23)</f>
-        <v>7002.1740178858799</v>
+        <f t="shared" si="53"/>
+        <v>6795.8948046791829</v>
       </c>
       <c r="AO19" s="3">
-        <f>AN19*(1+$AA$23)</f>
-        <v>7072.1957580647386</v>
+        <f t="shared" si="53"/>
+        <v>6863.853752725975</v>
       </c>
       <c r="AP19" s="3">
-        <f>AO19*(1+$AA$23)</f>
-        <v>7142.9177156453861</v>
+        <f t="shared" si="53"/>
+        <v>6932.4922902532344</v>
       </c>
       <c r="AQ19" s="3">
-        <f>AP19*(1+$AA$23)</f>
-        <v>7214.3468928018401</v>
+        <f t="shared" si="53"/>
+        <v>7001.8172131557667</v>
       </c>
       <c r="AR19" s="3">
-        <f>AQ19*(1+$AA$23)</f>
-        <v>7286.4903617298587</v>
+        <f t="shared" si="53"/>
+        <v>7071.8353852873242</v>
       </c>
       <c r="AS19" s="3">
-        <f>AR19*(1+$AA$23)</f>
-        <v>7359.355265347157</v>
+        <f t="shared" si="53"/>
+        <v>7142.5537391401976</v>
       </c>
       <c r="AT19" s="3">
-        <f>AS19*(1+$AA$23)</f>
-        <v>7432.9488180006283</v>
+        <f t="shared" si="53"/>
+        <v>7213.9792765315997</v>
       </c>
       <c r="AU19" s="3">
-        <f>AT19*(1+$AA$23)</f>
-        <v>7507.2783061806349</v>
+        <f t="shared" si="53"/>
+        <v>7286.1190692969158</v>
       </c>
       <c r="AV19" s="3">
-        <f>AU19*(1+$AA$23)</f>
-        <v>7582.351089242441</v>
+        <f t="shared" si="53"/>
+        <v>7358.9802599898849</v>
       </c>
       <c r="AW19" s="3">
-        <f>AV19*(1+$AA$23)</f>
-        <v>7658.1746001348656</v>
+        <f t="shared" si="53"/>
+        <v>7432.5700625897834</v>
       </c>
       <c r="AX19" s="3">
-        <f>AW19*(1+$AA$23)</f>
-        <v>7734.7563461362142</v>
+        <f t="shared" si="53"/>
+        <v>7506.8957632156817</v>
       </c>
       <c r="AY19" s="3">
-        <f>AX19*(1+$AA$23)</f>
-        <v>7812.1039095975766</v>
+        <f t="shared" si="53"/>
+        <v>7581.9647208478382</v>
       </c>
       <c r="AZ19" s="3">
-        <f>AY19*(1+$AA$23)</f>
-        <v>7890.2249486935525</v>
+        <f t="shared" si="53"/>
+        <v>7657.7843680563165</v>
       </c>
       <c r="BA19" s="3">
-        <f>AZ19*(1+$AA$23)</f>
-        <v>7969.1271981804884</v>
+        <f t="shared" si="53"/>
+        <v>7734.3622117368795</v>
       </c>
       <c r="BB19" s="3">
-        <f>BA19*(1+$AA$23)</f>
-        <v>8048.8184701622931</v>
+        <f t="shared" si="53"/>
+        <v>7811.7058338542483</v>
       </c>
       <c r="BC19" s="3">
-        <f>BB19*(1+$AA$23)</f>
-        <v>8129.3066548639163</v>
+        <f t="shared" si="53"/>
+        <v>7889.8228921927912</v>
       </c>
       <c r="BD19" s="3">
-        <f>BC19*(1+$AA$23)</f>
-        <v>8210.5997214125564</v>
+        <f t="shared" si="53"/>
+        <v>7968.7211211147196</v>
       </c>
       <c r="BE19" s="3">
-        <f>BD19*(1+$AA$23)</f>
-        <v>8292.7057186266829</v>
+        <f t="shared" ref="BE19:CJ19" si="54">BD19*(1+$AA$23)</f>
+        <v>8048.4083323258665</v>
       </c>
       <c r="BF19" s="3">
-        <f>BE19*(1+$AA$23)</f>
-        <v>8375.6327758129501</v>
+        <f t="shared" si="54"/>
+        <v>8128.8924156491248</v>
       </c>
       <c r="BG19" s="3">
-        <f>BF19*(1+$AA$23)</f>
-        <v>8459.3891035710803</v>
+        <f t="shared" si="54"/>
+        <v>8210.1813398056165</v>
       </c>
       <c r="BH19" s="3">
-        <f>BG19*(1+$AA$23)</f>
-        <v>8543.9829946067912</v>
+        <f t="shared" si="54"/>
+        <v>8292.2831532036726</v>
       </c>
       <c r="BI19" s="3">
-        <f>BH19*(1+$AA$23)</f>
-        <v>8629.4228245528593</v>
+        <f t="shared" si="54"/>
+        <v>8375.2059847357086</v>
       </c>
       <c r="BJ19" s="3">
-        <f>BI19*(1+$AA$23)</f>
-        <v>8715.7170527983872</v>
+        <f t="shared" si="54"/>
+        <v>8458.9580445830652</v>
       </c>
       <c r="BK19" s="3">
-        <f>BJ19*(1+$AA$23)</f>
-        <v>8802.8742233263711</v>
+        <f t="shared" si="54"/>
+        <v>8543.5476250288957</v>
       </c>
       <c r="BL19" s="3">
-        <f>BK19*(1+$AA$23)</f>
-        <v>8890.902965559635</v>
+        <f t="shared" si="54"/>
+        <v>8628.9831012791856</v>
       </c>
       <c r="BM19" s="3">
-        <f>BL19*(1+$AA$23)</f>
-        <v>8979.8119952152319</v>
+        <f t="shared" si="54"/>
+        <v>8715.2729322919768</v>
       </c>
       <c r="BN19" s="3">
-        <f>BM19*(1+$AA$23)</f>
-        <v>9069.6101151673847</v>
+        <f t="shared" si="54"/>
+        <v>8802.4256616148959</v>
       </c>
       <c r="BO19" s="3">
-        <f>BN19*(1+$AA$23)</f>
-        <v>9160.3062163190589</v>
+        <f t="shared" si="54"/>
+        <v>8890.4499182310446</v>
       </c>
       <c r="BP19" s="3">
-        <f>BO19*(1+$AA$23)</f>
-        <v>9251.9092784822496</v>
+        <f t="shared" si="54"/>
+        <v>8979.3544174133549</v>
       </c>
       <c r="BQ19" s="3">
-        <f>BP19*(1+$AA$23)</f>
-        <v>9344.4283712670731</v>
+        <f t="shared" si="54"/>
+        <v>9069.1479615874887</v>
       </c>
       <c r="BR19" s="3">
-        <f>BQ19*(1+$AA$23)</f>
-        <v>9437.8726549797448</v>
+        <f t="shared" si="54"/>
+        <v>9159.8394412033631</v>
       </c>
       <c r="BS19" s="3">
-        <f>BR19*(1+$AA$23)</f>
-        <v>9532.2513815295424</v>
+        <f t="shared" si="54"/>
+        <v>9251.4378356153975</v>
       </c>
       <c r="BT19" s="3">
-        <f>BS19*(1+$AA$23)</f>
-        <v>9627.5738953448381</v>
+        <f t="shared" si="54"/>
+        <v>9343.9522139715518</v>
       </c>
       <c r="BU19" s="3">
-        <f>BT19*(1+$AA$23)</f>
-        <v>9723.8496342982871</v>
+        <f t="shared" si="54"/>
+        <v>9437.3917361112672</v>
       </c>
       <c r="BV19" s="3">
-        <f>BU19*(1+$AA$23)</f>
-        <v>9821.0881306412703</v>
+        <f t="shared" si="54"/>
+        <v>9531.7656534723792</v>
       </c>
       <c r="BW19" s="3">
-        <f>BV19*(1+$AA$23)</f>
-        <v>9919.2990119476835</v>
+        <f t="shared" si="54"/>
+        <v>9627.0833100071031</v>
       </c>
       <c r="BX19" s="3">
-        <f>BW19*(1+$AA$23)</f>
-        <v>10018.49200206716</v>
+        <f t="shared" si="54"/>
+        <v>9723.3541431071735</v>
       </c>
       <c r="BY19" s="3">
-        <f>BX19*(1+$AA$23)</f>
-        <v>10118.676922087832</v>
+        <f t="shared" si="54"/>
+        <v>9820.5876845382445</v>
       </c>
       <c r="BZ19" s="3">
-        <f>BY19*(1+$AA$23)</f>
-        <v>10219.86369130871</v>
+        <f t="shared" si="54"/>
+        <v>9918.7935613836271</v>
       </c>
       <c r="CA19" s="3">
-        <f>BZ19*(1+$AA$23)</f>
-        <v>10322.062328221797</v>
+        <f t="shared" si="54"/>
+        <v>10017.981496997463</v>
       </c>
       <c r="CB19" s="3">
-        <f>CA19*(1+$AA$23)</f>
-        <v>10425.282951504014</v>
+        <f t="shared" si="54"/>
+        <v>10118.161311967438</v>
       </c>
       <c r="CC19" s="3">
-        <f>CB19*(1+$AA$23)</f>
-        <v>10529.535781019054</v>
+        <f t="shared" si="54"/>
+        <v>10219.342925087112</v>
       </c>
       <c r="CD19" s="3">
-        <f>CC19*(1+$AA$23)</f>
-        <v>10634.831138829246</v>
+        <f t="shared" si="54"/>
+        <v>10321.536354337983</v>
       </c>
       <c r="CE19" s="3">
-        <f>CD19*(1+$AA$23)</f>
-        <v>10741.179450217538</v>
+        <f t="shared" si="54"/>
+        <v>10424.751717881363</v>
       </c>
       <c r="CF19" s="3">
-        <f>CE19*(1+$AA$23)</f>
-        <v>10848.591244719713</v>
+        <f t="shared" si="54"/>
+        <v>10528.999235060177</v>
       </c>
       <c r="CG19" s="3">
-        <f>CF19*(1+$AA$23)</f>
-        <v>10957.07715716691</v>
+        <f t="shared" si="54"/>
+        <v>10634.289227410778</v>
       </c>
       <c r="CH19" s="3">
-        <f>CG19*(1+$AA$23)</f>
-        <v>11066.647928738579</v>
+        <f t="shared" si="54"/>
+        <v>10740.632119684886</v>
       </c>
       <c r="CI19" s="3">
-        <f>CH19*(1+$AA$23)</f>
-        <v>11177.314408025964</v>
+        <f t="shared" si="54"/>
+        <v>10848.038440881735</v>
       </c>
       <c r="CJ19" s="3">
-        <f>CI19*(1+$AA$23)</f>
-        <v>11289.087552106224</v>
+        <f t="shared" si="54"/>
+        <v>10956.518825290554</v>
       </c>
       <c r="CK19" s="3">
-        <f>CJ19*(1+$AA$23)</f>
-        <v>11401.978427627288</v>
+        <f t="shared" ref="CK19:DP19" si="55">CJ19*(1+$AA$23)</f>
+        <v>11066.084013543459</v>
       </c>
       <c r="CL19" s="3">
-        <f>CK19*(1+$AA$23)</f>
-        <v>11515.998211903561</v>
+        <f t="shared" si="55"/>
+        <v>11176.744853678894</v>
       </c>
       <c r="CM19" s="3">
-        <f>CL19*(1+$AA$23)</f>
-        <v>11631.158194022597</v>
+        <f t="shared" si="55"/>
+        <v>11288.512302215684</v>
       </c>
       <c r="CN19" s="3">
-        <f>CM19*(1+$AA$23)</f>
-        <v>11747.469775962823</v>
+        <f t="shared" si="55"/>
+        <v>11401.397425237841</v>
       </c>
       <c r="CO19" s="3">
-        <f>CN19*(1+$AA$23)</f>
-        <v>11864.944473722451</v>
+        <f t="shared" si="55"/>
+        <v>11515.41139949022</v>
       </c>
       <c r="CP19" s="3">
-        <f>CO19*(1+$AA$23)</f>
-        <v>11983.593918459675</v>
+        <f t="shared" si="55"/>
+        <v>11630.565513485122</v>
       </c>
       <c r="CQ19" s="3">
-        <f>CP19*(1+$AA$23)</f>
-        <v>12103.429857644272</v>
+        <f t="shared" si="55"/>
+        <v>11746.871168619973</v>
       </c>
       <c r="CR19" s="3">
-        <f>CQ19*(1+$AA$23)</f>
-        <v>12224.464156220716</v>
+        <f t="shared" si="55"/>
+        <v>11864.339880306174</v>
       </c>
       <c r="CS19" s="3">
-        <f>CR19*(1+$AA$23)</f>
-        <v>12346.708797782923</v>
+        <f t="shared" si="55"/>
+        <v>11982.983279109236</v>
       </c>
       <c r="CT19" s="3">
-        <f>CS19*(1+$AA$23)</f>
-        <v>12470.175885760753</v>
+        <f t="shared" si="55"/>
+        <v>12102.813111900328</v>
       </c>
       <c r="CU19" s="3">
-        <f>CT19*(1+$AA$23)</f>
-        <v>12594.87764461836</v>
+        <f t="shared" si="55"/>
+        <v>12223.841243019331</v>
       </c>
       <c r="CV19" s="3">
-        <f>CU19*(1+$AA$23)</f>
-        <v>12720.826421064543</v>
+        <f t="shared" si="55"/>
+        <v>12346.079655449525</v>
       </c>
       <c r="CW19" s="3">
-        <f>CV19*(1+$AA$23)</f>
-        <v>12848.034685275188</v>
+        <f t="shared" si="55"/>
+        <v>12469.540452004019</v>
       </c>
       <c r="CX19" s="3">
-        <f>CW19*(1+$AA$23)</f>
-        <v>12976.51503212794</v>
+        <f t="shared" si="55"/>
+        <v>12594.235856524059</v>
       </c>
       <c r="CY19" s="3">
-        <f>CX19*(1+$AA$23)</f>
-        <v>13106.28018244922</v>
+        <f t="shared" si="55"/>
+        <v>12720.1782150893</v>
       </c>
       <c r="CZ19" s="3">
-        <f>CY19*(1+$AA$23)</f>
-        <v>13237.342984273711</v>
+        <f t="shared" si="55"/>
+        <v>12847.379997240192</v>
       </c>
       <c r="DA19" s="3">
-        <f>CZ19*(1+$AA$23)</f>
-        <v>13369.716414116449</v>
+        <f t="shared" si="55"/>
+        <v>12975.853797212594</v>
       </c>
       <c r="DB19" s="3">
-        <f>DA19*(1+$AA$23)</f>
-        <v>13503.413578257612</v>
+        <f t="shared" si="55"/>
+        <v>13105.61233518472</v>
       </c>
       <c r="DC19" s="3">
-        <f>DB19*(1+$AA$23)</f>
-        <v>13638.447714040189</v>
+        <f t="shared" si="55"/>
+        <v>13236.668458536567</v>
       </c>
       <c r="DD19" s="3">
-        <f>DC19*(1+$AA$23)</f>
-        <v>13774.832191180591</v>
+        <f t="shared" si="55"/>
+        <v>13369.035143121933</v>
       </c>
       <c r="DE19" s="3">
-        <f>DD19*(1+$AA$23)</f>
-        <v>13912.580513092396</v>
+        <f t="shared" si="55"/>
+        <v>13502.725494553153</v>
       </c>
       <c r="DF19" s="3">
-        <f>DE19*(1+$AA$23)</f>
-        <v>14051.70631822332</v>
+        <f t="shared" si="55"/>
+        <v>13637.752749498684</v>
       </c>
       <c r="DG19" s="3">
-        <f>DF19*(1+$AA$23)</f>
-        <v>14192.223381405553</v>
+        <f t="shared" si="55"/>
+        <v>13774.130276993672</v>
       </c>
       <c r="DH19" s="3">
-        <f>DG19*(1+$AA$23)</f>
-        <v>14334.145615219608</v>
+        <f t="shared" si="55"/>
+        <v>13911.871579763609</v>
       </c>
       <c r="DI19" s="3">
-        <f>DH19*(1+$AA$23)</f>
-        <v>14477.487071371805</v>
+        <f t="shared" si="55"/>
+        <v>14050.990295561245</v>
       </c>
       <c r="DJ19" s="3">
-        <f>DI19*(1+$AA$23)</f>
-        <v>14622.261942085523</v>
+        <f t="shared" si="55"/>
+        <v>14191.500198516858</v>
       </c>
       <c r="DK19" s="3">
-        <f>DJ19*(1+$AA$23)</f>
-        <v>14768.484561506379</v>
+        <f t="shared" si="55"/>
+        <v>14333.415200502028</v>
       </c>
       <c r="DL19" s="3">
-        <f>DK19*(1+$AA$23)</f>
-        <v>14916.169407121442</v>
+        <f t="shared" si="55"/>
+        <v>14476.749352507048</v>
       </c>
       <c r="DM19" s="3">
-        <f>DL19*(1+$AA$23)</f>
-        <v>15065.331101192656</v>
+        <f t="shared" si="55"/>
+        <v>14621.516846032118</v>
       </c>
       <c r="DN19" s="3">
-        <f>DM19*(1+$AA$23)</f>
-        <v>15215.984412204583</v>
+        <f t="shared" si="55"/>
+        <v>14767.73201449244</v>
       </c>
       <c r="DO19" s="3">
-        <f>DN19*(1+$AA$23)</f>
-        <v>15368.14425632663</v>
+        <f t="shared" si="55"/>
+        <v>14915.409334637365</v>
       </c>
       <c r="DP19" s="3">
-        <f>DO19*(1+$AA$23)</f>
-        <v>15521.825698889896</v>
+        <f t="shared" si="55"/>
+        <v>15064.563427983738</v>
       </c>
       <c r="DQ19" s="3">
-        <f>DP19*(1+$AA$23)</f>
-        <v>15677.043955878795</v>
+        <f t="shared" ref="DQ19:EV19" si="56">DP19*(1+$AA$23)</f>
+        <v>15215.209062263575</v>
       </c>
       <c r="DR19" s="3">
-        <f>DQ19*(1+$AA$23)</f>
-        <v>15833.814395437583</v>
+        <f t="shared" si="56"/>
+        <v>15367.361152886211</v>
       </c>
       <c r="DS19" s="3">
-        <f>DR19*(1+$AA$23)</f>
-        <v>15992.152539391958</v>
+        <f t="shared" si="56"/>
+        <v>15521.034764415073</v>
       </c>
       <c r="DT19" s="3">
-        <f>DS19*(1+$AA$23)</f>
-        <v>16152.074064785878</v>
+        <f t="shared" si="56"/>
+        <v>15676.245112059225</v>
       </c>
       <c r="DU19" s="3">
-        <f>DT19*(1+$AA$23)</f>
-        <v>16313.594805433737</v>
+        <f t="shared" si="56"/>
+        <v>15833.007563179817</v>
       </c>
       <c r="DV19" s="3">
-        <f>DU19*(1+$AA$23)</f>
-        <v>16476.730753488075</v>
+        <f t="shared" si="56"/>
+        <v>15991.337638811616</v>
       </c>
       <c r="DW19" s="3">
-        <f>DV19*(1+$AA$23)</f>
-        <v>16641.498061022954</v>
+        <f t="shared" si="56"/>
+        <v>16151.251015199732</v>
       </c>
       <c r="DX19" s="3">
-        <f>DW19*(1+$AA$23)</f>
-        <v>16807.913041633183</v>
+        <f t="shared" si="56"/>
+        <v>16312.763525351729</v>
       </c>
       <c r="DY19" s="3">
-        <f>DX19*(1+$AA$23)</f>
-        <v>16975.992172049515</v>
+        <f t="shared" si="56"/>
+        <v>16475.891160605246</v>
       </c>
       <c r="DZ19" s="3">
-        <f>DY19*(1+$AA$23)</f>
-        <v>17145.75209377001</v>
+        <f t="shared" si="56"/>
+        <v>16640.650072211298</v>
       </c>
       <c r="EA19" s="3">
-        <f>DZ19*(1+$AA$23)</f>
-        <v>17317.20961470771</v>
+        <f t="shared" si="56"/>
+        <v>16807.056572933412</v>
       </c>
       <c r="EB19" s="3">
-        <f>EA19*(1+$AA$23)</f>
-        <v>17490.381710854788</v>
+        <f t="shared" si="56"/>
+        <v>16975.127138662745</v>
       </c>
       <c r="EC19" s="3">
-        <f>EB19*(1+$AA$23)</f>
-        <v>17665.285527963337</v>
+        <f t="shared" si="56"/>
+        <v>17144.878410049372</v>
       </c>
       <c r="ED19" s="3">
-        <f>EC19*(1+$AA$23)</f>
-        <v>17841.93838324297</v>
+        <f t="shared" si="56"/>
+        <v>17316.327194149868</v>
       </c>
       <c r="EE19" s="3">
-        <f>ED19*(1+$AA$23)</f>
-        <v>18020.357767075398</v>
+        <f t="shared" si="56"/>
+        <v>17489.490466091367</v>
       </c>
       <c r="EF19" s="3">
-        <f>EE19*(1+$AA$23)</f>
-        <v>18200.561344746151</v>
+        <f t="shared" si="56"/>
+        <v>17664.385370752279</v>
       </c>
       <c r="EG19" s="3">
-        <f>EF19*(1+$AA$23)</f>
-        <v>18382.566958193613</v>
+        <f t="shared" si="56"/>
+        <v>17841.029224459802</v>
       </c>
       <c r="EH19" s="3">
-        <f>EG19*(1+$AA$23)</f>
-        <v>18566.392627775549</v>
+        <f t="shared" si="56"/>
+        <v>18019.439516704402</v>
       </c>
       <c r="EI19" s="3">
-        <f>EH19*(1+$AA$23)</f>
-        <v>18752.056554053306</v>
+        <f t="shared" si="56"/>
+        <v>18199.633911871446</v>
       </c>
       <c r="EJ19" s="3">
-        <f>EI19*(1+$AA$23)</f>
-        <v>18939.57711959384</v>
+        <f t="shared" si="56"/>
+        <v>18381.630250990162</v>
       </c>
       <c r="EK19" s="3">
-        <f>EJ19*(1+$AA$23)</f>
-        <v>19128.972890789777</v>
+        <f t="shared" si="56"/>
+        <v>18565.446553500064</v>
       </c>
       <c r="EL19" s="3">
-        <f>EK19*(1+$AA$23)</f>
-        <v>19320.262619697674</v>
+        <f t="shared" si="56"/>
+        <v>18751.101019035064</v>
       </c>
       <c r="EM19" s="3">
-        <f>EL19*(1+$AA$23)</f>
-        <v>19513.465245894651</v>
+        <f t="shared" si="56"/>
+        <v>18938.612029225416</v>
       </c>
       <c r="EN19" s="3">
-        <f>EM19*(1+$AA$23)</f>
-        <v>19708.599898353597</v>
+        <f t="shared" si="56"/>
+        <v>19127.998149517669</v>
       </c>
       <c r="EO19" s="3">
-        <f>EN19*(1+$AA$23)</f>
-        <v>19905.685897337135</v>
+        <f t="shared" si="56"/>
+        <v>19319.278131012845</v>
       </c>
       <c r="EP19" s="3">
-        <f>EO19*(1+$AA$23)</f>
-        <v>20104.742756310505</v>
+        <f t="shared" si="56"/>
+        <v>19512.470912322973</v>
       </c>
       <c r="EQ19" s="3">
-        <f>EP19*(1+$AA$23)</f>
-        <v>20305.790183873611</v>
+        <f t="shared" si="56"/>
+        <v>19707.595621446202</v>
       </c>
       <c r="ER19" s="3">
-        <f>EQ19*(1+$AA$23)</f>
-        <v>20508.848085712347</v>
+        <f t="shared" si="56"/>
+        <v>19904.671577660665</v>
       </c>
       <c r="ES19" s="3">
-        <f>ER19*(1+$AA$23)</f>
-        <v>20713.936566569471</v>
+        <f t="shared" si="56"/>
+        <v>20103.718293437272</v>
       </c>
       <c r="ET19" s="3">
-        <f>ES19*(1+$AA$23)</f>
-        <v>20921.075932235166</v>
+        <f t="shared" si="56"/>
+        <v>20304.755476371643</v>
       </c>
       <c r="EU19" s="3">
-        <f>ET19*(1+$AA$23)</f>
-        <v>21130.286691557518</v>
+        <f t="shared" si="56"/>
+        <v>20507.803031135361</v>
       </c>
       <c r="EV19" s="3">
-        <f>EU19*(1+$AA$23)</f>
-        <v>21341.589558473093</v>
+        <f t="shared" si="56"/>
+        <v>20712.881061446715</v>
       </c>
       <c r="EW19" s="3">
-        <f>EV19*(1+$AA$23)</f>
-        <v>21555.005454057824</v>
+        <f t="shared" ref="EW19:FN19" si="57">EV19*(1+$AA$23)</f>
+        <v>20920.009872061182</v>
       </c>
       <c r="EX19" s="3">
-        <f>EW19*(1+$AA$23)</f>
-        <v>21770.555508598402</v>
+        <f t="shared" si="57"/>
+        <v>21129.209970781794</v>
       </c>
       <c r="EY19" s="3">
-        <f>EX19*(1+$AA$23)</f>
-        <v>21988.261063684386</v>
+        <f t="shared" si="57"/>
+        <v>21340.502070489612</v>
       </c>
       <c r="EZ19" s="3">
-        <f>EY19*(1+$AA$23)</f>
-        <v>22208.143674321229</v>
+        <f t="shared" si="57"/>
+        <v>21553.907091194509</v>
       </c>
       <c r="FA19" s="3">
-        <f>EZ19*(1+$AA$23)</f>
-        <v>22430.225111064443</v>
+        <f t="shared" si="57"/>
+        <v>21769.446162106455</v>
       </c>
       <c r="FB19" s="3">
-        <f>FA19*(1+$AA$23)</f>
-        <v>22654.527362175086</v>
+        <f t="shared" si="57"/>
+        <v>21987.140623727519</v>
       </c>
       <c r="FC19" s="3">
-        <f>FB19*(1+$AA$23)</f>
-        <v>22881.072635796838</v>
+        <f t="shared" si="57"/>
+        <v>22207.012029964793</v>
       </c>
       <c r="FD19" s="3">
-        <f>FC19*(1+$AA$23)</f>
-        <v>23109.883362154807</v>
+        <f t="shared" si="57"/>
+        <v>22429.082150264443</v>
       </c>
       <c r="FE19" s="3">
-        <f>FD19*(1+$AA$23)</f>
-        <v>23340.982195776356</v>
+        <f t="shared" si="57"/>
+        <v>22653.372971767087</v>
       </c>
       <c r="FF19" s="3">
-        <f>FE19*(1+$AA$23)</f>
-        <v>23574.392017734121</v>
+        <f t="shared" si="57"/>
+        <v>22879.906701484757</v>
       </c>
       <c r="FG19" s="3">
-        <f>FF19*(1+$AA$23)</f>
-        <v>23810.135937911462</v>
+        <f t="shared" si="57"/>
+        <v>23108.705768499603</v>
       </c>
       <c r="FH19" s="3">
-        <f>FG19*(1+$AA$23)</f>
-        <v>24048.237297290576</v>
+        <f t="shared" si="57"/>
+        <v>23339.792826184599</v>
       </c>
       <c r="FI19" s="3">
-        <f>FH19*(1+$AA$23)</f>
-        <v>24288.719670263483</v>
+        <f t="shared" si="57"/>
+        <v>23573.190754446445</v>
       </c>
       <c r="FJ19" s="3">
-        <f>FI19*(1+$AA$23)</f>
-        <v>24531.606866966118</v>
+        <f t="shared" si="57"/>
+        <v>23808.92266199091</v>
       </c>
       <c r="FK19" s="3">
-        <f>FJ19*(1+$AA$23)</f>
-        <v>24776.922935635779</v>
+        <f t="shared" si="57"/>
+        <v>24047.011888610818</v>
       </c>
       <c r="FL19" s="3">
-        <f>FK19*(1+$AA$23)</f>
-        <v>25024.692164992139</v>
+        <f t="shared" si="57"/>
+        <v>24287.482007496925</v>
       </c>
       <c r="FM19" s="3">
-        <f>FL19*(1+$AA$23)</f>
-        <v>25274.939086642062</v>
+        <f t="shared" si="57"/>
+        <v>24530.356827571894</v>
       </c>
       <c r="FN19" s="3">
-        <f>FM19*(1+$AA$23)</f>
-        <v>25527.688477508484</v>
+        <f t="shared" si="57"/>
+        <v>24775.660395847612</v>
       </c>
     </row>
     <row r="20" spans="1:170" x14ac:dyDescent="0.2">
@@ -2830,19 +2828,19 @@
         <v>1014</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ref="J20:M20" si="53">I20*0.99</f>
+        <f t="shared" ref="J20:M20" si="58">I20*0.99</f>
         <v>1003.86</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>993.82140000000004</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>983.88318600000002</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>974.04435414</v>
       </c>
       <c r="N20" s="4"/>
@@ -2864,15 +2862,15 @@
         <v>935.08257997440001</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" ref="V20:X20" si="54">U20*0.96</f>
+        <f t="shared" ref="V20:X20" si="59">U20*0.96</f>
         <v>897.679276775424</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>861.77210570440695</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>827.30122147623069</v>
       </c>
     </row>
@@ -2881,35 +2879,35 @@
         <v>6</v>
       </c>
       <c r="B21" s="5">
-        <f t="shared" ref="B21:I21" si="55">B19/B20</f>
+        <f t="shared" ref="B21:I21" si="60">B19/B20</f>
         <v>0.70105820105820105</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>0.92369838420107719</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>0.92896174863387981</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>1.2933579335793357</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>0.82835820895522383</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>1.0773638968481376</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>0.986328125</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>1.1055226824457594</v>
       </c>
       <c r="J21" s="5">
@@ -2917,15 +2915,15 @@
       </c>
       <c r="K21" s="5">
         <f>K19/K20</f>
-        <v>1.1441086054295067</v>
+        <v>1.247709095416943</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" ref="L21:M21" si="56">L19/L20</f>
-        <v>1.1832341747773305</v>
+        <f t="shared" ref="L21:M21" si="61">L19/L20</f>
+        <v>1.1484949677969569</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="56"/>
-        <v>1.2945331665434829</v>
+        <f t="shared" si="61"/>
+        <v>1.2564725451439922</v>
       </c>
       <c r="Q21" s="5">
         <f>Q19/Q20</f>
@@ -2940,24 +2938,24 @@
         <v>3.991337824831569</v>
       </c>
       <c r="T21" s="5">
-        <f t="shared" ref="T21:X21" si="57">T19/T20</f>
-        <v>4.7971127063388987</v>
+        <f t="shared" ref="T21:X21" si="62">T19/T20</f>
+        <v>4.6551395350017257</v>
       </c>
       <c r="U21" s="5">
-        <f t="shared" si="57"/>
-        <v>5.2955798997099208</v>
+        <f t="shared" si="62"/>
+        <v>5.1399474793494226</v>
       </c>
       <c r="V21" s="5">
-        <f t="shared" si="57"/>
-        <v>5.8752947395464039</v>
+        <f t="shared" si="62"/>
+        <v>5.7024791647091497</v>
       </c>
       <c r="W21" s="5">
-        <f t="shared" si="57"/>
-        <v>6.514214342031476</v>
+        <f t="shared" si="62"/>
+        <v>6.322453456106305</v>
       </c>
       <c r="X21" s="5">
-        <f t="shared" si="57"/>
-        <v>7.2181724492875983</v>
+        <f t="shared" si="62"/>
+        <v>7.0055300713881037</v>
       </c>
     </row>
     <row r="22" spans="1:170" x14ac:dyDescent="0.2">
@@ -2979,36 +2977,36 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7">
-        <f t="shared" ref="F23:M23" si="58">F4/B4-1</f>
+        <f t="shared" ref="F23:M23" si="63">F4/B4-1</f>
         <v>9.3607954545454453E-2</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>8.2063949499108002E-2</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>5.7832299811269916E-2</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>4.2362322452030865E-2</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="58"/>
-        <v>4.3169242758799742E-2</v>
+        <f t="shared" si="63"/>
+        <v>1.1949603844655154E-2</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="58"/>
-        <v>3.8933062777425365E-2</v>
+        <f t="shared" si="63"/>
+        <v>7.8402029169308829E-3</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="58"/>
-        <v>6.4843499936281468E-2</v>
+        <f t="shared" si="63"/>
+        <v>3.2975200713648567E-2</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="58"/>
-        <v>7.8686720000000099E-2</v>
+        <f t="shared" si="63"/>
+        <v>4.6404125268945995E-2</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7" t="e">
@@ -3016,11 +3014,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="7" t="e">
-        <f t="shared" ref="P23:Q23" si="59">P4/O4-1</f>
+        <f t="shared" ref="P23:Q23" si="64">P4/O4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="7" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R23" s="7">
@@ -3032,23 +3030,23 @@
         <v>6.8052803063383793E-2</v>
       </c>
       <c r="T23" s="7">
-        <f t="shared" ref="T23:X23" si="60">T4/S4-1</f>
-        <v>5.6812505692990012E-2</v>
+        <f t="shared" ref="T23:X23" si="65">T4/S4-1</f>
+        <v>2.5184555524106145E-2</v>
       </c>
       <c r="U23" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="V23" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="W23" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="X23" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Z23" s="1" t="s">
@@ -3063,47 +3061,47 @@
         <v>26</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" ref="C24:M24" si="61">C4/B4-1</f>
+        <f t="shared" ref="C24:M24" si="66">C4/B4-1</f>
         <v>3.5085227272727337E-2</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>1.7977219706326375E-2</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>8.1962793205715867E-2</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-4.0742586593570884E-2</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>2.4158981685933334E-2</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-4.8192771084337727E-3</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>6.6139926086402401E-2</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="61"/>
-        <v>-4.0000000000000036E-2</v>
+        <f t="shared" si="66"/>
+        <v>-6.8730576141525224E-2</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="Z24" s="1" t="s">
@@ -3118,8 +3116,8 @@
         <v>39</v>
       </c>
       <c r="AA25" s="3">
-        <f>NPV(AA24,T32:XFD32)+Sheet1!P5-Sheet1!P6</f>
-        <v>106989.758032314</v>
+        <f>NPV(AA24,T32:XFD32)+Main!P5-Main!P6</f>
+        <v>94532.153111182022</v>
       </c>
     </row>
     <row r="26" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3127,99 +3125,99 @@
         <v>27</v>
       </c>
       <c r="B26" s="7">
-        <f>B9/B4</f>
+        <f t="shared" ref="B26:M26" si="67">B9/B4</f>
         <v>0.40156249999999999</v>
       </c>
       <c r="C26" s="7">
-        <f>C9/C4</f>
+        <f t="shared" si="67"/>
         <v>0.39193083573487031</v>
       </c>
       <c r="D26" s="7">
-        <f>D9/D4</f>
+        <f t="shared" si="67"/>
         <v>0.39026691830682125</v>
       </c>
       <c r="E26" s="7">
-        <f>E9/E4</f>
+        <f t="shared" si="67"/>
         <v>0.39957637677547969</v>
       </c>
       <c r="F26" s="7">
-        <f>F9/F4</f>
+        <f t="shared" si="67"/>
         <v>0.39057020392258734</v>
       </c>
       <c r="G26" s="7">
-        <f>G9/G4</f>
+        <f t="shared" si="67"/>
         <v>0.40228281547241596</v>
       </c>
       <c r="H26" s="7">
-        <f>H9/H4</f>
+        <f t="shared" si="67"/>
         <v>0.41123996431757359</v>
       </c>
       <c r="I26" s="7">
-        <f>I9/I4</f>
+        <f t="shared" si="67"/>
         <v>0.41644752569925891</v>
       </c>
       <c r="J26" s="7">
-        <f>J9/J4</f>
-        <v>0.41644752569925886</v>
+        <f t="shared" si="67"/>
+        <v>0.41644752569925891</v>
       </c>
       <c r="K26" s="7">
-        <f>K9/K4</f>
+        <f t="shared" si="67"/>
+        <v>0.41644752569925897</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="67"/>
         <v>0.41644752569925891</v>
       </c>
-      <c r="L26" s="7">
-        <f>L9/L4</f>
+      <c r="M26" s="7">
+        <f t="shared" si="67"/>
+        <v>0.41644752569925902</v>
+      </c>
+      <c r="O26" s="7" t="e">
+        <f t="shared" ref="O26:X26" si="68">O9/O4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" s="7" t="e">
+        <f t="shared" si="68"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" si="68"/>
+        <v>0.42346827531070574</v>
+      </c>
+      <c r="R26" s="7">
+        <f t="shared" si="68"/>
+        <v>0.39585502670383932</v>
+      </c>
+      <c r="S26" s="7">
+        <f t="shared" si="68"/>
+        <v>0.40538415573796271</v>
+      </c>
+      <c r="T26" s="7">
+        <f t="shared" si="68"/>
+        <v>0.41644752569925891</v>
+      </c>
+      <c r="U26" s="7">
+        <f t="shared" si="68"/>
+        <v>0.41644752569925891</v>
+      </c>
+      <c r="V26" s="7">
+        <f t="shared" si="68"/>
         <v>0.41644752569925897</v>
       </c>
-      <c r="M26" s="7">
-        <f>M9/M4</f>
-        <v>0.41644752569925886</v>
-      </c>
-      <c r="O26" s="7" t="e">
-        <f>O9/O4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P26" s="7" t="e">
-        <f>P9/P4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" s="7">
-        <f>Q9/Q4</f>
-        <v>0.42346827531070574</v>
-      </c>
-      <c r="R26" s="7">
-        <f>R9/R4</f>
-        <v>0.39585502670383932</v>
-      </c>
-      <c r="S26" s="7">
-        <f>S9/S4</f>
-        <v>0.40538415573796271</v>
-      </c>
-      <c r="T26" s="7">
-        <f>T9/T4</f>
-        <v>0.41644752569925902</v>
-      </c>
-      <c r="U26" s="7">
-        <f>U9/U4</f>
+      <c r="W26" s="7">
+        <f t="shared" si="68"/>
         <v>0.41644752569925897</v>
       </c>
-      <c r="V26" s="7">
-        <f>V9/V4</f>
-        <v>0.41644752569925902</v>
-      </c>
-      <c r="W26" s="7">
-        <f>W9/W4</f>
-        <v>0.41644752569925886</v>
-      </c>
       <c r="X26" s="7">
-        <f>X9/X4</f>
+        <f t="shared" si="68"/>
         <v>0.41644752569925891</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AA26" s="5">
-        <f>AA25/Sheet1!P3</f>
-        <v>108.15327092088084</v>
+        <f>AA25/Main!P3</f>
+        <v>95.560189631234849</v>
       </c>
     </row>
     <row r="27" spans="1:170" x14ac:dyDescent="0.2">
@@ -3227,99 +3225,99 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <f>B15/B4</f>
+        <f t="shared" ref="B27:M27" si="69">B15/B4</f>
         <v>0.14190340909090909</v>
       </c>
       <c r="C27" s="4">
-        <f>C15/C4</f>
+        <f t="shared" si="69"/>
         <v>0.15548236585700562</v>
       </c>
       <c r="D27" s="4">
-        <f>D15/D4</f>
+        <f t="shared" si="69"/>
         <v>0.15745483957940146</v>
       </c>
       <c r="E27" s="4">
-        <f>E15/E4</f>
+        <f t="shared" si="69"/>
         <v>0.21530027410914529</v>
       </c>
       <c r="F27" s="4">
-        <f>F15/F4</f>
+        <f t="shared" si="69"/>
         <v>0.15170801402779582</v>
       </c>
       <c r="G27" s="4">
-        <f>G15/G4</f>
+        <f t="shared" si="69"/>
         <v>0.16804058338617628</v>
       </c>
       <c r="H27" s="4">
-        <f>H15/H4</f>
+        <f t="shared" si="69"/>
         <v>0.17726519689053141</v>
       </c>
       <c r="I27" s="4">
-        <f>I15/I4</f>
+        <f t="shared" si="69"/>
         <v>0.17224480038250059</v>
       </c>
       <c r="J27" s="4">
-        <f>J15/J4</f>
-        <v>0.17224480038250053</v>
+        <f t="shared" si="69"/>
+        <v>0.17224480038250059</v>
       </c>
       <c r="K27" s="4">
-        <f>K15/K4</f>
+        <f t="shared" si="69"/>
+        <v>0.17224480038250065</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="69"/>
+        <v>0.17224480038250059</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="69"/>
+        <v>0.1722448003825007</v>
+      </c>
+      <c r="O27" s="4" t="e">
+        <f t="shared" ref="O27:X27" si="70">O15/O4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="4" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="4">
+        <f t="shared" si="70"/>
+        <v>0.13943600552365723</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="70"/>
+        <v>0.16888918746431092</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="70"/>
+        <v>0.16746862911595434</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="70"/>
         <v>0.17224480038250062</v>
       </c>
-      <c r="L27" s="4">
-        <f>L15/L4</f>
+      <c r="U27" s="4">
+        <f t="shared" si="70"/>
+        <v>0.17224480038250059</v>
+      </c>
+      <c r="V27" s="4">
+        <f t="shared" si="70"/>
         <v>0.1722448003825007</v>
       </c>
-      <c r="M27" s="4">
-        <f>M15/M4</f>
-        <v>0.17224480038250056</v>
-      </c>
-      <c r="O27" s="4" t="e">
-        <f>O15/O4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P27" s="4" t="e">
-        <f>P15/P4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q27" s="4">
-        <f>Q15/Q4</f>
-        <v>0.13943600552365723</v>
-      </c>
-      <c r="R27" s="4">
-        <f>R15/R4</f>
-        <v>0.16888918746431092</v>
-      </c>
-      <c r="S27" s="4">
-        <f>S15/S4</f>
-        <v>0.16746862911595434</v>
-      </c>
-      <c r="T27" s="4">
-        <f>T15/T4</f>
-        <v>0.17224480038250073</v>
-      </c>
-      <c r="U27" s="4">
-        <f>U15/U4</f>
-        <v>0.17224480038250073</v>
-      </c>
-      <c r="V27" s="4">
-        <f>V15/V4</f>
-        <v>0.17224480038250076</v>
-      </c>
       <c r="W27" s="4">
-        <f>W15/W4</f>
-        <v>0.17224480038250062</v>
+        <f t="shared" si="70"/>
+        <v>0.1722448003825007</v>
       </c>
       <c r="X27" s="4">
-        <f>X15/X4</f>
-        <v>0.17224480038250067</v>
+        <f t="shared" si="70"/>
+        <v>0.17224480038250059</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA27" s="4">
-        <f>AA26/Sheet1!P2-1</f>
-        <v>0.52328550592789913</v>
+        <f>AA26/Main!P2-1</f>
+        <v>0.39503926468955974</v>
       </c>
     </row>
     <row r="28" spans="1:170" x14ac:dyDescent="0.2">
@@ -3342,35 +3340,35 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4">
         <f>Q32/Q4</f>
-        <v>0.33218257140780583</v>
+        <v>9.0304527945344867E-2</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" ref="R28:X28" si="62">R32/R4</f>
+        <f t="shared" ref="R28:X28" si="71">R32/R4</f>
         <v>0.13741560579087031</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>0.18432556530490299</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" si="62"/>
-        <v>0.19343242031827657</v>
+        <f t="shared" si="71"/>
+        <v>0.19940000041681347</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="62"/>
-        <v>0.19343242031827657</v>
+        <f t="shared" si="71"/>
+        <v>0.17456630073120302</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" si="62"/>
-        <v>0.19343242031827657</v>
+        <f t="shared" si="71"/>
+        <v>0.17456630073120299</v>
       </c>
       <c r="W28" s="4">
-        <f t="shared" si="62"/>
-        <v>0.19343242031827657</v>
+        <f t="shared" si="71"/>
+        <v>0.17456630073120299</v>
       </c>
       <c r="X28" s="4">
-        <f t="shared" si="62"/>
-        <v>0.19343242031827654</v>
+        <f t="shared" si="71"/>
+        <v>0.17456630073120297</v>
       </c>
       <c r="AA28" s="4"/>
     </row>
@@ -3403,15 +3401,15 @@
         <v>7875</v>
       </c>
       <c r="V30" s="1">
-        <f t="shared" ref="V30:X31" si="63">U30*1.05</f>
+        <f t="shared" ref="V30:X31" si="72">U30*1.05</f>
         <v>8268.75</v>
       </c>
       <c r="W30" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>8682.1875</v>
       </c>
       <c r="X30" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>9116.296875</v>
       </c>
       <c r="AB30" s="5"/>
@@ -3421,7 +3419,7 @@
         <v>30</v>
       </c>
       <c r="Q31" s="1">
-        <v>3328</v>
+        <v>-3328</v>
       </c>
       <c r="R31" s="1">
         <v>-752</v>
@@ -3433,20 +3431,19 @@
         <v>1000</v>
       </c>
       <c r="U31" s="1">
-        <f>T31*1.05</f>
-        <v>1050</v>
+        <v>1900</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" si="63"/>
-        <v>1102.5</v>
+        <f t="shared" si="72"/>
+        <v>1995</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" si="63"/>
-        <v>1157.625</v>
+        <f t="shared" si="72"/>
+        <v>2094.75</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" si="63"/>
-        <v>1215.5062500000001</v>
+        <f t="shared" si="72"/>
+        <v>2199.4875000000002</v>
       </c>
       <c r="AB31" s="5"/>
     </row>
@@ -3460,14 +3457,14 @@
       </c>
       <c r="Q32" s="3">
         <f>Q30+Q31</f>
-        <v>9141</v>
+        <v>2485</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" ref="R32:S32" si="64">R30+R31</f>
+        <f t="shared" ref="R32:S32" si="73">R30+R31</f>
         <v>4091</v>
       </c>
       <c r="S32" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>5861</v>
       </c>
       <c r="T32" s="3">
@@ -3475,597 +3472,597 @@
       </c>
       <c r="U32" s="3">
         <f>U30-U31</f>
-        <v>6825</v>
+        <v>5975</v>
       </c>
       <c r="V32" s="3">
-        <f t="shared" ref="V32:X32" si="65">V30-V31</f>
-        <v>7166.25</v>
+        <f t="shared" ref="V32:X32" si="74">V30-V31</f>
+        <v>6273.75</v>
       </c>
       <c r="W32" s="3">
-        <f t="shared" si="65"/>
-        <v>7524.5625</v>
+        <f t="shared" si="74"/>
+        <v>6587.4375</v>
       </c>
       <c r="X32" s="3">
-        <f t="shared" si="65"/>
-        <v>7900.7906249999996</v>
+        <f t="shared" si="74"/>
+        <v>6916.8093749999998</v>
       </c>
       <c r="Y32" s="3">
-        <f>X32*(1+$AA$23)</f>
-        <v>7979.7985312499995</v>
+        <f t="shared" ref="Y32:BD32" si="75">X32*(1+$AA$23)</f>
+        <v>6985.9774687500003</v>
       </c>
       <c r="Z32" s="3">
-        <f>Y32*(1+$AA$23)</f>
-        <v>8059.5965165624993</v>
+        <f t="shared" si="75"/>
+        <v>7055.8372434375005</v>
       </c>
       <c r="AA32" s="3">
-        <f>Z32*(1+$AA$23)</f>
-        <v>8140.1924817281242</v>
+        <f t="shared" si="75"/>
+        <v>7126.3956158718756</v>
       </c>
       <c r="AB32" s="3">
-        <f>AA32*(1+$AA$23)</f>
-        <v>8221.5944065454059</v>
+        <f t="shared" si="75"/>
+        <v>7197.6595720305941</v>
       </c>
       <c r="AC32" s="3">
-        <f>AB32*(1+$AA$23)</f>
-        <v>8303.81035061086</v>
+        <f t="shared" si="75"/>
+        <v>7269.6361677509003</v>
       </c>
       <c r="AD32" s="3">
-        <f>AC32*(1+$AA$23)</f>
-        <v>8386.8484541169692</v>
+        <f t="shared" si="75"/>
+        <v>7342.3325294284095</v>
       </c>
       <c r="AE32" s="3">
-        <f>AD32*(1+$AA$23)</f>
-        <v>8470.716938658139</v>
+        <f t="shared" si="75"/>
+        <v>7415.7558547226936</v>
       </c>
       <c r="AF32" s="3">
-        <f>AE32*(1+$AA$23)</f>
-        <v>8555.4241080447209</v>
+        <f t="shared" si="75"/>
+        <v>7489.913413269921</v>
       </c>
       <c r="AG32" s="3">
-        <f>AF32*(1+$AA$23)</f>
-        <v>8640.9783491251674</v>
+        <f t="shared" si="75"/>
+        <v>7564.8125474026201</v>
       </c>
       <c r="AH32" s="3">
-        <f>AG32*(1+$AA$23)</f>
-        <v>8727.3881326164192</v>
+        <f t="shared" si="75"/>
+        <v>7640.4606728766466</v>
       </c>
       <c r="AI32" s="3">
-        <f>AH32*(1+$AA$23)</f>
-        <v>8814.6620139425831</v>
+        <f t="shared" si="75"/>
+        <v>7716.865279605413</v>
       </c>
       <c r="AJ32" s="3">
-        <f>AI32*(1+$AA$23)</f>
-        <v>8902.8086340820082</v>
+        <f t="shared" si="75"/>
+        <v>7794.0339324014676</v>
       </c>
       <c r="AK32" s="3">
-        <f>AJ32*(1+$AA$23)</f>
-        <v>8991.8367204228289</v>
+        <f t="shared" si="75"/>
+        <v>7871.9742717254821</v>
       </c>
       <c r="AL32" s="3">
-        <f>AK32*(1+$AA$23)</f>
-        <v>9081.7550876270579</v>
+        <f t="shared" si="75"/>
+        <v>7950.6940144427372</v>
       </c>
       <c r="AM32" s="3">
-        <f>AL32*(1+$AA$23)</f>
-        <v>9172.5726385033286</v>
+        <f t="shared" si="75"/>
+        <v>8030.2009545871642</v>
       </c>
       <c r="AN32" s="3">
-        <f>AM32*(1+$AA$23)</f>
-        <v>9264.2983648883619</v>
+        <f t="shared" si="75"/>
+        <v>8110.5029641330357</v>
       </c>
       <c r="AO32" s="3">
-        <f>AN32*(1+$AA$23)</f>
-        <v>9356.9413485372461</v>
+        <f t="shared" si="75"/>
+        <v>8191.6079937743662</v>
       </c>
       <c r="AP32" s="3">
-        <f>AO32*(1+$AA$23)</f>
-        <v>9450.510762022619</v>
+        <f t="shared" si="75"/>
+        <v>8273.5240737121094</v>
       </c>
       <c r="AQ32" s="3">
-        <f>AP32*(1+$AA$23)</f>
-        <v>9545.0158696428462</v>
+        <f t="shared" si="75"/>
+        <v>8356.2593144492312</v>
       </c>
       <c r="AR32" s="3">
-        <f>AQ32*(1+$AA$23)</f>
-        <v>9640.466028339275</v>
+        <f t="shared" si="75"/>
+        <v>8439.8219075937232</v>
       </c>
       <c r="AS32" s="3">
-        <f>AR32*(1+$AA$23)</f>
-        <v>9736.8706886226682</v>
+        <f t="shared" si="75"/>
+        <v>8524.2201266696611</v>
       </c>
       <c r="AT32" s="3">
-        <f>AS32*(1+$AA$23)</f>
-        <v>9834.2393955088955</v>
+        <f t="shared" si="75"/>
+        <v>8609.4623279363586</v>
       </c>
       <c r="AU32" s="3">
-        <f>AT32*(1+$AA$23)</f>
-        <v>9932.581789463984</v>
+        <f t="shared" si="75"/>
+        <v>8695.5569512157217</v>
       </c>
       <c r="AV32" s="3">
-        <f>AU32*(1+$AA$23)</f>
-        <v>10031.907607358624</v>
+        <f t="shared" si="75"/>
+        <v>8782.5125207278797</v>
       </c>
       <c r="AW32" s="3">
-        <f>AV32*(1+$AA$23)</f>
-        <v>10132.226683432211</v>
+        <f t="shared" si="75"/>
+        <v>8870.3376459351584</v>
       </c>
       <c r="AX32" s="3">
-        <f>AW32*(1+$AA$23)</f>
-        <v>10233.548950266533</v>
+        <f t="shared" si="75"/>
+        <v>8959.0410223945109</v>
       </c>
       <c r="AY32" s="3">
-        <f>AX32*(1+$AA$23)</f>
-        <v>10335.884439769199</v>
+        <f t="shared" si="75"/>
+        <v>9048.6314326184565</v>
       </c>
       <c r="AZ32" s="3">
-        <f>AY32*(1+$AA$23)</f>
-        <v>10439.243284166891</v>
+        <f t="shared" si="75"/>
+        <v>9139.1177469446411</v>
       </c>
       <c r="BA32" s="3">
-        <f>AZ32*(1+$AA$23)</f>
-        <v>10543.635717008559</v>
+        <f t="shared" si="75"/>
+        <v>9230.5089244140872</v>
       </c>
       <c r="BB32" s="3">
-        <f>BA32*(1+$AA$23)</f>
-        <v>10649.072074178644</v>
+        <f t="shared" si="75"/>
+        <v>9322.8140136582279</v>
       </c>
       <c r="BC32" s="3">
-        <f>BB32*(1+$AA$23)</f>
-        <v>10755.562794920432</v>
+        <f t="shared" si="75"/>
+        <v>9416.0421537948096</v>
       </c>
       <c r="BD32" s="3">
-        <f>BC32*(1+$AA$23)</f>
-        <v>10863.118422869637</v>
+        <f t="shared" si="75"/>
+        <v>9510.202575332758</v>
       </c>
       <c r="BE32" s="3">
-        <f>BD32*(1+$AA$23)</f>
-        <v>10971.749607098332</v>
+        <f t="shared" ref="BE32:CJ32" si="76">BD32*(1+$AA$23)</f>
+        <v>9605.3046010860853</v>
       </c>
       <c r="BF32" s="3">
-        <f>BE32*(1+$AA$23)</f>
-        <v>11081.467103169316</v>
+        <f t="shared" si="76"/>
+        <v>9701.3576470969456</v>
       </c>
       <c r="BG32" s="3">
-        <f>BF32*(1+$AA$23)</f>
-        <v>11192.28177420101</v>
+        <f t="shared" si="76"/>
+        <v>9798.3712235679159</v>
       </c>
       <c r="BH32" s="3">
-        <f>BG32*(1+$AA$23)</f>
-        <v>11304.20459194302</v>
+        <f t="shared" si="76"/>
+        <v>9896.3549358035943</v>
       </c>
       <c r="BI32" s="3">
-        <f>BH32*(1+$AA$23)</f>
-        <v>11417.24663786245</v>
+        <f t="shared" si="76"/>
+        <v>9995.3184851616297</v>
       </c>
       <c r="BJ32" s="3">
-        <f>BI32*(1+$AA$23)</f>
-        <v>11531.419104241075</v>
+        <f t="shared" si="76"/>
+        <v>10095.271670013246</v>
       </c>
       <c r="BK32" s="3">
-        <f>BJ32*(1+$AA$23)</f>
-        <v>11646.733295283486</v>
+        <f t="shared" si="76"/>
+        <v>10196.224386713378</v>
       </c>
       <c r="BL32" s="3">
-        <f>BK32*(1+$AA$23)</f>
-        <v>11763.20062823632</v>
+        <f t="shared" si="76"/>
+        <v>10298.186630580512</v>
       </c>
       <c r="BM32" s="3">
-        <f>BL32*(1+$AA$23)</f>
-        <v>11880.832634518683</v>
+        <f t="shared" si="76"/>
+        <v>10401.168496886317</v>
       </c>
       <c r="BN32" s="3">
-        <f>BM32*(1+$AA$23)</f>
-        <v>11999.64096086387</v>
+        <f t="shared" si="76"/>
+        <v>10505.180181855181</v>
       </c>
       <c r="BO32" s="3">
-        <f>BN32*(1+$AA$23)</f>
-        <v>12119.637370472508</v>
+        <f t="shared" si="76"/>
+        <v>10610.231983673733</v>
       </c>
       <c r="BP32" s="3">
-        <f>BO32*(1+$AA$23)</f>
-        <v>12240.833744177233</v>
+        <f t="shared" si="76"/>
+        <v>10716.33430351047</v>
       </c>
       <c r="BQ32" s="3">
-        <f>BP32*(1+$AA$23)</f>
-        <v>12363.242081619006</v>
+        <f t="shared" si="76"/>
+        <v>10823.497646545575</v>
       </c>
       <c r="BR32" s="3">
-        <f>BQ32*(1+$AA$23)</f>
-        <v>12486.874502435196</v>
+        <f t="shared" si="76"/>
+        <v>10931.73262301103</v>
       </c>
       <c r="BS32" s="3">
-        <f>BR32*(1+$AA$23)</f>
-        <v>12611.743247459548</v>
+        <f t="shared" si="76"/>
+        <v>11041.04994924114</v>
       </c>
       <c r="BT32" s="3">
-        <f>BS32*(1+$AA$23)</f>
-        <v>12737.860679934143</v>
+        <f t="shared" si="76"/>
+        <v>11151.460448733551</v>
       </c>
       <c r="BU32" s="3">
-        <f>BT32*(1+$AA$23)</f>
-        <v>12865.239286733486</v>
+        <f t="shared" si="76"/>
+        <v>11262.975053220887</v>
       </c>
       <c r="BV32" s="3">
-        <f>BU32*(1+$AA$23)</f>
-        <v>12993.89167960082</v>
+        <f t="shared" si="76"/>
+        <v>11375.604803753096</v>
       </c>
       <c r="BW32" s="3">
-        <f>BV32*(1+$AA$23)</f>
-        <v>13123.830596396829</v>
+        <f t="shared" si="76"/>
+        <v>11489.360851790627</v>
       </c>
       <c r="BX32" s="3">
-        <f>BW32*(1+$AA$23)</f>
-        <v>13255.068902360797</v>
+        <f t="shared" si="76"/>
+        <v>11604.254460308533</v>
       </c>
       <c r="BY32" s="3">
-        <f>BX32*(1+$AA$23)</f>
-        <v>13387.619591384406</v>
+        <f t="shared" si="76"/>
+        <v>11720.297004911619</v>
       </c>
       <c r="BZ32" s="3">
-        <f>BY32*(1+$AA$23)</f>
-        <v>13521.49578729825</v>
+        <f t="shared" si="76"/>
+        <v>11837.499974960736</v>
       </c>
       <c r="CA32" s="3">
-        <f>BZ32*(1+$AA$23)</f>
-        <v>13656.710745171233</v>
+        <f t="shared" si="76"/>
+        <v>11955.874974710343</v>
       </c>
       <c r="CB32" s="3">
-        <f>CA32*(1+$AA$23)</f>
-        <v>13793.277852622945</v>
+        <f t="shared" si="76"/>
+        <v>12075.433724457447</v>
       </c>
       <c r="CC32" s="3">
-        <f>CB32*(1+$AA$23)</f>
-        <v>13931.210631149175</v>
+        <f t="shared" si="76"/>
+        <v>12196.188061702022</v>
       </c>
       <c r="CD32" s="3">
-        <f>CC32*(1+$AA$23)</f>
-        <v>14070.522737460667</v>
+        <f t="shared" si="76"/>
+        <v>12318.149942319042</v>
       </c>
       <c r="CE32" s="3">
-        <f>CD32*(1+$AA$23)</f>
-        <v>14211.227964835274</v>
+        <f t="shared" si="76"/>
+        <v>12441.331441742232</v>
       </c>
       <c r="CF32" s="3">
-        <f>CE32*(1+$AA$23)</f>
-        <v>14353.340244483627</v>
+        <f t="shared" si="76"/>
+        <v>12565.744756159655</v>
       </c>
       <c r="CG32" s="3">
-        <f>CF32*(1+$AA$23)</f>
-        <v>14496.873646928463</v>
+        <f t="shared" si="76"/>
+        <v>12691.402203721251</v>
       </c>
       <c r="CH32" s="3">
-        <f>CG32*(1+$AA$23)</f>
-        <v>14641.842383397749</v>
+        <f t="shared" si="76"/>
+        <v>12818.316225758463</v>
       </c>
       <c r="CI32" s="3">
-        <f>CH32*(1+$AA$23)</f>
-        <v>14788.260807231727</v>
+        <f t="shared" si="76"/>
+        <v>12946.499388016047</v>
       </c>
       <c r="CJ32" s="3">
-        <f>CI32*(1+$AA$23)</f>
-        <v>14936.143415304045</v>
+        <f t="shared" si="76"/>
+        <v>13075.964381896209</v>
       </c>
       <c r="CK32" s="3">
-        <f>CJ32*(1+$AA$23)</f>
-        <v>15085.504849457086</v>
+        <f t="shared" ref="CK32:DP32" si="77">CJ32*(1+$AA$23)</f>
+        <v>13206.724025715172</v>
       </c>
       <c r="CL32" s="3">
-        <f>CK32*(1+$AA$23)</f>
-        <v>15236.359897951657</v>
+        <f t="shared" si="77"/>
+        <v>13338.791265972324</v>
       </c>
       <c r="CM32" s="3">
-        <f>CL32*(1+$AA$23)</f>
-        <v>15388.723496931174</v>
+        <f t="shared" si="77"/>
+        <v>13472.179178632048</v>
       </c>
       <c r="CN32" s="3">
-        <f>CM32*(1+$AA$23)</f>
-        <v>15542.610731900486</v>
+        <f t="shared" si="77"/>
+        <v>13606.900970418368</v>
       </c>
       <c r="CO32" s="3">
-        <f>CN32*(1+$AA$23)</f>
-        <v>15698.036839219491</v>
+        <f t="shared" si="77"/>
+        <v>13742.969980122552</v>
       </c>
       <c r="CP32" s="3">
-        <f>CO32*(1+$AA$23)</f>
-        <v>15855.017207611685</v>
+        <f t="shared" si="77"/>
+        <v>13880.399679923778</v>
       </c>
       <c r="CQ32" s="3">
-        <f>CP32*(1+$AA$23)</f>
-        <v>16013.567379687802</v>
+        <f t="shared" si="77"/>
+        <v>14019.203676723015</v>
       </c>
       <c r="CR32" s="3">
-        <f>CQ32*(1+$AA$23)</f>
-        <v>16173.70305348468</v>
+        <f t="shared" si="77"/>
+        <v>14159.395713490245</v>
       </c>
       <c r="CS32" s="3">
-        <f>CR32*(1+$AA$23)</f>
-        <v>16335.440084019527</v>
+        <f t="shared" si="77"/>
+        <v>14300.989670625147</v>
       </c>
       <c r="CT32" s="3">
-        <f>CS32*(1+$AA$23)</f>
-        <v>16498.794484859722</v>
+        <f t="shared" si="77"/>
+        <v>14443.999567331399</v>
       </c>
       <c r="CU32" s="3">
-        <f>CT32*(1+$AA$23)</f>
-        <v>16663.782429708321</v>
+        <f t="shared" si="77"/>
+        <v>14588.439563004713</v>
       </c>
       <c r="CV32" s="3">
-        <f>CU32*(1+$AA$23)</f>
-        <v>16830.420254005403</v>
+        <f t="shared" si="77"/>
+        <v>14734.323958634761</v>
       </c>
       <c r="CW32" s="3">
-        <f>CV32*(1+$AA$23)</f>
-        <v>16998.724456545457</v>
+        <f t="shared" si="77"/>
+        <v>14881.667198221108</v>
       </c>
       <c r="CX32" s="3">
-        <f>CW32*(1+$AA$23)</f>
-        <v>17168.711701110911</v>
+        <f t="shared" si="77"/>
+        <v>15030.483870203319</v>
       </c>
       <c r="CY32" s="3">
-        <f>CX32*(1+$AA$23)</f>
-        <v>17340.398818122019</v>
+        <f t="shared" si="77"/>
+        <v>15180.788708905353</v>
       </c>
       <c r="CZ32" s="3">
-        <f>CY32*(1+$AA$23)</f>
-        <v>17513.80280630324</v>
+        <f t="shared" si="77"/>
+        <v>15332.596595994406</v>
       </c>
       <c r="DA32" s="3">
-        <f>CZ32*(1+$AA$23)</f>
-        <v>17688.940834366273</v>
+        <f t="shared" si="77"/>
+        <v>15485.92256195435</v>
       </c>
       <c r="DB32" s="3">
-        <f>DA32*(1+$AA$23)</f>
-        <v>17865.830242709937</v>
+        <f t="shared" si="77"/>
+        <v>15640.781787573895</v>
       </c>
       <c r="DC32" s="3">
-        <f>DB32*(1+$AA$23)</f>
-        <v>18044.488545137036</v>
+        <f t="shared" si="77"/>
+        <v>15797.189605449634</v>
       </c>
       <c r="DD32" s="3">
-        <f>DC32*(1+$AA$23)</f>
-        <v>18224.933430588408</v>
+        <f t="shared" si="77"/>
+        <v>15955.16150150413</v>
       </c>
       <c r="DE32" s="3">
-        <f>DD32*(1+$AA$23)</f>
-        <v>18407.182764894293</v>
+        <f t="shared" si="77"/>
+        <v>16114.713116519171</v>
       </c>
       <c r="DF32" s="3">
-        <f>DE32*(1+$AA$23)</f>
-        <v>18591.254592543235</v>
+        <f t="shared" si="77"/>
+        <v>16275.860247684363</v>
       </c>
       <c r="DG32" s="3">
-        <f>DF32*(1+$AA$23)</f>
-        <v>18777.167138468667</v>
+        <f t="shared" si="77"/>
+        <v>16438.618850161205</v>
       </c>
       <c r="DH32" s="3">
-        <f>DG32*(1+$AA$23)</f>
-        <v>18964.938809853353</v>
+        <f t="shared" si="77"/>
+        <v>16603.005038662817</v>
       </c>
       <c r="DI32" s="3">
-        <f>DH32*(1+$AA$23)</f>
-        <v>19154.588197951885</v>
+        <f t="shared" si="77"/>
+        <v>16769.035089049445</v>
       </c>
       <c r="DJ32" s="3">
-        <f>DI32*(1+$AA$23)</f>
-        <v>19346.134079931406</v>
+        <f t="shared" si="77"/>
+        <v>16936.725439939939</v>
       </c>
       <c r="DK32" s="3">
-        <f>DJ32*(1+$AA$23)</f>
-        <v>19539.595420730719</v>
+        <f t="shared" si="77"/>
+        <v>17106.092694339339</v>
       </c>
       <c r="DL32" s="3">
-        <f>DK32*(1+$AA$23)</f>
-        <v>19734.991374938025</v>
+        <f t="shared" si="77"/>
+        <v>17277.153621282734</v>
       </c>
       <c r="DM32" s="3">
-        <f>DL32*(1+$AA$23)</f>
-        <v>19932.341288687407</v>
+        <f t="shared" si="77"/>
+        <v>17449.925157495563</v>
       </c>
       <c r="DN32" s="3">
-        <f>DM32*(1+$AA$23)</f>
-        <v>20131.664701574282</v>
+        <f t="shared" si="77"/>
+        <v>17624.424409070518</v>
       </c>
       <c r="DO32" s="3">
-        <f>DN32*(1+$AA$23)</f>
-        <v>20332.981348590023</v>
+        <f t="shared" si="77"/>
+        <v>17800.668653161225</v>
       </c>
       <c r="DP32" s="3">
-        <f>DO32*(1+$AA$23)</f>
-        <v>20536.311162075923</v>
+        <f t="shared" si="77"/>
+        <v>17978.675339692836</v>
       </c>
       <c r="DQ32" s="3">
-        <f>DP32*(1+$AA$23)</f>
-        <v>20741.674273696681</v>
+        <f t="shared" ref="DQ32:EV32" si="78">DP32*(1+$AA$23)</f>
+        <v>18158.462093089765</v>
       </c>
       <c r="DR32" s="3">
-        <f>DQ32*(1+$AA$23)</f>
-        <v>20949.091016433649</v>
+        <f t="shared" si="78"/>
+        <v>18340.046714020664</v>
       </c>
       <c r="DS32" s="3">
-        <f>DR32*(1+$AA$23)</f>
-        <v>21158.581926597984</v>
+        <f t="shared" si="78"/>
+        <v>18523.447181160871</v>
       </c>
       <c r="DT32" s="3">
-        <f>DS32*(1+$AA$23)</f>
-        <v>21370.167745863964</v>
+        <f t="shared" si="78"/>
+        <v>18708.681652972478</v>
       </c>
       <c r="DU32" s="3">
-        <f>DT32*(1+$AA$23)</f>
-        <v>21583.869423322605</v>
+        <f t="shared" si="78"/>
+        <v>18895.768469502204</v>
       </c>
       <c r="DV32" s="3">
-        <f>DU32*(1+$AA$23)</f>
-        <v>21799.708117555831</v>
+        <f t="shared" si="78"/>
+        <v>19084.726154197226</v>
       </c>
       <c r="DW32" s="3">
-        <f>DV32*(1+$AA$23)</f>
-        <v>22017.70519873139</v>
+        <f t="shared" si="78"/>
+        <v>19275.5734157392</v>
       </c>
       <c r="DX32" s="3">
-        <f>DW32*(1+$AA$23)</f>
-        <v>22237.882250718703</v>
+        <f t="shared" si="78"/>
+        <v>19468.329149896592</v>
       </c>
       <c r="DY32" s="3">
-        <f>DX32*(1+$AA$23)</f>
-        <v>22460.261073225891</v>
+        <f t="shared" si="78"/>
+        <v>19663.012441395556</v>
       </c>
       <c r="DZ32" s="3">
-        <f>DY32*(1+$AA$23)</f>
-        <v>22684.863683958149</v>
+        <f t="shared" si="78"/>
+        <v>19859.64256580951</v>
       </c>
       <c r="EA32" s="3">
-        <f>DZ32*(1+$AA$23)</f>
-        <v>22911.712320797731</v>
+        <f t="shared" si="78"/>
+        <v>20058.238991467606</v>
       </c>
       <c r="EB32" s="3">
-        <f>EA32*(1+$AA$23)</f>
-        <v>23140.829444005707</v>
+        <f t="shared" si="78"/>
+        <v>20258.82138138228</v>
       </c>
       <c r="EC32" s="3">
-        <f>EB32*(1+$AA$23)</f>
-        <v>23372.237738445765</v>
+        <f t="shared" si="78"/>
+        <v>20461.409595196103</v>
       </c>
       <c r="ED32" s="3">
-        <f>EC32*(1+$AA$23)</f>
-        <v>23605.960115830221</v>
+        <f t="shared" si="78"/>
+        <v>20666.023691148064</v>
       </c>
       <c r="EE32" s="3">
-        <f>ED32*(1+$AA$23)</f>
-        <v>23842.019716988525</v>
+        <f t="shared" si="78"/>
+        <v>20872.683928059545</v>
       </c>
       <c r="EF32" s="3">
-        <f>EE32*(1+$AA$23)</f>
-        <v>24080.439914158411</v>
+        <f t="shared" si="78"/>
+        <v>21081.410767340141</v>
       </c>
       <c r="EG32" s="3">
-        <f>EF32*(1+$AA$23)</f>
-        <v>24321.244313299994</v>
+        <f t="shared" si="78"/>
+        <v>21292.224875013544</v>
       </c>
       <c r="EH32" s="3">
-        <f>EG32*(1+$AA$23)</f>
-        <v>24564.456756432995</v>
+        <f t="shared" si="78"/>
+        <v>21505.14712376368</v>
       </c>
       <c r="EI32" s="3">
-        <f>EH32*(1+$AA$23)</f>
-        <v>24810.101323997325</v>
+        <f t="shared" si="78"/>
+        <v>21720.198595001315</v>
       </c>
       <c r="EJ32" s="3">
-        <f>EI32*(1+$AA$23)</f>
-        <v>25058.202337237301</v>
+        <f t="shared" si="78"/>
+        <v>21937.400580951329</v>
       </c>
       <c r="EK32" s="3">
-        <f>EJ32*(1+$AA$23)</f>
-        <v>25308.784360609672</v>
+        <f t="shared" si="78"/>
+        <v>22156.774586760843</v>
       </c>
       <c r="EL32" s="3">
-        <f>EK32*(1+$AA$23)</f>
-        <v>25561.872204215768</v>
+        <f t="shared" si="78"/>
+        <v>22378.34233262845</v>
       </c>
       <c r="EM32" s="3">
-        <f>EL32*(1+$AA$23)</f>
-        <v>25817.490926257924</v>
+        <f t="shared" si="78"/>
+        <v>22602.125755954734</v>
       </c>
       <c r="EN32" s="3">
-        <f>EM32*(1+$AA$23)</f>
-        <v>26075.665835520504</v>
+        <f t="shared" si="78"/>
+        <v>22828.147013514281</v>
       </c>
       <c r="EO32" s="3">
-        <f>EN32*(1+$AA$23)</f>
-        <v>26336.422493875711</v>
+        <f t="shared" si="78"/>
+        <v>23056.428483649423</v>
       </c>
       <c r="EP32" s="3">
-        <f>EO32*(1+$AA$23)</f>
-        <v>26599.786718814466</v>
+        <f t="shared" si="78"/>
+        <v>23286.992768485918</v>
       </c>
       <c r="EQ32" s="3">
-        <f>EP32*(1+$AA$23)</f>
-        <v>26865.78458600261</v>
+        <f t="shared" si="78"/>
+        <v>23519.862696170778</v>
       </c>
       <c r="ER32" s="3">
-        <f>EQ32*(1+$AA$23)</f>
-        <v>27134.442431862637</v>
+        <f t="shared" si="78"/>
+        <v>23755.061323132486</v>
       </c>
       <c r="ES32" s="3">
-        <f>ER32*(1+$AA$23)</f>
-        <v>27405.786856181265</v>
+        <f t="shared" si="78"/>
+        <v>23992.61193636381</v>
       </c>
       <c r="ET32" s="3">
-        <f>ES32*(1+$AA$23)</f>
-        <v>27679.844724743078</v>
+        <f t="shared" si="78"/>
+        <v>24232.538055727447</v>
       </c>
       <c r="EU32" s="3">
-        <f>ET32*(1+$AA$23)</f>
-        <v>27956.643171990509</v>
+        <f t="shared" si="78"/>
+        <v>24474.863436284722</v>
       </c>
       <c r="EV32" s="3">
-        <f>EU32*(1+$AA$23)</f>
-        <v>28236.209603710413</v>
+        <f t="shared" si="78"/>
+        <v>24719.61207064757</v>
       </c>
       <c r="EW32" s="3">
-        <f>EV32*(1+$AA$23)</f>
-        <v>28518.571699747517</v>
+        <f t="shared" ref="EW32:FK32" si="79">EV32*(1+$AA$23)</f>
+        <v>24966.808191354045</v>
       </c>
       <c r="EX32" s="3">
-        <f>EW32*(1+$AA$23)</f>
-        <v>28803.757416744993</v>
+        <f t="shared" si="79"/>
+        <v>25216.476273267584</v>
       </c>
       <c r="EY32" s="3">
-        <f>EX32*(1+$AA$23)</f>
-        <v>29091.794990912444</v>
+        <f t="shared" si="79"/>
+        <v>25468.641036000259</v>
       </c>
       <c r="EZ32" s="3">
-        <f>EY32*(1+$AA$23)</f>
-        <v>29382.71294082157</v>
+        <f t="shared" si="79"/>
+        <v>25723.327446360261</v>
       </c>
       <c r="FA32" s="3">
-        <f>EZ32*(1+$AA$23)</f>
-        <v>29676.540070229785</v>
+        <f t="shared" si="79"/>
+        <v>25980.560720823865</v>
       </c>
       <c r="FB32" s="3">
-        <f>FA32*(1+$AA$23)</f>
-        <v>29973.305470932082</v>
+        <f t="shared" si="79"/>
+        <v>26240.366328032105</v>
       </c>
       <c r="FC32" s="3">
-        <f>FB32*(1+$AA$23)</f>
-        <v>30273.038525641405</v>
+        <f t="shared" si="79"/>
+        <v>26502.769991312427</v>
       </c>
       <c r="FD32" s="3">
-        <f>FC32*(1+$AA$23)</f>
-        <v>30575.768910897819</v>
+        <f t="shared" si="79"/>
+        <v>26767.797691225551</v>
       </c>
       <c r="FE32" s="3">
-        <f>FD32*(1+$AA$23)</f>
-        <v>30881.526600006797</v>
+        <f t="shared" si="79"/>
+        <v>27035.475668137806</v>
       </c>
       <c r="FF32" s="3">
-        <f>FE32*(1+$AA$23)</f>
-        <v>31190.341866006864</v>
+        <f t="shared" si="79"/>
+        <v>27305.830424819185</v>
       </c>
       <c r="FG32" s="3">
-        <f>FF32*(1+$AA$23)</f>
-        <v>31502.245284666933</v>
+        <f t="shared" si="79"/>
+        <v>27578.888729067377</v>
       </c>
       <c r="FH32" s="3">
-        <f>FG32*(1+$AA$23)</f>
-        <v>31817.267737513601</v>
+        <f t="shared" si="79"/>
+        <v>27854.677616358051</v>
       </c>
       <c r="FI32" s="3">
-        <f>FH32*(1+$AA$23)</f>
-        <v>32135.440414888737</v>
+        <f t="shared" si="79"/>
+        <v>28133.224392521632</v>
       </c>
       <c r="FJ32" s="3">
-        <f>FI32*(1+$AA$23)</f>
-        <v>32456.794819037626</v>
+        <f t="shared" si="79"/>
+        <v>28414.556636446847</v>
       </c>
       <c r="FK32" s="3">
-        <f>FJ32*(1+$AA$23)</f>
-        <v>32781.362767228005</v>
+        <f t="shared" si="79"/>
+        <v>28698.702202811317</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
@@ -4083,19 +4080,19 @@
       </c>
       <c r="J34" s="1">
         <f>I34+J19</f>
-        <v>2054.4639999999995</v>
+        <v>2021.3433918240496</v>
       </c>
       <c r="K34" s="1">
         <f>J34+K19</f>
-        <v>3191.5036159999995</v>
+        <v>3261.3433918240498</v>
       </c>
       <c r="L34" s="1">
         <f>K34+L19</f>
-        <v>4355.6678256640007</v>
+        <v>4391.3282798450873</v>
       </c>
       <c r="M34" s="1">
         <f>L34+M19</f>
-        <v>5616.6005477826566</v>
+        <v>5615.1882685745095</v>
       </c>
       <c r="S34" s="1">
         <f>S38-S45</f>
@@ -4103,23 +4100,23 @@
       </c>
       <c r="T34" s="1">
         <f>M34</f>
-        <v>5616.6005477826566</v>
+        <v>5615.1882685745095</v>
       </c>
       <c r="U34" s="1">
         <f>T34+U19</f>
-        <v>10568.405062863983</v>
+        <v>10421.463618497481</v>
       </c>
       <c r="V34" s="1">
         <f>U34+V19</f>
-        <v>15842.535395502451</v>
+        <v>15540.460990900514</v>
       </c>
       <c r="W34" s="1">
         <f>V34+W19</f>
-        <v>21456.303606044763</v>
+        <v>20988.975018987348</v>
       </c>
       <c r="X34" s="1">
         <f>W34+X19</f>
-        <v>27427.906490166468</v>
+        <v>26784.658604135191</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
@@ -4222,11 +4219,11 @@
         <v>0.15787130916464709</v>
       </c>
       <c r="R42" s="4">
-        <f t="shared" ref="R42:S42" si="66">R41/R40*-1-1</f>
+        <f t="shared" ref="R42:S42" si="80">R41/R40*-1-1</f>
         <v>0.10532302092811641</v>
       </c>
       <c r="S42" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>2.8730588729062534E-2</v>
       </c>
     </row>

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAD746D-FDCF-4915-8581-F2C53FA57C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EDA02F-DC92-4567-AA4A-F08A39B557A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="1260" windowWidth="21945" windowHeight="13935" activeTab="1" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
+    <workbookView xWindow="2925" yWindow="750" windowWidth="21945" windowHeight="13935" activeTab="1" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="5">
-        <v>68.5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
       </c>
       <c r="P4" s="1">
         <f>P3*P2</f>
-        <v>67763.07699999999</v>
+        <v>73203.907999999996</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -786,7 +786,7 @@
       </c>
       <c r="P7" s="1">
         <f>P4+P6-P5</f>
-        <v>66819.07699999999</v>
+        <v>72259.907999999996</v>
       </c>
     </row>
   </sheetData>
@@ -802,7 +802,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y27" sqref="Y27"/>
+      <selection pane="bottomRight" activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="AA27" s="4">
         <f>AA26/Main!P2-1</f>
-        <v>0.39503926468955974</v>
+        <v>0.29135391393560606</v>
       </c>
     </row>
     <row r="28" spans="1:170" x14ac:dyDescent="0.2">

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EDA02F-DC92-4567-AA4A-F08A39B557A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426C9D8E-EE66-4A5E-8DCA-4DB469ACC8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="750" windowWidth="21945" windowHeight="13935" activeTab="1" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
+    <workbookView xWindow="1560" yWindow="1650" windowWidth="23385" windowHeight="13110" activeTab="1" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -214,13 +214,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -262,19 +268,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,7 +724,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -733,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="5">
-        <v>74</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -741,10 +748,11 @@
         <v>1</v>
       </c>
       <c r="P3" s="1">
-        <v>989.24199999999996</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>10</v>
+        <f>972.533</f>
+        <v>972.53300000000002</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -753,7 +761,7 @@
       </c>
       <c r="P4" s="1">
         <f>P3*P2</f>
-        <v>73203.907999999996</v>
+        <v>74398.7745</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -761,11 +769,11 @@
         <v>3</v>
       </c>
       <c r="P5" s="1">
-        <f>6561+4262</f>
-        <v>10823</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>10</v>
+        <f>7449+3762</f>
+        <v>11211</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -773,11 +781,11 @@
         <v>4</v>
       </c>
       <c r="P6" s="1">
-        <f>9879</f>
-        <v>9879</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>10</v>
+        <f>11417+2981</f>
+        <v>14398</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -786,7 +794,7 @@
       </c>
       <c r="P7" s="1">
         <f>P4+P6-P5</f>
-        <v>72259.907999999996</v>
+        <v>77585.7745</v>
       </c>
     </row>
   </sheetData>
@@ -802,7 +810,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V31" sqref="V31"/>
+      <selection pane="bottomRight" activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3117,7 +3125,7 @@
       </c>
       <c r="AA25" s="3">
         <f>NPV(AA24,T32:XFD32)+Main!P5-Main!P6</f>
-        <v>94532.153111182022</v>
+        <v>92630.331591775132</v>
       </c>
     </row>
     <row r="26" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3217,7 +3225,7 @@
       </c>
       <c r="AA26" s="5">
         <f>AA25/Main!P3</f>
-        <v>95.560189631234849</v>
+        <v>95.246466281118614</v>
       </c>
     </row>
     <row r="27" spans="1:170" x14ac:dyDescent="0.2">
@@ -3317,7 +3325,7 @@
       </c>
       <c r="AA27" s="4">
         <f>AA26/Main!P2-1</f>
-        <v>0.29135391393560606</v>
+        <v>0.24505184681200798</v>
       </c>
     </row>
     <row r="28" spans="1:170" x14ac:dyDescent="0.2">
@@ -3356,19 +3364,19 @@
       </c>
       <c r="U28" s="4">
         <f t="shared" si="71"/>
-        <v>0.17456630073120302</v>
+        <v>0.17901007216906345</v>
       </c>
       <c r="V28" s="4">
         <f t="shared" si="71"/>
-        <v>0.17456630073120299</v>
+        <v>0.17901007216906342</v>
       </c>
       <c r="W28" s="4">
         <f t="shared" si="71"/>
-        <v>0.17456630073120299</v>
+        <v>0.17901007216906339</v>
       </c>
       <c r="X28" s="4">
         <f t="shared" si="71"/>
-        <v>0.17456630073120297</v>
+        <v>0.17901007216906337</v>
       </c>
       <c r="AA28" s="4"/>
     </row>
@@ -3431,19 +3439,20 @@
         <v>1000</v>
       </c>
       <c r="U31" s="1">
-        <v>1900</v>
+        <f>S31*-1.1</f>
+        <v>1747.9</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="72"/>
-        <v>1995</v>
+        <v>1835.2950000000001</v>
       </c>
       <c r="W31" s="1">
         <f t="shared" si="72"/>
-        <v>2094.75</v>
+        <v>1927.0597500000001</v>
       </c>
       <c r="X31" s="1">
         <f t="shared" si="72"/>
-        <v>2199.4875000000002</v>
+        <v>2023.4127375000003</v>
       </c>
       <c r="AB31" s="5"/>
     </row>
@@ -3472,591 +3481,591 @@
       </c>
       <c r="U32" s="3">
         <f>U30-U31</f>
-        <v>5975</v>
+        <v>6127.1</v>
       </c>
       <c r="V32" s="3">
         <f t="shared" ref="V32:X32" si="74">V30-V31</f>
-        <v>6273.75</v>
+        <v>6433.4549999999999</v>
       </c>
       <c r="W32" s="3">
         <f t="shared" si="74"/>
-        <v>6587.4375</v>
+        <v>6755.1277499999997</v>
       </c>
       <c r="X32" s="3">
         <f t="shared" si="74"/>
-        <v>6916.8093749999998</v>
+        <v>7092.8841374999993</v>
       </c>
       <c r="Y32" s="3">
         <f t="shared" ref="Y32:BD32" si="75">X32*(1+$AA$23)</f>
-        <v>6985.9774687500003</v>
+        <v>7163.8129788749993</v>
       </c>
       <c r="Z32" s="3">
         <f t="shared" si="75"/>
-        <v>7055.8372434375005</v>
+        <v>7235.4511086637494</v>
       </c>
       <c r="AA32" s="3">
         <f t="shared" si="75"/>
-        <v>7126.3956158718756</v>
+        <v>7307.8056197503875</v>
       </c>
       <c r="AB32" s="3">
         <f t="shared" si="75"/>
-        <v>7197.6595720305941</v>
+        <v>7380.8836759478918</v>
       </c>
       <c r="AC32" s="3">
         <f t="shared" si="75"/>
-        <v>7269.6361677509003</v>
+        <v>7454.692512707371</v>
       </c>
       <c r="AD32" s="3">
         <f t="shared" si="75"/>
-        <v>7342.3325294284095</v>
+        <v>7529.2394378344443</v>
       </c>
       <c r="AE32" s="3">
         <f t="shared" si="75"/>
-        <v>7415.7558547226936</v>
+        <v>7604.5318322127887</v>
       </c>
       <c r="AF32" s="3">
         <f t="shared" si="75"/>
-        <v>7489.913413269921</v>
+        <v>7680.5771505349167</v>
       </c>
       <c r="AG32" s="3">
         <f t="shared" si="75"/>
-        <v>7564.8125474026201</v>
+        <v>7757.3829220402658</v>
       </c>
       <c r="AH32" s="3">
         <f t="shared" si="75"/>
-        <v>7640.4606728766466</v>
+        <v>7834.9567512606682</v>
       </c>
       <c r="AI32" s="3">
         <f t="shared" si="75"/>
-        <v>7716.865279605413</v>
+        <v>7913.3063187732751</v>
       </c>
       <c r="AJ32" s="3">
         <f t="shared" si="75"/>
-        <v>7794.0339324014676</v>
+        <v>7992.4393819610077</v>
       </c>
       <c r="AK32" s="3">
         <f t="shared" si="75"/>
-        <v>7871.9742717254821</v>
+        <v>8072.3637757806182</v>
       </c>
       <c r="AL32" s="3">
         <f t="shared" si="75"/>
-        <v>7950.6940144427372</v>
+        <v>8153.0874135384247</v>
       </c>
       <c r="AM32" s="3">
         <f t="shared" si="75"/>
-        <v>8030.2009545871642</v>
+        <v>8234.6182876738094</v>
       </c>
       <c r="AN32" s="3">
         <f t="shared" si="75"/>
-        <v>8110.5029641330357</v>
+        <v>8316.964470550547</v>
       </c>
       <c r="AO32" s="3">
         <f t="shared" si="75"/>
-        <v>8191.6079937743662</v>
+        <v>8400.1341152560526</v>
       </c>
       <c r="AP32" s="3">
         <f t="shared" si="75"/>
-        <v>8273.5240737121094</v>
+        <v>8484.1354564086141</v>
       </c>
       <c r="AQ32" s="3">
         <f t="shared" si="75"/>
-        <v>8356.2593144492312</v>
+        <v>8568.9768109727011</v>
       </c>
       <c r="AR32" s="3">
         <f t="shared" si="75"/>
-        <v>8439.8219075937232</v>
+        <v>8654.6665790824281</v>
       </c>
       <c r="AS32" s="3">
         <f t="shared" si="75"/>
-        <v>8524.2201266696611</v>
+        <v>8741.2132448732518</v>
       </c>
       <c r="AT32" s="3">
         <f t="shared" si="75"/>
-        <v>8609.4623279363586</v>
+        <v>8828.6253773219851</v>
       </c>
       <c r="AU32" s="3">
         <f t="shared" si="75"/>
-        <v>8695.5569512157217</v>
+        <v>8916.9116310952049</v>
       </c>
       <c r="AV32" s="3">
         <f t="shared" si="75"/>
-        <v>8782.5125207278797</v>
+        <v>9006.0807474061567</v>
       </c>
       <c r="AW32" s="3">
         <f t="shared" si="75"/>
-        <v>8870.3376459351584</v>
+        <v>9096.1415548802179</v>
       </c>
       <c r="AX32" s="3">
         <f t="shared" si="75"/>
-        <v>8959.0410223945109</v>
+        <v>9187.1029704290195</v>
       </c>
       <c r="AY32" s="3">
         <f t="shared" si="75"/>
-        <v>9048.6314326184565</v>
+        <v>9278.9740001333103</v>
       </c>
       <c r="AZ32" s="3">
         <f t="shared" si="75"/>
-        <v>9139.1177469446411</v>
+        <v>9371.7637401346437</v>
       </c>
       <c r="BA32" s="3">
         <f t="shared" si="75"/>
-        <v>9230.5089244140872</v>
+        <v>9465.4813775359908</v>
       </c>
       <c r="BB32" s="3">
         <f t="shared" si="75"/>
-        <v>9322.8140136582279</v>
+        <v>9560.1361913113506</v>
       </c>
       <c r="BC32" s="3">
         <f t="shared" si="75"/>
-        <v>9416.0421537948096</v>
+        <v>9655.7375532244641</v>
       </c>
       <c r="BD32" s="3">
         <f t="shared" si="75"/>
-        <v>9510.202575332758</v>
+        <v>9752.294928756708</v>
       </c>
       <c r="BE32" s="3">
         <f t="shared" ref="BE32:CJ32" si="76">BD32*(1+$AA$23)</f>
-        <v>9605.3046010860853</v>
+        <v>9849.8178780442759</v>
       </c>
       <c r="BF32" s="3">
         <f t="shared" si="76"/>
-        <v>9701.3576470969456</v>
+        <v>9948.3160568247185</v>
       </c>
       <c r="BG32" s="3">
         <f t="shared" si="76"/>
-        <v>9798.3712235679159</v>
+        <v>10047.799217392965</v>
       </c>
       <c r="BH32" s="3">
         <f t="shared" si="76"/>
-        <v>9896.3549358035943</v>
+        <v>10148.277209566895</v>
       </c>
       <c r="BI32" s="3">
         <f t="shared" si="76"/>
-        <v>9995.3184851616297</v>
+        <v>10249.759981662564</v>
       </c>
       <c r="BJ32" s="3">
         <f t="shared" si="76"/>
-        <v>10095.271670013246</v>
+        <v>10352.257581479191</v>
       </c>
       <c r="BK32" s="3">
         <f t="shared" si="76"/>
-        <v>10196.224386713378</v>
+        <v>10455.780157293982</v>
       </c>
       <c r="BL32" s="3">
         <f t="shared" si="76"/>
-        <v>10298.186630580512</v>
+        <v>10560.337958866923</v>
       </c>
       <c r="BM32" s="3">
         <f t="shared" si="76"/>
-        <v>10401.168496886317</v>
+        <v>10665.941338455592</v>
       </c>
       <c r="BN32" s="3">
         <f t="shared" si="76"/>
-        <v>10505.180181855181</v>
+        <v>10772.600751840147</v>
       </c>
       <c r="BO32" s="3">
         <f t="shared" si="76"/>
-        <v>10610.231983673733</v>
+        <v>10880.32675935855</v>
       </c>
       <c r="BP32" s="3">
         <f t="shared" si="76"/>
-        <v>10716.33430351047</v>
+        <v>10989.130026952136</v>
       </c>
       <c r="BQ32" s="3">
         <f t="shared" si="76"/>
-        <v>10823.497646545575</v>
+        <v>11099.021327221657</v>
       </c>
       <c r="BR32" s="3">
         <f t="shared" si="76"/>
-        <v>10931.73262301103</v>
+        <v>11210.011540493873</v>
       </c>
       <c r="BS32" s="3">
         <f t="shared" si="76"/>
-        <v>11041.04994924114</v>
+        <v>11322.111655898812</v>
       </c>
       <c r="BT32" s="3">
         <f t="shared" si="76"/>
-        <v>11151.460448733551</v>
+        <v>11435.332772457801</v>
       </c>
       <c r="BU32" s="3">
         <f t="shared" si="76"/>
-        <v>11262.975053220887</v>
+        <v>11549.68610018238</v>
       </c>
       <c r="BV32" s="3">
         <f t="shared" si="76"/>
-        <v>11375.604803753096</v>
+        <v>11665.182961184204</v>
       </c>
       <c r="BW32" s="3">
         <f t="shared" si="76"/>
-        <v>11489.360851790627</v>
+        <v>11781.834790796047</v>
       </c>
       <c r="BX32" s="3">
         <f t="shared" si="76"/>
-        <v>11604.254460308533</v>
+        <v>11899.653138704007</v>
       </c>
       <c r="BY32" s="3">
         <f t="shared" si="76"/>
-        <v>11720.297004911619</v>
+        <v>12018.649670091047</v>
       </c>
       <c r="BZ32" s="3">
         <f t="shared" si="76"/>
-        <v>11837.499974960736</v>
+        <v>12138.836166791958</v>
       </c>
       <c r="CA32" s="3">
         <f t="shared" si="76"/>
-        <v>11955.874974710343</v>
+        <v>12260.224528459878</v>
       </c>
       <c r="CB32" s="3">
         <f t="shared" si="76"/>
-        <v>12075.433724457447</v>
+        <v>12382.826773744477</v>
       </c>
       <c r="CC32" s="3">
         <f t="shared" si="76"/>
-        <v>12196.188061702022</v>
+        <v>12506.655041481921</v>
       </c>
       <c r="CD32" s="3">
         <f t="shared" si="76"/>
-        <v>12318.149942319042</v>
+        <v>12631.721591896741</v>
       </c>
       <c r="CE32" s="3">
         <f t="shared" si="76"/>
-        <v>12441.331441742232</v>
+        <v>12758.038807815708</v>
       </c>
       <c r="CF32" s="3">
         <f t="shared" si="76"/>
-        <v>12565.744756159655</v>
+        <v>12885.619195893865</v>
       </c>
       <c r="CG32" s="3">
         <f t="shared" si="76"/>
-        <v>12691.402203721251</v>
+        <v>13014.475387852804</v>
       </c>
       <c r="CH32" s="3">
         <f t="shared" si="76"/>
-        <v>12818.316225758463</v>
+        <v>13144.620141731333</v>
       </c>
       <c r="CI32" s="3">
         <f t="shared" si="76"/>
-        <v>12946.499388016047</v>
+        <v>13276.066343148646</v>
       </c>
       <c r="CJ32" s="3">
         <f t="shared" si="76"/>
-        <v>13075.964381896209</v>
+        <v>13408.827006580133</v>
       </c>
       <c r="CK32" s="3">
         <f t="shared" ref="CK32:DP32" si="77">CJ32*(1+$AA$23)</f>
-        <v>13206.724025715172</v>
+        <v>13542.915276645936</v>
       </c>
       <c r="CL32" s="3">
         <f t="shared" si="77"/>
-        <v>13338.791265972324</v>
+        <v>13678.344429412395</v>
       </c>
       <c r="CM32" s="3">
         <f t="shared" si="77"/>
-        <v>13472.179178632048</v>
+        <v>13815.127873706519</v>
       </c>
       <c r="CN32" s="3">
         <f t="shared" si="77"/>
-        <v>13606.900970418368</v>
+        <v>13953.279152443583</v>
       </c>
       <c r="CO32" s="3">
         <f t="shared" si="77"/>
-        <v>13742.969980122552</v>
+        <v>14092.811943968019</v>
       </c>
       <c r="CP32" s="3">
         <f t="shared" si="77"/>
-        <v>13880.399679923778</v>
+        <v>14233.7400634077</v>
       </c>
       <c r="CQ32" s="3">
         <f t="shared" si="77"/>
-        <v>14019.203676723015</v>
+        <v>14376.077464041777</v>
       </c>
       <c r="CR32" s="3">
         <f t="shared" si="77"/>
-        <v>14159.395713490245</v>
+        <v>14519.838238682194</v>
       </c>
       <c r="CS32" s="3">
         <f t="shared" si="77"/>
-        <v>14300.989670625147</v>
+        <v>14665.036621069015</v>
       </c>
       <c r="CT32" s="3">
         <f t="shared" si="77"/>
-        <v>14443.999567331399</v>
+        <v>14811.686987279705</v>
       </c>
       <c r="CU32" s="3">
         <f t="shared" si="77"/>
-        <v>14588.439563004713</v>
+        <v>14959.803857152503</v>
       </c>
       <c r="CV32" s="3">
         <f t="shared" si="77"/>
-        <v>14734.323958634761</v>
+        <v>15109.401895724028</v>
       </c>
       <c r="CW32" s="3">
         <f t="shared" si="77"/>
-        <v>14881.667198221108</v>
+        <v>15260.495914681269</v>
       </c>
       <c r="CX32" s="3">
         <f t="shared" si="77"/>
-        <v>15030.483870203319</v>
+        <v>15413.100873828082</v>
       </c>
       <c r="CY32" s="3">
         <f t="shared" si="77"/>
-        <v>15180.788708905353</v>
+        <v>15567.231882566362</v>
       </c>
       <c r="CZ32" s="3">
         <f t="shared" si="77"/>
-        <v>15332.596595994406</v>
+        <v>15722.904201392026</v>
       </c>
       <c r="DA32" s="3">
         <f t="shared" si="77"/>
-        <v>15485.92256195435</v>
+        <v>15880.133243405946</v>
       </c>
       <c r="DB32" s="3">
         <f t="shared" si="77"/>
-        <v>15640.781787573895</v>
+        <v>16038.934575840005</v>
       </c>
       <c r="DC32" s="3">
         <f t="shared" si="77"/>
-        <v>15797.189605449634</v>
+        <v>16199.323921598405</v>
       </c>
       <c r="DD32" s="3">
         <f t="shared" si="77"/>
-        <v>15955.16150150413</v>
+        <v>16361.317160814389</v>
       </c>
       <c r="DE32" s="3">
         <f t="shared" si="77"/>
-        <v>16114.713116519171</v>
+        <v>16524.930332422533</v>
       </c>
       <c r="DF32" s="3">
         <f t="shared" si="77"/>
-        <v>16275.860247684363</v>
+        <v>16690.179635746757</v>
       </c>
       <c r="DG32" s="3">
         <f t="shared" si="77"/>
-        <v>16438.618850161205</v>
+        <v>16857.081432104223</v>
       </c>
       <c r="DH32" s="3">
         <f t="shared" si="77"/>
-        <v>16603.005038662817</v>
+        <v>17025.652246425267</v>
       </c>
       <c r="DI32" s="3">
         <f t="shared" si="77"/>
-        <v>16769.035089049445</v>
+        <v>17195.90876888952</v>
       </c>
       <c r="DJ32" s="3">
         <f t="shared" si="77"/>
-        <v>16936.725439939939</v>
+        <v>17367.867856578414</v>
       </c>
       <c r="DK32" s="3">
         <f t="shared" si="77"/>
-        <v>17106.092694339339</v>
+        <v>17541.5465351442</v>
       </c>
       <c r="DL32" s="3">
         <f t="shared" si="77"/>
-        <v>17277.153621282734</v>
+        <v>17716.962000495641</v>
       </c>
       <c r="DM32" s="3">
         <f t="shared" si="77"/>
-        <v>17449.925157495563</v>
+        <v>17894.131620500597</v>
       </c>
       <c r="DN32" s="3">
         <f t="shared" si="77"/>
-        <v>17624.424409070518</v>
+        <v>18073.072936705605</v>
       </c>
       <c r="DO32" s="3">
         <f t="shared" si="77"/>
-        <v>17800.668653161225</v>
+        <v>18253.803666072661</v>
       </c>
       <c r="DP32" s="3">
         <f t="shared" si="77"/>
-        <v>17978.675339692836</v>
+        <v>18436.341702733389</v>
       </c>
       <c r="DQ32" s="3">
         <f t="shared" ref="DQ32:EV32" si="78">DP32*(1+$AA$23)</f>
-        <v>18158.462093089765</v>
+        <v>18620.705119760722</v>
       </c>
       <c r="DR32" s="3">
         <f t="shared" si="78"/>
-        <v>18340.046714020664</v>
+        <v>18806.912170958331</v>
       </c>
       <c r="DS32" s="3">
         <f t="shared" si="78"/>
-        <v>18523.447181160871</v>
+        <v>18994.981292667915</v>
       </c>
       <c r="DT32" s="3">
         <f t="shared" si="78"/>
-        <v>18708.681652972478</v>
+        <v>19184.931105594595</v>
       </c>
       <c r="DU32" s="3">
         <f t="shared" si="78"/>
-        <v>18895.768469502204</v>
+        <v>19376.780416650541</v>
       </c>
       <c r="DV32" s="3">
         <f t="shared" si="78"/>
-        <v>19084.726154197226</v>
+        <v>19570.548220817047</v>
       </c>
       <c r="DW32" s="3">
         <f t="shared" si="78"/>
-        <v>19275.5734157392</v>
+        <v>19766.253703025217</v>
       </c>
       <c r="DX32" s="3">
         <f t="shared" si="78"/>
-        <v>19468.329149896592</v>
+        <v>19963.916240055471</v>
       </c>
       <c r="DY32" s="3">
         <f t="shared" si="78"/>
-        <v>19663.012441395556</v>
+        <v>20163.555402456026</v>
       </c>
       <c r="DZ32" s="3">
         <f t="shared" si="78"/>
-        <v>19859.64256580951</v>
+        <v>20365.190956480586</v>
       </c>
       <c r="EA32" s="3">
         <f t="shared" si="78"/>
-        <v>20058.238991467606</v>
+        <v>20568.842866045394</v>
       </c>
       <c r="EB32" s="3">
         <f t="shared" si="78"/>
-        <v>20258.82138138228</v>
+        <v>20774.531294705848</v>
       </c>
       <c r="EC32" s="3">
         <f t="shared" si="78"/>
-        <v>20461.409595196103</v>
+        <v>20982.276607652908</v>
       </c>
       <c r="ED32" s="3">
         <f t="shared" si="78"/>
-        <v>20666.023691148064</v>
+        <v>21192.099373729438</v>
       </c>
       <c r="EE32" s="3">
         <f t="shared" si="78"/>
-        <v>20872.683928059545</v>
+        <v>21404.020367466732</v>
       </c>
       <c r="EF32" s="3">
         <f t="shared" si="78"/>
-        <v>21081.410767340141</v>
+        <v>21618.060571141399</v>
       </c>
       <c r="EG32" s="3">
         <f t="shared" si="78"/>
-        <v>21292.224875013544</v>
+        <v>21834.241176852815</v>
       </c>
       <c r="EH32" s="3">
         <f t="shared" si="78"/>
-        <v>21505.14712376368</v>
+        <v>22052.583588621343</v>
       </c>
       <c r="EI32" s="3">
         <f t="shared" si="78"/>
-        <v>21720.198595001315</v>
+        <v>22273.109424507555</v>
       </c>
       <c r="EJ32" s="3">
         <f t="shared" si="78"/>
-        <v>21937.400580951329</v>
+        <v>22495.84051875263</v>
       </c>
       <c r="EK32" s="3">
         <f t="shared" si="78"/>
-        <v>22156.774586760843</v>
+        <v>22720.798923940158</v>
       </c>
       <c r="EL32" s="3">
         <f t="shared" si="78"/>
-        <v>22378.34233262845</v>
+        <v>22948.006913179561</v>
       </c>
       <c r="EM32" s="3">
         <f t="shared" si="78"/>
-        <v>22602.125755954734</v>
+        <v>23177.486982311355</v>
       </c>
       <c r="EN32" s="3">
         <f t="shared" si="78"/>
-        <v>22828.147013514281</v>
+        <v>23409.26185213447</v>
       </c>
       <c r="EO32" s="3">
         <f t="shared" si="78"/>
-        <v>23056.428483649423</v>
+        <v>23643.354470655817</v>
       </c>
       <c r="EP32" s="3">
         <f t="shared" si="78"/>
-        <v>23286.992768485918</v>
+        <v>23879.788015362374</v>
       </c>
       <c r="EQ32" s="3">
         <f t="shared" si="78"/>
-        <v>23519.862696170778</v>
+        <v>24118.585895515997</v>
       </c>
       <c r="ER32" s="3">
         <f t="shared" si="78"/>
-        <v>23755.061323132486</v>
+        <v>24359.771754471156</v>
       </c>
       <c r="ES32" s="3">
         <f t="shared" si="78"/>
-        <v>23992.61193636381</v>
+        <v>24603.369472015867</v>
       </c>
       <c r="ET32" s="3">
         <f t="shared" si="78"/>
-        <v>24232.538055727447</v>
+        <v>24849.403166736025</v>
       </c>
       <c r="EU32" s="3">
         <f t="shared" si="78"/>
-        <v>24474.863436284722</v>
+        <v>25097.897198403385</v>
       </c>
       <c r="EV32" s="3">
         <f t="shared" si="78"/>
-        <v>24719.61207064757</v>
+        <v>25348.876170387419</v>
       </c>
       <c r="EW32" s="3">
         <f t="shared" ref="EW32:FK32" si="79">EV32*(1+$AA$23)</f>
-        <v>24966.808191354045</v>
+        <v>25602.364932091292</v>
       </c>
       <c r="EX32" s="3">
         <f t="shared" si="79"/>
-        <v>25216.476273267584</v>
+        <v>25858.388581412204</v>
       </c>
       <c r="EY32" s="3">
         <f t="shared" si="79"/>
-        <v>25468.641036000259</v>
+        <v>26116.972467226326</v>
       </c>
       <c r="EZ32" s="3">
         <f t="shared" si="79"/>
-        <v>25723.327446360261</v>
+        <v>26378.142191898591</v>
       </c>
       <c r="FA32" s="3">
         <f t="shared" si="79"/>
-        <v>25980.560720823865</v>
+        <v>26641.923613817577</v>
       </c>
       <c r="FB32" s="3">
         <f t="shared" si="79"/>
-        <v>26240.366328032105</v>
+        <v>26908.342849955752</v>
       </c>
       <c r="FC32" s="3">
         <f t="shared" si="79"/>
-        <v>26502.769991312427</v>
+        <v>27177.42627845531</v>
       </c>
       <c r="FD32" s="3">
         <f t="shared" si="79"/>
-        <v>26767.797691225551</v>
+        <v>27449.200541239865</v>
       </c>
       <c r="FE32" s="3">
         <f t="shared" si="79"/>
-        <v>27035.475668137806</v>
+        <v>27723.692546652263</v>
       </c>
       <c r="FF32" s="3">
         <f t="shared" si="79"/>
-        <v>27305.830424819185</v>
+        <v>28000.929472118787</v>
       </c>
       <c r="FG32" s="3">
         <f t="shared" si="79"/>
-        <v>27578.888729067377</v>
+        <v>28280.938766839976</v>
       </c>
       <c r="FH32" s="3">
         <f t="shared" si="79"/>
-        <v>27854.677616358051</v>
+        <v>28563.748154508376</v>
       </c>
       <c r="FI32" s="3">
         <f t="shared" si="79"/>
-        <v>28133.224392521632</v>
+        <v>28849.385636053459</v>
       </c>
       <c r="FJ32" s="3">
         <f t="shared" si="79"/>
-        <v>28414.556636446847</v>
+        <v>29137.879492413995</v>
       </c>
       <c r="FK32" s="3">
         <f t="shared" si="79"/>
-        <v>28698.702202811317</v>
+        <v>29429.258287338136</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426C9D8E-EE66-4A5E-8DCA-4DB469ACC8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EDED11-7E50-4EC8-ACCD-0FF83533BE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1650" windowWidth="23385" windowHeight="13110" activeTab="1" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
+    <workbookView xWindow="2580" yWindow="1890" windowWidth="22620" windowHeight="13140" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CAB345-9A71-4A10-9FCC-8B1DB985BF5A}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="5">
-        <v>76.5</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -761,7 +761,7 @@
       </c>
       <c r="P4" s="1">
         <f>P3*P2</f>
-        <v>74398.7745</v>
+        <v>69536.109500000006</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -794,7 +794,7 @@
       </c>
       <c r="P7" s="1">
         <f>P4+P6-P5</f>
-        <v>77585.7745</v>
+        <v>72723.109500000006</v>
       </c>
     </row>
   </sheetData>
@@ -806,7 +806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C351E4BD-0CCB-4B4B-8440-0A8537A331C4}">
   <dimension ref="A1:FN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="AA27" s="4">
         <f>AA26/Main!P2-1</f>
-        <v>0.24505184681200798</v>
+        <v>0.33211840952613447</v>
       </c>
     </row>
     <row r="28" spans="1:170" x14ac:dyDescent="0.2">

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EDED11-7E50-4EC8-ACCD-0FF83533BE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066A64A3-C4EE-42D8-8B71-EBD3CE2A87F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1890" windowWidth="22620" windowHeight="13140" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
+    <workbookView xWindow="1605" yWindow="1425" windowWidth="22335" windowHeight="13875" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>Price</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>FCF Margin</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Do they have an advantage in the payments industry or just a large moat of integrations?</t>
+  </si>
+  <si>
+    <t>What is their value prop?</t>
   </si>
 </sst>
 </file>
@@ -214,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,7 +250,21 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -268,20 +291,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CAB345-9A71-4A10-9FCC-8B1DB985BF5A}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -740,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="5">
-        <v>71.5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -761,7 +786,7 @@
       </c>
       <c r="P4" s="1">
         <f>P3*P2</f>
-        <v>69536.109500000006</v>
+        <v>65159.711000000003</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -794,7 +819,22 @@
       </c>
       <c r="P7" s="1">
         <f>P4+P6-P5</f>
-        <v>72723.109500000006</v>
+        <v>68346.71100000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L9" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L10" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L11" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -807,10 +847,10 @@
   <dimension ref="A1:FN45"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y26" sqref="Y26"/>
+      <selection pane="bottomRight" activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -959,16 +999,16 @@
         <v>7791</v>
       </c>
       <c r="K4" s="3">
-        <f>J4*1.02</f>
-        <v>7946.82</v>
+        <f>J4*1.04</f>
+        <v>8102.64</v>
       </c>
       <c r="L4" s="3">
-        <f>K4*1.02</f>
-        <v>8105.7564000000002</v>
+        <f t="shared" ref="L4:M4" si="1">K4*1.04</f>
+        <v>8426.7456000000002</v>
       </c>
       <c r="M4" s="3">
-        <f>L4*1.08</f>
-        <v>8754.2169120000017</v>
+        <f t="shared" si="1"/>
+        <v>8763.8154240000003</v>
       </c>
       <c r="Q4" s="3">
         <v>27518</v>
@@ -981,23 +1021,23 @@
       </c>
       <c r="T4" s="3">
         <f>SUM(J4:M4)</f>
-        <v>32597.793312000002</v>
+        <v>33084.201024000002</v>
       </c>
       <c r="U4" s="3">
         <f>T4*1.05</f>
-        <v>34227.682977600001</v>
+        <v>34738.411075200005</v>
       </c>
       <c r="V4" s="3">
-        <f t="shared" ref="V4:X4" si="1">U4*1.05</f>
-        <v>35939.067126480004</v>
+        <f t="shared" ref="V4:X4" si="2">U4*1.05</f>
+        <v>36475.331628960004</v>
       </c>
       <c r="W4" s="3">
-        <f t="shared" si="1"/>
-        <v>37736.020482804008</v>
+        <f t="shared" si="2"/>
+        <v>38299.098210408003</v>
       </c>
       <c r="X4" s="3">
-        <f t="shared" si="1"/>
-        <v>39622.821506944209</v>
+        <f t="shared" si="2"/>
+        <v>40214.053120928402</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1033,16 +1073,16 @@
         <v>3722.2838871623235</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:M5" si="2">J5*(1+K24)</f>
-        <v>3796.72956490557</v>
+        <f t="shared" ref="K5:M5" si="3">J5*(1+K24)</f>
+        <v>3871.1752426488165</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="2"/>
-        <v>3872.6641562036816</v>
+        <f t="shared" si="3"/>
+        <v>4026.0222523547691</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="2"/>
-        <v>4182.4772886999763</v>
+        <f t="shared" si="3"/>
+        <v>4187.0631424489602</v>
       </c>
       <c r="Q5" s="1">
         <v>12173</v>
@@ -1055,23 +1095,23 @@
       </c>
       <c r="T5" s="1">
         <f>SUM(J5:M5)</f>
-        <v>15574.154896971551</v>
+        <v>15806.544524614868</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" ref="U5:X5" si="3">T5*(1+U23)</f>
-        <v>16352.862641820129</v>
+        <f t="shared" ref="U5:X5" si="4">T5*(1+U23)</f>
+        <v>16596.871750845614</v>
       </c>
       <c r="V5" s="1">
-        <f t="shared" si="3"/>
-        <v>17170.505773911136</v>
+        <f t="shared" si="4"/>
+        <v>17426.715338387894</v>
       </c>
       <c r="W5" s="1">
-        <f t="shared" si="3"/>
-        <v>18029.031062606693</v>
+        <f t="shared" si="4"/>
+        <v>18298.051105307288</v>
       </c>
       <c r="X5" s="1">
-        <f t="shared" si="3"/>
-        <v>18930.48261573703</v>
+        <f t="shared" si="4"/>
+        <v>19212.953660572653</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -1107,16 +1147,16 @@
         <v>404.17092995457807</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="K6:M6" si="4">J6*(1+K24)</f>
-        <v>412.25434855366962</v>
+        <f t="shared" ref="K6:M6" si="5">J6*(1+K24)</f>
+        <v>420.33776715276122</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="4"/>
-        <v>420.49943552474303</v>
+        <f t="shared" si="5"/>
+        <v>437.15127783887169</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="4"/>
-        <v>454.13939036672252</v>
+        <f t="shared" si="5"/>
+        <v>454.63732895242657</v>
       </c>
       <c r="Q6" s="1">
         <v>1572</v>
@@ -1129,23 +1169,23 @@
       </c>
       <c r="T6" s="1">
         <f>SUM(J6:M6)</f>
-        <v>1691.0641043997134</v>
+        <v>1716.2973038986374</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" ref="U6:X6" si="5">T6*(1+U23)</f>
-        <v>1775.6173096196992</v>
+        <f t="shared" ref="U6:X6" si="6">T6*(1+U23)</f>
+        <v>1802.1121690935695</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" si="5"/>
-        <v>1864.3981751006843</v>
+        <f t="shared" si="6"/>
+        <v>1892.217777548248</v>
       </c>
       <c r="W6" s="1">
-        <f t="shared" si="5"/>
-        <v>1957.6180838557186</v>
+        <f t="shared" si="6"/>
+        <v>1986.8286664256605</v>
       </c>
       <c r="X6" s="1">
-        <f t="shared" si="5"/>
-        <v>2055.4989880485045</v>
+        <f t="shared" si="6"/>
+        <v>2086.1700997469434</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -1181,16 +1221,16 @@
         <v>420.00251016017211</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" ref="K7:M7" si="6">J7*(1+K24)</f>
-        <v>428.40256036337558</v>
+        <f t="shared" ref="K7:M7" si="7">J7*(1+K24)</f>
+        <v>436.80261056657901</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="6"/>
-        <v>436.97061157064309</v>
+        <f t="shared" si="7"/>
+        <v>454.27471498924217</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="6"/>
-        <v>471.92826049629457</v>
+        <f t="shared" si="7"/>
+        <v>472.44570358881185</v>
       </c>
       <c r="Q7" s="1">
         <v>2120</v>
@@ -1203,23 +1243,23 @@
       </c>
       <c r="T7" s="1">
         <f>SUM(J7:M7)</f>
-        <v>1757.3039425904853</v>
+        <v>1783.5255393048051</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" ref="U7:X7" si="7">T7*(1+U23)</f>
-        <v>1845.1691397200098</v>
+        <f t="shared" ref="U7:X7" si="8">T7*(1+U23)</f>
+        <v>1872.7018162700454</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" si="7"/>
-        <v>1937.4275967060103</v>
+        <f t="shared" si="8"/>
+        <v>1966.3369070835477</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" si="7"/>
-        <v>2034.2989765413108</v>
+        <f t="shared" si="8"/>
+        <v>2064.653752437725</v>
       </c>
       <c r="X7" s="1">
-        <f t="shared" si="7"/>
-        <v>2136.0139253683765</v>
+        <f t="shared" si="8"/>
+        <v>2167.8864400596112</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -1239,47 +1279,47 @@
         <v>4523</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ref="E8:K8" si="8">SUM(E5:E7)</f>
+        <f t="shared" ref="E8:K8" si="9">SUM(E5:E7)</f>
         <v>4819</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4692</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4713</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4620</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4882</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4546.457327277074</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="8"/>
-        <v>4637.3864738226148</v>
+        <f t="shared" si="9"/>
+        <v>4728.3156203681574</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" ref="L8" si="9">SUM(L5:L7)</f>
-        <v>4730.1342032990678</v>
+        <f t="shared" ref="L8" si="10">SUM(L5:L7)</f>
+        <v>4917.4482451828826</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" ref="M8:P8" si="10">SUM(M5:M7)</f>
-        <v>5108.544939562993</v>
+        <f t="shared" ref="M8:P8" si="11">SUM(M5:M7)</f>
+        <v>5114.1461749901982</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q8" s="1">
@@ -1296,23 +1336,23 @@
       </c>
       <c r="T8" s="1">
         <f>SUM(T5:T7)</f>
-        <v>19022.522943961751</v>
+        <v>19306.367367818311</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" ref="U8:X8" si="11">SUM(U5:U7)</f>
-        <v>19973.649091159838</v>
+        <f t="shared" ref="U8:X8" si="12">SUM(U5:U7)</f>
+        <v>20271.685736209227</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="11"/>
-        <v>20972.331545717829</v>
+        <f t="shared" si="12"/>
+        <v>21285.27002301969</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" si="11"/>
-        <v>22020.948123003724</v>
+        <f t="shared" si="12"/>
+        <v>22349.533524170671</v>
       </c>
       <c r="X8" s="1">
-        <f t="shared" si="11"/>
-        <v>23121.995529153912</v>
+        <f t="shared" si="12"/>
+        <v>23467.010200379209</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1332,47 +1372,47 @@
         <v>2895</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E9:K9" si="12">E4-E8</f>
+        <f t="shared" ref="E9:K9" si="13">E4-E8</f>
         <v>3207</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3007</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3172</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3227</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3484</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3244.542672722926</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="12"/>
-        <v>3309.4335261773849</v>
+        <f t="shared" si="13"/>
+        <v>3374.3243796318429</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" ref="L9" si="13">L4-L8</f>
-        <v>3375.6221967009324</v>
+        <f t="shared" ref="L9" si="14">L4-L8</f>
+        <v>3509.2973548171176</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" ref="M9:P9" si="14">M4-M8</f>
-        <v>3645.6719724370087</v>
+        <f t="shared" ref="M9:P9" si="15">M4-M8</f>
+        <v>3649.6692490098021</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q9" s="1">
@@ -1380,32 +1420,32 @@
         <v>11653</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" ref="R9:X9" si="15">R4-R8</f>
+        <f t="shared" ref="R9:X9" si="16">R4-R8</f>
         <v>11785</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12890</v>
       </c>
       <c r="T9" s="1">
-        <f t="shared" si="15"/>
-        <v>13575.270368038251</v>
+        <f t="shared" si="16"/>
+        <v>13777.83365618169</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="15"/>
-        <v>14254.033886440164</v>
+        <f t="shared" si="16"/>
+        <v>14466.725338990778</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="15"/>
-        <v>14966.735580762175</v>
+        <f t="shared" si="16"/>
+        <v>15190.061605940315</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" si="15"/>
-        <v>15715.072359800284</v>
+        <f t="shared" si="16"/>
+        <v>15949.564686237332</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" si="15"/>
-        <v>16500.825977790297</v>
+        <f t="shared" si="16"/>
+        <v>16747.042920549193</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -1441,16 +1481,16 @@
         <v>582.97465933540525</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" ref="K10:M10" si="16">J10*(1+K24)</f>
-        <v>594.63415252211337</v>
+        <f t="shared" ref="K10:M10" si="17">J10*(1+K24)</f>
+        <v>606.29364570882149</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="16"/>
-        <v>606.52683557255568</v>
+        <f t="shared" si="17"/>
+        <v>630.5453915371744</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="16"/>
-        <v>655.0489824183602</v>
+        <f t="shared" si="17"/>
+        <v>655.76720719866137</v>
       </c>
       <c r="Q10" s="1">
         <v>2257</v>
@@ -1463,23 +1503,23 @@
       </c>
       <c r="T10" s="1">
         <f>SUM(J10:M10)</f>
-        <v>2439.1846298484343</v>
+        <v>2475.5809037800623</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" ref="U10:X10" si="17">T10*(1+U23)</f>
-        <v>2561.1438613408559</v>
+        <f t="shared" ref="U10:X10" si="18">T10*(1+U23)</f>
+        <v>2599.3599489690655</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="17"/>
-        <v>2689.2010544078989</v>
+        <f t="shared" si="18"/>
+        <v>2729.3279464175189</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" si="17"/>
-        <v>2823.6611071282941</v>
+        <f t="shared" si="18"/>
+        <v>2865.7943437383951</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" si="17"/>
-        <v>2964.8441624847092</v>
+        <f t="shared" si="18"/>
+        <v>3009.084060925315</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -1515,16 +1555,16 @@
         <v>719.87126464260098</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" ref="K11:M11" si="18">J11*(1+K24)</f>
-        <v>734.26868993545304</v>
+        <f t="shared" ref="K11:M11" si="19">J11*(1+K24)</f>
+        <v>748.66611522830499</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="18"/>
-        <v>748.9540637341621</v>
+        <f t="shared" si="19"/>
+        <v>778.61275983743724</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="18"/>
-        <v>808.87038883289517</v>
+        <f t="shared" si="19"/>
+        <v>809.75727023093475</v>
       </c>
       <c r="Q11" s="1">
         <v>3253</v>
@@ -1537,23 +1577,23 @@
       </c>
       <c r="T11" s="1">
         <f>SUM(J11:M11)</f>
-        <v>3011.9644071451112</v>
+        <v>3056.9074099392783</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" ref="U11:X11" si="19">T11*(1+U23)</f>
-        <v>3162.5626275023669</v>
+        <f t="shared" ref="U11:X11" si="20">T11*(1+U23)</f>
+        <v>3209.7527804362421</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="19"/>
-        <v>3320.6907588774852</v>
+        <f t="shared" si="20"/>
+        <v>3370.2404194580545</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" si="19"/>
-        <v>3486.7252968213597</v>
+        <f t="shared" si="20"/>
+        <v>3538.7524404309574</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="19"/>
-        <v>3661.0615616624277</v>
+        <f t="shared" si="20"/>
+        <v>3715.6900624525056</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -1589,16 +1629,16 @@
         <v>553.17403777193397</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" ref="K12:M12" si="20">J12*(1+K24)</f>
-        <v>564.23751852737269</v>
+        <f t="shared" ref="K12:M12" si="21">J12*(1+K24)</f>
+        <v>575.30099928281129</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="20"/>
-        <v>575.52226889792018</v>
+        <f t="shared" si="21"/>
+        <v>598.31303925412374</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="20"/>
-        <v>621.5640504097538</v>
+        <f t="shared" si="21"/>
+        <v>622.24556082428876</v>
       </c>
       <c r="Q12" s="1">
         <v>2099</v>
@@ -1611,23 +1651,23 @@
       </c>
       <c r="T12" s="1">
         <f>SUM(J12:M12)</f>
-        <v>2314.4978756069804</v>
+        <v>2349.0336371331578</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" ref="U12:X12" si="21">T12*(1+U23)</f>
-        <v>2430.2227693873297</v>
+        <f t="shared" ref="U12:X12" si="22">T12*(1+U23)</f>
+        <v>2466.4853189898158</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" si="21"/>
-        <v>2551.7339078566961</v>
+        <f t="shared" si="22"/>
+        <v>2589.8095849393067</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" si="21"/>
-        <v>2679.3206032495309</v>
+        <f t="shared" si="22"/>
+        <v>2719.3000641862723</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" si="21"/>
-        <v>2813.2866334120076</v>
+        <f t="shared" si="22"/>
+        <v>2855.2650673955859</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -1663,16 +1703,16 @@
         <v>46.563471192923735</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" ref="K13:M13" si="22">J13*(1+K24)</f>
-        <v>47.494740616782209</v>
+        <f t="shared" ref="K13:M13" si="23">J13*(1+K24)</f>
+        <v>48.426010040640683</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="22"/>
-        <v>48.444635429117852</v>
+        <f t="shared" si="23"/>
+        <v>50.363050442266314</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="22"/>
-        <v>52.320206263447282</v>
+        <f t="shared" si="23"/>
+        <v>52.377572459956966</v>
       </c>
       <c r="Q13" s="1">
         <v>207</v>
@@ -1685,23 +1725,23 @@
       </c>
       <c r="T13" s="1">
         <f>SUM(J13:M13)</f>
-        <v>194.82305350227108</v>
+        <v>197.73010413578771</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" ref="U13:X13" si="23">T13*(1+U23)</f>
-        <v>204.56420617738465</v>
+        <f t="shared" ref="U13:X13" si="24">T13*(1+U23)</f>
+        <v>207.61660934257711</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" si="23"/>
-        <v>214.7924164862539</v>
+        <f t="shared" si="24"/>
+        <v>217.99743980970598</v>
       </c>
       <c r="W13" s="1">
-        <f t="shared" si="23"/>
-        <v>225.53203731056661</v>
+        <f t="shared" si="24"/>
+        <v>228.89731180019129</v>
       </c>
       <c r="X13" s="1">
-        <f t="shared" si="23"/>
-        <v>236.80863917609494</v>
+        <f t="shared" si="24"/>
+        <v>240.34217739020087</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -1713,55 +1753,55 @@
         <v>1828</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ref="C14:K14" si="24">SUM(C10:C13)</f>
+        <f t="shared" ref="C14:K14" si="25">SUM(C10:C13)</f>
         <v>1723</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1727</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1479</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1839</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1847</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1836</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2043</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1902.583432942864</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="24"/>
-        <v>1940.6351016017211</v>
+        <f t="shared" si="25"/>
+        <v>1978.6867702605784</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" ref="L14" si="25">SUM(L10:L13)</f>
-        <v>1979.4478036337557</v>
+        <f t="shared" ref="L14" si="26">SUM(L10:L13)</f>
+        <v>2057.8342410710015</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" ref="M14:P14" si="26">SUM(M10:M13)</f>
-        <v>2137.8036279244566</v>
+        <f t="shared" ref="M14:P14" si="27">SUM(M10:M13)</f>
+        <v>2140.1476107138419</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q14" s="1">
@@ -1769,32 +1809,32 @@
         <v>7816</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" ref="R14:X14" si="27">SUM(R10:R13)</f>
+        <f t="shared" ref="R14:X14" si="28">SUM(R10:R13)</f>
         <v>6757</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7565</v>
       </c>
       <c r="T14" s="1">
-        <f t="shared" si="27"/>
-        <v>7960.4699661027971</v>
+        <f t="shared" si="28"/>
+        <v>8079.2520549882865</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="27"/>
-        <v>8358.4934644079385</v>
+        <f t="shared" si="28"/>
+        <v>8483.2146577377007</v>
       </c>
       <c r="V14" s="1">
-        <f t="shared" si="27"/>
-        <v>8776.4181376283341</v>
+        <f t="shared" si="28"/>
+        <v>8907.3753906245856</v>
       </c>
       <c r="W14" s="1">
-        <f t="shared" si="27"/>
-        <v>9215.2390445097499</v>
+        <f t="shared" si="28"/>
+        <v>9352.7441601558148</v>
       </c>
       <c r="X14" s="1">
-        <f t="shared" si="27"/>
-        <v>9676.0009967352398</v>
+        <f t="shared" si="28"/>
+        <v>9820.3813681636075</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1806,55 +1846,55 @@
         <v>999</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ref="C15:K15" si="28">C9-C14</f>
+        <f t="shared" ref="C15:K15" si="29">C9-C14</f>
         <v>1133</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1168</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1728</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1168</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1325</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1391</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1441</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1341.959239780062</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="28"/>
-        <v>1368.7984245756638</v>
+        <f t="shared" si="29"/>
+        <v>1395.6376093712645</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" ref="L15" si="29">L9-L14</f>
-        <v>1396.1743930671767</v>
+        <f t="shared" ref="L15" si="30">L9-L14</f>
+        <v>1451.4631137461161</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" ref="M15:P15" si="30">M9-M14</f>
-        <v>1507.8683445125521</v>
+        <f t="shared" ref="M15:P15" si="31">M9-M14</f>
+        <v>1509.5216382959602</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q15" s="3">
@@ -1862,32 +1902,32 @@
         <v>3837</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" ref="R15:S15" si="31">R9-R14</f>
+        <f t="shared" ref="R15:S15" si="32">R9-R14</f>
         <v>5028</v>
       </c>
       <c r="S15" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>5325</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" ref="T15:X15" si="32">T9-T14</f>
-        <v>5614.8004019354539</v>
+        <f t="shared" ref="T15:X15" si="33">T9-T14</f>
+        <v>5698.5816011934039</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" si="32"/>
-        <v>5895.5404220322253</v>
+        <f t="shared" si="33"/>
+        <v>5983.5106812530776</v>
       </c>
       <c r="V15" s="3">
-        <f t="shared" si="32"/>
-        <v>6190.3174431338412</v>
+        <f t="shared" si="33"/>
+        <v>6282.686215315729</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" si="32"/>
-        <v>6499.8333152905343</v>
+        <f t="shared" si="33"/>
+        <v>6596.8205260815175</v>
       </c>
       <c r="X15" s="3">
-        <f t="shared" si="32"/>
-        <v>6824.8249810550569</v>
+        <f t="shared" si="33"/>
+        <v>6926.6615523855853</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -1932,7 +1972,7 @@
       </c>
       <c r="M16" s="1">
         <f>L34*$AA$22/4</f>
-        <v>21.956641399225436</v>
+        <v>22.177796281941191</v>
       </c>
       <c r="Q16" s="1">
         <v>-471</v>
@@ -1945,23 +1985,23 @@
       </c>
       <c r="T16" s="1">
         <f>SUM(J16:M16)</f>
-        <v>53.090075317465931</v>
+        <v>53.311230200181683</v>
       </c>
       <c r="U16" s="1">
         <f>T34*$AA$22</f>
-        <v>112.30376537149019</v>
+        <v>113.2183760810112</v>
       </c>
       <c r="V16" s="1">
         <f>U34*$AA$22</f>
-        <v>208.42927236994962</v>
+        <v>210.76604099835663</v>
       </c>
       <c r="W16" s="1">
         <f>V34*$AA$22</f>
-        <v>310.80921981801026</v>
+        <v>314.661277099382</v>
       </c>
       <c r="X16" s="1">
         <f>W34*$AA$22</f>
-        <v>419.77950037974699</v>
+        <v>425.24498595027637</v>
       </c>
     </row>
     <row r="17" spans="1:170" x14ac:dyDescent="0.2">
@@ -1973,55 +2013,55 @@
         <v>1074</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ref="C17:K17" si="33">C15+C16</f>
+        <f t="shared" ref="C17:K17" si="34">C15+C16</f>
         <v>1303</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1241</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1793</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1209</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1399</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1311</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1410</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1346.6792397800621</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="33"/>
-        <v>1378.905141534784</v>
+        <f t="shared" si="34"/>
+        <v>1405.7443263303846</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" ref="L17" si="34">L15+L16</f>
-        <v>1412.4811100262968</v>
+        <f t="shared" ref="L17" si="35">L15+L16</f>
+        <v>1467.7698307052362</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" ref="M17:P17" si="35">M15+M16</f>
-        <v>1529.8249859117775</v>
+        <f t="shared" ref="M17:P17" si="36">M15+M16</f>
+        <v>1531.6994345779015</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q17" s="1">
@@ -2029,32 +2069,32 @@
         <v>3366</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" ref="R17:S17" si="36">R15+R16</f>
+        <f t="shared" ref="R17:S17" si="37">R15+R16</f>
         <v>5411</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>5329</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" ref="T17" si="37">T15+T16</f>
-        <v>5667.8904772529195</v>
+        <f t="shared" ref="T17" si="38">T15+T16</f>
+        <v>5751.8928313935858</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" ref="U17" si="38">U15+U16</f>
-        <v>6007.8441874037153</v>
+        <f t="shared" ref="U17" si="39">U15+U16</f>
+        <v>6096.7290573340888</v>
       </c>
       <c r="V17" s="1">
-        <f t="shared" ref="V17" si="39">V15+V16</f>
-        <v>6398.7467155037912</v>
+        <f t="shared" ref="V17" si="40">V15+V16</f>
+        <v>6493.4522563140854</v>
       </c>
       <c r="W17" s="1">
-        <f t="shared" ref="W17" si="40">W15+W16</f>
-        <v>6810.6425351085445</v>
+        <f t="shared" ref="W17" si="41">W15+W16</f>
+        <v>6911.4818031808991</v>
       </c>
       <c r="X17" s="1">
-        <f t="shared" ref="X17" si="41">X15+X16</f>
-        <v>7244.6044814348043</v>
+        <f t="shared" ref="X17" si="42">X15+X16</f>
+        <v>7351.906538335862</v>
       </c>
     </row>
     <row r="18" spans="1:170" x14ac:dyDescent="0.2">
@@ -2090,16 +2130,16 @@
         <v>269.3358479560124</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" ref="K18:M18" si="42">K17*0.2</f>
-        <v>275.78102830695678</v>
+        <f t="shared" ref="K18:M18" si="43">K17*0.2</f>
+        <v>281.14886526607694</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="42"/>
-        <v>282.49622200525937</v>
+        <f t="shared" si="43"/>
+        <v>293.55396614104728</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="42"/>
-        <v>305.96499718235549</v>
+        <f t="shared" si="43"/>
+        <v>306.33988691558028</v>
       </c>
       <c r="Q18" s="1">
         <v>947</v>
@@ -2112,23 +2152,23 @@
       </c>
       <c r="T18" s="1">
         <f>T17*0.2</f>
-        <v>1133.578095450584</v>
+        <v>1150.3785662787172</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" ref="U18:X18" si="43">U17*0.2</f>
-        <v>1201.568837480743</v>
+        <f t="shared" ref="U18:X18" si="44">U17*0.2</f>
+        <v>1219.3458114668178</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" si="43"/>
-        <v>1279.7493431007583</v>
+        <f t="shared" si="44"/>
+        <v>1298.6904512628171</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" si="43"/>
-        <v>1362.1285070217091</v>
+        <f t="shared" si="44"/>
+        <v>1382.29636063618</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" si="43"/>
-        <v>1448.9208962869609</v>
+        <f t="shared" si="44"/>
+        <v>1470.3813076671725</v>
       </c>
     </row>
     <row r="19" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2140,54 +2180,54 @@
         <v>795</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ref="C19:J19" si="44">C17-C18</f>
+        <f t="shared" ref="C19:J19" si="45">C17-C18</f>
         <v>1029</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1020</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1402</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>888</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1128</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1010</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1121</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1077.3433918240496</v>
       </c>
       <c r="K19" s="3">
         <v>1240</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" ref="L19" si="45">L17-L18</f>
-        <v>1129.9848880210375</v>
+        <f t="shared" ref="L19" si="46">L17-L18</f>
+        <v>1174.2158645641889</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" ref="M19:P19" si="46">M17-M18</f>
-        <v>1223.859988729422</v>
+        <f t="shared" ref="M19:P19" si="47">M17-M18</f>
+        <v>1225.3595476623211</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q19" s="3">
@@ -2195,616 +2235,616 @@
         <v>2419</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" ref="R19:S19" si="47">R17-R18</f>
+        <f t="shared" ref="R19:S19" si="48">R17-R18</f>
         <v>4246</v>
       </c>
       <c r="S19" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>4147</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" ref="T19" si="48">T17-T18</f>
-        <v>4534.3123818023359</v>
+        <f t="shared" ref="T19" si="49">T17-T18</f>
+        <v>4601.514265114869</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" ref="U19" si="49">U17-U18</f>
-        <v>4806.2753499229721</v>
+        <f t="shared" ref="U19" si="50">U17-U18</f>
+        <v>4877.3832458672714</v>
       </c>
       <c r="V19" s="3">
-        <f t="shared" ref="V19" si="50">V17-V18</f>
-        <v>5118.9973724030333</v>
+        <f t="shared" ref="V19" si="51">V17-V18</f>
+        <v>5194.7618050512683</v>
       </c>
       <c r="W19" s="3">
-        <f t="shared" ref="W19" si="51">W17-W18</f>
-        <v>5448.5140280868354</v>
+        <f t="shared" ref="W19" si="52">W17-W18</f>
+        <v>5529.1854425447191</v>
       </c>
       <c r="X19" s="3">
-        <f t="shared" ref="X19" si="52">X17-X18</f>
-        <v>5795.6835851478436</v>
+        <f t="shared" ref="X19" si="53">X17-X18</f>
+        <v>5881.5252306686898</v>
       </c>
       <c r="Y19" s="3">
-        <f t="shared" ref="Y19:BD19" si="53">X19*(1+$AA$23)</f>
-        <v>5853.6404209993225</v>
+        <f t="shared" ref="Y19:BD19" si="54">X19*(1+$AA$23)</f>
+        <v>5940.3404829753772</v>
       </c>
       <c r="Z19" s="3">
-        <f t="shared" si="53"/>
-        <v>5912.1768252093161</v>
+        <f t="shared" si="54"/>
+        <v>5999.7438878051307</v>
       </c>
       <c r="AA19" s="3">
-        <f t="shared" si="53"/>
-        <v>5971.2985934614089</v>
+        <f t="shared" si="54"/>
+        <v>6059.7413266831818</v>
       </c>
       <c r="AB19" s="3">
-        <f t="shared" si="53"/>
-        <v>6031.0115793960231</v>
+        <f t="shared" si="54"/>
+        <v>6120.3387399500134</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" si="53"/>
-        <v>6091.3216951899831</v>
+        <f t="shared" si="54"/>
+        <v>6181.542127349514</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" si="53"/>
-        <v>6152.2349121418829</v>
+        <f t="shared" si="54"/>
+        <v>6243.3575486230093</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" si="53"/>
-        <v>6213.7572612633021</v>
+        <f t="shared" si="54"/>
+        <v>6305.7911241092397</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" si="53"/>
-        <v>6275.8948338759355</v>
+        <f t="shared" si="54"/>
+        <v>6368.8490353503321</v>
       </c>
       <c r="AG19" s="3">
-        <f t="shared" si="53"/>
-        <v>6338.6537822146947</v>
+        <f t="shared" si="54"/>
+        <v>6432.5375257038359</v>
       </c>
       <c r="AH19" s="3">
-        <f t="shared" si="53"/>
-        <v>6402.0403200368419</v>
+        <f t="shared" si="54"/>
+        <v>6496.862900960874</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" si="53"/>
-        <v>6466.0607232372104</v>
+        <f t="shared" si="54"/>
+        <v>6561.8315299704827</v>
       </c>
       <c r="AJ19" s="3">
-        <f t="shared" si="53"/>
-        <v>6530.7213304695824</v>
+        <f t="shared" si="54"/>
+        <v>6627.4498452701873</v>
       </c>
       <c r="AK19" s="3">
-        <f t="shared" si="53"/>
-        <v>6596.0285437742787</v>
+        <f t="shared" si="54"/>
+        <v>6693.724343722889</v>
       </c>
       <c r="AL19" s="3">
-        <f t="shared" si="53"/>
-        <v>6661.9888292120213</v>
+        <f t="shared" si="54"/>
+        <v>6760.661587160118</v>
       </c>
       <c r="AM19" s="3">
-        <f t="shared" si="53"/>
-        <v>6728.6087175041412</v>
+        <f t="shared" si="54"/>
+        <v>6828.2682030317192</v>
       </c>
       <c r="AN19" s="3">
-        <f t="shared" si="53"/>
-        <v>6795.8948046791829</v>
+        <f t="shared" si="54"/>
+        <v>6896.5508850620363</v>
       </c>
       <c r="AO19" s="3">
-        <f t="shared" si="53"/>
-        <v>6863.853752725975</v>
+        <f t="shared" si="54"/>
+        <v>6965.5163939126569</v>
       </c>
       <c r="AP19" s="3">
-        <f t="shared" si="53"/>
-        <v>6932.4922902532344</v>
+        <f t="shared" si="54"/>
+        <v>7035.1715578517833</v>
       </c>
       <c r="AQ19" s="3">
-        <f t="shared" si="53"/>
-        <v>7001.8172131557667</v>
+        <f t="shared" si="54"/>
+        <v>7105.5232734303008</v>
       </c>
       <c r="AR19" s="3">
-        <f t="shared" si="53"/>
-        <v>7071.8353852873242</v>
+        <f t="shared" si="54"/>
+        <v>7176.5785061646038</v>
       </c>
       <c r="AS19" s="3">
-        <f t="shared" si="53"/>
-        <v>7142.5537391401976</v>
+        <f t="shared" si="54"/>
+        <v>7248.3442912262499</v>
       </c>
       <c r="AT19" s="3">
-        <f t="shared" si="53"/>
-        <v>7213.9792765315997</v>
+        <f t="shared" si="54"/>
+        <v>7320.8277341385128</v>
       </c>
       <c r="AU19" s="3">
-        <f t="shared" si="53"/>
-        <v>7286.1190692969158</v>
+        <f t="shared" si="54"/>
+        <v>7394.0360114798978</v>
       </c>
       <c r="AV19" s="3">
-        <f t="shared" si="53"/>
-        <v>7358.9802599898849</v>
+        <f t="shared" si="54"/>
+        <v>7467.9763715946965</v>
       </c>
       <c r="AW19" s="3">
-        <f t="shared" si="53"/>
-        <v>7432.5700625897834</v>
+        <f t="shared" si="54"/>
+        <v>7542.6561353106435</v>
       </c>
       <c r="AX19" s="3">
-        <f t="shared" si="53"/>
-        <v>7506.8957632156817</v>
+        <f t="shared" si="54"/>
+        <v>7618.0826966637496</v>
       </c>
       <c r="AY19" s="3">
-        <f t="shared" si="53"/>
-        <v>7581.9647208478382</v>
+        <f t="shared" si="54"/>
+        <v>7694.2635236303868</v>
       </c>
       <c r="AZ19" s="3">
-        <f t="shared" si="53"/>
-        <v>7657.7843680563165</v>
+        <f t="shared" si="54"/>
+        <v>7771.2061588666911</v>
       </c>
       <c r="BA19" s="3">
-        <f t="shared" si="53"/>
-        <v>7734.3622117368795</v>
+        <f t="shared" si="54"/>
+        <v>7848.9182204553581</v>
       </c>
       <c r="BB19" s="3">
-        <f t="shared" si="53"/>
-        <v>7811.7058338542483</v>
+        <f t="shared" si="54"/>
+        <v>7927.4074026599119</v>
       </c>
       <c r="BC19" s="3">
-        <f t="shared" si="53"/>
-        <v>7889.8228921927912</v>
+        <f t="shared" si="54"/>
+        <v>8006.6814766865109</v>
       </c>
       <c r="BD19" s="3">
-        <f t="shared" si="53"/>
-        <v>7968.7211211147196</v>
+        <f t="shared" si="54"/>
+        <v>8086.7482914533757</v>
       </c>
       <c r="BE19" s="3">
-        <f t="shared" ref="BE19:CJ19" si="54">BD19*(1+$AA$23)</f>
-        <v>8048.4083323258665</v>
+        <f t="shared" ref="BE19:CJ19" si="55">BD19*(1+$AA$23)</f>
+        <v>8167.6157743679096</v>
       </c>
       <c r="BF19" s="3">
-        <f t="shared" si="54"/>
-        <v>8128.8924156491248</v>
+        <f t="shared" si="55"/>
+        <v>8249.2919321115896</v>
       </c>
       <c r="BG19" s="3">
-        <f t="shared" si="54"/>
-        <v>8210.1813398056165</v>
+        <f t="shared" si="55"/>
+        <v>8331.7848514327052</v>
       </c>
       <c r="BH19" s="3">
-        <f t="shared" si="54"/>
-        <v>8292.2831532036726</v>
+        <f t="shared" si="55"/>
+        <v>8415.1026999470323</v>
       </c>
       <c r="BI19" s="3">
-        <f t="shared" si="54"/>
-        <v>8375.2059847357086</v>
+        <f t="shared" si="55"/>
+        <v>8499.2537269465029</v>
       </c>
       <c r="BJ19" s="3">
-        <f t="shared" si="54"/>
-        <v>8458.9580445830652</v>
+        <f t="shared" si="55"/>
+        <v>8584.246264215968</v>
       </c>
       <c r="BK19" s="3">
-        <f t="shared" si="54"/>
-        <v>8543.5476250288957</v>
+        <f t="shared" si="55"/>
+        <v>8670.0887268581282</v>
       </c>
       <c r="BL19" s="3">
-        <f t="shared" si="54"/>
-        <v>8628.9831012791856</v>
+        <f t="shared" si="55"/>
+        <v>8756.7896141267101</v>
       </c>
       <c r="BM19" s="3">
-        <f t="shared" si="54"/>
-        <v>8715.2729322919768</v>
+        <f t="shared" si="55"/>
+        <v>8844.357510267977</v>
       </c>
       <c r="BN19" s="3">
-        <f t="shared" si="54"/>
-        <v>8802.4256616148959</v>
+        <f t="shared" si="55"/>
+        <v>8932.8010853706564</v>
       </c>
       <c r="BO19" s="3">
-        <f t="shared" si="54"/>
-        <v>8890.4499182310446</v>
+        <f t="shared" si="55"/>
+        <v>9022.1290962243638</v>
       </c>
       <c r="BP19" s="3">
-        <f t="shared" si="54"/>
-        <v>8979.3544174133549</v>
+        <f t="shared" si="55"/>
+        <v>9112.3503871866069</v>
       </c>
       <c r="BQ19" s="3">
-        <f t="shared" si="54"/>
-        <v>9069.1479615874887</v>
+        <f t="shared" si="55"/>
+        <v>9203.4738910584729</v>
       </c>
       <c r="BR19" s="3">
-        <f t="shared" si="54"/>
-        <v>9159.8394412033631</v>
+        <f t="shared" si="55"/>
+        <v>9295.5086299690574</v>
       </c>
       <c r="BS19" s="3">
-        <f t="shared" si="54"/>
-        <v>9251.4378356153975</v>
+        <f t="shared" si="55"/>
+        <v>9388.4637162687486</v>
       </c>
       <c r="BT19" s="3">
-        <f t="shared" si="54"/>
-        <v>9343.9522139715518</v>
+        <f t="shared" si="55"/>
+        <v>9482.3483534314364</v>
       </c>
       <c r="BU19" s="3">
-        <f t="shared" si="54"/>
-        <v>9437.3917361112672</v>
+        <f t="shared" si="55"/>
+        <v>9577.1718369657501</v>
       </c>
       <c r="BV19" s="3">
-        <f t="shared" si="54"/>
-        <v>9531.7656534723792</v>
+        <f t="shared" si="55"/>
+        <v>9672.9435553354069</v>
       </c>
       <c r="BW19" s="3">
-        <f t="shared" si="54"/>
-        <v>9627.0833100071031</v>
+        <f t="shared" si="55"/>
+        <v>9769.672990888761</v>
       </c>
       <c r="BX19" s="3">
-        <f t="shared" si="54"/>
-        <v>9723.3541431071735</v>
+        <f t="shared" si="55"/>
+        <v>9867.3697207976493</v>
       </c>
       <c r="BY19" s="3">
-        <f t="shared" si="54"/>
-        <v>9820.5876845382445</v>
+        <f t="shared" si="55"/>
+        <v>9966.0434180056254</v>
       </c>
       <c r="BZ19" s="3">
-        <f t="shared" si="54"/>
-        <v>9918.7935613836271</v>
+        <f t="shared" si="55"/>
+        <v>10065.703852185681</v>
       </c>
       <c r="CA19" s="3">
-        <f t="shared" si="54"/>
-        <v>10017.981496997463</v>
+        <f t="shared" si="55"/>
+        <v>10166.360890707538</v>
       </c>
       <c r="CB19" s="3">
-        <f t="shared" si="54"/>
-        <v>10118.161311967438</v>
+        <f t="shared" si="55"/>
+        <v>10268.024499614614</v>
       </c>
       <c r="CC19" s="3">
-        <f t="shared" si="54"/>
-        <v>10219.342925087112</v>
+        <f t="shared" si="55"/>
+        <v>10370.704744610761</v>
       </c>
       <c r="CD19" s="3">
-        <f t="shared" si="54"/>
-        <v>10321.536354337983</v>
+        <f t="shared" si="55"/>
+        <v>10474.411792056868</v>
       </c>
       <c r="CE19" s="3">
-        <f t="shared" si="54"/>
-        <v>10424.751717881363</v>
+        <f t="shared" si="55"/>
+        <v>10579.155909977437</v>
       </c>
       <c r="CF19" s="3">
-        <f t="shared" si="54"/>
-        <v>10528.999235060177</v>
+        <f t="shared" si="55"/>
+        <v>10684.947469077211</v>
       </c>
       <c r="CG19" s="3">
-        <f t="shared" si="54"/>
-        <v>10634.289227410778</v>
+        <f t="shared" si="55"/>
+        <v>10791.796943767984</v>
       </c>
       <c r="CH19" s="3">
-        <f t="shared" si="54"/>
-        <v>10740.632119684886</v>
+        <f t="shared" si="55"/>
+        <v>10899.714913205664</v>
       </c>
       <c r="CI19" s="3">
-        <f t="shared" si="54"/>
-        <v>10848.038440881735</v>
+        <f t="shared" si="55"/>
+        <v>11008.712062337721</v>
       </c>
       <c r="CJ19" s="3">
-        <f t="shared" si="54"/>
-        <v>10956.518825290554</v>
+        <f t="shared" si="55"/>
+        <v>11118.799182961098</v>
       </c>
       <c r="CK19" s="3">
-        <f t="shared" ref="CK19:DP19" si="55">CJ19*(1+$AA$23)</f>
-        <v>11066.084013543459</v>
+        <f t="shared" ref="CK19:DP19" si="56">CJ19*(1+$AA$23)</f>
+        <v>11229.987174790709</v>
       </c>
       <c r="CL19" s="3">
-        <f t="shared" si="55"/>
-        <v>11176.744853678894</v>
+        <f t="shared" si="56"/>
+        <v>11342.287046538617</v>
       </c>
       <c r="CM19" s="3">
-        <f t="shared" si="55"/>
-        <v>11288.512302215684</v>
+        <f t="shared" si="56"/>
+        <v>11455.709917004004</v>
       </c>
       <c r="CN19" s="3">
-        <f t="shared" si="55"/>
-        <v>11401.397425237841</v>
+        <f t="shared" si="56"/>
+        <v>11570.267016174044</v>
       </c>
       <c r="CO19" s="3">
-        <f t="shared" si="55"/>
-        <v>11515.41139949022</v>
+        <f t="shared" si="56"/>
+        <v>11685.969686335784</v>
       </c>
       <c r="CP19" s="3">
-        <f t="shared" si="55"/>
-        <v>11630.565513485122</v>
+        <f t="shared" si="56"/>
+        <v>11802.829383199141</v>
       </c>
       <c r="CQ19" s="3">
-        <f t="shared" si="55"/>
-        <v>11746.871168619973</v>
+        <f t="shared" si="56"/>
+        <v>11920.857677031134</v>
       </c>
       <c r="CR19" s="3">
-        <f t="shared" si="55"/>
-        <v>11864.339880306174</v>
+        <f t="shared" si="56"/>
+        <v>12040.066253801446</v>
       </c>
       <c r="CS19" s="3">
-        <f t="shared" si="55"/>
-        <v>11982.983279109236</v>
+        <f t="shared" si="56"/>
+        <v>12160.466916339461</v>
       </c>
       <c r="CT19" s="3">
-        <f t="shared" si="55"/>
-        <v>12102.813111900328</v>
+        <f t="shared" si="56"/>
+        <v>12282.071585502856</v>
       </c>
       <c r="CU19" s="3">
-        <f t="shared" si="55"/>
-        <v>12223.841243019331</v>
+        <f t="shared" si="56"/>
+        <v>12404.892301357884</v>
       </c>
       <c r="CV19" s="3">
-        <f t="shared" si="55"/>
-        <v>12346.079655449525</v>
+        <f t="shared" si="56"/>
+        <v>12528.941224371463</v>
       </c>
       <c r="CW19" s="3">
-        <f t="shared" si="55"/>
-        <v>12469.540452004019</v>
+        <f t="shared" si="56"/>
+        <v>12654.230636615179</v>
       </c>
       <c r="CX19" s="3">
-        <f t="shared" si="55"/>
-        <v>12594.235856524059</v>
+        <f t="shared" si="56"/>
+        <v>12780.77294298133</v>
       </c>
       <c r="CY19" s="3">
-        <f t="shared" si="55"/>
-        <v>12720.1782150893</v>
+        <f t="shared" si="56"/>
+        <v>12908.580672411143</v>
       </c>
       <c r="CZ19" s="3">
-        <f t="shared" si="55"/>
-        <v>12847.379997240192</v>
+        <f t="shared" si="56"/>
+        <v>13037.666479135254</v>
       </c>
       <c r="DA19" s="3">
-        <f t="shared" si="55"/>
-        <v>12975.853797212594</v>
+        <f t="shared" si="56"/>
+        <v>13168.043143926607</v>
       </c>
       <c r="DB19" s="3">
-        <f t="shared" si="55"/>
-        <v>13105.61233518472</v>
+        <f t="shared" si="56"/>
+        <v>13299.723575365873</v>
       </c>
       <c r="DC19" s="3">
-        <f t="shared" si="55"/>
-        <v>13236.668458536567</v>
+        <f t="shared" si="56"/>
+        <v>13432.720811119532</v>
       </c>
       <c r="DD19" s="3">
-        <f t="shared" si="55"/>
-        <v>13369.035143121933</v>
+        <f t="shared" si="56"/>
+        <v>13567.048019230728</v>
       </c>
       <c r="DE19" s="3">
-        <f t="shared" si="55"/>
-        <v>13502.725494553153</v>
+        <f t="shared" si="56"/>
+        <v>13702.718499423036</v>
       </c>
       <c r="DF19" s="3">
-        <f t="shared" si="55"/>
-        <v>13637.752749498684</v>
+        <f t="shared" si="56"/>
+        <v>13839.745684417267</v>
       </c>
       <c r="DG19" s="3">
-        <f t="shared" si="55"/>
-        <v>13774.130276993672</v>
+        <f t="shared" si="56"/>
+        <v>13978.14314126144</v>
       </c>
       <c r="DH19" s="3">
-        <f t="shared" si="55"/>
-        <v>13911.871579763609</v>
+        <f t="shared" si="56"/>
+        <v>14117.924572674056</v>
       </c>
       <c r="DI19" s="3">
-        <f t="shared" si="55"/>
-        <v>14050.990295561245</v>
+        <f t="shared" si="56"/>
+        <v>14259.103818400796</v>
       </c>
       <c r="DJ19" s="3">
-        <f t="shared" si="55"/>
-        <v>14191.500198516858</v>
+        <f t="shared" si="56"/>
+        <v>14401.694856584803</v>
       </c>
       <c r="DK19" s="3">
-        <f t="shared" si="55"/>
-        <v>14333.415200502028</v>
+        <f t="shared" si="56"/>
+        <v>14545.711805150651</v>
       </c>
       <c r="DL19" s="3">
-        <f t="shared" si="55"/>
-        <v>14476.749352507048</v>
+        <f t="shared" si="56"/>
+        <v>14691.168923202158</v>
       </c>
       <c r="DM19" s="3">
-        <f t="shared" si="55"/>
-        <v>14621.516846032118</v>
+        <f t="shared" si="56"/>
+        <v>14838.08061243418</v>
       </c>
       <c r="DN19" s="3">
-        <f t="shared" si="55"/>
-        <v>14767.73201449244</v>
+        <f t="shared" si="56"/>
+        <v>14986.461418558521</v>
       </c>
       <c r="DO19" s="3">
-        <f t="shared" si="55"/>
-        <v>14915.409334637365</v>
+        <f t="shared" si="56"/>
+        <v>15136.326032744108</v>
       </c>
       <c r="DP19" s="3">
-        <f t="shared" si="55"/>
-        <v>15064.563427983738</v>
+        <f t="shared" si="56"/>
+        <v>15287.689293071549</v>
       </c>
       <c r="DQ19" s="3">
-        <f t="shared" ref="DQ19:EV19" si="56">DP19*(1+$AA$23)</f>
-        <v>15215.209062263575</v>
+        <f t="shared" ref="DQ19:EV19" si="57">DP19*(1+$AA$23)</f>
+        <v>15440.566186002265</v>
       </c>
       <c r="DR19" s="3">
-        <f t="shared" si="56"/>
-        <v>15367.361152886211</v>
+        <f t="shared" si="57"/>
+        <v>15594.971847862287</v>
       </c>
       <c r="DS19" s="3">
-        <f t="shared" si="56"/>
-        <v>15521.034764415073</v>
+        <f t="shared" si="57"/>
+        <v>15750.92156634091</v>
       </c>
       <c r="DT19" s="3">
-        <f t="shared" si="56"/>
-        <v>15676.245112059225</v>
+        <f t="shared" si="57"/>
+        <v>15908.43078200432</v>
       </c>
       <c r="DU19" s="3">
-        <f t="shared" si="56"/>
-        <v>15833.007563179817</v>
+        <f t="shared" si="57"/>
+        <v>16067.515089824363</v>
       </c>
       <c r="DV19" s="3">
-        <f t="shared" si="56"/>
-        <v>15991.337638811616</v>
+        <f t="shared" si="57"/>
+        <v>16228.190240722606</v>
       </c>
       <c r="DW19" s="3">
-        <f t="shared" si="56"/>
-        <v>16151.251015199732</v>
+        <f t="shared" si="57"/>
+        <v>16390.472143129831</v>
       </c>
       <c r="DX19" s="3">
-        <f t="shared" si="56"/>
-        <v>16312.763525351729</v>
+        <f t="shared" si="57"/>
+        <v>16554.376864561131</v>
       </c>
       <c r="DY19" s="3">
-        <f t="shared" si="56"/>
-        <v>16475.891160605246</v>
+        <f t="shared" si="57"/>
+        <v>16719.920633206741</v>
       </c>
       <c r="DZ19" s="3">
-        <f t="shared" si="56"/>
-        <v>16640.650072211298</v>
+        <f t="shared" si="57"/>
+        <v>16887.119839538809</v>
       </c>
       <c r="EA19" s="3">
-        <f t="shared" si="56"/>
-        <v>16807.056572933412</v>
+        <f t="shared" si="57"/>
+        <v>17055.991037934196</v>
       </c>
       <c r="EB19" s="3">
-        <f t="shared" si="56"/>
-        <v>16975.127138662745</v>
+        <f t="shared" si="57"/>
+        <v>17226.550948313539</v>
       </c>
       <c r="EC19" s="3">
-        <f t="shared" si="56"/>
-        <v>17144.878410049372</v>
+        <f t="shared" si="57"/>
+        <v>17398.816457796675</v>
       </c>
       <c r="ED19" s="3">
-        <f t="shared" si="56"/>
-        <v>17316.327194149868</v>
+        <f t="shared" si="57"/>
+        <v>17572.804622374642</v>
       </c>
       <c r="EE19" s="3">
-        <f t="shared" si="56"/>
-        <v>17489.490466091367</v>
+        <f t="shared" si="57"/>
+        <v>17748.532668598389</v>
       </c>
       <c r="EF19" s="3">
-        <f t="shared" si="56"/>
-        <v>17664.385370752279</v>
+        <f t="shared" si="57"/>
+        <v>17926.017995284372</v>
       </c>
       <c r="EG19" s="3">
-        <f t="shared" si="56"/>
-        <v>17841.029224459802</v>
+        <f t="shared" si="57"/>
+        <v>18105.278175237218</v>
       </c>
       <c r="EH19" s="3">
-        <f t="shared" si="56"/>
-        <v>18019.439516704402</v>
+        <f t="shared" si="57"/>
+        <v>18286.33095698959</v>
       </c>
       <c r="EI19" s="3">
-        <f t="shared" si="56"/>
-        <v>18199.633911871446</v>
+        <f t="shared" si="57"/>
+        <v>18469.194266559487</v>
       </c>
       <c r="EJ19" s="3">
-        <f t="shared" si="56"/>
-        <v>18381.630250990162</v>
+        <f t="shared" si="57"/>
+        <v>18653.886209225082</v>
       </c>
       <c r="EK19" s="3">
-        <f t="shared" si="56"/>
-        <v>18565.446553500064</v>
+        <f t="shared" si="57"/>
+        <v>18840.425071317331</v>
       </c>
       <c r="EL19" s="3">
-        <f t="shared" si="56"/>
-        <v>18751.101019035064</v>
+        <f t="shared" si="57"/>
+        <v>19028.829322030506</v>
       </c>
       <c r="EM19" s="3">
-        <f t="shared" si="56"/>
-        <v>18938.612029225416</v>
+        <f t="shared" si="57"/>
+        <v>19219.117615250812</v>
       </c>
       <c r="EN19" s="3">
-        <f t="shared" si="56"/>
-        <v>19127.998149517669</v>
+        <f t="shared" si="57"/>
+        <v>19411.30879140332</v>
       </c>
       <c r="EO19" s="3">
-        <f t="shared" si="56"/>
-        <v>19319.278131012845</v>
+        <f t="shared" si="57"/>
+        <v>19605.421879317353</v>
       </c>
       <c r="EP19" s="3">
-        <f t="shared" si="56"/>
-        <v>19512.470912322973</v>
+        <f t="shared" si="57"/>
+        <v>19801.476098110528</v>
       </c>
       <c r="EQ19" s="3">
-        <f t="shared" si="56"/>
-        <v>19707.595621446202</v>
+        <f t="shared" si="57"/>
+        <v>19999.490859091635</v>
       </c>
       <c r="ER19" s="3">
-        <f t="shared" si="56"/>
-        <v>19904.671577660665</v>
+        <f t="shared" si="57"/>
+        <v>20199.485767682552</v>
       </c>
       <c r="ES19" s="3">
-        <f t="shared" si="56"/>
-        <v>20103.718293437272</v>
+        <f t="shared" si="57"/>
+        <v>20401.480625359378</v>
       </c>
       <c r="ET19" s="3">
-        <f t="shared" si="56"/>
-        <v>20304.755476371643</v>
+        <f t="shared" si="57"/>
+        <v>20605.495431612973</v>
       </c>
       <c r="EU19" s="3">
-        <f t="shared" si="56"/>
-        <v>20507.803031135361</v>
+        <f t="shared" si="57"/>
+        <v>20811.550385929102</v>
       </c>
       <c r="EV19" s="3">
-        <f t="shared" si="56"/>
-        <v>20712.881061446715</v>
+        <f t="shared" si="57"/>
+        <v>21019.665889788394</v>
       </c>
       <c r="EW19" s="3">
-        <f t="shared" ref="EW19:FN19" si="57">EV19*(1+$AA$23)</f>
-        <v>20920.009872061182</v>
+        <f t="shared" ref="EW19:FN19" si="58">EV19*(1+$AA$23)</f>
+        <v>21229.862548686277</v>
       </c>
       <c r="EX19" s="3">
-        <f t="shared" si="57"/>
-        <v>21129.209970781794</v>
+        <f t="shared" si="58"/>
+        <v>21442.161174173139</v>
       </c>
       <c r="EY19" s="3">
-        <f t="shared" si="57"/>
-        <v>21340.502070489612</v>
+        <f t="shared" si="58"/>
+        <v>21656.58278591487</v>
       </c>
       <c r="EZ19" s="3">
-        <f t="shared" si="57"/>
-        <v>21553.907091194509</v>
+        <f t="shared" si="58"/>
+        <v>21873.148613774018</v>
       </c>
       <c r="FA19" s="3">
-        <f t="shared" si="57"/>
-        <v>21769.446162106455</v>
+        <f t="shared" si="58"/>
+        <v>22091.880099911759</v>
       </c>
       <c r="FB19" s="3">
-        <f t="shared" si="57"/>
-        <v>21987.140623727519</v>
+        <f t="shared" si="58"/>
+        <v>22312.798900910879</v>
       </c>
       <c r="FC19" s="3">
-        <f t="shared" si="57"/>
-        <v>22207.012029964793</v>
+        <f t="shared" si="58"/>
+        <v>22535.926889919989</v>
       </c>
       <c r="FD19" s="3">
-        <f t="shared" si="57"/>
-        <v>22429.082150264443</v>
+        <f t="shared" si="58"/>
+        <v>22761.286158819188</v>
       </c>
       <c r="FE19" s="3">
-        <f t="shared" si="57"/>
-        <v>22653.372971767087</v>
+        <f t="shared" si="58"/>
+        <v>22988.899020407382</v>
       </c>
       <c r="FF19" s="3">
-        <f t="shared" si="57"/>
-        <v>22879.906701484757</v>
+        <f t="shared" si="58"/>
+        <v>23218.788010611457</v>
       </c>
       <c r="FG19" s="3">
-        <f t="shared" si="57"/>
-        <v>23108.705768499603</v>
+        <f t="shared" si="58"/>
+        <v>23450.975890717571</v>
       </c>
       <c r="FH19" s="3">
-        <f t="shared" si="57"/>
-        <v>23339.792826184599</v>
+        <f t="shared" si="58"/>
+        <v>23685.485649624748</v>
       </c>
       <c r="FI19" s="3">
-        <f t="shared" si="57"/>
-        <v>23573.190754446445</v>
+        <f t="shared" si="58"/>
+        <v>23922.340506120996</v>
       </c>
       <c r="FJ19" s="3">
-        <f t="shared" si="57"/>
-        <v>23808.92266199091</v>
+        <f t="shared" si="58"/>
+        <v>24161.563911182206</v>
       </c>
       <c r="FK19" s="3">
-        <f t="shared" si="57"/>
-        <v>24047.011888610818</v>
+        <f t="shared" si="58"/>
+        <v>24403.179550294029</v>
       </c>
       <c r="FL19" s="3">
-        <f t="shared" si="57"/>
-        <v>24287.482007496925</v>
+        <f t="shared" si="58"/>
+        <v>24647.211345796972</v>
       </c>
       <c r="FM19" s="3">
-        <f t="shared" si="57"/>
-        <v>24530.356827571894</v>
+        <f t="shared" si="58"/>
+        <v>24893.683459254942</v>
       </c>
       <c r="FN19" s="3">
-        <f t="shared" si="57"/>
-        <v>24775.660395847612</v>
+        <f t="shared" si="58"/>
+        <v>25142.620293847493</v>
       </c>
     </row>
     <row r="20" spans="1:170" x14ac:dyDescent="0.2">
@@ -2836,19 +2876,19 @@
         <v>1014</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ref="J20:M20" si="58">I20*0.99</f>
+        <f t="shared" ref="J20:M20" si="59">I20*0.99</f>
         <v>1003.86</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>993.82140000000004</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>983.88318600000002</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>974.04435414</v>
       </c>
       <c r="N20" s="4"/>
@@ -2870,15 +2910,15 @@
         <v>935.08257997440001</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" ref="V20:X20" si="59">U20*0.96</f>
+        <f t="shared" ref="V20:X20" si="60">U20*0.96</f>
         <v>897.679276775424</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>861.77210570440695</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>827.30122147623069</v>
       </c>
     </row>
@@ -2887,35 +2927,35 @@
         <v>6</v>
       </c>
       <c r="B21" s="5">
-        <f t="shared" ref="B21:I21" si="60">B19/B20</f>
+        <f t="shared" ref="B21:I21" si="61">B19/B20</f>
         <v>0.70105820105820105</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.92369838420107719</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.92896174863387981</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1.2933579335793357</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.82835820895522383</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1.0773638968481376</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.986328125</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1.1055226824457594</v>
       </c>
       <c r="J21" s="5">
@@ -2926,12 +2966,12 @@
         <v>1.247709095416943</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" ref="L21:M21" si="61">L19/L20</f>
-        <v>1.1484949677969569</v>
+        <f t="shared" ref="L21:M21" si="62">L19/L20</f>
+        <v>1.1934504840335678</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="61"/>
-        <v>1.2564725451439922</v>
+        <f t="shared" si="62"/>
+        <v>1.2580120632640097</v>
       </c>
       <c r="Q21" s="5">
         <f>Q19/Q20</f>
@@ -2946,24 +2986,24 @@
         <v>3.991337824831569</v>
       </c>
       <c r="T21" s="5">
-        <f t="shared" ref="T21:X21" si="62">T19/T20</f>
-        <v>4.6551395350017257</v>
+        <f t="shared" ref="T21:X21" si="63">T19/T20</f>
+        <v>4.7241321666276921</v>
       </c>
       <c r="U21" s="5">
-        <f t="shared" si="62"/>
-        <v>5.1399474793494226</v>
+        <f t="shared" si="63"/>
+        <v>5.2159919886442552</v>
       </c>
       <c r="V21" s="5">
-        <f t="shared" si="62"/>
-        <v>5.7024791647091497</v>
+        <f t="shared" si="63"/>
+        <v>5.7868795007850702</v>
       </c>
       <c r="W21" s="5">
-        <f t="shared" si="62"/>
-        <v>6.322453456106305</v>
+        <f t="shared" si="63"/>
+        <v>6.416064532542741</v>
       </c>
       <c r="X21" s="5">
-        <f t="shared" si="62"/>
-        <v>7.0055300713881037</v>
+        <f t="shared" si="63"/>
+        <v>7.1092911239436294</v>
       </c>
     </row>
     <row r="22" spans="1:170" x14ac:dyDescent="0.2">
@@ -2985,36 +3025,36 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7">
-        <f t="shared" ref="F23:M23" si="63">F4/B4-1</f>
+        <f t="shared" ref="F23:M23" si="64">F4/B4-1</f>
         <v>9.3607954545454453E-2</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>8.2063949499108002E-2</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5.7832299811269916E-2</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>4.2362322452030865E-2</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.1949603844655154E-2</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="63"/>
-        <v>7.8402029169308829E-3</v>
+        <f t="shared" si="64"/>
+        <v>2.7601775523145244E-2</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="63"/>
-        <v>3.2975200713648567E-2</v>
+        <f t="shared" si="64"/>
+        <v>7.3881177520071395E-2</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="63"/>
-        <v>4.6404125268945995E-2</v>
+        <f t="shared" si="64"/>
+        <v>4.755144919913934E-2</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7" t="e">
@@ -3022,11 +3062,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="7" t="e">
-        <f t="shared" ref="P23:Q23" si="64">P4/O4-1</f>
+        <f t="shared" ref="P23:Q23" si="65">P4/O4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="7" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R23" s="7">
@@ -3038,23 +3078,23 @@
         <v>6.8052803063383793E-2</v>
       </c>
       <c r="T23" s="7">
-        <f t="shared" ref="T23:X23" si="65">T4/S4-1</f>
-        <v>2.5184555524106145E-2</v>
+        <f t="shared" ref="T23:X23" si="66">T4/S4-1</f>
+        <v>4.0481838664024883E-2</v>
       </c>
       <c r="U23" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="V23" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="W23" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="X23" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Z23" s="1" t="s">
@@ -3069,48 +3109,48 @@
         <v>26</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" ref="C24:M24" si="66">C4/B4-1</f>
+        <f t="shared" ref="C24:M24" si="67">C4/B4-1</f>
         <v>3.5085227272727337E-2</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1.7977219706326375E-2</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>8.1962793205715867E-2</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-4.0742586593570884E-2</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>2.4158981685933334E-2</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-4.8192771084337727E-3</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>6.6139926086402401E-2</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-6.8730576141525224E-2</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="66"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="67"/>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="66"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="67"/>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="66"/>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" si="67"/>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>41</v>
@@ -3133,91 +3173,91 @@
         <v>27</v>
       </c>
       <c r="B26" s="7">
-        <f t="shared" ref="B26:M26" si="67">B9/B4</f>
+        <f t="shared" ref="B26:M26" si="68">B9/B4</f>
         <v>0.40156249999999999</v>
       </c>
       <c r="C26" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.39193083573487031</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.39026691830682125</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.39957637677547969</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.39057020392258734</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.40228281547241596</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.41123996431757359</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="67"/>
-        <v>0.41644752569925891</v>
-      </c>
-      <c r="J26" s="7">
-        <f t="shared" si="67"/>
-        <v>0.41644752569925891</v>
-      </c>
-      <c r="K26" s="7">
-        <f t="shared" si="67"/>
-        <v>0.41644752569925897</v>
-      </c>
-      <c r="L26" s="7">
-        <f t="shared" si="67"/>
-        <v>0.41644752569925891</v>
-      </c>
-      <c r="M26" s="7">
-        <f t="shared" si="67"/>
-        <v>0.41644752569925902</v>
-      </c>
-      <c r="O26" s="7" t="e">
-        <f t="shared" ref="O26:X26" si="68">O9/O4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P26" s="7" t="e">
-        <f t="shared" si="68"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" s="7">
-        <f t="shared" si="68"/>
-        <v>0.42346827531070574</v>
-      </c>
-      <c r="R26" s="7">
-        <f t="shared" si="68"/>
-        <v>0.39585502670383932</v>
-      </c>
-      <c r="S26" s="7">
-        <f t="shared" si="68"/>
-        <v>0.40538415573796271</v>
-      </c>
-      <c r="T26" s="7">
         <f t="shared" si="68"/>
         <v>0.41644752569925891</v>
       </c>
-      <c r="U26" s="7">
+      <c r="J26" s="7">
         <f t="shared" si="68"/>
         <v>0.41644752569925891</v>
       </c>
-      <c r="V26" s="7">
+      <c r="K26" s="7">
+        <f t="shared" si="68"/>
+        <v>0.41644752569925886</v>
+      </c>
+      <c r="L26" s="7">
         <f t="shared" si="68"/>
         <v>0.41644752569925897</v>
       </c>
-      <c r="W26" s="7">
+      <c r="M26" s="7">
         <f t="shared" si="68"/>
         <v>0.41644752569925897</v>
       </c>
+      <c r="O26" s="7" t="e">
+        <f t="shared" ref="O26:X26" si="69">O9/O4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" s="7" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" si="69"/>
+        <v>0.42346827531070574</v>
+      </c>
+      <c r="R26" s="7">
+        <f t="shared" si="69"/>
+        <v>0.39585502670383932</v>
+      </c>
+      <c r="S26" s="7">
+        <f t="shared" si="69"/>
+        <v>0.40538415573796271</v>
+      </c>
+      <c r="T26" s="7">
+        <f t="shared" si="69"/>
+        <v>0.41644752569925897</v>
+      </c>
+      <c r="U26" s="7">
+        <f t="shared" si="69"/>
+        <v>0.41644752569925902</v>
+      </c>
+      <c r="V26" s="7">
+        <f t="shared" si="69"/>
+        <v>0.41644752569925897</v>
+      </c>
+      <c r="W26" s="7">
+        <f t="shared" si="69"/>
+        <v>0.41644752569925902</v>
+      </c>
       <c r="X26" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.41644752569925891</v>
       </c>
       <c r="Z26" s="1" t="s">
@@ -3233,99 +3273,99 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <f t="shared" ref="B27:M27" si="69">B15/B4</f>
+        <f t="shared" ref="B27:M27" si="70">B15/B4</f>
         <v>0.14190340909090909</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.15548236585700562</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.15745483957940146</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.21530027410914529</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.15170801402779582</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.16804058338617628</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.17726519689053141</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="69"/>
-        <v>0.17224480038250059</v>
-      </c>
-      <c r="J27" s="4">
-        <f t="shared" si="69"/>
-        <v>0.17224480038250059</v>
-      </c>
-      <c r="K27" s="4">
-        <f t="shared" si="69"/>
-        <v>0.17224480038250065</v>
-      </c>
-      <c r="L27" s="4">
-        <f t="shared" si="69"/>
-        <v>0.17224480038250059</v>
-      </c>
-      <c r="M27" s="4">
-        <f t="shared" si="69"/>
-        <v>0.1722448003825007</v>
-      </c>
-      <c r="O27" s="4" t="e">
-        <f t="shared" ref="O27:X27" si="70">O15/O4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P27" s="4" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q27" s="4">
-        <f t="shared" si="70"/>
-        <v>0.13943600552365723</v>
-      </c>
-      <c r="R27" s="4">
-        <f t="shared" si="70"/>
-        <v>0.16888918746431092</v>
-      </c>
-      <c r="S27" s="4">
-        <f t="shared" si="70"/>
-        <v>0.16746862911595434</v>
-      </c>
-      <c r="T27" s="4">
-        <f t="shared" si="70"/>
-        <v>0.17224480038250062</v>
-      </c>
-      <c r="U27" s="4">
         <f t="shared" si="70"/>
         <v>0.17224480038250059</v>
       </c>
-      <c r="V27" s="4">
+      <c r="J27" s="4">
+        <f t="shared" si="70"/>
+        <v>0.17224480038250059</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="70"/>
+        <v>0.17224480038250056</v>
+      </c>
+      <c r="L27" s="4">
         <f t="shared" si="70"/>
         <v>0.1722448003825007</v>
       </c>
+      <c r="M27" s="4">
+        <f t="shared" si="70"/>
+        <v>0.17224480038250065</v>
+      </c>
+      <c r="O27" s="4" t="e">
+        <f t="shared" ref="O27:X27" si="71">O15/O4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="4" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="4">
+        <f t="shared" si="71"/>
+        <v>0.13943600552365723</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="71"/>
+        <v>0.16888918746431092</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="71"/>
+        <v>0.16746862911595434</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="71"/>
+        <v>0.17224480038250065</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="71"/>
+        <v>0.17224480038250073</v>
+      </c>
+      <c r="V27" s="4">
+        <f t="shared" si="71"/>
+        <v>0.17224480038250067</v>
+      </c>
       <c r="W27" s="4">
-        <f t="shared" si="70"/>
-        <v>0.1722448003825007</v>
+        <f t="shared" si="71"/>
+        <v>0.17224480038250073</v>
       </c>
       <c r="X27" s="4">
-        <f t="shared" si="70"/>
-        <v>0.17224480038250059</v>
+        <f t="shared" si="71"/>
+        <v>0.17224480038250053</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA27" s="4">
         <f>AA26/Main!P2-1</f>
-        <v>0.33211840952613447</v>
+        <v>0.42158904897191962</v>
       </c>
     </row>
     <row r="28" spans="1:170" x14ac:dyDescent="0.2">
@@ -3351,32 +3391,32 @@
         <v>9.0304527945344867E-2</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" ref="R28:X28" si="71">R32/R4</f>
+        <f t="shared" ref="R28:X28" si="72">R32/R4</f>
         <v>0.13741560579087031</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.18432556530490299</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" si="71"/>
-        <v>0.19940000041681347</v>
+        <f t="shared" si="72"/>
+        <v>0.19646839877694969</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="71"/>
-        <v>0.17901007216906345</v>
+        <f t="shared" si="72"/>
+        <v>0.1763782455891939</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" si="71"/>
-        <v>0.17901007216906342</v>
+        <f t="shared" si="72"/>
+        <v>0.1763782455891939</v>
       </c>
       <c r="W28" s="4">
-        <f t="shared" si="71"/>
-        <v>0.17901007216906339</v>
+        <f t="shared" si="72"/>
+        <v>0.1763782455891939</v>
       </c>
       <c r="X28" s="4">
-        <f t="shared" si="71"/>
-        <v>0.17901007216906337</v>
+        <f t="shared" si="72"/>
+        <v>0.1763782455891939</v>
       </c>
       <c r="AA28" s="4"/>
     </row>
@@ -3409,15 +3449,15 @@
         <v>7875</v>
       </c>
       <c r="V30" s="1">
-        <f t="shared" ref="V30:X31" si="72">U30*1.05</f>
+        <f t="shared" ref="V30:X31" si="73">U30*1.05</f>
         <v>8268.75</v>
       </c>
       <c r="W30" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>8682.1875</v>
       </c>
       <c r="X30" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>9116.296875</v>
       </c>
       <c r="AB30" s="5"/>
@@ -3443,15 +3483,15 @@
         <v>1747.9</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1835.2950000000001</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1927.0597500000001</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>2023.4127375000003</v>
       </c>
       <c r="AB31" s="5"/>
@@ -3469,11 +3509,11 @@
         <v>2485</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" ref="R32:S32" si="73">R30+R31</f>
+        <f t="shared" ref="R32:S32" si="74">R30+R31</f>
         <v>4091</v>
       </c>
       <c r="S32" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5861</v>
       </c>
       <c r="T32" s="3">
@@ -3484,587 +3524,587 @@
         <v>6127.1</v>
       </c>
       <c r="V32" s="3">
-        <f t="shared" ref="V32:X32" si="74">V30-V31</f>
+        <f t="shared" ref="V32:X32" si="75">V30-V31</f>
         <v>6433.4549999999999</v>
       </c>
       <c r="W32" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>6755.1277499999997</v>
       </c>
       <c r="X32" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>7092.8841374999993</v>
       </c>
       <c r="Y32" s="3">
-        <f t="shared" ref="Y32:BD32" si="75">X32*(1+$AA$23)</f>
+        <f t="shared" ref="Y32:BD32" si="76">X32*(1+$AA$23)</f>
         <v>7163.8129788749993</v>
       </c>
       <c r="Z32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7235.4511086637494</v>
       </c>
       <c r="AA32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7307.8056197503875</v>
       </c>
       <c r="AB32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7380.8836759478918</v>
       </c>
       <c r="AC32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7454.692512707371</v>
       </c>
       <c r="AD32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7529.2394378344443</v>
       </c>
       <c r="AE32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7604.5318322127887</v>
       </c>
       <c r="AF32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7680.5771505349167</v>
       </c>
       <c r="AG32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7757.3829220402658</v>
       </c>
       <c r="AH32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7834.9567512606682</v>
       </c>
       <c r="AI32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7913.3063187732751</v>
       </c>
       <c r="AJ32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7992.4393819610077</v>
       </c>
       <c r="AK32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8072.3637757806182</v>
       </c>
       <c r="AL32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8153.0874135384247</v>
       </c>
       <c r="AM32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8234.6182876738094</v>
       </c>
       <c r="AN32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8316.964470550547</v>
       </c>
       <c r="AO32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8400.1341152560526</v>
       </c>
       <c r="AP32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8484.1354564086141</v>
       </c>
       <c r="AQ32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8568.9768109727011</v>
       </c>
       <c r="AR32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8654.6665790824281</v>
       </c>
       <c r="AS32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8741.2132448732518</v>
       </c>
       <c r="AT32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8828.6253773219851</v>
       </c>
       <c r="AU32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8916.9116310952049</v>
       </c>
       <c r="AV32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9006.0807474061567</v>
       </c>
       <c r="AW32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9096.1415548802179</v>
       </c>
       <c r="AX32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9187.1029704290195</v>
       </c>
       <c r="AY32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9278.9740001333103</v>
       </c>
       <c r="AZ32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9371.7637401346437</v>
       </c>
       <c r="BA32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9465.4813775359908</v>
       </c>
       <c r="BB32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9560.1361913113506</v>
       </c>
       <c r="BC32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9655.7375532244641</v>
       </c>
       <c r="BD32" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9752.294928756708</v>
       </c>
       <c r="BE32" s="3">
-        <f t="shared" ref="BE32:CJ32" si="76">BD32*(1+$AA$23)</f>
+        <f t="shared" ref="BE32:CJ32" si="77">BD32*(1+$AA$23)</f>
         <v>9849.8178780442759</v>
       </c>
       <c r="BF32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>9948.3160568247185</v>
       </c>
       <c r="BG32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10047.799217392965</v>
       </c>
       <c r="BH32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10148.277209566895</v>
       </c>
       <c r="BI32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10249.759981662564</v>
       </c>
       <c r="BJ32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10352.257581479191</v>
       </c>
       <c r="BK32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10455.780157293982</v>
       </c>
       <c r="BL32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10560.337958866923</v>
       </c>
       <c r="BM32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10665.941338455592</v>
       </c>
       <c r="BN32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10772.600751840147</v>
       </c>
       <c r="BO32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10880.32675935855</v>
       </c>
       <c r="BP32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10989.130026952136</v>
       </c>
       <c r="BQ32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>11099.021327221657</v>
       </c>
       <c r="BR32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>11210.011540493873</v>
       </c>
       <c r="BS32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>11322.111655898812</v>
       </c>
       <c r="BT32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>11435.332772457801</v>
       </c>
       <c r="BU32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>11549.68610018238</v>
       </c>
       <c r="BV32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>11665.182961184204</v>
       </c>
       <c r="BW32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>11781.834790796047</v>
       </c>
       <c r="BX32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>11899.653138704007</v>
       </c>
       <c r="BY32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>12018.649670091047</v>
       </c>
       <c r="BZ32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>12138.836166791958</v>
       </c>
       <c r="CA32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>12260.224528459878</v>
       </c>
       <c r="CB32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>12382.826773744477</v>
       </c>
       <c r="CC32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>12506.655041481921</v>
       </c>
       <c r="CD32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>12631.721591896741</v>
       </c>
       <c r="CE32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>12758.038807815708</v>
       </c>
       <c r="CF32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>12885.619195893865</v>
       </c>
       <c r="CG32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>13014.475387852804</v>
       </c>
       <c r="CH32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>13144.620141731333</v>
       </c>
       <c r="CI32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>13276.066343148646</v>
       </c>
       <c r="CJ32" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>13408.827006580133</v>
       </c>
       <c r="CK32" s="3">
-        <f t="shared" ref="CK32:DP32" si="77">CJ32*(1+$AA$23)</f>
+        <f t="shared" ref="CK32:DP32" si="78">CJ32*(1+$AA$23)</f>
         <v>13542.915276645936</v>
       </c>
       <c r="CL32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>13678.344429412395</v>
       </c>
       <c r="CM32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>13815.127873706519</v>
       </c>
       <c r="CN32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>13953.279152443583</v>
       </c>
       <c r="CO32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>14092.811943968019</v>
       </c>
       <c r="CP32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>14233.7400634077</v>
       </c>
       <c r="CQ32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>14376.077464041777</v>
       </c>
       <c r="CR32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>14519.838238682194</v>
       </c>
       <c r="CS32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>14665.036621069015</v>
       </c>
       <c r="CT32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>14811.686987279705</v>
       </c>
       <c r="CU32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>14959.803857152503</v>
       </c>
       <c r="CV32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>15109.401895724028</v>
       </c>
       <c r="CW32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>15260.495914681269</v>
       </c>
       <c r="CX32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>15413.100873828082</v>
       </c>
       <c r="CY32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>15567.231882566362</v>
       </c>
       <c r="CZ32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>15722.904201392026</v>
       </c>
       <c r="DA32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>15880.133243405946</v>
       </c>
       <c r="DB32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>16038.934575840005</v>
       </c>
       <c r="DC32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>16199.323921598405</v>
       </c>
       <c r="DD32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>16361.317160814389</v>
       </c>
       <c r="DE32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>16524.930332422533</v>
       </c>
       <c r="DF32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>16690.179635746757</v>
       </c>
       <c r="DG32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>16857.081432104223</v>
       </c>
       <c r="DH32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>17025.652246425267</v>
       </c>
       <c r="DI32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>17195.90876888952</v>
       </c>
       <c r="DJ32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>17367.867856578414</v>
       </c>
       <c r="DK32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>17541.5465351442</v>
       </c>
       <c r="DL32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>17716.962000495641</v>
       </c>
       <c r="DM32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>17894.131620500597</v>
       </c>
       <c r="DN32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>18073.072936705605</v>
       </c>
       <c r="DO32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>18253.803666072661</v>
       </c>
       <c r="DP32" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>18436.341702733389</v>
       </c>
       <c r="DQ32" s="3">
-        <f t="shared" ref="DQ32:EV32" si="78">DP32*(1+$AA$23)</f>
+        <f t="shared" ref="DQ32:EV32" si="79">DP32*(1+$AA$23)</f>
         <v>18620.705119760722</v>
       </c>
       <c r="DR32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>18806.912170958331</v>
       </c>
       <c r="DS32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>18994.981292667915</v>
       </c>
       <c r="DT32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>19184.931105594595</v>
       </c>
       <c r="DU32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>19376.780416650541</v>
       </c>
       <c r="DV32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>19570.548220817047</v>
       </c>
       <c r="DW32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>19766.253703025217</v>
       </c>
       <c r="DX32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>19963.916240055471</v>
       </c>
       <c r="DY32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>20163.555402456026</v>
       </c>
       <c r="DZ32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>20365.190956480586</v>
       </c>
       <c r="EA32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>20568.842866045394</v>
       </c>
       <c r="EB32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>20774.531294705848</v>
       </c>
       <c r="EC32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>20982.276607652908</v>
       </c>
       <c r="ED32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>21192.099373729438</v>
       </c>
       <c r="EE32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>21404.020367466732</v>
       </c>
       <c r="EF32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>21618.060571141399</v>
       </c>
       <c r="EG32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>21834.241176852815</v>
       </c>
       <c r="EH32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>22052.583588621343</v>
       </c>
       <c r="EI32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>22273.109424507555</v>
       </c>
       <c r="EJ32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>22495.84051875263</v>
       </c>
       <c r="EK32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>22720.798923940158</v>
       </c>
       <c r="EL32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>22948.006913179561</v>
       </c>
       <c r="EM32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>23177.486982311355</v>
       </c>
       <c r="EN32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>23409.26185213447</v>
       </c>
       <c r="EO32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>23643.354470655817</v>
       </c>
       <c r="EP32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>23879.788015362374</v>
       </c>
       <c r="EQ32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>24118.585895515997</v>
       </c>
       <c r="ER32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>24359.771754471156</v>
       </c>
       <c r="ES32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>24603.369472015867</v>
       </c>
       <c r="ET32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>24849.403166736025</v>
       </c>
       <c r="EU32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>25097.897198403385</v>
       </c>
       <c r="EV32" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>25348.876170387419</v>
       </c>
       <c r="EW32" s="3">
-        <f t="shared" ref="EW32:FK32" si="79">EV32*(1+$AA$23)</f>
+        <f t="shared" ref="EW32:FK32" si="80">EV32*(1+$AA$23)</f>
         <v>25602.364932091292</v>
       </c>
       <c r="EX32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>25858.388581412204</v>
       </c>
       <c r="EY32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>26116.972467226326</v>
       </c>
       <c r="EZ32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>26378.142191898591</v>
       </c>
       <c r="FA32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>26641.923613817577</v>
       </c>
       <c r="FB32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>26908.342849955752</v>
       </c>
       <c r="FC32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>27177.42627845531</v>
       </c>
       <c r="FD32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>27449.200541239865</v>
       </c>
       <c r="FE32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>27723.692546652263</v>
       </c>
       <c r="FF32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>28000.929472118787</v>
       </c>
       <c r="FG32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>28280.938766839976</v>
       </c>
       <c r="FH32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>28563.748154508376</v>
       </c>
       <c r="FI32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>28849.385636053459</v>
       </c>
       <c r="FJ32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>29137.879492413995</v>
       </c>
       <c r="FK32" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>29429.258287338136</v>
       </c>
     </row>
@@ -4097,11 +4137,11 @@
       </c>
       <c r="L34" s="1">
         <f>K34+L19</f>
-        <v>4391.3282798450873</v>
+        <v>4435.5592563882383</v>
       </c>
       <c r="M34" s="1">
         <f>L34+M19</f>
-        <v>5615.1882685745095</v>
+        <v>5660.9188040505596</v>
       </c>
       <c r="S34" s="1">
         <f>S38-S45</f>
@@ -4109,23 +4149,23 @@
       </c>
       <c r="T34" s="1">
         <f>M34</f>
-        <v>5615.1882685745095</v>
+        <v>5660.9188040505596</v>
       </c>
       <c r="U34" s="1">
         <f>T34+U19</f>
-        <v>10421.463618497481</v>
+        <v>10538.302049917831</v>
       </c>
       <c r="V34" s="1">
         <f>U34+V19</f>
-        <v>15540.460990900514</v>
+        <v>15733.063854969099</v>
       </c>
       <c r="W34" s="1">
         <f>V34+W19</f>
-        <v>20988.975018987348</v>
+        <v>21262.249297513819</v>
       </c>
       <c r="X34" s="1">
         <f>W34+X19</f>
-        <v>26784.658604135191</v>
+        <v>27143.774528182508</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
@@ -4228,11 +4268,11 @@
         <v>0.15787130916464709</v>
       </c>
       <c r="R42" s="4">
-        <f t="shared" ref="R42:S42" si="80">R41/R40*-1-1</f>
+        <f t="shared" ref="R42:S42" si="81">R41/R40*-1-1</f>
         <v>0.10532302092811641</v>
       </c>
       <c r="S42" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>2.8730588729062534E-2</v>
       </c>
     </row>

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA04711-A758-43A5-94EA-A25F73BE1023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73290547-4038-4AE5-AEF4-F2206B1AF001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
+    <workbookView xWindow="4410" yWindow="300" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,12 +398,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -438,7 +432,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -455,7 +449,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -923,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CAB345-9A71-4A10-9FCC-8B1DB985BF5A}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1013,7 +1007,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="F13" s="13" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1082,11 +1076,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C351E4BD-0CCB-4B4B-8440-0A8537A331C4}">
   <dimension ref="A1:FO62"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V9" sqref="V9"/>
+      <selection pane="bottomRight" activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1102,7 +1096,7 @@
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>56</v>
       </c>
@@ -1110,7 +1104,7 @@
         <v>45958</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
@@ -1187,7 +1181,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>52</v>
       </c>
@@ -1223,7 +1217,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>53</v>
       </c>
@@ -1259,7 +1253,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
@@ -1315,7 +1309,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="12"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1333,7 +1327,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>51</v>
       </c>
@@ -1369,7 +1363,7 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>49</v>
       </c>
@@ -1405,7 +1399,7 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" s="12"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -1422,7 +1416,7 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
@@ -1464,7 +1458,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>55</v>
       </c>
@@ -1506,7 +1500,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1518,7 +1512,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1589,8 +1583,9 @@
         <f t="shared" si="2"/>
         <v>40608.093719970006</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1660,8 +1655,9 @@
         <f t="shared" si="4"/>
         <v>18701.779162500003</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="4"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>50</v>
       </c>
@@ -1733,7 +1729,7 @@
         <v>2239.2887543775005</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
@@ -2797,587 +2793,587 @@
         <v>6956.3963233061631</v>
       </c>
       <c r="Z28" s="12">
-        <f>Y28*(1+$AB$31)</f>
+        <f t="shared" ref="Z28:BE28" si="53">Y28*(1+$AB$31)</f>
         <v>7025.9602865392244</v>
       </c>
       <c r="AA28" s="12">
-        <f>Z28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>7096.2198894046169</v>
       </c>
       <c r="AB28" s="12">
-        <f>AA28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>7167.1820882986631</v>
       </c>
       <c r="AC28" s="12">
-        <f>AB28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>7238.8539091816501</v>
       </c>
       <c r="AD28" s="12">
-        <f>AC28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>7311.2424482734668</v>
       </c>
       <c r="AE28" s="12">
-        <f>AD28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>7384.354872756202</v>
       </c>
       <c r="AF28" s="12">
-        <f>AE28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>7458.1984214837639</v>
       </c>
       <c r="AG28" s="12">
-        <f>AF28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>7532.7804056986015</v>
       </c>
       <c r="AH28" s="12">
-        <f>AG28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>7608.1082097555873</v>
       </c>
       <c r="AI28" s="12">
-        <f>AH28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>7684.189291853143</v>
       </c>
       <c r="AJ28" s="12">
-        <f>AI28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>7761.0311847716748</v>
       </c>
       <c r="AK28" s="12">
-        <f>AJ28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>7838.6414966193915</v>
       </c>
       <c r="AL28" s="12">
-        <f>AK28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>7917.0279115855856</v>
       </c>
       <c r="AM28" s="12">
-        <f>AL28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>7996.1981907014415</v>
       </c>
       <c r="AN28" s="12">
-        <f>AM28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>8076.1601726084564</v>
       </c>
       <c r="AO28" s="12">
-        <f>AN28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>8156.9217743345407</v>
       </c>
       <c r="AP28" s="12">
-        <f>AO28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>8238.4909920778864</v>
       </c>
       <c r="AQ28" s="12">
-        <f>AP28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>8320.8759019986646</v>
       </c>
       <c r="AR28" s="12">
-        <f>AQ28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>8404.0846610186509</v>
       </c>
       <c r="AS28" s="12">
-        <f>AR28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>8488.125507628838</v>
       </c>
       <c r="AT28" s="12">
-        <f>AS28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>8573.0067627051267</v>
       </c>
       <c r="AU28" s="12">
-        <f>AT28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>8658.7368303321782</v>
       </c>
       <c r="AV28" s="12">
-        <f>AU28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>8745.3241986355006</v>
       </c>
       <c r="AW28" s="12">
-        <f>AV28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>8832.7774406218559</v>
       </c>
       <c r="AX28" s="12">
-        <f>AW28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>8921.1052150280739</v>
       </c>
       <c r="AY28" s="12">
-        <f>AX28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>9010.3162671783539</v>
       </c>
       <c r="AZ28" s="12">
-        <f>AY28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>9100.419429850137</v>
       </c>
       <c r="BA28" s="12">
-        <f>AZ28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>9191.4236241486378</v>
       </c>
       <c r="BB28" s="12">
-        <f>BA28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>9283.3378603901238</v>
       </c>
       <c r="BC28" s="12">
-        <f>BB28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>9376.1712389940258</v>
       </c>
       <c r="BD28" s="12">
-        <f>BC28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>9469.9329513839657</v>
       </c>
       <c r="BE28" s="12">
-        <f>BD28*(1+$AB$31)</f>
+        <f t="shared" si="53"/>
         <v>9564.6322808978057</v>
       </c>
       <c r="BF28" s="12">
-        <f>BE28*(1+$AB$31)</f>
+        <f t="shared" ref="BF28:CK28" si="54">BE28*(1+$AB$31)</f>
         <v>9660.2786037067835</v>
       </c>
       <c r="BG28" s="12">
-        <f>BF28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>9756.8813897438522</v>
       </c>
       <c r="BH28" s="12">
-        <f>BG28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>9854.4502036412905</v>
       </c>
       <c r="BI28" s="12">
-        <f>BH28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>9952.9947056777037</v>
       </c>
       <c r="BJ28" s="12">
-        <f>BI28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>10052.524652734481</v>
       </c>
       <c r="BK28" s="12">
-        <f>BJ28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>10153.049899261825</v>
       </c>
       <c r="BL28" s="12">
-        <f>BK28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>10254.580398254444</v>
       </c>
       <c r="BM28" s="12">
-        <f>BL28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>10357.126202236988</v>
       </c>
       <c r="BN28" s="12">
-        <f>BM28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>10460.697464259358</v>
       </c>
       <c r="BO28" s="12">
-        <f>BN28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>10565.304438901951</v>
       </c>
       <c r="BP28" s="12">
-        <f>BO28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>10670.957483290969</v>
       </c>
       <c r="BQ28" s="12">
-        <f>BP28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>10777.66705812388</v>
       </c>
       <c r="BR28" s="12">
-        <f>BQ28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>10885.443728705119</v>
       </c>
       <c r="BS28" s="12">
-        <f>BR28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>10994.29816599217</v>
       </c>
       <c r="BT28" s="12">
-        <f>BS28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>11104.241147652092</v>
       </c>
       <c r="BU28" s="12">
-        <f>BT28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>11215.283559128613</v>
       </c>
       <c r="BV28" s="12">
-        <f>BU28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>11327.4363947199</v>
       </c>
       <c r="BW28" s="12">
-        <f>BV28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>11440.710758667099</v>
       </c>
       <c r="BX28" s="12">
-        <f>BW28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>11555.11786625377</v>
       </c>
       <c r="BY28" s="12">
-        <f>BX28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>11670.669044916307</v>
       </c>
       <c r="BZ28" s="12">
-        <f>BY28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>11787.375735365471</v>
       </c>
       <c r="CA28" s="12">
-        <f>BZ28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>11905.249492719126</v>
       </c>
       <c r="CB28" s="12">
-        <f>CA28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>12024.301987646317</v>
       </c>
       <c r="CC28" s="12">
-        <f>CB28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>12144.54500752278</v>
       </c>
       <c r="CD28" s="12">
-        <f>CC28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>12265.990457598007</v>
       </c>
       <c r="CE28" s="12">
-        <f>CD28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>12388.650362173987</v>
       </c>
       <c r="CF28" s="12">
-        <f>CE28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>12512.536865795726</v>
       </c>
       <c r="CG28" s="12">
-        <f>CF28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>12637.662234453683</v>
       </c>
       <c r="CH28" s="12">
-        <f>CG28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>12764.038856798219</v>
       </c>
       <c r="CI28" s="12">
-        <f>CH28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>12891.679245366202</v>
       </c>
       <c r="CJ28" s="12">
-        <f>CI28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>13020.596037819863</v>
       </c>
       <c r="CK28" s="12">
-        <f>CJ28*(1+$AB$31)</f>
+        <f t="shared" si="54"/>
         <v>13150.801998198061</v>
       </c>
       <c r="CL28" s="12">
-        <f>CK28*(1+$AB$31)</f>
+        <f t="shared" ref="CL28:DQ28" si="55">CK28*(1+$AB$31)</f>
         <v>13282.310018180042</v>
       </c>
       <c r="CM28" s="12">
-        <f>CL28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>13415.133118361842</v>
       </c>
       <c r="CN28" s="12">
-        <f>CM28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>13549.284449545461</v>
       </c>
       <c r="CO28" s="12">
-        <f>CN28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>13684.777294040916</v>
       </c>
       <c r="CP28" s="12">
-        <f>CO28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>13821.625066981325</v>
       </c>
       <c r="CQ28" s="12">
-        <f>CP28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>13959.841317651139</v>
       </c>
       <c r="CR28" s="12">
-        <f>CQ28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>14099.439730827649</v>
       </c>
       <c r="CS28" s="12">
-        <f>CR28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>14240.434128135927</v>
       </c>
       <c r="CT28" s="12">
-        <f>CS28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>14382.838469417286</v>
       </c>
       <c r="CU28" s="12">
-        <f>CT28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>14526.666854111458</v>
       </c>
       <c r="CV28" s="12">
-        <f>CU28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>14671.933522652573</v>
       </c>
       <c r="CW28" s="12">
-        <f>CV28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>14818.652857879099</v>
       </c>
       <c r="CX28" s="12">
-        <f>CW28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>14966.83938645789</v>
       </c>
       <c r="CY28" s="12">
-        <f>CX28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>15116.507780322469</v>
       </c>
       <c r="CZ28" s="12">
-        <f>CY28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>15267.672858125694</v>
       </c>
       <c r="DA28" s="12">
-        <f>CZ28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>15420.349586706951</v>
       </c>
       <c r="DB28" s="12">
-        <f>DA28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>15574.553082574021</v>
       </c>
       <c r="DC28" s="12">
-        <f>DB28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>15730.29861339976</v>
       </c>
       <c r="DD28" s="12">
-        <f>DC28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>15887.601599533758</v>
       </c>
       <c r="DE28" s="12">
-        <f>DD28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>16046.477615529097</v>
       </c>
       <c r="DF28" s="12">
-        <f>DE28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>16206.942391684388</v>
       </c>
       <c r="DG28" s="12">
-        <f>DF28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>16369.011815601232</v>
       </c>
       <c r="DH28" s="12">
-        <f>DG28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>16532.701933757246</v>
       </c>
       <c r="DI28" s="12">
-        <f>DH28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>16698.028953094818</v>
       </c>
       <c r="DJ28" s="12">
-        <f>DI28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>16865.009242625765</v>
       </c>
       <c r="DK28" s="12">
-        <f>DJ28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>17033.659335052023</v>
       </c>
       <c r="DL28" s="12">
-        <f>DK28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>17203.995928402543</v>
       </c>
       <c r="DM28" s="12">
-        <f>DL28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>17376.035887686568</v>
       </c>
       <c r="DN28" s="12">
-        <f>DM28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>17549.796246563434</v>
       </c>
       <c r="DO28" s="12">
-        <f>DN28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>17725.294209029067</v>
       </c>
       <c r="DP28" s="12">
-        <f>DO28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>17902.547151119357</v>
       </c>
       <c r="DQ28" s="12">
-        <f>DP28*(1+$AB$31)</f>
+        <f t="shared" si="55"/>
         <v>18081.572622630552</v>
       </c>
       <c r="DR28" s="12">
-        <f>DQ28*(1+$AB$31)</f>
+        <f t="shared" ref="DR28:EW28" si="56">DQ28*(1+$AB$31)</f>
         <v>18262.388348856857</v>
       </c>
       <c r="DS28" s="12">
-        <f>DR28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>18445.012232345427</v>
       </c>
       <c r="DT28" s="12">
-        <f>DS28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>18629.462354668882</v>
       </c>
       <c r="DU28" s="12">
-        <f>DT28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>18815.75697821557</v>
       </c>
       <c r="DV28" s="12">
-        <f>DU28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>19003.914547997727</v>
       </c>
       <c r="DW28" s="12">
-        <f>DV28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>19193.953693477706</v>
       </c>
       <c r="DX28" s="12">
-        <f>DW28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>19385.893230412483</v>
       </c>
       <c r="DY28" s="12">
-        <f>DX28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>19579.752162716606</v>
       </c>
       <c r="DZ28" s="12">
-        <f>DY28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>19775.549684343772</v>
       </c>
       <c r="EA28" s="12">
-        <f>DZ28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>19973.30518118721</v>
       </c>
       <c r="EB28" s="12">
-        <f>EA28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>20173.038232999083</v>
       </c>
       <c r="EC28" s="12">
-        <f>EB28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>20374.768615329074</v>
       </c>
       <c r="ED28" s="12">
-        <f>EC28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>20578.516301482367</v>
       </c>
       <c r="EE28" s="12">
-        <f>ED28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>20784.301464497192</v>
       </c>
       <c r="EF28" s="12">
-        <f>EE28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>20992.144479142164</v>
       </c>
       <c r="EG28" s="12">
-        <f>EF28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>21202.065923933584</v>
       </c>
       <c r="EH28" s="12">
-        <f>EG28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>21414.086583172921</v>
       </c>
       <c r="EI28" s="12">
-        <f>EH28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>21628.227449004651</v>
       </c>
       <c r="EJ28" s="12">
-        <f>EI28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>21844.509723494699</v>
       </c>
       <c r="EK28" s="12">
-        <f>EJ28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>22062.954820729647</v>
       </c>
       <c r="EL28" s="12">
-        <f>EK28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>22283.584368936943</v>
       </c>
       <c r="EM28" s="12">
-        <f>EL28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>22506.420212626312</v>
       </c>
       <c r="EN28" s="12">
-        <f>EM28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>22731.484414752576</v>
       </c>
       <c r="EO28" s="12">
-        <f>EN28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>22958.799258900104</v>
       </c>
       <c r="EP28" s="12">
-        <f>EO28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>23188.387251489105</v>
       </c>
       <c r="EQ28" s="12">
-        <f>EP28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>23420.271124003997</v>
       </c>
       <c r="ER28" s="12">
-        <f>EQ28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>23654.473835244036</v>
       </c>
       <c r="ES28" s="12">
-        <f>ER28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>23891.018573596477</v>
       </c>
       <c r="ET28" s="12">
-        <f>ES28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>24129.928759332441</v>
       </c>
       <c r="EU28" s="12">
-        <f>ET28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>24371.228046925764</v>
       </c>
       <c r="EV28" s="12">
-        <f>EU28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>24614.940327395023</v>
       </c>
       <c r="EW28" s="12">
-        <f>EV28*(1+$AB$31)</f>
+        <f t="shared" si="56"/>
         <v>24861.089730668973</v>
       </c>
       <c r="EX28" s="12">
-        <f>EW28*(1+$AB$31)</f>
+        <f t="shared" ref="EX28:FO28" si="57">EW28*(1+$AB$31)</f>
         <v>25109.700627975664</v>
       </c>
       <c r="EY28" s="12">
-        <f>EX28*(1+$AB$31)</f>
+        <f t="shared" si="57"/>
         <v>25360.797634255421</v>
       </c>
       <c r="EZ28" s="12">
-        <f>EY28*(1+$AB$31)</f>
+        <f t="shared" si="57"/>
         <v>25614.405610597976</v>
       </c>
       <c r="FA28" s="12">
-        <f>EZ28*(1+$AB$31)</f>
+        <f t="shared" si="57"/>
         <v>25870.549666703955</v>
       </c>
       <c r="FB28" s="12">
-        <f>FA28*(1+$AB$31)</f>
+        <f t="shared" si="57"/>
         <v>26129.255163370995</v>
       </c>
       <c r="FC28" s="12">
-        <f>FB28*(1+$AB$31)</f>
+        <f t="shared" si="57"/>
         <v>26390.547715004705</v>
       </c>
       <c r="FD28" s="12">
-        <f>FC28*(1+$AB$31)</f>
+        <f t="shared" si="57"/>
         <v>26654.453192154753</v>
       </c>
       <c r="FE28" s="12">
-        <f>FD28*(1+$AB$31)</f>
+        <f t="shared" si="57"/>
         <v>26920.9977240763</v>
       </c>
       <c r="FF28" s="12">
-        <f>FE28*(1+$AB$31)</f>
+        <f t="shared" si="57"/>
         <v>27190.207701317064</v>
       </c>
       <c r="FG28" s="12">
-        <f>FF28*(1+$AB$31)</f>
+        <f t="shared" si="57"/>
         <v>27462.109778330236</v>
       </c>
       <c r="FH28" s="12">
-        <f>FG28*(1+$AB$31)</f>
+        <f t="shared" si="57"/>
         <v>27736.730876113539</v>
       </c>
       <c r="FI28" s="12">
-        <f>FH28*(1+$AB$31)</f>
+        <f t="shared" si="57"/>
         <v>28014.098184874674</v>
       </c>
       <c r="FJ28" s="12">
-        <f>FI28*(1+$AB$31)</f>
+        <f t="shared" si="57"/>
         <v>28294.239166723422</v>
       </c>
       <c r="FK28" s="12">
-        <f>FJ28*(1+$AB$31)</f>
+        <f t="shared" si="57"/>
         <v>28577.181558390657</v>
       </c>
       <c r="FL28" s="12">
-        <f>FK28*(1+$AB$31)</f>
+        <f t="shared" si="57"/>
         <v>28862.953373974564</v>
       </c>
       <c r="FM28" s="12">
-        <f>FL28*(1+$AB$31)</f>
+        <f t="shared" si="57"/>
         <v>29151.58290771431</v>
       </c>
       <c r="FN28" s="12">
-        <f>FM28*(1+$AB$31)</f>
+        <f t="shared" si="57"/>
         <v>29443.098736791453</v>
       </c>
       <c r="FO28" s="12">
-        <f>FN28*(1+$AB$31)</f>
+        <f t="shared" si="57"/>
         <v>29737.529724159369</v>
       </c>
     </row>
@@ -3440,15 +3436,15 @@
         <v>837.54</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" ref="W29:Y29" si="53">V29*0.94</f>
+        <f t="shared" ref="W29:Y29" si="58">V29*0.94</f>
         <v>787.28759999999988</v>
       </c>
       <c r="X29" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>740.05034399999988</v>
       </c>
       <c r="Y29" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>695.64732335999986</v>
       </c>
     </row>
@@ -3457,35 +3453,35 @@
         <v>6</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" ref="C30:J30" si="54">C28/C29</f>
+        <f t="shared" ref="C30:J30" si="59">C28/C29</f>
         <v>0.70105820105820105</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>0.92369838420107719</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>0.92896174863387981</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>1.2933579335793357</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>0.82835820895522383</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>1.0773638968481376</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>0.986328125</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>1.1055226824457594</v>
       </c>
       <c r="K30" s="5">
@@ -3496,11 +3492,11 @@
         <v>1.3013415892672859</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" ref="M30:N30" si="55">M28/M29</f>
+        <f t="shared" ref="M30:N30" si="60">M28/M29</f>
         <v>1.6217068797399778</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>1.7368308884090904</v>
       </c>
       <c r="R30" s="5">
@@ -3516,23 +3512,23 @@
         <v>3.991337824831569</v>
       </c>
       <c r="U30" s="5">
-        <f t="shared" ref="U30:Y30" si="56">U28/U29</f>
+        <f t="shared" ref="U30:Y30" si="61">U28/U29</f>
         <v>6.2764890814506105</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>6.8844492923862228</v>
       </c>
       <c r="W30" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>7.8017698849958776</v>
       </c>
       <c r="X30" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>8.8354670465592715</v>
       </c>
       <c r="Y30" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>9.9998894406817183</v>
       </c>
       <c r="AA30" s="1" t="s">
@@ -3562,35 +3558,35 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7">
-        <f t="shared" ref="G32:N32" si="57">G13/C13-1</f>
+        <f t="shared" ref="G32:N32" si="62">G13/C13-1</f>
         <v>9.3607954545454453E-2</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>8.2063949499108002E-2</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>5.7832299811269916E-2</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>4.2362322452030865E-2</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>1.1949603844655154E-2</v>
       </c>
       <c r="L32" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>5.1109701965757814E-2</v>
       </c>
       <c r="M32" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>8.7885816235503844E-2</v>
       </c>
       <c r="N32" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>5.1008749701171308E-2</v>
       </c>
       <c r="O32" s="7"/>
@@ -3599,11 +3595,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="7" t="e">
-        <f t="shared" ref="Q32:R32" si="58">Q13/P13-1</f>
+        <f t="shared" ref="Q32:R32" si="63">Q13/P13-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" s="7" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S32" s="7">
@@ -3615,23 +3611,23 @@
         <v>6.8052803063383793E-2</v>
       </c>
       <c r="U32" s="7">
-        <f t="shared" ref="U32:Y32" si="59">U13/T13-1</f>
+        <f t="shared" ref="U32:Y32" si="64">U13/T13-1</f>
         <v>5.06770827436549E-2</v>
       </c>
       <c r="V32" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="W32" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="X32" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Y32" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AA32" s="1" t="s">
@@ -3646,47 +3642,47 @@
         <v>23</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" ref="D33:N33" si="60">D13/C13-1</f>
+        <f t="shared" ref="D33:N33" si="65">D13/C13-1</f>
         <v>3.5085227272727337E-2</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>1.7977219706326375E-2</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>8.1962793205715867E-2</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-4.0742586593570884E-2</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>2.4158981685933334E-2</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-4.8192771084337727E-3</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>6.6139926086402401E-2</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-6.8730576141525224E-2</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>6.3791554357591984E-2</v>
       </c>
       <c r="M33" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AA33" s="1" t="s">
@@ -3694,7 +3690,7 @@
       </c>
       <c r="AB33" s="3">
         <f>NPV(AB32,U62:FL62)+Main!J5-Main!J6</f>
-        <v>92630.331591775132</v>
+        <v>92599.553979617034</v>
       </c>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.2">
@@ -3703,7 +3699,7 @@
       </c>
       <c r="AB34" s="5">
         <f>AB33/Main!J3</f>
-        <v>96.956694427857201</v>
+        <v>96.924479326324558</v>
       </c>
     </row>
     <row r="35" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3711,97 +3707,97 @@
         <v>24</v>
       </c>
       <c r="C35" s="7">
-        <f t="shared" ref="C35:N35" si="61">C18/C13</f>
+        <f t="shared" ref="C35:N35" si="66">C18/C13</f>
         <v>0.40156249999999999</v>
       </c>
       <c r="D35" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>0.39193083573487031</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>0.39026691830682125</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>0.39957637677547969</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>0.39057020392258734</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>0.40228281547241596</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>0.41123996431757359</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>0.41644752569925891</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>0.42587601078167114</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>0.41397200772200771</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>0.44759647823968207</v>
       </c>
       <c r="N35" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>0.44759647823968207</v>
       </c>
       <c r="P35" s="7" t="e">
-        <f t="shared" ref="P35:Y35" si="62">P18/P13</f>
+        <f t="shared" ref="P35:Y35" si="67">P18/P13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="7" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.42346827531070574</v>
       </c>
       <c r="S35" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.39585502670383932</v>
       </c>
       <c r="T35" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.40538415573796271</v>
       </c>
       <c r="U35" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.43418954906977336</v>
       </c>
       <c r="V35" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.43418954906977342</v>
       </c>
       <c r="W35" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.43418954906977342</v>
       </c>
       <c r="X35" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.43418954906977353</v>
       </c>
       <c r="Y35" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.43418954906977353</v>
       </c>
       <c r="AA35" s="1"/>
       <c r="AB35" s="4">
         <f>AB34/Main!J2-1</f>
-        <v>0.40516948446169865</v>
+        <v>0.40470259893223992</v>
       </c>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.2">
@@ -3809,91 +3805,91 @@
         <v>25</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" ref="C36:N36" si="63">C24/C13</f>
+        <f t="shared" ref="C36:N36" si="68">C24/C13</f>
         <v>0.14190340909090909</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.15548236585700562</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.15745483957940146</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.21530027410914529</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.15170801402779582</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.16804058338617628</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.17726519689053141</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.17224480038250059</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.19638043896804006</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.18146718146718147</v>
       </c>
       <c r="M36" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.2150916519848558</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.21509165198485578</v>
       </c>
       <c r="P36" s="4" t="e">
-        <f t="shared" ref="P36:Y36" si="64">P24/P13</f>
+        <f t="shared" ref="P36:Y36" si="69">P24/P13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="4" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R36" s="4">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.13943600552365723</v>
       </c>
       <c r="S36" s="4">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.16888918746431092</v>
       </c>
       <c r="T36" s="4">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.16746862911595434</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.20238649590040558</v>
       </c>
       <c r="V36" s="4">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.20238649590040561</v>
       </c>
       <c r="W36" s="4">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.20238649590040561</v>
       </c>
       <c r="X36" s="4">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.20238649590040567</v>
       </c>
       <c r="Y36" s="4">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.20238649590040569</v>
       </c>
     </row>
@@ -4238,8 +4234,8 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
     </row>
@@ -4264,15 +4260,15 @@
         <v>7875</v>
       </c>
       <c r="W60" s="1">
-        <f t="shared" ref="W60:Y61" si="65">V60*1.05</f>
+        <f t="shared" ref="W60:Y61" si="70">V60*1.05</f>
         <v>8268.75</v>
       </c>
       <c r="X60" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>8682.1875</v>
       </c>
       <c r="Y60" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>9116.296875</v>
       </c>
       <c r="AC60" s="5"/>
@@ -4294,20 +4290,19 @@
         <v>-1000</v>
       </c>
       <c r="V61" s="1">
-        <f>T61*1.1</f>
-        <v>-1747.9</v>
+        <v>-1750</v>
       </c>
       <c r="W61" s="1">
-        <f t="shared" si="65"/>
-        <v>-1835.2950000000001</v>
+        <f t="shared" si="70"/>
+        <v>-1837.5</v>
       </c>
       <c r="X61" s="1">
-        <f t="shared" si="65"/>
-        <v>-1927.0597500000001</v>
+        <f t="shared" si="70"/>
+        <v>-1929.375</v>
       </c>
       <c r="Y61" s="1">
-        <f t="shared" si="65"/>
-        <v>-2023.4127375000003</v>
+        <f t="shared" si="70"/>
+        <v>-2025.84375</v>
       </c>
       <c r="AC61" s="5"/>
     </row>
@@ -4354,11 +4349,11 @@
         <v>2485</v>
       </c>
       <c r="S62" s="3">
-        <f t="shared" ref="S62:T62" si="66">S60+S61</f>
+        <f t="shared" ref="S62:T62" si="71">S60+S61</f>
         <v>4091</v>
       </c>
       <c r="T62" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>5861</v>
       </c>
       <c r="U62" s="3">
@@ -4367,591 +4362,591 @@
       </c>
       <c r="V62" s="3">
         <f>V60+V61</f>
-        <v>6127.1</v>
+        <v>6125</v>
       </c>
       <c r="W62" s="3">
-        <f t="shared" ref="W62:Y62" si="67">W60+W61</f>
-        <v>6433.4549999999999</v>
+        <f t="shared" ref="W62:Y62" si="72">W60+W61</f>
+        <v>6431.25</v>
       </c>
       <c r="X62" s="3">
-        <f t="shared" si="67"/>
-        <v>6755.1277499999997</v>
+        <f t="shared" si="72"/>
+        <v>6752.8125</v>
       </c>
       <c r="Y62" s="3">
-        <f t="shared" si="67"/>
-        <v>7092.8841374999993</v>
+        <f t="shared" si="72"/>
+        <v>7090.453125</v>
       </c>
       <c r="Z62" s="3">
-        <f>Y62*(1+$AB$31)</f>
-        <v>7163.8129788749993</v>
+        <f t="shared" ref="Z62:BE62" si="73">Y62*(1+$AB$31)</f>
+        <v>7161.3576562500002</v>
       </c>
       <c r="AA62" s="3">
-        <f>Z62*(1+$AB$31)</f>
-        <v>7235.4511086637494</v>
+        <f t="shared" si="73"/>
+        <v>7232.9712328125006</v>
       </c>
       <c r="AB62" s="3">
-        <f>AA62*(1+$AB$31)</f>
-        <v>7307.8056197503875</v>
+        <f t="shared" si="73"/>
+        <v>7305.300945140626</v>
       </c>
       <c r="AC62" s="3">
-        <f>AB62*(1+$AB$31)</f>
-        <v>7380.8836759478918</v>
+        <f t="shared" si="73"/>
+        <v>7378.3539545920321</v>
       </c>
       <c r="AD62" s="3">
-        <f>AC62*(1+$AB$31)</f>
-        <v>7454.692512707371</v>
+        <f t="shared" si="73"/>
+        <v>7452.1374941379527</v>
       </c>
       <c r="AE62" s="3">
-        <f>AD62*(1+$AB$31)</f>
-        <v>7529.2394378344443</v>
+        <f t="shared" si="73"/>
+        <v>7526.6588690793324</v>
       </c>
       <c r="AF62" s="3">
-        <f>AE62*(1+$AB$31)</f>
-        <v>7604.5318322127887</v>
+        <f t="shared" si="73"/>
+        <v>7601.9254577701258</v>
       </c>
       <c r="AG62" s="3">
-        <f>AF62*(1+$AB$31)</f>
-        <v>7680.5771505349167</v>
+        <f t="shared" si="73"/>
+        <v>7677.9447123478276</v>
       </c>
       <c r="AH62" s="3">
-        <f>AG62*(1+$AB$31)</f>
-        <v>7757.3829220402658</v>
+        <f t="shared" si="73"/>
+        <v>7754.7241594713059</v>
       </c>
       <c r="AI62" s="3">
-        <f>AH62*(1+$AB$31)</f>
-        <v>7834.9567512606682</v>
+        <f t="shared" si="73"/>
+        <v>7832.2714010660193</v>
       </c>
       <c r="AJ62" s="3">
-        <f>AI62*(1+$AB$31)</f>
-        <v>7913.3063187732751</v>
+        <f t="shared" si="73"/>
+        <v>7910.5941150766794</v>
       </c>
       <c r="AK62" s="3">
-        <f>AJ62*(1+$AB$31)</f>
-        <v>7992.4393819610077</v>
+        <f t="shared" si="73"/>
+        <v>7989.7000562274461</v>
       </c>
       <c r="AL62" s="3">
-        <f>AK62*(1+$AB$31)</f>
-        <v>8072.3637757806182</v>
+        <f t="shared" si="73"/>
+        <v>8069.5970567897202</v>
       </c>
       <c r="AM62" s="3">
-        <f>AL62*(1+$AB$31)</f>
-        <v>8153.0874135384247</v>
+        <f t="shared" si="73"/>
+        <v>8150.2930273576176</v>
       </c>
       <c r="AN62" s="3">
-        <f>AM62*(1+$AB$31)</f>
-        <v>8234.6182876738094</v>
+        <f t="shared" si="73"/>
+        <v>8231.7959576311932</v>
       </c>
       <c r="AO62" s="3">
-        <f>AN62*(1+$AB$31)</f>
-        <v>8316.964470550547</v>
+        <f t="shared" si="73"/>
+        <v>8314.1139172075054</v>
       </c>
       <c r="AP62" s="3">
-        <f>AO62*(1+$AB$31)</f>
-        <v>8400.1341152560526</v>
+        <f t="shared" si="73"/>
+        <v>8397.2550563795812</v>
       </c>
       <c r="AQ62" s="3">
-        <f>AP62*(1+$AB$31)</f>
-        <v>8484.1354564086141</v>
+        <f t="shared" si="73"/>
+        <v>8481.2276069433774</v>
       </c>
       <c r="AR62" s="3">
-        <f>AQ62*(1+$AB$31)</f>
-        <v>8568.9768109727011</v>
+        <f t="shared" si="73"/>
+        <v>8566.0398830128106</v>
       </c>
       <c r="AS62" s="3">
-        <f>AR62*(1+$AB$31)</f>
-        <v>8654.6665790824281</v>
+        <f t="shared" si="73"/>
+        <v>8651.7002818429391</v>
       </c>
       <c r="AT62" s="3">
-        <f>AS62*(1+$AB$31)</f>
-        <v>8741.2132448732518</v>
+        <f t="shared" si="73"/>
+        <v>8738.2172846613685</v>
       </c>
       <c r="AU62" s="3">
-        <f>AT62*(1+$AB$31)</f>
-        <v>8828.6253773219851</v>
+        <f t="shared" si="73"/>
+        <v>8825.5994575079822</v>
       </c>
       <c r="AV62" s="3">
-        <f>AU62*(1+$AB$31)</f>
-        <v>8916.9116310952049</v>
+        <f t="shared" si="73"/>
+        <v>8913.8554520830621</v>
       </c>
       <c r="AW62" s="3">
-        <f>AV62*(1+$AB$31)</f>
-        <v>9006.0807474061567</v>
+        <f t="shared" si="73"/>
+        <v>9002.9940066038926</v>
       </c>
       <c r="AX62" s="3">
-        <f>AW62*(1+$AB$31)</f>
-        <v>9096.1415548802179</v>
+        <f t="shared" si="73"/>
+        <v>9093.0239466699313</v>
       </c>
       <c r="AY62" s="3">
-        <f>AX62*(1+$AB$31)</f>
-        <v>9187.1029704290195</v>
+        <f t="shared" si="73"/>
+        <v>9183.9541861366306</v>
       </c>
       <c r="AZ62" s="3">
-        <f>AY62*(1+$AB$31)</f>
-        <v>9278.9740001333103</v>
+        <f t="shared" si="73"/>
+        <v>9275.7937279979978</v>
       </c>
       <c r="BA62" s="3">
-        <f>AZ62*(1+$AB$31)</f>
-        <v>9371.7637401346437</v>
+        <f t="shared" si="73"/>
+        <v>9368.551665277977</v>
       </c>
       <c r="BB62" s="3">
-        <f>BA62*(1+$AB$31)</f>
-        <v>9465.4813775359908</v>
+        <f t="shared" si="73"/>
+        <v>9462.2371819307573</v>
       </c>
       <c r="BC62" s="3">
-        <f>BB62*(1+$AB$31)</f>
-        <v>9560.1361913113506</v>
+        <f t="shared" si="73"/>
+        <v>9556.8595537500642</v>
       </c>
       <c r="BD62" s="3">
-        <f>BC62*(1+$AB$31)</f>
-        <v>9655.7375532244641</v>
+        <f t="shared" si="73"/>
+        <v>9652.4281492875652</v>
       </c>
       <c r="BE62" s="3">
-        <f>BD62*(1+$AB$31)</f>
-        <v>9752.294928756708</v>
+        <f t="shared" si="73"/>
+        <v>9748.9524307804404</v>
       </c>
       <c r="BF62" s="3">
-        <f>BE62*(1+$AB$31)</f>
-        <v>9849.8178780442759</v>
+        <f t="shared" ref="BF62:CK62" si="74">BE62*(1+$AB$31)</f>
+        <v>9846.4419550882449</v>
       </c>
       <c r="BG62" s="3">
-        <f>BF62*(1+$AB$31)</f>
-        <v>9948.3160568247185</v>
+        <f t="shared" si="74"/>
+        <v>9944.9063746391275</v>
       </c>
       <c r="BH62" s="3">
-        <f>BG62*(1+$AB$31)</f>
-        <v>10047.799217392965</v>
+        <f t="shared" si="74"/>
+        <v>10044.355438385519</v>
       </c>
       <c r="BI62" s="3">
-        <f>BH62*(1+$AB$31)</f>
-        <v>10148.277209566895</v>
+        <f t="shared" si="74"/>
+        <v>10144.798992769374</v>
       </c>
       <c r="BJ62" s="3">
-        <f>BI62*(1+$AB$31)</f>
-        <v>10249.759981662564</v>
+        <f t="shared" si="74"/>
+        <v>10246.246982697068</v>
       </c>
       <c r="BK62" s="3">
-        <f>BJ62*(1+$AB$31)</f>
-        <v>10352.257581479191</v>
+        <f t="shared" si="74"/>
+        <v>10348.709452524039</v>
       </c>
       <c r="BL62" s="3">
-        <f>BK62*(1+$AB$31)</f>
-        <v>10455.780157293982</v>
+        <f t="shared" si="74"/>
+        <v>10452.19654704928</v>
       </c>
       <c r="BM62" s="3">
-        <f>BL62*(1+$AB$31)</f>
-        <v>10560.337958866923</v>
+        <f t="shared" si="74"/>
+        <v>10556.718512519772</v>
       </c>
       <c r="BN62" s="3">
-        <f>BM62*(1+$AB$31)</f>
-        <v>10665.941338455592</v>
+        <f t="shared" si="74"/>
+        <v>10662.285697644969</v>
       </c>
       <c r="BO62" s="3">
-        <f>BN62*(1+$AB$31)</f>
-        <v>10772.600751840147</v>
+        <f t="shared" si="74"/>
+        <v>10768.908554621419</v>
       </c>
       <c r="BP62" s="3">
-        <f>BO62*(1+$AB$31)</f>
-        <v>10880.32675935855</v>
+        <f t="shared" si="74"/>
+        <v>10876.597640167633</v>
       </c>
       <c r="BQ62" s="3">
-        <f>BP62*(1+$AB$31)</f>
-        <v>10989.130026952136</v>
+        <f t="shared" si="74"/>
+        <v>10985.36361656931</v>
       </c>
       <c r="BR62" s="3">
-        <f>BQ62*(1+$AB$31)</f>
-        <v>11099.021327221657</v>
+        <f t="shared" si="74"/>
+        <v>11095.217252735003</v>
       </c>
       <c r="BS62" s="3">
-        <f>BR62*(1+$AB$31)</f>
-        <v>11210.011540493873</v>
+        <f t="shared" si="74"/>
+        <v>11206.169425262353</v>
       </c>
       <c r="BT62" s="3">
-        <f>BS62*(1+$AB$31)</f>
-        <v>11322.111655898812</v>
+        <f t="shared" si="74"/>
+        <v>11318.231119514976</v>
       </c>
       <c r="BU62" s="3">
-        <f>BT62*(1+$AB$31)</f>
-        <v>11435.332772457801</v>
+        <f t="shared" si="74"/>
+        <v>11431.413430710127</v>
       </c>
       <c r="BV62" s="3">
-        <f>BU62*(1+$AB$31)</f>
-        <v>11549.68610018238</v>
+        <f t="shared" si="74"/>
+        <v>11545.727565017229</v>
       </c>
       <c r="BW62" s="3">
-        <f>BV62*(1+$AB$31)</f>
-        <v>11665.182961184204</v>
+        <f t="shared" si="74"/>
+        <v>11661.184840667402</v>
       </c>
       <c r="BX62" s="3">
-        <f>BW62*(1+$AB$31)</f>
-        <v>11781.834790796047</v>
+        <f t="shared" si="74"/>
+        <v>11777.796689074075</v>
       </c>
       <c r="BY62" s="3">
-        <f>BX62*(1+$AB$31)</f>
-        <v>11899.653138704007</v>
+        <f t="shared" si="74"/>
+        <v>11895.574655964816</v>
       </c>
       <c r="BZ62" s="3">
-        <f>BY62*(1+$AB$31)</f>
-        <v>12018.649670091047</v>
+        <f t="shared" si="74"/>
+        <v>12014.530402524464</v>
       </c>
       <c r="CA62" s="3">
-        <f>BZ62*(1+$AB$31)</f>
-        <v>12138.836166791958</v>
+        <f t="shared" si="74"/>
+        <v>12134.67570654971</v>
       </c>
       <c r="CB62" s="3">
-        <f>CA62*(1+$AB$31)</f>
-        <v>12260.224528459878</v>
+        <f t="shared" si="74"/>
+        <v>12256.022463615207</v>
       </c>
       <c r="CC62" s="3">
-        <f>CB62*(1+$AB$31)</f>
-        <v>12382.826773744477</v>
+        <f t="shared" si="74"/>
+        <v>12378.582688251359</v>
       </c>
       <c r="CD62" s="3">
-        <f>CC62*(1+$AB$31)</f>
-        <v>12506.655041481921</v>
+        <f t="shared" si="74"/>
+        <v>12502.368515133872</v>
       </c>
       <c r="CE62" s="3">
-        <f>CD62*(1+$AB$31)</f>
-        <v>12631.721591896741</v>
+        <f t="shared" si="74"/>
+        <v>12627.39220028521</v>
       </c>
       <c r="CF62" s="3">
-        <f>CE62*(1+$AB$31)</f>
-        <v>12758.038807815708</v>
+        <f t="shared" si="74"/>
+        <v>12753.666122288063</v>
       </c>
       <c r="CG62" s="3">
-        <f>CF62*(1+$AB$31)</f>
-        <v>12885.619195893865</v>
+        <f t="shared" si="74"/>
+        <v>12881.202783510944</v>
       </c>
       <c r="CH62" s="3">
-        <f>CG62*(1+$AB$31)</f>
-        <v>13014.475387852804</v>
+        <f t="shared" si="74"/>
+        <v>13010.014811346053</v>
       </c>
       <c r="CI62" s="3">
-        <f>CH62*(1+$AB$31)</f>
-        <v>13144.620141731333</v>
+        <f t="shared" si="74"/>
+        <v>13140.114959459514</v>
       </c>
       <c r="CJ62" s="3">
-        <f>CI62*(1+$AB$31)</f>
-        <v>13276.066343148646</v>
+        <f t="shared" si="74"/>
+        <v>13271.51610905411</v>
       </c>
       <c r="CK62" s="3">
-        <f>CJ62*(1+$AB$31)</f>
-        <v>13408.827006580133</v>
+        <f t="shared" si="74"/>
+        <v>13404.231270144652</v>
       </c>
       <c r="CL62" s="3">
-        <f>CK62*(1+$AB$31)</f>
-        <v>13542.915276645936</v>
+        <f t="shared" ref="CL62:DQ62" si="75">CK62*(1+$AB$31)</f>
+        <v>13538.273582846099</v>
       </c>
       <c r="CM62" s="3">
-        <f>CL62*(1+$AB$31)</f>
-        <v>13678.344429412395</v>
+        <f t="shared" si="75"/>
+        <v>13673.656318674561</v>
       </c>
       <c r="CN62" s="3">
-        <f>CM62*(1+$AB$31)</f>
-        <v>13815.127873706519</v>
+        <f t="shared" si="75"/>
+        <v>13810.392881861306</v>
       </c>
       <c r="CO62" s="3">
-        <f>CN62*(1+$AB$31)</f>
-        <v>13953.279152443583</v>
+        <f t="shared" si="75"/>
+        <v>13948.496810679919</v>
       </c>
       <c r="CP62" s="3">
-        <f>CO62*(1+$AB$31)</f>
-        <v>14092.811943968019</v>
+        <f t="shared" si="75"/>
+        <v>14087.981778786718</v>
       </c>
       <c r="CQ62" s="3">
-        <f>CP62*(1+$AB$31)</f>
-        <v>14233.7400634077</v>
+        <f t="shared" si="75"/>
+        <v>14228.861596574585</v>
       </c>
       <c r="CR62" s="3">
-        <f>CQ62*(1+$AB$31)</f>
-        <v>14376.077464041777</v>
+        <f t="shared" si="75"/>
+        <v>14371.150212540331</v>
       </c>
       <c r="CS62" s="3">
-        <f>CR62*(1+$AB$31)</f>
-        <v>14519.838238682194</v>
+        <f t="shared" si="75"/>
+        <v>14514.861714665734</v>
       </c>
       <c r="CT62" s="3">
-        <f>CS62*(1+$AB$31)</f>
-        <v>14665.036621069015</v>
+        <f t="shared" si="75"/>
+        <v>14660.010331812391</v>
       </c>
       <c r="CU62" s="3">
-        <f>CT62*(1+$AB$31)</f>
-        <v>14811.686987279705</v>
+        <f t="shared" si="75"/>
+        <v>14806.610435130515</v>
       </c>
       <c r="CV62" s="3">
-        <f>CU62*(1+$AB$31)</f>
-        <v>14959.803857152503</v>
+        <f t="shared" si="75"/>
+        <v>14954.676539481819</v>
       </c>
       <c r="CW62" s="3">
-        <f>CV62*(1+$AB$31)</f>
-        <v>15109.401895724028</v>
+        <f t="shared" si="75"/>
+        <v>15104.223304876637</v>
       </c>
       <c r="CX62" s="3">
-        <f>CW62*(1+$AB$31)</f>
-        <v>15260.495914681269</v>
+        <f t="shared" si="75"/>
+        <v>15255.265537925405</v>
       </c>
       <c r="CY62" s="3">
-        <f>CX62*(1+$AB$31)</f>
-        <v>15413.100873828082</v>
+        <f t="shared" si="75"/>
+        <v>15407.818193304658</v>
       </c>
       <c r="CZ62" s="3">
-        <f>CY62*(1+$AB$31)</f>
-        <v>15567.231882566362</v>
+        <f t="shared" si="75"/>
+        <v>15561.896375237704</v>
       </c>
       <c r="DA62" s="3">
-        <f>CZ62*(1+$AB$31)</f>
-        <v>15722.904201392026</v>
+        <f t="shared" si="75"/>
+        <v>15717.515338990081</v>
       </c>
       <c r="DB62" s="3">
-        <f>DA62*(1+$AB$31)</f>
-        <v>15880.133243405946</v>
+        <f t="shared" si="75"/>
+        <v>15874.690492379981</v>
       </c>
       <c r="DC62" s="3">
-        <f>DB62*(1+$AB$31)</f>
-        <v>16038.934575840005</v>
+        <f t="shared" si="75"/>
+        <v>16033.437397303782</v>
       </c>
       <c r="DD62" s="3">
-        <f>DC62*(1+$AB$31)</f>
-        <v>16199.323921598405</v>
+        <f t="shared" si="75"/>
+        <v>16193.771771276819</v>
       </c>
       <c r="DE62" s="3">
-        <f>DD62*(1+$AB$31)</f>
-        <v>16361.317160814389</v>
+        <f t="shared" si="75"/>
+        <v>16355.709488989587</v>
       </c>
       <c r="DF62" s="3">
-        <f>DE62*(1+$AB$31)</f>
-        <v>16524.930332422533</v>
+        <f t="shared" si="75"/>
+        <v>16519.266583879482</v>
       </c>
       <c r="DG62" s="3">
-        <f>DF62*(1+$AB$31)</f>
-        <v>16690.179635746757</v>
+        <f t="shared" si="75"/>
+        <v>16684.459249718278</v>
       </c>
       <c r="DH62" s="3">
-        <f>DG62*(1+$AB$31)</f>
-        <v>16857.081432104223</v>
+        <f t="shared" si="75"/>
+        <v>16851.30384221546</v>
       </c>
       <c r="DI62" s="3">
-        <f>DH62*(1+$AB$31)</f>
-        <v>17025.652246425267</v>
+        <f t="shared" si="75"/>
+        <v>17019.816880637616</v>
       </c>
       <c r="DJ62" s="3">
-        <f>DI62*(1+$AB$31)</f>
-        <v>17195.90876888952</v>
+        <f t="shared" si="75"/>
+        <v>17190.015049443991</v>
       </c>
       <c r="DK62" s="3">
-        <f>DJ62*(1+$AB$31)</f>
-        <v>17367.867856578414</v>
+        <f t="shared" si="75"/>
+        <v>17361.91519993843</v>
       </c>
       <c r="DL62" s="3">
-        <f>DK62*(1+$AB$31)</f>
-        <v>17541.5465351442</v>
+        <f t="shared" si="75"/>
+        <v>17535.534351937815</v>
       </c>
       <c r="DM62" s="3">
-        <f>DL62*(1+$AB$31)</f>
-        <v>17716.962000495641</v>
+        <f t="shared" si="75"/>
+        <v>17710.889695457194</v>
       </c>
       <c r="DN62" s="3">
-        <f>DM62*(1+$AB$31)</f>
-        <v>17894.131620500597</v>
+        <f t="shared" si="75"/>
+        <v>17887.998592411765</v>
       </c>
       <c r="DO62" s="3">
-        <f>DN62*(1+$AB$31)</f>
-        <v>18073.072936705605</v>
+        <f t="shared" si="75"/>
+        <v>18066.878578335884</v>
       </c>
       <c r="DP62" s="3">
-        <f>DO62*(1+$AB$31)</f>
-        <v>18253.803666072661</v>
+        <f t="shared" si="75"/>
+        <v>18247.547364119244</v>
       </c>
       <c r="DQ62" s="3">
-        <f>DP62*(1+$AB$31)</f>
-        <v>18436.341702733389</v>
+        <f t="shared" si="75"/>
+        <v>18430.022837760436</v>
       </c>
       <c r="DR62" s="3">
-        <f>DQ62*(1+$AB$31)</f>
-        <v>18620.705119760722</v>
+        <f t="shared" ref="DR62:EW62" si="76">DQ62*(1+$AB$31)</f>
+        <v>18614.32306613804</v>
       </c>
       <c r="DS62" s="3">
-        <f>DR62*(1+$AB$31)</f>
-        <v>18806.912170958331</v>
+        <f t="shared" si="76"/>
+        <v>18800.466296799419</v>
       </c>
       <c r="DT62" s="3">
-        <f>DS62*(1+$AB$31)</f>
-        <v>18994.981292667915</v>
+        <f t="shared" si="76"/>
+        <v>18988.470959767412</v>
       </c>
       <c r="DU62" s="3">
-        <f>DT62*(1+$AB$31)</f>
-        <v>19184.931105594595</v>
+        <f t="shared" si="76"/>
+        <v>19178.355669365086</v>
       </c>
       <c r="DV62" s="3">
-        <f>DU62*(1+$AB$31)</f>
-        <v>19376.780416650541</v>
+        <f t="shared" si="76"/>
+        <v>19370.139226058738</v>
       </c>
       <c r="DW62" s="3">
-        <f>DV62*(1+$AB$31)</f>
-        <v>19570.548220817047</v>
+        <f t="shared" si="76"/>
+        <v>19563.840618319326</v>
       </c>
       <c r="DX62" s="3">
-        <f>DW62*(1+$AB$31)</f>
-        <v>19766.253703025217</v>
+        <f t="shared" si="76"/>
+        <v>19759.479024502518</v>
       </c>
       <c r="DY62" s="3">
-        <f>DX62*(1+$AB$31)</f>
-        <v>19963.916240055471</v>
+        <f t="shared" si="76"/>
+        <v>19957.073814747542</v>
       </c>
       <c r="DZ62" s="3">
-        <f>DY62*(1+$AB$31)</f>
-        <v>20163.555402456026</v>
+        <f t="shared" si="76"/>
+        <v>20156.644552895017</v>
       </c>
       <c r="EA62" s="3">
-        <f>DZ62*(1+$AB$31)</f>
-        <v>20365.190956480586</v>
+        <f t="shared" si="76"/>
+        <v>20358.210998423969</v>
       </c>
       <c r="EB62" s="3">
-        <f>EA62*(1+$AB$31)</f>
-        <v>20568.842866045394</v>
+        <f t="shared" si="76"/>
+        <v>20561.793108408208</v>
       </c>
       <c r="EC62" s="3">
-        <f>EB62*(1+$AB$31)</f>
-        <v>20774.531294705848</v>
+        <f t="shared" si="76"/>
+        <v>20767.41103949229</v>
       </c>
       <c r="ED62" s="3">
-        <f>EC62*(1+$AB$31)</f>
-        <v>20982.276607652908</v>
+        <f t="shared" si="76"/>
+        <v>20975.085149887214</v>
       </c>
       <c r="EE62" s="3">
-        <f>ED62*(1+$AB$31)</f>
-        <v>21192.099373729438</v>
+        <f t="shared" si="76"/>
+        <v>21184.836001386087</v>
       </c>
       <c r="EF62" s="3">
-        <f>EE62*(1+$AB$31)</f>
-        <v>21404.020367466732</v>
+        <f t="shared" si="76"/>
+        <v>21396.684361399948</v>
       </c>
       <c r="EG62" s="3">
-        <f>EF62*(1+$AB$31)</f>
-        <v>21618.060571141399</v>
+        <f t="shared" si="76"/>
+        <v>21610.651205013946</v>
       </c>
       <c r="EH62" s="3">
-        <f>EG62*(1+$AB$31)</f>
-        <v>21834.241176852815</v>
+        <f t="shared" si="76"/>
+        <v>21826.757717064087</v>
       </c>
       <c r="EI62" s="3">
-        <f>EH62*(1+$AB$31)</f>
-        <v>22052.583588621343</v>
+        <f t="shared" si="76"/>
+        <v>22045.025294234729</v>
       </c>
       <c r="EJ62" s="3">
-        <f>EI62*(1+$AB$31)</f>
-        <v>22273.109424507555</v>
+        <f t="shared" si="76"/>
+        <v>22265.475547177077</v>
       </c>
       <c r="EK62" s="3">
-        <f>EJ62*(1+$AB$31)</f>
-        <v>22495.84051875263</v>
+        <f t="shared" si="76"/>
+        <v>22488.130302648849</v>
       </c>
       <c r="EL62" s="3">
-        <f>EK62*(1+$AB$31)</f>
-        <v>22720.798923940158</v>
+        <f t="shared" si="76"/>
+        <v>22713.01160567534</v>
       </c>
       <c r="EM62" s="3">
-        <f>EL62*(1+$AB$31)</f>
-        <v>22948.006913179561</v>
+        <f t="shared" si="76"/>
+        <v>22940.141721732092</v>
       </c>
       <c r="EN62" s="3">
-        <f>EM62*(1+$AB$31)</f>
-        <v>23177.486982311355</v>
+        <f t="shared" si="76"/>
+        <v>23169.543138949415</v>
       </c>
       <c r="EO62" s="3">
-        <f>EN62*(1+$AB$31)</f>
-        <v>23409.26185213447</v>
+        <f t="shared" si="76"/>
+        <v>23401.238570338908</v>
       </c>
       <c r="EP62" s="3">
-        <f>EO62*(1+$AB$31)</f>
-        <v>23643.354470655817</v>
+        <f t="shared" si="76"/>
+        <v>23635.250956042299</v>
       </c>
       <c r="EQ62" s="3">
-        <f>EP62*(1+$AB$31)</f>
-        <v>23879.788015362374</v>
+        <f t="shared" si="76"/>
+        <v>23871.603465602722</v>
       </c>
       <c r="ER62" s="3">
-        <f>EQ62*(1+$AB$31)</f>
-        <v>24118.585895515997</v>
+        <f t="shared" si="76"/>
+        <v>24110.319500258749</v>
       </c>
       <c r="ES62" s="3">
-        <f>ER62*(1+$AB$31)</f>
-        <v>24359.771754471156</v>
+        <f t="shared" si="76"/>
+        <v>24351.422695261335</v>
       </c>
       <c r="ET62" s="3">
-        <f>ES62*(1+$AB$31)</f>
-        <v>24603.369472015867</v>
+        <f t="shared" si="76"/>
+        <v>24594.93692221395</v>
       </c>
       <c r="EU62" s="3">
-        <f>ET62*(1+$AB$31)</f>
-        <v>24849.403166736025</v>
+        <f t="shared" si="76"/>
+        <v>24840.886291436091</v>
       </c>
       <c r="EV62" s="3">
-        <f>EU62*(1+$AB$31)</f>
-        <v>25097.897198403385</v>
+        <f t="shared" si="76"/>
+        <v>25089.295154350453</v>
       </c>
       <c r="EW62" s="3">
-        <f>EV62*(1+$AB$31)</f>
-        <v>25348.876170387419</v>
+        <f t="shared" si="76"/>
+        <v>25340.188105893958</v>
       </c>
       <c r="EX62" s="3">
-        <f>EW62*(1+$AB$31)</f>
-        <v>25602.364932091292</v>
+        <f t="shared" ref="EX62:FL62" si="77">EW62*(1+$AB$31)</f>
+        <v>25593.589986952898</v>
       </c>
       <c r="EY62" s="3">
-        <f>EX62*(1+$AB$31)</f>
-        <v>25858.388581412204</v>
+        <f t="shared" si="77"/>
+        <v>25849.525886822426</v>
       </c>
       <c r="EZ62" s="3">
-        <f>EY62*(1+$AB$31)</f>
-        <v>26116.972467226326</v>
+        <f t="shared" si="77"/>
+        <v>26108.021145690651</v>
       </c>
       <c r="FA62" s="3">
-        <f>EZ62*(1+$AB$31)</f>
-        <v>26378.142191898591</v>
+        <f t="shared" si="77"/>
+        <v>26369.101357147556</v>
       </c>
       <c r="FB62" s="3">
-        <f>FA62*(1+$AB$31)</f>
-        <v>26641.923613817577</v>
+        <f t="shared" si="77"/>
+        <v>26632.792370719031</v>
       </c>
       <c r="FC62" s="3">
-        <f>FB62*(1+$AB$31)</f>
-        <v>26908.342849955752</v>
+        <f t="shared" si="77"/>
+        <v>26899.120294426222</v>
       </c>
       <c r="FD62" s="3">
-        <f>FC62*(1+$AB$31)</f>
-        <v>27177.42627845531</v>
+        <f t="shared" si="77"/>
+        <v>27168.111497370486</v>
       </c>
       <c r="FE62" s="3">
-        <f>FD62*(1+$AB$31)</f>
-        <v>27449.200541239865</v>
+        <f t="shared" si="77"/>
+        <v>27439.79261234419</v>
       </c>
       <c r="FF62" s="3">
-        <f>FE62*(1+$AB$31)</f>
-        <v>27723.692546652263</v>
+        <f t="shared" si="77"/>
+        <v>27714.190538467632</v>
       </c>
       <c r="FG62" s="3">
-        <f>FF62*(1+$AB$31)</f>
-        <v>28000.929472118787</v>
+        <f t="shared" si="77"/>
+        <v>27991.332443852309</v>
       </c>
       <c r="FH62" s="3">
-        <f>FG62*(1+$AB$31)</f>
-        <v>28280.938766839976</v>
+        <f t="shared" si="77"/>
+        <v>28271.245768290832</v>
       </c>
       <c r="FI62" s="3">
-        <f>FH62*(1+$AB$31)</f>
-        <v>28563.748154508376</v>
+        <f t="shared" si="77"/>
+        <v>28553.95822597374</v>
       </c>
       <c r="FJ62" s="3">
-        <f>FI62*(1+$AB$31)</f>
-        <v>28849.385636053459</v>
+        <f t="shared" si="77"/>
+        <v>28839.497808233478</v>
       </c>
       <c r="FK62" s="3">
-        <f>FJ62*(1+$AB$31)</f>
-        <v>29137.879492413995</v>
+        <f t="shared" si="77"/>
+        <v>29127.892786315813</v>
       </c>
       <c r="FL62" s="3">
-        <f>FK62*(1+$AB$31)</f>
-        <v>29429.258287338136</v>
+        <f t="shared" si="77"/>
+        <v>29419.17171417897</v>
       </c>
     </row>
   </sheetData>

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73290547-4038-4AE5-AEF4-F2206B1AF001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1510EFB9-6E98-4BE6-B350-6D69188A3671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="300" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
+    <workbookView xWindow="1365" yWindow="195" windowWidth="20805" windowHeight="15015" activeTab="1" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -356,13 +356,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -432,25 +438,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1077,10 +1084,10 @@
   <dimension ref="A1:FO62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB36" sqref="AB36"/>
+      <selection pane="bottomRight" activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1409,7 +1416,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="T9" s="4"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
@@ -3688,7 +3695,7 @@
       <c r="AA33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AB33" s="16">
         <f>NPV(AB32,U62:FL62)+Main!J5-Main!J6</f>
         <v>92599.553979617034</v>
       </c>

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1510EFB9-6E98-4BE6-B350-6D69188A3671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D696E76-CE02-41A2-90C9-9EDA42E67164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="195" windowWidth="20805" windowHeight="15015" activeTab="1" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
+    <workbookView xWindow="2625" yWindow="405" windowWidth="22200" windowHeight="14805" activeTab="1" xr2:uid="{EA782F9C-EC39-4135-9E05-852174F716BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -356,13 +356,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -438,26 +444,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1084,7 +1091,7 @@
   <dimension ref="A1:FO62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AB33" sqref="AB33"/>
@@ -2029,12 +2036,12 @@
         <v>583</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" ref="M19:N19" si="17">L19*(1+M33)</f>
-        <v>600.49</v>
+        <f>L19*1.04</f>
+        <v>606.32000000000005</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="17"/>
-        <v>618.50470000000007</v>
+        <f>M19*1.04</f>
+        <v>630.57280000000003</v>
       </c>
       <c r="R19" s="1">
         <v>2257</v>
@@ -2047,23 +2054,23 @@
       </c>
       <c r="U19" s="1">
         <f>SUM(K19:N19)</f>
-        <v>2289.9947000000002</v>
+        <v>2307.8928000000001</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" ref="V19:Y19" si="18">U19*(1+V32)</f>
-        <v>2404.4944350000005</v>
+        <f>U19*1.05</f>
+        <v>2423.2874400000001</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" si="18"/>
-        <v>2524.7191567500008</v>
+        <f t="shared" ref="W19:Y19" si="17">V19*1.05</f>
+        <v>2544.4518120000002</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" si="18"/>
-        <v>2650.9551145875012</v>
+        <f t="shared" si="17"/>
+        <v>2671.6744026000006</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" si="18"/>
-        <v>2783.5028703168764</v>
+        <f t="shared" si="17"/>
+        <v>2805.2581227300007</v>
       </c>
     </row>
     <row r="20" spans="1:171" x14ac:dyDescent="0.2">
@@ -2101,12 +2108,12 @@
         <v>767</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" ref="M20:N20" si="19">L20*(1+M33)</f>
-        <v>790.01</v>
+        <f>L20*1.04</f>
+        <v>797.68000000000006</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="19"/>
-        <v>813.71029999999996</v>
+        <f>M20*1.04</f>
+        <v>829.58720000000005</v>
       </c>
       <c r="R20" s="1">
         <v>3253</v>
@@ -2119,23 +2126,23 @@
       </c>
       <c r="U20" s="1">
         <f>SUM(K20:N20)</f>
-        <v>3101.7203</v>
+        <v>3125.2672000000002</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" ref="V20:Y20" si="20">U20*(1+V32)</f>
-        <v>3256.8063150000003</v>
+        <f t="shared" ref="V20:Y22" si="18">U20*1.05</f>
+        <v>3281.5305600000006</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" si="20"/>
-        <v>3419.6466307500004</v>
+        <f t="shared" si="18"/>
+        <v>3445.6070880000007</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="20"/>
-        <v>3590.6289622875006</v>
+        <f t="shared" si="18"/>
+        <v>3617.887442400001</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" si="20"/>
-        <v>3770.1604104018757</v>
+        <f t="shared" si="18"/>
+        <v>3798.7818145200013</v>
       </c>
     </row>
     <row r="21" spans="1:171" x14ac:dyDescent="0.2">
@@ -2173,12 +2180,12 @@
         <v>461</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" ref="M21:N21" si="21">L21*(1+M33)</f>
-        <v>474.83</v>
+        <f>L21*1.04</f>
+        <v>479.44</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="21"/>
-        <v>489.07490000000001</v>
+        <f>M21*1.04</f>
+        <v>498.61760000000004</v>
       </c>
       <c r="R21" s="1">
         <v>2099</v>
@@ -2191,23 +2198,23 @@
       </c>
       <c r="U21" s="1">
         <f>SUM(K21:N21)</f>
-        <v>1927.9049</v>
+        <v>1942.0576000000001</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" ref="V21:Y21" si="22">U21*(1+V32)</f>
-        <v>2024.3001450000002</v>
+        <f t="shared" si="18"/>
+        <v>2039.1604800000002</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" si="22"/>
-        <v>2125.51515225</v>
+        <f t="shared" si="18"/>
+        <v>2141.1185040000005</v>
       </c>
       <c r="X21" s="1">
-        <f t="shared" si="22"/>
-        <v>2231.7909098625</v>
+        <f t="shared" si="18"/>
+        <v>2248.1744292000008</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" si="22"/>
-        <v>2343.3804553556251</v>
+        <f t="shared" si="18"/>
+        <v>2360.5831506600007</v>
       </c>
     </row>
     <row r="22" spans="1:171" x14ac:dyDescent="0.2">
@@ -2245,12 +2252,12 @@
         <v>116</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" ref="M22:N22" si="23">L22*(1+M33)</f>
-        <v>119.48</v>
+        <f>L22*1.04</f>
+        <v>120.64</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="23"/>
-        <v>123.06440000000001</v>
+        <f>M22*1.04</f>
+        <v>125.46560000000001</v>
       </c>
       <c r="R22" s="1">
         <v>207</v>
@@ -2263,23 +2270,23 @@
       </c>
       <c r="U22" s="1">
         <f>SUM(K22:N22)</f>
-        <v>424.5444</v>
+        <v>428.10559999999998</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" ref="V22:Y22" si="24">U22*(1+V32)</f>
-        <v>445.77162000000004</v>
+        <f t="shared" si="18"/>
+        <v>449.51087999999999</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" si="24"/>
-        <v>468.06020100000006</v>
+        <f t="shared" si="18"/>
+        <v>471.986424</v>
       </c>
       <c r="X22" s="1">
-        <f t="shared" si="24"/>
-        <v>491.4632110500001</v>
+        <f t="shared" si="18"/>
+        <v>495.58574520000002</v>
       </c>
       <c r="Y22" s="1">
-        <f t="shared" si="24"/>
-        <v>516.03637160250014</v>
+        <f t="shared" si="18"/>
+        <v>520.36503246000007</v>
       </c>
     </row>
     <row r="23" spans="1:171" x14ac:dyDescent="0.2">
@@ -2291,55 +2298,55 @@
         <v>1828</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" ref="D23:L23" si="25">SUM(D19:D22)</f>
+        <f t="shared" ref="D23:L23" si="19">SUM(D19:D22)</f>
         <v>1723</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>1727</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>1479</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>1839</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>1847</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>1836</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>2043</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>1788</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>1927</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" ref="M23" si="26">SUM(M19:M22)</f>
-        <v>1984.81</v>
+        <f t="shared" ref="M23" si="20">SUM(M19:M22)</f>
+        <v>2004.0800000000002</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" ref="N23:Q23" si="27">SUM(N19:N22)</f>
-        <v>2044.3543000000002</v>
+        <f t="shared" ref="N23:Q23" si="21">SUM(N19:N22)</f>
+        <v>2084.2432000000003</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R23" s="1">
@@ -2347,32 +2354,32 @@
         <v>7816</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" ref="S23:Y23" si="28">SUM(S19:S22)</f>
+        <f t="shared" ref="S23:Y23" si="22">SUM(S19:S22)</f>
         <v>6757</v>
       </c>
       <c r="T23" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>7565</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="28"/>
-        <v>7744.1642999999995</v>
+        <f t="shared" si="22"/>
+        <v>7803.3231999999998</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" si="28"/>
-        <v>8131.3725150000009</v>
+        <f t="shared" si="22"/>
+        <v>8193.4893600000014</v>
       </c>
       <c r="W23" s="1">
-        <f t="shared" si="28"/>
-        <v>8537.9411407500011</v>
+        <f t="shared" si="22"/>
+        <v>8603.1638280000025</v>
       </c>
       <c r="X23" s="1">
-        <f t="shared" si="28"/>
-        <v>8964.8381977875033</v>
+        <f t="shared" si="22"/>
+        <v>9033.3220194000023</v>
       </c>
       <c r="Y23" s="1">
-        <f t="shared" si="28"/>
-        <v>9413.0801076768785</v>
+        <f t="shared" si="22"/>
+        <v>9484.9881203700024</v>
       </c>
     </row>
     <row r="24" spans="1:171" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2385,55 +2392,55 @@
         <v>999</v>
       </c>
       <c r="D24" s="12">
-        <f t="shared" ref="D24:L24" si="29">D18-D23</f>
+        <f t="shared" ref="D24:L24" si="23">D18-D23</f>
         <v>1133</v>
       </c>
       <c r="E24" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>1168</v>
       </c>
       <c r="F24" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>1728</v>
       </c>
       <c r="G24" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>1168</v>
       </c>
       <c r="H24" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>1325</v>
       </c>
       <c r="I24" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>1391</v>
       </c>
       <c r="J24" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>1441</v>
       </c>
       <c r="K24" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>1530</v>
       </c>
       <c r="L24" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>1504</v>
       </c>
       <c r="M24" s="12">
-        <f t="shared" ref="M24" si="30">M18-M23</f>
-        <v>1836.1599999999994</v>
+        <f t="shared" ref="M24" si="24">M18-M23</f>
+        <v>1816.8899999999992</v>
       </c>
       <c r="N24" s="12">
-        <f t="shared" ref="N24:Q24" si="31">N18-N23</f>
-        <v>1891.2447999999993</v>
+        <f t="shared" ref="N24:Q24" si="25">N18-N23</f>
+        <v>1851.3558999999991</v>
       </c>
       <c r="P24" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q24" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R24" s="12">
@@ -2441,32 +2448,32 @@
         <v>3837</v>
       </c>
       <c r="S24" s="12">
-        <f t="shared" ref="S24:T24" si="32">S18-S23</f>
+        <f t="shared" ref="S24:T24" si="26">S18-S23</f>
         <v>5028</v>
       </c>
       <c r="T24" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>5325</v>
       </c>
       <c r="U24" s="12">
-        <f t="shared" ref="U24:Y24" si="33">U18-U23</f>
-        <v>6761.4047999999939</v>
+        <f t="shared" ref="U24:Y24" si="27">U18-U23</f>
+        <v>6702.2458999999935</v>
       </c>
       <c r="V24" s="12">
-        <f t="shared" si="33"/>
-        <v>7099.4750399999957</v>
+        <f t="shared" si="27"/>
+        <v>7037.3581949999952</v>
       </c>
       <c r="W24" s="12">
-        <f t="shared" si="33"/>
-        <v>7454.4487919999956</v>
+        <f t="shared" si="27"/>
+        <v>7389.2261047499942</v>
       </c>
       <c r="X24" s="12">
-        <f t="shared" si="33"/>
-        <v>7827.1712315999976</v>
+        <f t="shared" si="27"/>
+        <v>7758.6874099874985</v>
       </c>
       <c r="Y24" s="12">
-        <f t="shared" si="33"/>
-        <v>8218.5297931799996</v>
+        <f t="shared" si="27"/>
+        <v>8146.6217804868757</v>
       </c>
     </row>
     <row r="25" spans="1:171" x14ac:dyDescent="0.2">
@@ -2509,7 +2516,7 @@
       </c>
       <c r="N25" s="1">
         <f>M38*$AB$30/4</f>
-        <v>19.269177249999998</v>
+        <v>19.191133749999999</v>
       </c>
       <c r="R25" s="1">
         <v>-471</v>
@@ -2522,23 +2529,23 @@
       </c>
       <c r="U25" s="1">
         <f>SUM(K25:N25)</f>
-        <v>129.05417725000001</v>
+        <v>128.97613375</v>
       </c>
       <c r="V25" s="1">
         <f>U38*$AB$30</f>
-        <v>108.02703543144999</v>
+        <v>107.06739694674998</v>
       </c>
       <c r="W25" s="1">
         <f>V38*$AB$30</f>
-        <v>223.34706863835314</v>
+        <v>219.94932129950857</v>
       </c>
       <c r="X25" s="1">
         <f>W38*$AB$30</f>
-        <v>346.19180240856673</v>
+        <v>340.17429303109071</v>
       </c>
       <c r="Y25" s="1">
         <f>X38*$AB$30</f>
-        <v>476.96561095270374</v>
+        <v>468.13630793878446</v>
       </c>
     </row>
     <row r="26" spans="1:171" x14ac:dyDescent="0.2">
@@ -2550,55 +2557,55 @@
         <v>1074</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:L26" si="34">D24+D25</f>
+        <f t="shared" ref="D26:L26" si="28">D24+D25</f>
         <v>1303</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>1241</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>1793</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>1209</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>1399</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>1311</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>1410</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>1603</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>1529</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" ref="M26" si="35">M24+M25</f>
-        <v>1847.9449999999995</v>
+        <f t="shared" ref="M26" si="29">M24+M25</f>
+        <v>1828.6749999999993</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" ref="N26:Q26" si="36">N24+N25</f>
-        <v>1910.5139772499992</v>
+        <f t="shared" ref="N26:Q26" si="30">N24+N25</f>
+        <v>1870.5470337499992</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="R26" s="1">
@@ -2606,32 +2613,32 @@
         <v>3366</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" ref="S26:T26" si="37">S24+S25</f>
+        <f t="shared" ref="S26:T26" si="31">S24+S25</f>
         <v>5411</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>5329</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" ref="U26" si="38">U24+U25</f>
-        <v>6890.4589772499939</v>
+        <f t="shared" ref="U26" si="32">U24+U25</f>
+        <v>6831.2220337499939</v>
       </c>
       <c r="V26" s="1">
-        <f t="shared" ref="V26" si="39">V24+V25</f>
-        <v>7207.5020754314455</v>
+        <f t="shared" ref="V26" si="33">V24+V25</f>
+        <v>7144.425591946745</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" ref="W26" si="40">W24+W25</f>
-        <v>7677.795860638349</v>
+        <f t="shared" ref="W26" si="34">W24+W25</f>
+        <v>7609.1754260495027</v>
       </c>
       <c r="X26" s="1">
-        <f t="shared" ref="X26" si="41">X24+X25</f>
-        <v>8173.3630340085647</v>
+        <f t="shared" ref="X26" si="35">X24+X25</f>
+        <v>8098.8617030185897</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" ref="Y26" si="42">Y24+Y25</f>
-        <v>8695.4954041327037</v>
+        <f t="shared" ref="Y26" si="36">Y24+Y25</f>
+        <v>8614.7580884256604</v>
       </c>
     </row>
     <row r="27" spans="1:171" x14ac:dyDescent="0.2">
@@ -2670,11 +2677,11 @@
       </c>
       <c r="M27" s="1">
         <f>M26*0.19</f>
-        <v>351.1095499999999</v>
+        <v>347.44824999999986</v>
       </c>
       <c r="N27" s="1">
         <f>N26*0.19</f>
-        <v>362.99765567749984</v>
+        <v>355.40393641249983</v>
       </c>
       <c r="R27" s="1">
         <v>947</v>
@@ -2687,23 +2694,23 @@
       </c>
       <c r="U27" s="1">
         <f>SUM(K27:N27)</f>
-        <v>1298.1072056774997</v>
+        <v>1286.8521864124998</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" ref="V27:Y27" si="43">V26*0.2</f>
-        <v>1441.5004150862892</v>
+        <f>V26*0.21</f>
+        <v>1500.3293743088163</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" si="43"/>
-        <v>1535.5591721276699</v>
+        <f t="shared" ref="W27:Y27" si="37">W26*0.21</f>
+        <v>1597.9268394703954</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="43"/>
-        <v>1634.6726068017131</v>
+        <f t="shared" si="37"/>
+        <v>1700.7609576339037</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" si="43"/>
-        <v>1739.0990808265408</v>
+        <f t="shared" si="37"/>
+        <v>1809.0991985693886</v>
       </c>
     </row>
     <row r="28" spans="1:171" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2716,55 +2723,55 @@
         <v>795</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" ref="D28:K28" si="44">D26-D27</f>
+        <f t="shared" ref="D28:K28" si="38">D26-D27</f>
         <v>1029</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>1020</v>
       </c>
       <c r="F28" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>1402</v>
       </c>
       <c r="G28" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>888</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>1128</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>1010</v>
       </c>
       <c r="J28" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>1121</v>
       </c>
       <c r="K28" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>1287</v>
       </c>
       <c r="L28" s="12">
-        <f t="shared" ref="L28:M28" si="45">L26-L27</f>
+        <f t="shared" ref="L28:M28" si="39">L26-L27</f>
         <v>1261</v>
       </c>
       <c r="M28" s="12">
-        <f t="shared" si="45"/>
-        <v>1496.8354499999996</v>
+        <f t="shared" si="39"/>
+        <v>1481.2267499999994</v>
       </c>
       <c r="N28" s="12">
-        <f t="shared" ref="N28:Q28" si="46">N26-N27</f>
-        <v>1547.5163215724995</v>
+        <f t="shared" ref="N28:Q28" si="40">N26-N27</f>
+        <v>1515.1430973374993</v>
       </c>
       <c r="P28" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q28" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R28" s="12">
@@ -2772,616 +2779,616 @@
         <v>2419</v>
       </c>
       <c r="S28" s="12">
-        <f t="shared" ref="S28:T28" si="47">S26-S27</f>
+        <f t="shared" ref="S28:T28" si="41">S26-S27</f>
         <v>4246</v>
       </c>
       <c r="T28" s="12">
+        <f t="shared" si="41"/>
+        <v>4147</v>
+      </c>
+      <c r="U28" s="12">
+        <f t="shared" ref="U28" si="42">U26-U27</f>
+        <v>5544.3698473374943</v>
+      </c>
+      <c r="V28" s="12">
+        <f t="shared" ref="V28" si="43">V26-V27</f>
+        <v>5644.0962176379289</v>
+      </c>
+      <c r="W28" s="12">
+        <f t="shared" ref="W28" si="44">W26-W27</f>
+        <v>6011.2485865791077</v>
+      </c>
+      <c r="X28" s="12">
+        <f t="shared" ref="X28" si="45">X26-X27</f>
+        <v>6398.100745384686</v>
+      </c>
+      <c r="Y28" s="12">
+        <f t="shared" ref="Y28" si="46">Y26-Y27</f>
+        <v>6805.6588898562713</v>
+      </c>
+      <c r="Z28" s="12">
+        <f t="shared" ref="Z28:BE28" si="47">Y28*(1+$AB$31)</f>
+        <v>6873.7154787548343</v>
+      </c>
+      <c r="AA28" s="12">
         <f t="shared" si="47"/>
-        <v>4147</v>
-      </c>
-      <c r="U28" s="12">
-        <f t="shared" ref="U28" si="48">U26-U27</f>
-        <v>5592.3517715724938</v>
-      </c>
-      <c r="V28" s="12">
-        <f t="shared" ref="V28" si="49">V26-V27</f>
-        <v>5766.0016603451568</v>
-      </c>
-      <c r="W28" s="12">
-        <f t="shared" ref="W28" si="50">W26-W27</f>
-        <v>6142.2366885106794</v>
-      </c>
-      <c r="X28" s="12">
-        <f t="shared" ref="X28" si="51">X26-X27</f>
-        <v>6538.6904272068514</v>
-      </c>
-      <c r="Y28" s="12">
-        <f t="shared" ref="Y28" si="52">Y26-Y27</f>
-        <v>6956.3963233061631</v>
-      </c>
-      <c r="Z28" s="12">
-        <f t="shared" ref="Z28:BE28" si="53">Y28*(1+$AB$31)</f>
-        <v>7025.9602865392244</v>
-      </c>
-      <c r="AA28" s="12">
-        <f t="shared" si="53"/>
-        <v>7096.2198894046169</v>
+        <v>6942.4526335423825</v>
       </c>
       <c r="AB28" s="12">
-        <f t="shared" si="53"/>
-        <v>7167.1820882986631</v>
+        <f t="shared" si="47"/>
+        <v>7011.8771598778067</v>
       </c>
       <c r="AC28" s="12">
-        <f t="shared" si="53"/>
-        <v>7238.8539091816501</v>
+        <f t="shared" si="47"/>
+        <v>7081.9959314765847</v>
       </c>
       <c r="AD28" s="12">
-        <f t="shared" si="53"/>
-        <v>7311.2424482734668</v>
+        <f t="shared" si="47"/>
+        <v>7152.8158907913503</v>
       </c>
       <c r="AE28" s="12">
-        <f t="shared" si="53"/>
-        <v>7384.354872756202</v>
+        <f t="shared" si="47"/>
+        <v>7224.3440496992635</v>
       </c>
       <c r="AF28" s="12">
-        <f t="shared" si="53"/>
-        <v>7458.1984214837639</v>
+        <f t="shared" si="47"/>
+        <v>7296.5874901962561</v>
       </c>
       <c r="AG28" s="12">
-        <f t="shared" si="53"/>
-        <v>7532.7804056986015</v>
+        <f t="shared" si="47"/>
+        <v>7369.5533650982188</v>
       </c>
       <c r="AH28" s="12">
-        <f t="shared" si="53"/>
-        <v>7608.1082097555873</v>
+        <f t="shared" si="47"/>
+        <v>7443.2488987492006</v>
       </c>
       <c r="AI28" s="12">
-        <f t="shared" si="53"/>
-        <v>7684.189291853143</v>
+        <f t="shared" si="47"/>
+        <v>7517.6813877366931</v>
       </c>
       <c r="AJ28" s="12">
-        <f t="shared" si="53"/>
-        <v>7761.0311847716748</v>
+        <f t="shared" si="47"/>
+        <v>7592.8582016140599</v>
       </c>
       <c r="AK28" s="12">
-        <f t="shared" si="53"/>
-        <v>7838.6414966193915</v>
+        <f t="shared" si="47"/>
+        <v>7668.7867836302003</v>
       </c>
       <c r="AL28" s="12">
-        <f t="shared" si="53"/>
-        <v>7917.0279115855856</v>
+        <f t="shared" si="47"/>
+        <v>7745.4746514665021</v>
       </c>
       <c r="AM28" s="12">
-        <f t="shared" si="53"/>
-        <v>7996.1981907014415</v>
+        <f t="shared" si="47"/>
+        <v>7822.9293979811673</v>
       </c>
       <c r="AN28" s="12">
-        <f t="shared" si="53"/>
-        <v>8076.1601726084564</v>
+        <f t="shared" si="47"/>
+        <v>7901.158691960979</v>
       </c>
       <c r="AO28" s="12">
-        <f t="shared" si="53"/>
-        <v>8156.9217743345407</v>
+        <f t="shared" si="47"/>
+        <v>7980.1702788805887</v>
       </c>
       <c r="AP28" s="12">
-        <f t="shared" si="53"/>
-        <v>8238.4909920778864</v>
+        <f t="shared" si="47"/>
+        <v>8059.9719816693951</v>
       </c>
       <c r="AQ28" s="12">
-        <f t="shared" si="53"/>
-        <v>8320.8759019986646</v>
+        <f t="shared" si="47"/>
+        <v>8140.5717014860893</v>
       </c>
       <c r="AR28" s="12">
-        <f t="shared" si="53"/>
-        <v>8404.0846610186509</v>
+        <f t="shared" si="47"/>
+        <v>8221.9774185009501</v>
       </c>
       <c r="AS28" s="12">
-        <f t="shared" si="53"/>
-        <v>8488.125507628838</v>
+        <f t="shared" si="47"/>
+        <v>8304.1971926859605</v>
       </c>
       <c r="AT28" s="12">
-        <f t="shared" si="53"/>
-        <v>8573.0067627051267</v>
+        <f t="shared" si="47"/>
+        <v>8387.2391646128199</v>
       </c>
       <c r="AU28" s="12">
-        <f t="shared" si="53"/>
-        <v>8658.7368303321782</v>
+        <f t="shared" si="47"/>
+        <v>8471.1115562589475</v>
       </c>
       <c r="AV28" s="12">
-        <f t="shared" si="53"/>
-        <v>8745.3241986355006</v>
+        <f t="shared" si="47"/>
+        <v>8555.8226718215374</v>
       </c>
       <c r="AW28" s="12">
-        <f t="shared" si="53"/>
-        <v>8832.7774406218559</v>
+        <f t="shared" si="47"/>
+        <v>8641.3808985397536</v>
       </c>
       <c r="AX28" s="12">
-        <f t="shared" si="53"/>
-        <v>8921.1052150280739</v>
+        <f t="shared" si="47"/>
+        <v>8727.7947075251504</v>
       </c>
       <c r="AY28" s="12">
-        <f t="shared" si="53"/>
-        <v>9010.3162671783539</v>
+        <f t="shared" si="47"/>
+        <v>8815.0726546004025</v>
       </c>
       <c r="AZ28" s="12">
-        <f t="shared" si="53"/>
-        <v>9100.419429850137</v>
+        <f t="shared" si="47"/>
+        <v>8903.2233811464066</v>
       </c>
       <c r="BA28" s="12">
-        <f t="shared" si="53"/>
-        <v>9191.4236241486378</v>
+        <f t="shared" si="47"/>
+        <v>8992.2556149578704</v>
       </c>
       <c r="BB28" s="12">
-        <f t="shared" si="53"/>
-        <v>9283.3378603901238</v>
+        <f t="shared" si="47"/>
+        <v>9082.1781711074491</v>
       </c>
       <c r="BC28" s="12">
-        <f t="shared" si="53"/>
-        <v>9376.1712389940258</v>
+        <f t="shared" si="47"/>
+        <v>9172.9999528185235</v>
       </c>
       <c r="BD28" s="12">
-        <f t="shared" si="53"/>
-        <v>9469.9329513839657</v>
+        <f t="shared" si="47"/>
+        <v>9264.7299523467082</v>
       </c>
       <c r="BE28" s="12">
-        <f t="shared" si="53"/>
-        <v>9564.6322808978057</v>
+        <f t="shared" si="47"/>
+        <v>9357.3772518701753</v>
       </c>
       <c r="BF28" s="12">
-        <f t="shared" ref="BF28:CK28" si="54">BE28*(1+$AB$31)</f>
-        <v>9660.2786037067835</v>
+        <f t="shared" ref="BF28:CK28" si="48">BE28*(1+$AB$31)</f>
+        <v>9450.9510243888762</v>
       </c>
       <c r="BG28" s="12">
-        <f t="shared" si="54"/>
-        <v>9756.8813897438522</v>
+        <f t="shared" si="48"/>
+        <v>9545.4605346327644</v>
       </c>
       <c r="BH28" s="12">
-        <f t="shared" si="54"/>
-        <v>9854.4502036412905</v>
+        <f t="shared" si="48"/>
+        <v>9640.9151399790917</v>
       </c>
       <c r="BI28" s="12">
-        <f t="shared" si="54"/>
-        <v>9952.9947056777037</v>
+        <f t="shared" si="48"/>
+        <v>9737.3242913788836</v>
       </c>
       <c r="BJ28" s="12">
-        <f t="shared" si="54"/>
-        <v>10052.524652734481</v>
+        <f t="shared" si="48"/>
+        <v>9834.6975342926726</v>
       </c>
       <c r="BK28" s="12">
-        <f t="shared" si="54"/>
-        <v>10153.049899261825</v>
+        <f t="shared" si="48"/>
+        <v>9933.0445096355998</v>
       </c>
       <c r="BL28" s="12">
-        <f t="shared" si="54"/>
-        <v>10254.580398254444</v>
+        <f t="shared" si="48"/>
+        <v>10032.374954731957</v>
       </c>
       <c r="BM28" s="12">
-        <f t="shared" si="54"/>
-        <v>10357.126202236988</v>
+        <f t="shared" si="48"/>
+        <v>10132.698704279277</v>
       </c>
       <c r="BN28" s="12">
-        <f t="shared" si="54"/>
-        <v>10460.697464259358</v>
+        <f t="shared" si="48"/>
+        <v>10234.025691322069</v>
       </c>
       <c r="BO28" s="12">
-        <f t="shared" si="54"/>
-        <v>10565.304438901951</v>
+        <f t="shared" si="48"/>
+        <v>10336.36594823529</v>
       </c>
       <c r="BP28" s="12">
-        <f t="shared" si="54"/>
-        <v>10670.957483290969</v>
+        <f t="shared" si="48"/>
+        <v>10439.729607717643</v>
       </c>
       <c r="BQ28" s="12">
-        <f t="shared" si="54"/>
-        <v>10777.66705812388</v>
+        <f t="shared" si="48"/>
+        <v>10544.12690379482</v>
       </c>
       <c r="BR28" s="12">
-        <f t="shared" si="54"/>
-        <v>10885.443728705119</v>
+        <f t="shared" si="48"/>
+        <v>10649.568172832769</v>
       </c>
       <c r="BS28" s="12">
-        <f t="shared" si="54"/>
-        <v>10994.29816599217</v>
+        <f t="shared" si="48"/>
+        <v>10756.063854561096</v>
       </c>
       <c r="BT28" s="12">
-        <f t="shared" si="54"/>
-        <v>11104.241147652092</v>
+        <f t="shared" si="48"/>
+        <v>10863.624493106707</v>
       </c>
       <c r="BU28" s="12">
-        <f t="shared" si="54"/>
-        <v>11215.283559128613</v>
+        <f t="shared" si="48"/>
+        <v>10972.260738037774</v>
       </c>
       <c r="BV28" s="12">
-        <f t="shared" si="54"/>
-        <v>11327.4363947199</v>
+        <f t="shared" si="48"/>
+        <v>11081.983345418152</v>
       </c>
       <c r="BW28" s="12">
-        <f t="shared" si="54"/>
-        <v>11440.710758667099</v>
+        <f t="shared" si="48"/>
+        <v>11192.803178872333</v>
       </c>
       <c r="BX28" s="12">
-        <f t="shared" si="54"/>
-        <v>11555.11786625377</v>
+        <f t="shared" si="48"/>
+        <v>11304.731210661057</v>
       </c>
       <c r="BY28" s="12">
-        <f t="shared" si="54"/>
-        <v>11670.669044916307</v>
+        <f t="shared" si="48"/>
+        <v>11417.778522767669</v>
       </c>
       <c r="BZ28" s="12">
-        <f t="shared" si="54"/>
-        <v>11787.375735365471</v>
+        <f t="shared" si="48"/>
+        <v>11531.956307995346</v>
       </c>
       <c r="CA28" s="12">
-        <f t="shared" si="54"/>
-        <v>11905.249492719126</v>
+        <f t="shared" si="48"/>
+        <v>11647.275871075299</v>
       </c>
       <c r="CB28" s="12">
-        <f t="shared" si="54"/>
-        <v>12024.301987646317</v>
+        <f t="shared" si="48"/>
+        <v>11763.748629786052</v>
       </c>
       <c r="CC28" s="12">
-        <f t="shared" si="54"/>
-        <v>12144.54500752278</v>
+        <f t="shared" si="48"/>
+        <v>11881.386116083913</v>
       </c>
       <c r="CD28" s="12">
-        <f t="shared" si="54"/>
-        <v>12265.990457598007</v>
+        <f t="shared" si="48"/>
+        <v>12000.199977244753</v>
       </c>
       <c r="CE28" s="12">
-        <f t="shared" si="54"/>
-        <v>12388.650362173987</v>
+        <f t="shared" si="48"/>
+        <v>12120.201977017201</v>
       </c>
       <c r="CF28" s="12">
-        <f t="shared" si="54"/>
-        <v>12512.536865795726</v>
+        <f t="shared" si="48"/>
+        <v>12241.403996787372</v>
       </c>
       <c r="CG28" s="12">
-        <f t="shared" si="54"/>
-        <v>12637.662234453683</v>
+        <f t="shared" si="48"/>
+        <v>12363.818036755247</v>
       </c>
       <c r="CH28" s="12">
-        <f t="shared" si="54"/>
-        <v>12764.038856798219</v>
+        <f t="shared" si="48"/>
+        <v>12487.456217122799</v>
       </c>
       <c r="CI28" s="12">
-        <f t="shared" si="54"/>
-        <v>12891.679245366202</v>
+        <f t="shared" si="48"/>
+        <v>12612.330779294027</v>
       </c>
       <c r="CJ28" s="12">
-        <f t="shared" si="54"/>
-        <v>13020.596037819863</v>
+        <f t="shared" si="48"/>
+        <v>12738.454087086968</v>
       </c>
       <c r="CK28" s="12">
-        <f t="shared" si="54"/>
-        <v>13150.801998198061</v>
+        <f t="shared" si="48"/>
+        <v>12865.838627957837</v>
       </c>
       <c r="CL28" s="12">
-        <f t="shared" ref="CL28:DQ28" si="55">CK28*(1+$AB$31)</f>
-        <v>13282.310018180042</v>
+        <f t="shared" ref="CL28:DQ28" si="49">CK28*(1+$AB$31)</f>
+        <v>12994.497014237415</v>
       </c>
       <c r="CM28" s="12">
-        <f t="shared" si="55"/>
-        <v>13415.133118361842</v>
+        <f t="shared" si="49"/>
+        <v>13124.44198437979</v>
       </c>
       <c r="CN28" s="12">
-        <f t="shared" si="55"/>
-        <v>13549.284449545461</v>
+        <f t="shared" si="49"/>
+        <v>13255.686404223588</v>
       </c>
       <c r="CO28" s="12">
-        <f t="shared" si="55"/>
-        <v>13684.777294040916</v>
+        <f t="shared" si="49"/>
+        <v>13388.243268265824</v>
       </c>
       <c r="CP28" s="12">
-        <f t="shared" si="55"/>
-        <v>13821.625066981325</v>
+        <f t="shared" si="49"/>
+        <v>13522.125700948482</v>
       </c>
       <c r="CQ28" s="12">
-        <f t="shared" si="55"/>
-        <v>13959.841317651139</v>
+        <f t="shared" si="49"/>
+        <v>13657.346957957967</v>
       </c>
       <c r="CR28" s="12">
-        <f t="shared" si="55"/>
-        <v>14099.439730827649</v>
+        <f t="shared" si="49"/>
+        <v>13793.920427537547</v>
       </c>
       <c r="CS28" s="12">
-        <f t="shared" si="55"/>
-        <v>14240.434128135927</v>
+        <f t="shared" si="49"/>
+        <v>13931.859631812922</v>
       </c>
       <c r="CT28" s="12">
-        <f t="shared" si="55"/>
-        <v>14382.838469417286</v>
+        <f t="shared" si="49"/>
+        <v>14071.178228131052</v>
       </c>
       <c r="CU28" s="12">
-        <f t="shared" si="55"/>
-        <v>14526.666854111458</v>
+        <f t="shared" si="49"/>
+        <v>14211.890010412362</v>
       </c>
       <c r="CV28" s="12">
-        <f t="shared" si="55"/>
-        <v>14671.933522652573</v>
+        <f t="shared" si="49"/>
+        <v>14354.008910516486</v>
       </c>
       <c r="CW28" s="12">
-        <f t="shared" si="55"/>
-        <v>14818.652857879099</v>
+        <f t="shared" si="49"/>
+        <v>14497.548999621651</v>
       </c>
       <c r="CX28" s="12">
-        <f t="shared" si="55"/>
-        <v>14966.83938645789</v>
+        <f t="shared" si="49"/>
+        <v>14642.524489617868</v>
       </c>
       <c r="CY28" s="12">
-        <f t="shared" si="55"/>
-        <v>15116.507780322469</v>
+        <f t="shared" si="49"/>
+        <v>14788.949734514048</v>
       </c>
       <c r="CZ28" s="12">
-        <f t="shared" si="55"/>
-        <v>15267.672858125694</v>
+        <f t="shared" si="49"/>
+        <v>14936.839231859189</v>
       </c>
       <c r="DA28" s="12">
-        <f t="shared" si="55"/>
-        <v>15420.349586706951</v>
+        <f t="shared" si="49"/>
+        <v>15086.207624177781</v>
       </c>
       <c r="DB28" s="12">
-        <f t="shared" si="55"/>
-        <v>15574.553082574021</v>
+        <f t="shared" si="49"/>
+        <v>15237.069700419559</v>
       </c>
       <c r="DC28" s="12">
-        <f t="shared" si="55"/>
-        <v>15730.29861339976</v>
+        <f t="shared" si="49"/>
+        <v>15389.440397423754</v>
       </c>
       <c r="DD28" s="12">
-        <f t="shared" si="55"/>
-        <v>15887.601599533758</v>
+        <f t="shared" si="49"/>
+        <v>15543.334801397992</v>
       </c>
       <c r="DE28" s="12">
-        <f t="shared" si="55"/>
-        <v>16046.477615529097</v>
+        <f t="shared" si="49"/>
+        <v>15698.768149411972</v>
       </c>
       <c r="DF28" s="12">
-        <f t="shared" si="55"/>
-        <v>16206.942391684388</v>
+        <f t="shared" si="49"/>
+        <v>15855.755830906091</v>
       </c>
       <c r="DG28" s="12">
-        <f t="shared" si="55"/>
-        <v>16369.011815601232</v>
+        <f t="shared" si="49"/>
+        <v>16014.313389215153</v>
       </c>
       <c r="DH28" s="12">
-        <f t="shared" si="55"/>
-        <v>16532.701933757246</v>
+        <f t="shared" si="49"/>
+        <v>16174.456523107305</v>
       </c>
       <c r="DI28" s="12">
-        <f t="shared" si="55"/>
-        <v>16698.028953094818</v>
+        <f t="shared" si="49"/>
+        <v>16336.201088338377</v>
       </c>
       <c r="DJ28" s="12">
-        <f t="shared" si="55"/>
-        <v>16865.009242625765</v>
+        <f t="shared" si="49"/>
+        <v>16499.563099221763</v>
       </c>
       <c r="DK28" s="12">
-        <f t="shared" si="55"/>
-        <v>17033.659335052023</v>
+        <f t="shared" si="49"/>
+        <v>16664.558730213979</v>
       </c>
       <c r="DL28" s="12">
-        <f t="shared" si="55"/>
-        <v>17203.995928402543</v>
+        <f t="shared" si="49"/>
+        <v>16831.20431751612</v>
       </c>
       <c r="DM28" s="12">
-        <f t="shared" si="55"/>
-        <v>17376.035887686568</v>
+        <f t="shared" si="49"/>
+        <v>16999.516360691283</v>
       </c>
       <c r="DN28" s="12">
-        <f t="shared" si="55"/>
-        <v>17549.796246563434</v>
+        <f t="shared" si="49"/>
+        <v>17169.511524298196</v>
       </c>
       <c r="DO28" s="12">
-        <f t="shared" si="55"/>
-        <v>17725.294209029067</v>
+        <f t="shared" si="49"/>
+        <v>17341.206639541178</v>
       </c>
       <c r="DP28" s="12">
-        <f t="shared" si="55"/>
-        <v>17902.547151119357</v>
+        <f t="shared" si="49"/>
+        <v>17514.618705936591</v>
       </c>
       <c r="DQ28" s="12">
-        <f t="shared" si="55"/>
-        <v>18081.572622630552</v>
+        <f t="shared" si="49"/>
+        <v>17689.764892995958</v>
       </c>
       <c r="DR28" s="12">
-        <f t="shared" ref="DR28:EW28" si="56">DQ28*(1+$AB$31)</f>
-        <v>18262.388348856857</v>
+        <f t="shared" ref="DR28:EW28" si="50">DQ28*(1+$AB$31)</f>
+        <v>17866.662541925918</v>
       </c>
       <c r="DS28" s="12">
-        <f t="shared" si="56"/>
-        <v>18445.012232345427</v>
+        <f t="shared" si="50"/>
+        <v>18045.329167345179</v>
       </c>
       <c r="DT28" s="12">
-        <f t="shared" si="56"/>
-        <v>18629.462354668882</v>
+        <f t="shared" si="50"/>
+        <v>18225.782459018632</v>
       </c>
       <c r="DU28" s="12">
-        <f t="shared" si="56"/>
-        <v>18815.75697821557</v>
+        <f t="shared" si="50"/>
+        <v>18408.040283608818</v>
       </c>
       <c r="DV28" s="12">
-        <f t="shared" si="56"/>
-        <v>19003.914547997727</v>
+        <f t="shared" si="50"/>
+        <v>18592.120686444905</v>
       </c>
       <c r="DW28" s="12">
-        <f t="shared" si="56"/>
-        <v>19193.953693477706</v>
+        <f t="shared" si="50"/>
+        <v>18778.041893309353</v>
       </c>
       <c r="DX28" s="12">
-        <f t="shared" si="56"/>
-        <v>19385.893230412483</v>
+        <f t="shared" si="50"/>
+        <v>18965.822312242446</v>
       </c>
       <c r="DY28" s="12">
-        <f t="shared" si="56"/>
-        <v>19579.752162716606</v>
+        <f t="shared" si="50"/>
+        <v>19155.48053536487</v>
       </c>
       <c r="DZ28" s="12">
-        <f t="shared" si="56"/>
-        <v>19775.549684343772</v>
+        <f t="shared" si="50"/>
+        <v>19347.035340718518</v>
       </c>
       <c r="EA28" s="12">
-        <f t="shared" si="56"/>
-        <v>19973.30518118721</v>
+        <f t="shared" si="50"/>
+        <v>19540.505694125703</v>
       </c>
       <c r="EB28" s="12">
-        <f t="shared" si="56"/>
-        <v>20173.038232999083</v>
+        <f t="shared" si="50"/>
+        <v>19735.91075106696</v>
       </c>
       <c r="EC28" s="12">
-        <f t="shared" si="56"/>
-        <v>20374.768615329074</v>
+        <f t="shared" si="50"/>
+        <v>19933.269858577631</v>
       </c>
       <c r="ED28" s="12">
-        <f t="shared" si="56"/>
-        <v>20578.516301482367</v>
+        <f t="shared" si="50"/>
+        <v>20132.602557163405</v>
       </c>
       <c r="EE28" s="12">
-        <f t="shared" si="56"/>
-        <v>20784.301464497192</v>
+        <f t="shared" si="50"/>
+        <v>20333.92858273504</v>
       </c>
       <c r="EF28" s="12">
-        <f t="shared" si="56"/>
-        <v>20992.144479142164</v>
+        <f t="shared" si="50"/>
+        <v>20537.267868562391</v>
       </c>
       <c r="EG28" s="12">
-        <f t="shared" si="56"/>
-        <v>21202.065923933584</v>
+        <f t="shared" si="50"/>
+        <v>20742.640547248015</v>
       </c>
       <c r="EH28" s="12">
-        <f t="shared" si="56"/>
-        <v>21414.086583172921</v>
+        <f t="shared" si="50"/>
+        <v>20950.066952720495</v>
       </c>
       <c r="EI28" s="12">
-        <f t="shared" si="56"/>
-        <v>21628.227449004651</v>
+        <f t="shared" si="50"/>
+        <v>21159.567622247701</v>
       </c>
       <c r="EJ28" s="12">
-        <f t="shared" si="56"/>
-        <v>21844.509723494699</v>
+        <f t="shared" si="50"/>
+        <v>21371.163298470179</v>
       </c>
       <c r="EK28" s="12">
-        <f t="shared" si="56"/>
-        <v>22062.954820729647</v>
+        <f t="shared" si="50"/>
+        <v>21584.87493145488</v>
       </c>
       <c r="EL28" s="12">
-        <f t="shared" si="56"/>
-        <v>22283.584368936943</v>
+        <f t="shared" si="50"/>
+        <v>21800.723680769428</v>
       </c>
       <c r="EM28" s="12">
-        <f t="shared" si="56"/>
-        <v>22506.420212626312</v>
+        <f t="shared" si="50"/>
+        <v>22018.730917577122</v>
       </c>
       <c r="EN28" s="12">
-        <f t="shared" si="56"/>
-        <v>22731.484414752576</v>
+        <f t="shared" si="50"/>
+        <v>22238.918226752892</v>
       </c>
       <c r="EO28" s="12">
-        <f t="shared" si="56"/>
-        <v>22958.799258900104</v>
+        <f t="shared" si="50"/>
+        <v>22461.307409020421</v>
       </c>
       <c r="EP28" s="12">
-        <f t="shared" si="56"/>
-        <v>23188.387251489105</v>
+        <f t="shared" si="50"/>
+        <v>22685.920483110625</v>
       </c>
       <c r="EQ28" s="12">
-        <f t="shared" si="56"/>
-        <v>23420.271124003997</v>
+        <f t="shared" si="50"/>
+        <v>22912.779687941733</v>
       </c>
       <c r="ER28" s="12">
-        <f t="shared" si="56"/>
-        <v>23654.473835244036</v>
+        <f t="shared" si="50"/>
+        <v>23141.907484821149</v>
       </c>
       <c r="ES28" s="12">
-        <f t="shared" si="56"/>
-        <v>23891.018573596477</v>
+        <f t="shared" si="50"/>
+        <v>23373.32655966936</v>
       </c>
       <c r="ET28" s="12">
-        <f t="shared" si="56"/>
-        <v>24129.928759332441</v>
+        <f t="shared" si="50"/>
+        <v>23607.059825266053</v>
       </c>
       <c r="EU28" s="12">
-        <f t="shared" si="56"/>
-        <v>24371.228046925764</v>
+        <f t="shared" si="50"/>
+        <v>23843.130423518713</v>
       </c>
       <c r="EV28" s="12">
-        <f t="shared" si="56"/>
-        <v>24614.940327395023</v>
+        <f t="shared" si="50"/>
+        <v>24081.561727753899</v>
       </c>
       <c r="EW28" s="12">
-        <f t="shared" si="56"/>
-        <v>24861.089730668973</v>
+        <f t="shared" si="50"/>
+        <v>24322.377345031437</v>
       </c>
       <c r="EX28" s="12">
-        <f t="shared" ref="EX28:FO28" si="57">EW28*(1+$AB$31)</f>
-        <v>25109.700627975664</v>
+        <f t="shared" ref="EX28:FO28" si="51">EW28*(1+$AB$31)</f>
+        <v>24565.601118481751</v>
       </c>
       <c r="EY28" s="12">
-        <f t="shared" si="57"/>
-        <v>25360.797634255421</v>
+        <f t="shared" si="51"/>
+        <v>24811.25712966657</v>
       </c>
       <c r="EZ28" s="12">
-        <f t="shared" si="57"/>
-        <v>25614.405610597976</v>
+        <f t="shared" si="51"/>
+        <v>25059.369700963238</v>
       </c>
       <c r="FA28" s="12">
-        <f t="shared" si="57"/>
-        <v>25870.549666703955</v>
+        <f t="shared" si="51"/>
+        <v>25309.963397972871</v>
       </c>
       <c r="FB28" s="12">
-        <f t="shared" si="57"/>
-        <v>26129.255163370995</v>
+        <f t="shared" si="51"/>
+        <v>25563.063031952599</v>
       </c>
       <c r="FC28" s="12">
-        <f t="shared" si="57"/>
-        <v>26390.547715004705</v>
+        <f t="shared" si="51"/>
+        <v>25818.693662272126</v>
       </c>
       <c r="FD28" s="12">
-        <f t="shared" si="57"/>
-        <v>26654.453192154753</v>
+        <f t="shared" si="51"/>
+        <v>26076.880598894848</v>
       </c>
       <c r="FE28" s="12">
-        <f t="shared" si="57"/>
-        <v>26920.9977240763</v>
+        <f t="shared" si="51"/>
+        <v>26337.649404883796</v>
       </c>
       <c r="FF28" s="12">
-        <f t="shared" si="57"/>
-        <v>27190.207701317064</v>
+        <f t="shared" si="51"/>
+        <v>26601.025898932636</v>
       </c>
       <c r="FG28" s="12">
-        <f t="shared" si="57"/>
-        <v>27462.109778330236</v>
+        <f t="shared" si="51"/>
+        <v>26867.036157921961</v>
       </c>
       <c r="FH28" s="12">
-        <f t="shared" si="57"/>
-        <v>27736.730876113539</v>
+        <f t="shared" si="51"/>
+        <v>27135.706519501182</v>
       </c>
       <c r="FI28" s="12">
-        <f t="shared" si="57"/>
-        <v>28014.098184874674</v>
+        <f t="shared" si="51"/>
+        <v>27407.063584696192</v>
       </c>
       <c r="FJ28" s="12">
-        <f t="shared" si="57"/>
-        <v>28294.239166723422</v>
+        <f t="shared" si="51"/>
+        <v>27681.134220543154</v>
       </c>
       <c r="FK28" s="12">
-        <f t="shared" si="57"/>
-        <v>28577.181558390657</v>
+        <f t="shared" si="51"/>
+        <v>27957.945562748584</v>
       </c>
       <c r="FL28" s="12">
-        <f t="shared" si="57"/>
-        <v>28862.953373974564</v>
+        <f t="shared" si="51"/>
+        <v>28237.525018376069</v>
       </c>
       <c r="FM28" s="12">
-        <f t="shared" si="57"/>
-        <v>29151.58290771431</v>
+        <f t="shared" si="51"/>
+        <v>28519.900268559832</v>
       </c>
       <c r="FN28" s="12">
-        <f t="shared" si="57"/>
-        <v>29443.098736791453</v>
+        <f t="shared" si="51"/>
+        <v>28805.099271245432</v>
       </c>
       <c r="FO28" s="12">
-        <f t="shared" si="57"/>
-        <v>29737.529724159369</v>
+        <f t="shared" si="51"/>
+        <v>29093.150263957887</v>
       </c>
     </row>
     <row r="29" spans="1:171" x14ac:dyDescent="0.2">
@@ -3443,15 +3450,15 @@
         <v>837.54</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" ref="W29:Y29" si="58">V29*0.94</f>
+        <f t="shared" ref="W29:Y29" si="52">V29*0.94</f>
         <v>787.28759999999988</v>
       </c>
       <c r="X29" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="52"/>
         <v>740.05034399999988</v>
       </c>
       <c r="Y29" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="52"/>
         <v>695.64732335999986</v>
       </c>
     </row>
@@ -3460,35 +3467,35 @@
         <v>6</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" ref="C30:J30" si="59">C28/C29</f>
+        <f t="shared" ref="C30:J30" si="53">C28/C29</f>
         <v>0.70105820105820105</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0.92369838420107719</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0.92896174863387981</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>1.2933579335793357</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0.82835820895522383</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>1.0773638968481376</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>0.986328125</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>1.1055226824457594</v>
       </c>
       <c r="K30" s="5">
@@ -3499,12 +3506,12 @@
         <v>1.3013415892672859</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" ref="M30:N30" si="60">M28/M29</f>
-        <v>1.6217068797399778</v>
+        <f t="shared" ref="M30:N30" si="54">M28/M29</f>
+        <v>1.6047960455037913</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" si="60"/>
-        <v>1.7368308884090904</v>
+        <f t="shared" si="54"/>
+        <v>1.70049730340909</v>
       </c>
       <c r="R30" s="5">
         <f>R28/R29</f>
@@ -3519,24 +3526,24 @@
         <v>3.991337824831569</v>
       </c>
       <c r="U30" s="5">
-        <f t="shared" ref="U30:Y30" si="61">U28/U29</f>
-        <v>6.2764890814506105</v>
+        <f t="shared" ref="U30:Y30" si="55">U28/U29</f>
+        <v>6.2226373146324292</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="61"/>
-        <v>6.8844492923862228</v>
+        <f t="shared" si="55"/>
+        <v>6.7388975065524379</v>
       </c>
       <c r="W30" s="5">
-        <f t="shared" si="61"/>
-        <v>7.8017698849958776</v>
+        <f t="shared" si="55"/>
+        <v>7.6353909125192736</v>
       </c>
       <c r="X30" s="5">
-        <f t="shared" si="61"/>
-        <v>8.8354670465592715</v>
+        <f t="shared" si="55"/>
+        <v>8.645493914377111</v>
       </c>
       <c r="Y30" s="5">
-        <f t="shared" si="61"/>
-        <v>9.9998894406817183</v>
+        <f t="shared" si="55"/>
+        <v>9.7832028692135413</v>
       </c>
       <c r="AA30" s="1" t="s">
         <v>37</v>
@@ -3565,35 +3572,35 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7">
-        <f t="shared" ref="G32:N32" si="62">G13/C13-1</f>
+        <f t="shared" ref="G32:N32" si="56">G13/C13-1</f>
         <v>9.3607954545454453E-2</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="56"/>
         <v>8.2063949499108002E-2</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="56"/>
         <v>5.7832299811269916E-2</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="56"/>
         <v>4.2362322452030865E-2</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="56"/>
         <v>1.1949603844655154E-2</v>
       </c>
       <c r="L32" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="56"/>
         <v>5.1109701965757814E-2</v>
       </c>
       <c r="M32" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="56"/>
         <v>8.7885816235503844E-2</v>
       </c>
       <c r="N32" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="56"/>
         <v>5.1008749701171308E-2</v>
       </c>
       <c r="O32" s="7"/>
@@ -3602,11 +3609,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="7" t="e">
-        <f t="shared" ref="Q32:R32" si="63">Q13/P13-1</f>
+        <f t="shared" ref="Q32:R32" si="57">Q13/P13-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" s="7" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S32" s="7">
@@ -3618,23 +3625,23 @@
         <v>6.8052803063383793E-2</v>
       </c>
       <c r="U32" s="7">
-        <f t="shared" ref="U32:Y32" si="64">U13/T13-1</f>
+        <f t="shared" ref="U32:Y32" si="58">U13/T13-1</f>
         <v>5.06770827436549E-2</v>
       </c>
       <c r="V32" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="W32" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="X32" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Y32" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AA32" s="1" t="s">
@@ -3644,52 +3651,52 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" ref="D33:N33" si="65">D13/C13-1</f>
+        <f t="shared" ref="D33:N33" si="59">D13/C13-1</f>
         <v>3.5085227272727337E-2</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="59"/>
         <v>1.7977219706326375E-2</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="59"/>
         <v>8.1962793205715867E-2</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="59"/>
         <v>-4.0742586593570884E-2</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="59"/>
         <v>2.4158981685933334E-2</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="59"/>
         <v>-4.8192771084337727E-3</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="59"/>
         <v>6.6139926086402401E-2</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="59"/>
         <v>-6.8730576141525224E-2</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="59"/>
         <v>6.3791554357591984E-2</v>
       </c>
       <c r="M33" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="59"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="59"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AA33" s="1" t="s">
@@ -3700,7 +3707,7 @@
         <v>92599.553979617034</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="AA34" s="12" t="s">
         <v>57</v>
       </c>
@@ -3708,97 +3715,98 @@
         <f>AB33/Main!J3</f>
         <v>96.924479326324558</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC34" s="17"/>
+    </row>
+    <row r="35" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="7">
-        <f t="shared" ref="C35:N35" si="66">C18/C13</f>
+        <f t="shared" ref="C35:N35" si="60">C18/C13</f>
         <v>0.40156249999999999</v>
       </c>
       <c r="D35" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>0.39193083573487031</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>0.39026691830682125</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>0.39957637677547969</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>0.39057020392258734</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>0.40228281547241596</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>0.41123996431757359</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>0.41644752569925891</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>0.42587601078167114</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>0.41397200772200771</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>0.44759647823968207</v>
       </c>
       <c r="N35" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>0.44759647823968207</v>
       </c>
       <c r="P35" s="7" t="e">
-        <f t="shared" ref="P35:Y35" si="67">P18/P13</f>
+        <f t="shared" ref="P35:Y35" si="61">P18/P13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="7" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0.42346827531070574</v>
       </c>
       <c r="S35" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0.39585502670383932</v>
       </c>
       <c r="T35" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0.40538415573796271</v>
       </c>
       <c r="U35" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0.43418954906977336</v>
       </c>
       <c r="V35" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0.43418954906977342</v>
       </c>
       <c r="W35" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0.43418954906977342</v>
       </c>
       <c r="X35" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0.43418954906977353</v>
       </c>
       <c r="Y35" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0.43418954906977353</v>
       </c>
       <c r="AA35" s="1"/>
@@ -3807,100 +3815,100 @@
         <v>0.40470259893223992</v>
       </c>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" ref="C36:N36" si="68">C24/C13</f>
+        <f t="shared" ref="C36:N36" si="62">C24/C13</f>
         <v>0.14190340909090909</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>0.15548236585700562</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>0.15745483957940146</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>0.21530027410914529</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>0.15170801402779582</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>0.16804058338617628</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>0.17726519689053141</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>0.17224480038250059</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>0.19638043896804006</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>0.18146718146718147</v>
       </c>
       <c r="M36" s="4">
-        <f t="shared" si="68"/>
-        <v>0.2150916519848558</v>
+        <f t="shared" si="62"/>
+        <v>0.21283432357461476</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" si="68"/>
-        <v>0.21509165198485578</v>
+        <f t="shared" si="62"/>
+        <v>0.21055507935456555</v>
       </c>
       <c r="P36" s="4" t="e">
-        <f t="shared" ref="P36:Y36" si="69">P24/P13</f>
+        <f t="shared" ref="P36:Y36" si="63">P24/P13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R36" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>0.13943600552365723</v>
       </c>
       <c r="S36" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>0.16888918746431092</v>
       </c>
       <c r="T36" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>0.16746862911595434</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" si="69"/>
-        <v>0.20238649590040558</v>
+        <f t="shared" si="63"/>
+        <v>0.20061571559269162</v>
       </c>
       <c r="V36" s="4">
-        <f t="shared" si="69"/>
-        <v>0.20238649590040561</v>
+        <f t="shared" si="63"/>
+        <v>0.20061571559269167</v>
       </c>
       <c r="W36" s="4">
-        <f t="shared" si="69"/>
-        <v>0.20238649590040561</v>
+        <f t="shared" si="63"/>
+        <v>0.20061571559269165</v>
       </c>
       <c r="X36" s="4">
-        <f t="shared" si="69"/>
-        <v>0.20238649590040567</v>
+        <f t="shared" si="63"/>
+        <v>0.20061571559269176</v>
       </c>
       <c r="Y36" s="4">
-        <f t="shared" si="69"/>
-        <v>0.20238649590040569</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+        <f t="shared" si="63"/>
+        <v>0.20061571559269178</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3925,7 +3933,7 @@
       <c r="Y37" s="4"/>
       <c r="AB37" s="4"/>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
@@ -3935,34 +3943,34 @@
       </c>
       <c r="M38" s="1">
         <f>L38+M28</f>
-        <v>3853.8354499999996</v>
+        <v>3838.2267499999994</v>
       </c>
       <c r="N38" s="1">
         <f>M38+N28</f>
-        <v>5401.3517715724993</v>
+        <v>5353.3698473374989</v>
       </c>
       <c r="U38" s="1">
         <f>N38</f>
-        <v>5401.3517715724993</v>
+        <v>5353.3698473374989</v>
       </c>
       <c r="V38" s="1">
         <f>U38+V28</f>
-        <v>11167.353431917656</v>
+        <v>10997.466064975428</v>
       </c>
       <c r="W38" s="1">
         <f>V38+W28</f>
-        <v>17309.590120428336</v>
+        <v>17008.714651554536</v>
       </c>
       <c r="X38" s="1">
         <f>W38+X28</f>
-        <v>23848.280547635186</v>
+        <v>23406.815396939222</v>
       </c>
       <c r="Y38" s="1">
         <f>X38+Y28</f>
-        <v>30804.676870941348</v>
-      </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+        <v>30212.474286795492</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>3</v>
       </c>
@@ -3971,7 +3979,7 @@
         <v>10008</v>
       </c>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
         <v>33</v>
       </c>
@@ -3979,7 +3987,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B41" s="12" t="s">
         <v>58</v>
       </c>
@@ -3988,7 +3996,7 @@
         <v>7755</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" s="12" t="s">
         <v>59</v>
       </c>
@@ -3996,7 +4004,7 @@
         <v>38923</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B43" s="12" t="s">
         <v>60</v>
       </c>
@@ -4004,7 +4012,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B44" s="12" t="s">
         <v>61</v>
       </c>
@@ -4012,7 +4020,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B45" s="12" t="s">
         <v>62</v>
       </c>
@@ -4028,7 +4036,7 @@
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46" s="12" t="s">
         <v>63</v>
       </c>
@@ -4044,7 +4052,7 @@
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B47" s="12" t="s">
         <v>64</v>
       </c>
@@ -4060,7 +4068,7 @@
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B48" s="12" t="s">
         <v>65</v>
       </c>
@@ -4267,15 +4275,15 @@
         <v>7875</v>
       </c>
       <c r="W60" s="1">
-        <f t="shared" ref="W60:Y61" si="70">V60*1.05</f>
+        <f t="shared" ref="W60:Y61" si="64">V60*1.05</f>
         <v>8268.75</v>
       </c>
       <c r="X60" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>8682.1875</v>
       </c>
       <c r="Y60" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>9116.296875</v>
       </c>
       <c r="AC60" s="5"/>
@@ -4300,15 +4308,15 @@
         <v>-1750</v>
       </c>
       <c r="W61" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>-1837.5</v>
       </c>
       <c r="X61" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>-1929.375</v>
       </c>
       <c r="Y61" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>-2025.84375</v>
       </c>
       <c r="AC61" s="5"/>
@@ -4356,11 +4364,11 @@
         <v>2485</v>
       </c>
       <c r="S62" s="3">
-        <f t="shared" ref="S62:T62" si="71">S60+S61</f>
+        <f t="shared" ref="S62:T62" si="65">S60+S61</f>
         <v>4091</v>
       </c>
       <c r="T62" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>5861</v>
       </c>
       <c r="U62" s="3">
@@ -4372,587 +4380,587 @@
         <v>6125</v>
       </c>
       <c r="W62" s="3">
-        <f t="shared" ref="W62:Y62" si="72">W60+W61</f>
+        <f t="shared" ref="W62:Y62" si="66">W60+W61</f>
         <v>6431.25</v>
       </c>
       <c r="X62" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>6752.8125</v>
       </c>
       <c r="Y62" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>7090.453125</v>
       </c>
       <c r="Z62" s="3">
-        <f t="shared" ref="Z62:BE62" si="73">Y62*(1+$AB$31)</f>
+        <f t="shared" ref="Z62:BE62" si="67">Y62*(1+$AB$31)</f>
         <v>7161.3576562500002</v>
       </c>
       <c r="AA62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>7232.9712328125006</v>
       </c>
       <c r="AB62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>7305.300945140626</v>
       </c>
       <c r="AC62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>7378.3539545920321</v>
       </c>
       <c r="AD62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>7452.1374941379527</v>
       </c>
       <c r="AE62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>7526.6588690793324</v>
       </c>
       <c r="AF62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>7601.9254577701258</v>
       </c>
       <c r="AG62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>7677.9447123478276</v>
       </c>
       <c r="AH62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>7754.7241594713059</v>
       </c>
       <c r="AI62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>7832.2714010660193</v>
       </c>
       <c r="AJ62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>7910.5941150766794</v>
       </c>
       <c r="AK62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>7989.7000562274461</v>
       </c>
       <c r="AL62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>8069.5970567897202</v>
       </c>
       <c r="AM62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>8150.2930273576176</v>
       </c>
       <c r="AN62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>8231.7959576311932</v>
       </c>
       <c r="AO62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>8314.1139172075054</v>
       </c>
       <c r="AP62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>8397.2550563795812</v>
       </c>
       <c r="AQ62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>8481.2276069433774</v>
       </c>
       <c r="AR62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>8566.0398830128106</v>
       </c>
       <c r="AS62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>8651.7002818429391</v>
       </c>
       <c r="AT62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>8738.2172846613685</v>
       </c>
       <c r="AU62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>8825.5994575079822</v>
       </c>
       <c r="AV62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>8913.8554520830621</v>
       </c>
       <c r="AW62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>9002.9940066038926</v>
       </c>
       <c r="AX62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>9093.0239466699313</v>
       </c>
       <c r="AY62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>9183.9541861366306</v>
       </c>
       <c r="AZ62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>9275.7937279979978</v>
       </c>
       <c r="BA62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>9368.551665277977</v>
       </c>
       <c r="BB62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>9462.2371819307573</v>
       </c>
       <c r="BC62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>9556.8595537500642</v>
       </c>
       <c r="BD62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>9652.4281492875652</v>
       </c>
       <c r="BE62" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>9748.9524307804404</v>
       </c>
       <c r="BF62" s="3">
-        <f t="shared" ref="BF62:CK62" si="74">BE62*(1+$AB$31)</f>
+        <f t="shared" ref="BF62:CK62" si="68">BE62*(1+$AB$31)</f>
         <v>9846.4419550882449</v>
       </c>
       <c r="BG62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>9944.9063746391275</v>
       </c>
       <c r="BH62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>10044.355438385519</v>
       </c>
       <c r="BI62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>10144.798992769374</v>
       </c>
       <c r="BJ62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>10246.246982697068</v>
       </c>
       <c r="BK62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>10348.709452524039</v>
       </c>
       <c r="BL62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>10452.19654704928</v>
       </c>
       <c r="BM62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>10556.718512519772</v>
       </c>
       <c r="BN62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>10662.285697644969</v>
       </c>
       <c r="BO62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>10768.908554621419</v>
       </c>
       <c r="BP62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>10876.597640167633</v>
       </c>
       <c r="BQ62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>10985.36361656931</v>
       </c>
       <c r="BR62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>11095.217252735003</v>
       </c>
       <c r="BS62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>11206.169425262353</v>
       </c>
       <c r="BT62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>11318.231119514976</v>
       </c>
       <c r="BU62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>11431.413430710127</v>
       </c>
       <c r="BV62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>11545.727565017229</v>
       </c>
       <c r="BW62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>11661.184840667402</v>
       </c>
       <c r="BX62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>11777.796689074075</v>
       </c>
       <c r="BY62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>11895.574655964816</v>
       </c>
       <c r="BZ62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>12014.530402524464</v>
       </c>
       <c r="CA62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>12134.67570654971</v>
       </c>
       <c r="CB62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>12256.022463615207</v>
       </c>
       <c r="CC62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>12378.582688251359</v>
       </c>
       <c r="CD62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>12502.368515133872</v>
       </c>
       <c r="CE62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>12627.39220028521</v>
       </c>
       <c r="CF62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>12753.666122288063</v>
       </c>
       <c r="CG62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>12881.202783510944</v>
       </c>
       <c r="CH62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>13010.014811346053</v>
       </c>
       <c r="CI62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>13140.114959459514</v>
       </c>
       <c r="CJ62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>13271.51610905411</v>
       </c>
       <c r="CK62" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>13404.231270144652</v>
       </c>
       <c r="CL62" s="3">
-        <f t="shared" ref="CL62:DQ62" si="75">CK62*(1+$AB$31)</f>
+        <f t="shared" ref="CL62:DQ62" si="69">CK62*(1+$AB$31)</f>
         <v>13538.273582846099</v>
       </c>
       <c r="CM62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>13673.656318674561</v>
       </c>
       <c r="CN62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>13810.392881861306</v>
       </c>
       <c r="CO62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>13948.496810679919</v>
       </c>
       <c r="CP62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>14087.981778786718</v>
       </c>
       <c r="CQ62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>14228.861596574585</v>
       </c>
       <c r="CR62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>14371.150212540331</v>
       </c>
       <c r="CS62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>14514.861714665734</v>
       </c>
       <c r="CT62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>14660.010331812391</v>
       </c>
       <c r="CU62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>14806.610435130515</v>
       </c>
       <c r="CV62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>14954.676539481819</v>
       </c>
       <c r="CW62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>15104.223304876637</v>
       </c>
       <c r="CX62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>15255.265537925405</v>
       </c>
       <c r="CY62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>15407.818193304658</v>
       </c>
       <c r="CZ62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>15561.896375237704</v>
       </c>
       <c r="DA62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>15717.515338990081</v>
       </c>
       <c r="DB62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>15874.690492379981</v>
       </c>
       <c r="DC62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>16033.437397303782</v>
       </c>
       <c r="DD62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>16193.771771276819</v>
       </c>
       <c r="DE62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>16355.709488989587</v>
       </c>
       <c r="DF62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>16519.266583879482</v>
       </c>
       <c r="DG62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>16684.459249718278</v>
       </c>
       <c r="DH62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>16851.30384221546</v>
       </c>
       <c r="DI62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>17019.816880637616</v>
       </c>
       <c r="DJ62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>17190.015049443991</v>
       </c>
       <c r="DK62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>17361.91519993843</v>
       </c>
       <c r="DL62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>17535.534351937815</v>
       </c>
       <c r="DM62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>17710.889695457194</v>
       </c>
       <c r="DN62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>17887.998592411765</v>
       </c>
       <c r="DO62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>18066.878578335884</v>
       </c>
       <c r="DP62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>18247.547364119244</v>
       </c>
       <c r="DQ62" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>18430.022837760436</v>
       </c>
       <c r="DR62" s="3">
-        <f t="shared" ref="DR62:EW62" si="76">DQ62*(1+$AB$31)</f>
+        <f t="shared" ref="DR62:EW62" si="70">DQ62*(1+$AB$31)</f>
         <v>18614.32306613804</v>
       </c>
       <c r="DS62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>18800.466296799419</v>
       </c>
       <c r="DT62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>18988.470959767412</v>
       </c>
       <c r="DU62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>19178.355669365086</v>
       </c>
       <c r="DV62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>19370.139226058738</v>
       </c>
       <c r="DW62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>19563.840618319326</v>
       </c>
       <c r="DX62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>19759.479024502518</v>
       </c>
       <c r="DY62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>19957.073814747542</v>
       </c>
       <c r="DZ62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>20156.644552895017</v>
       </c>
       <c r="EA62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>20358.210998423969</v>
       </c>
       <c r="EB62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>20561.793108408208</v>
       </c>
       <c r="EC62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>20767.41103949229</v>
       </c>
       <c r="ED62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>20975.085149887214</v>
       </c>
       <c r="EE62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>21184.836001386087</v>
       </c>
       <c r="EF62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>21396.684361399948</v>
       </c>
       <c r="EG62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>21610.651205013946</v>
       </c>
       <c r="EH62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>21826.757717064087</v>
       </c>
       <c r="EI62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>22045.025294234729</v>
       </c>
       <c r="EJ62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>22265.475547177077</v>
       </c>
       <c r="EK62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>22488.130302648849</v>
       </c>
       <c r="EL62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>22713.01160567534</v>
       </c>
       <c r="EM62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>22940.141721732092</v>
       </c>
       <c r="EN62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>23169.543138949415</v>
       </c>
       <c r="EO62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>23401.238570338908</v>
       </c>
       <c r="EP62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>23635.250956042299</v>
       </c>
       <c r="EQ62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>23871.603465602722</v>
       </c>
       <c r="ER62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>24110.319500258749</v>
       </c>
       <c r="ES62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>24351.422695261335</v>
       </c>
       <c r="ET62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>24594.93692221395</v>
       </c>
       <c r="EU62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>24840.886291436091</v>
       </c>
       <c r="EV62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>25089.295154350453</v>
       </c>
       <c r="EW62" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>25340.188105893958</v>
       </c>
       <c r="EX62" s="3">
-        <f t="shared" ref="EX62:FL62" si="77">EW62*(1+$AB$31)</f>
+        <f t="shared" ref="EX62:FL62" si="71">EW62*(1+$AB$31)</f>
         <v>25593.589986952898</v>
       </c>
       <c r="EY62" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>25849.525886822426</v>
       </c>
       <c r="EZ62" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>26108.021145690651</v>
       </c>
       <c r="FA62" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>26369.101357147556</v>
       </c>
       <c r="FB62" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>26632.792370719031</v>
       </c>
       <c r="FC62" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>26899.120294426222</v>
       </c>
       <c r="FD62" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>27168.111497370486</v>
       </c>
       <c r="FE62" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>27439.79261234419</v>
       </c>
       <c r="FF62" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>27714.190538467632</v>
       </c>
       <c r="FG62" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>27991.332443852309</v>
       </c>
       <c r="FH62" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>28271.245768290832</v>
       </c>
       <c r="FI62" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>28553.95822597374</v>
       </c>
       <c r="FJ62" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>28839.497808233478</v>
       </c>
       <c r="FK62" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>29127.892786315813</v>
       </c>
       <c r="FL62" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>29419.17171417897</v>
       </c>
     </row>
